--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="787">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338215827942</t>
+    <t xml:space="preserve">1.803382396698</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827845096588</t>
+    <t xml:space="preserve">1.79827857017517</t>
   </si>
   <si>
     <t xml:space="preserve">1.74383664131165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75404441356659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532998561859</t>
+    <t xml:space="preserve">1.75404453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73533010482788</t>
   </si>
   <si>
     <t xml:space="preserve">1.72682356834412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71661579608917</t>
+    <t xml:space="preserve">1.71661591529846</t>
   </si>
   <si>
     <t xml:space="preserve">1.68854427337646</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66047275066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53117370605469</t>
+    <t xml:space="preserve">1.66047286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175856113434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117346763611</t>
   </si>
   <si>
     <t xml:space="preserve">1.64090776443481</t>
@@ -83,34 +83,34 @@
     <t xml:space="preserve">1.63410258293152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6502650976181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325202465057</t>
+    <t xml:space="preserve">1.65026497840881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325178623199</t>
   </si>
   <si>
     <t xml:space="preserve">1.60773241519928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55839443206787</t>
+    <t xml:space="preserve">1.55839455127716</t>
   </si>
   <si>
     <t xml:space="preserve">1.58646607398987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6128363609314</t>
+    <t xml:space="preserve">1.61283624172211</t>
   </si>
   <si>
     <t xml:space="preserve">1.58221280574799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49714767932892</t>
+    <t xml:space="preserve">1.49714779853821</t>
   </si>
   <si>
     <t xml:space="preserve">1.55158936977386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50565433502197</t>
+    <t xml:space="preserve">1.50565409660339</t>
   </si>
   <si>
     <t xml:space="preserve">1.48608922958374</t>
@@ -122,37 +122,37 @@
     <t xml:space="preserve">1.7013041973114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68429100513458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70640790462494</t>
+    <t xml:space="preserve">1.68429112434387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70640802383423</t>
   </si>
   <si>
     <t xml:space="preserve">1.69279754161835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.686842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6919469833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68939483165741</t>
+    <t xml:space="preserve">1.68684303760529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69194686412811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6893949508667</t>
   </si>
   <si>
     <t xml:space="preserve">1.71831703186035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65366756916046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64686238765717</t>
+    <t xml:space="preserve">1.65366768836975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64686250686646</t>
   </si>
   <si>
     <t xml:space="preserve">1.61623883247375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69024574756622</t>
+    <t xml:space="preserve">1.69024562835693</t>
   </si>
   <si>
     <t xml:space="preserve">1.68173909187317</t>
@@ -161,37 +161,37 @@
     <t xml:space="preserve">1.65111553668976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62049221992493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63750505447388</t>
+    <t xml:space="preserve">1.62049198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63750529289246</t>
   </si>
   <si>
     <t xml:space="preserve">1.63240122795105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61538827419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60432982444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58051145076752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986866474152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177779197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688173770905</t>
+    <t xml:space="preserve">1.6153883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60432994365692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58051156997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986878395081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177755355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688185691833</t>
   </si>
   <si>
     <t xml:space="preserve">1.59922575950623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59752452373505</t>
+    <t xml:space="preserve">1.59752464294434</t>
   </si>
   <si>
     <t xml:space="preserve">1.54818689823151</t>
@@ -200,19 +200,19 @@
     <t xml:space="preserve">1.53202438354492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5337256193161</t>
+    <t xml:space="preserve">1.53372573852539</t>
   </si>
   <si>
     <t xml:space="preserve">1.57881021499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53542685508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56094658374786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53287518024445</t>
+    <t xml:space="preserve">1.53542697429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56094646453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53287506103516</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096593379974</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53968012332916</t>
+    <t xml:space="preserve">1.53968024253845</t>
   </si>
   <si>
     <t xml:space="preserve">1.52862191200256</t>
@@ -233,88 +233,88 @@
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703025817871</t>
+    <t xml:space="preserve">1.49703013896942</t>
   </si>
   <si>
     <t xml:space="preserve">1.50654900074005</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47626197338104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47885799407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47539687156677</t>
+    <t xml:space="preserve">1.47626209259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47885811328888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47539675235748</t>
   </si>
   <si>
     <t xml:space="preserve">1.46933925151825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45376336574554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4840499162674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47972333431244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48664605617523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49270355701447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299022674561</t>
+    <t xml:space="preserve">1.45376324653625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405003547668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47972345352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48664617538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5229903459549</t>
   </si>
   <si>
     <t xml:space="preserve">1.48837661743164</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46674346923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47366583347321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50568342208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44510996341705</t>
+    <t xml:space="preserve">1.46674358844757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4736659526825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50568354129791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44510984420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.451167345047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42001533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760880947113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45895516872406</t>
+    <t xml:space="preserve">1.42001521587372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760869026184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45895540714264</t>
   </si>
   <si>
     <t xml:space="preserve">1.5143369436264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47106993198395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.465012550354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52039420604706</t>
+    <t xml:space="preserve">1.47107005119324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46501266956329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52039408683777</t>
   </si>
   <si>
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212488651276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47712743282318</t>
+    <t xml:space="preserve">1.52212500572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47712731361389</t>
   </si>
   <si>
     <t xml:space="preserve">1.50222218036652</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">1.49616479873657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52991271018982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827956199646</t>
+    <t xml:space="preserve">1.52991282939911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827944278717</t>
   </si>
   <si>
     <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51347160339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53077816963196</t>
+    <t xml:space="preserve">1.51347136497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53077840805054</t>
   </si>
   <si>
     <t xml:space="preserve">1.50308740139008</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">1.50049138069153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135684013367</t>
+    <t xml:space="preserve">1.50135672092438</t>
   </si>
   <si>
     <t xml:space="preserve">1.53337407112122</t>
@@ -353,16 +353,16 @@
     <t xml:space="preserve">1.48318481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51866352558136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51174080371857</t>
+    <t xml:space="preserve">1.51866340637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51174092292786</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375839233398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55500757694244</t>
+    <t xml:space="preserve">1.55500769615173</t>
   </si>
   <si>
     <t xml:space="preserve">1.5489501953125</t>
@@ -377,19 +377,19 @@
     <t xml:space="preserve">1.55587291717529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54462349414825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55760359764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443411827087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010741710663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231947422028</t>
+    <t xml:space="preserve">1.54462337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5576034784317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443399906158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231959342957</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454888343811</t>
@@ -398,19 +398,19 @@
     <t xml:space="preserve">1.52558612823486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.526451587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55673825740814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54116225242615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55327677726746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.542027592659</t>
+    <t xml:space="preserve">1.52645146846771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55673813819885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54116213321686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55327689647675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54202747344971</t>
   </si>
   <si>
     <t xml:space="preserve">1.51693296432495</t>
@@ -431,7 +431,7 @@
     <t xml:space="preserve">1.57837164402008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57317972183228</t>
+    <t xml:space="preserve">1.57317960262299</t>
   </si>
   <si>
     <t xml:space="preserve">1.56971824169159</t>
@@ -452,13 +452,13 @@
     <t xml:space="preserve">1.60000491142273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56625688076019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55414223670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64413714408875</t>
+    <t xml:space="preserve">1.56625699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55414235591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64413702487946</t>
   </si>
   <si>
     <t xml:space="preserve">1.58096766471863</t>
@@ -470,34 +470,34 @@
     <t xml:space="preserve">1.57664084434509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57750630378723</t>
+    <t xml:space="preserve">1.57750618457794</t>
   </si>
   <si>
     <t xml:space="preserve">1.59827446937561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59913969039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60087049007416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461852073669</t>
+    <t xml:space="preserve">1.59913980960846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60087037086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461863994598</t>
   </si>
   <si>
     <t xml:space="preserve">1.60952365398407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.617311835289</t>
+    <t xml:space="preserve">1.61731171607971</t>
   </si>
   <si>
     <t xml:space="preserve">1.61817717552185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65192532539368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59654378890991</t>
+    <t xml:space="preserve">1.6519250869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59654366970062</t>
   </si>
   <si>
     <t xml:space="preserve">1.60519707202911</t>
@@ -512,58 +512,58 @@
     <t xml:space="preserve">1.65971314907074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6605783700943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65279042720795</t>
+    <t xml:space="preserve">1.66057848930359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65279030799866</t>
   </si>
   <si>
     <t xml:space="preserve">1.67442381381989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67009699344635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66144382953644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64154088497162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6363490819931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625178813934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68048119544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317439079285</t>
+    <t xml:space="preserve">1.67009723186493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66144371032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64154100418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63634896278381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68048131465912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317462921143</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701474189758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82585740089417</t>
+    <t xml:space="preserve">1.82585728168488</t>
   </si>
   <si>
     <t xml:space="preserve">1.81893479824066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682039260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77739882469177</t>
+    <t xml:space="preserve">1.80682027339935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77739870548248</t>
   </si>
   <si>
     <t xml:space="preserve">1.79816687107086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77393746376038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75836133956909</t>
+    <t xml:space="preserve">1.77393734455109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75836145877838</t>
   </si>
   <si>
     <t xml:space="preserve">1.79124402999878</t>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">1.7514386177063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72980511188507</t>
+    <t xml:space="preserve">1.72980535030365</t>
   </si>
   <si>
     <t xml:space="preserve">1.74797737598419</t>
@@ -581,7 +581,7 @@
     <t xml:space="preserve">1.7445160150528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7566305398941</t>
+    <t xml:space="preserve">1.75663065910339</t>
   </si>
   <si>
     <t xml:space="preserve">1.82758808135986</t>
@@ -590,16 +590,16 @@
     <t xml:space="preserve">1.81201231479645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7410546541214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7427853345871</t>
+    <t xml:space="preserve">1.74105453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278521537781</t>
   </si>
   <si>
     <t xml:space="preserve">1.71855592727661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73932385444641</t>
+    <t xml:space="preserve">1.73932421207428</t>
   </si>
   <si>
     <t xml:space="preserve">1.76528406143188</t>
@@ -608,13 +608,13 @@
     <t xml:space="preserve">1.78432142734528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80855083465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76182281970978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76874542236328</t>
+    <t xml:space="preserve">1.80855071544647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76182270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7687451839447</t>
   </si>
   <si>
     <t xml:space="preserve">1.78259086608887</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">1.79989743232727</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82412719726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720411777496</t>
+    <t xml:space="preserve">1.82412707805634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720399856567</t>
   </si>
   <si>
     <t xml:space="preserve">1.80335891246796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84316420555115</t>
+    <t xml:space="preserve">1.84316408634186</t>
   </si>
   <si>
     <t xml:space="preserve">1.79297482967377</t>
@@ -641,106 +641,106 @@
     <t xml:space="preserve">1.81547355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78605198860168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354840755463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83451080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87777757644653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9262363910675</t>
+    <t xml:space="preserve">1.7860518693924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83451092243195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87777745723724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623627185822</t>
   </si>
   <si>
     <t xml:space="preserve">1.92104458808899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90373778343201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83797228336334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96253097057343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04503440856934</t>
+    <t xml:space="preserve">1.90373802185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83797240257263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96253132820129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04503464698792</t>
   </si>
   <si>
     <t xml:space="preserve">2.41366744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42244482040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30834436416626</t>
+    <t xml:space="preserve">2.42244458198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3083438873291</t>
   </si>
   <si>
     <t xml:space="preserve">2.2469048500061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43648743629456</t>
+    <t xml:space="preserve">2.43648767471313</t>
   </si>
   <si>
     <t xml:space="preserve">2.39260315895081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41717791557312</t>
+    <t xml:space="preserve">2.4171781539917</t>
   </si>
   <si>
     <t xml:space="preserve">2.40489053726196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31712102890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26972508430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20653104782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13280439376831</t>
+    <t xml:space="preserve">2.31712079048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26972484588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20653128623962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13280463218689</t>
   </si>
   <si>
     <t xml:space="preserve">2.08014225959778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01870369911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07136583328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12753820419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06258869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08540844917297</t>
+    <t xml:space="preserve">2.01870346069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07136559486389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12753844261169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06258845329285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08540868759155</t>
   </si>
   <si>
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647344589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104891777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11525082588196</t>
+    <t xml:space="preserve">2.10647368431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104867935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1152503490448</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296273231506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03976821899414</t>
+    <t xml:space="preserve">2.03976845741272</t>
   </si>
   <si>
     <t xml:space="preserve">2.0538113117218</t>
@@ -749,64 +749,64 @@
     <t xml:space="preserve">2.03625750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03099155426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0345025062561</t>
+    <t xml:space="preserve">2.0309910774231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03450226783752</t>
   </si>
   <si>
     <t xml:space="preserve">2.00992679595947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763906002045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98359560966492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98535144329071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00114989280701</t>
+    <t xml:space="preserve">1.99763894081116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9835958480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98535120487213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00114941596985</t>
   </si>
   <si>
     <t xml:space="preserve">2.01694846153259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99588346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710656166077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0327467918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06785464286804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07663154602051</t>
+    <t xml:space="preserve">1.99588370323181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710668087006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03274655342102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06785488128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07663202285767</t>
   </si>
   <si>
     <t xml:space="preserve">2.04854536056519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99061763286591</t>
+    <t xml:space="preserve">1.99061715602875</t>
   </si>
   <si>
     <t xml:space="preserve">1.97481894493103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97130799293518</t>
+    <t xml:space="preserve">1.97130823135376</t>
   </si>
   <si>
     <t xml:space="preserve">1.96604180335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99237275123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99939441680908</t>
+    <t xml:space="preserve">1.99237298965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99939453601837</t>
   </si>
   <si>
     <t xml:space="preserve">2.20301985740662</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">2.29078984260559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43122148513794</t>
+    <t xml:space="preserve">2.43122124671936</t>
   </si>
   <si>
     <t xml:space="preserve">2.34345173835754</t>
@@ -827,16 +827,16 @@
     <t xml:space="preserve">2.48914933204651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48563861846924</t>
+    <t xml:space="preserve">2.48563885688782</t>
   </si>
   <si>
     <t xml:space="preserve">2.43999838829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37855982780457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207054138184</t>
+    <t xml:space="preserve">2.37855958938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207030296326</t>
   </si>
   <si>
     <t xml:space="preserve">2.38558125495911</t>
@@ -845,25 +845,25 @@
     <t xml:space="preserve">2.35925030708313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49792623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48739433288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44175386428833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984004974365</t>
+    <t xml:space="preserve">2.49792647361755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48739409446716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44175362586975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984028816223</t>
   </si>
   <si>
     <t xml:space="preserve">2.42946577072144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37504887580872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3908474445343</t>
+    <t xml:space="preserve">2.37504863739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084720611572</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
@@ -878,22 +878,22 @@
     <t xml:space="preserve">2.43473243713379</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41542315483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3961136341095</t>
+    <t xml:space="preserve">2.41542291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39611339569092</t>
   </si>
   <si>
     <t xml:space="preserve">2.41015672683716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43824315071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44877529144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45579719543457</t>
+    <t xml:space="preserve">2.43824291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44877552986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45579695701599</t>
   </si>
   <si>
     <t xml:space="preserve">2.33994078636169</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15737986564636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22232961654663</t>
+    <t xml:space="preserve">2.15738010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22232985496521</t>
   </si>
   <si>
     <t xml:space="preserve">2.1696674823761</t>
@@ -917,151 +917,151 @@
     <t xml:space="preserve">2.1924877166748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38733625411987</t>
+    <t xml:space="preserve">2.38733649253845</t>
   </si>
   <si>
     <t xml:space="preserve">2.35222887992859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37329363822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35749506950378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28376817703247</t>
+    <t xml:space="preserve">2.37329316139221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627173423767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35749483108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28376841545105</t>
   </si>
   <si>
     <t xml:space="preserve">2.30658841133118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28201270103455</t>
+    <t xml:space="preserve">2.28201293945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589793205261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31360983848572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956674575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25568222999573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33116388320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29254508018494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3013219833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29781126976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27323627471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46632957458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49266004562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60676097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65064573287964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.62431478500366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65942287445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58043003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54532217979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53654479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45755243301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48388314247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36978268623352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5277681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6857533454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69453072547913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72963833808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73841524124146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51021409034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59798407554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61553812026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63309168815613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56287622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51899099349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3346745967865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179699897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26327729225159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18276572227478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2364399433136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
     <t xml:space="preserve">2.32589769363403</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31360983848572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25568222999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33116388320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29254508018494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30132246017456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29781126976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27323579788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36100554466248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46632933616638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49266028404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60676097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65064573287964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.62431478500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65942287445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58043003082275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54532241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53654527664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45755219459534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48388314247131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36978268623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5277681350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6857533454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69453048706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72963833808899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73841547966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51021409034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59798407554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6155378818512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63309168815613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56287598609924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51899099349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3346745967865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179699897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26327729225159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18276572227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23644018173218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36168050765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589745521545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31695199012756</t>
+    <t xml:space="preserve">2.31695222854614</t>
   </si>
   <si>
     <t xml:space="preserve">2.3348433971405</t>
@@ -1070,7 +1070,7 @@
     <t xml:space="preserve">2.34378910064697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41535520553589</t>
+    <t xml:space="preserve">2.41535544395447</t>
   </si>
   <si>
     <t xml:space="preserve">2.42430114746094</t>
@@ -1082,55 +1082,55 @@
     <t xml:space="preserve">2.37957215309143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39746356010437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3527352809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28116893768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24538588523865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27222275733948</t>
+    <t xml:space="preserve">2.39746403694153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35273504257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28116917610168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24538564682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27222299575806</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854877471924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20065712928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17381978034973</t>
+    <t xml:space="preserve">2.2006573677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17382001876831</t>
   </si>
   <si>
     <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15592861175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.290114402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13803696632385</t>
+    <t xml:space="preserve">2.15592813491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29011464118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13803672790527</t>
   </si>
   <si>
     <t xml:space="preserve">2.14698266983032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16487431526184</t>
+    <t xml:space="preserve">2.16487407684326</t>
   </si>
   <si>
     <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541608810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12014532089233</t>
+    <t xml:space="preserve">2.07541632652283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12014508247375</t>
   </si>
   <si>
     <t xml:space="preserve">2.12909126281738</t>
@@ -1142,40 +1142,40 @@
     <t xml:space="preserve">2.06647086143494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03963327407837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02174162864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0843620300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11119937896729</t>
+    <t xml:space="preserve">2.03963303565979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02174186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08436226844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11119961738586</t>
   </si>
   <si>
     <t xml:space="preserve">2.09330773353577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99490439891815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93228423595428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9501758813858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8786096572876</t>
+    <t xml:space="preserve">1.99490463733673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93228435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017576217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87860953807831</t>
   </si>
   <si>
     <t xml:space="preserve">1.86966383457184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83388090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77126049995422</t>
+    <t xml:space="preserve">1.83388078212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77126061916351</t>
   </si>
   <si>
     <t xml:space="preserve">1.74442338943481</t>
@@ -1187,7 +1187,7 @@
     <t xml:space="preserve">1.68180298805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7265317440033</t>
+    <t xml:space="preserve">1.72653186321259</t>
   </si>
   <si>
     <t xml:space="preserve">1.73547756671906</t>
@@ -1196,7 +1196,7 @@
     <t xml:space="preserve">1.76231479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73995041847229</t>
+    <t xml:space="preserve">1.73995053768158</t>
   </si>
   <si>
     <t xml:space="preserve">1.76678764820099</t>
@@ -1205,13 +1205,13 @@
     <t xml:space="preserve">1.74889624118805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69522178173065</t>
+    <t xml:space="preserve">1.69522166252136</t>
   </si>
   <si>
     <t xml:space="preserve">1.64601993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65496575832367</t>
+    <t xml:space="preserve">1.65496563911438</t>
   </si>
   <si>
     <t xml:space="preserve">1.66838443279266</t>
@@ -1220,22 +1220,22 @@
     <t xml:space="preserve">1.66391146183014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68627595901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6996945142746</t>
+    <t xml:space="preserve">1.6862758398056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69969439506531</t>
   </si>
   <si>
     <t xml:space="preserve">1.73100459575653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70864033699036</t>
+    <t xml:space="preserve">1.70864021778107</t>
   </si>
   <si>
     <t xml:space="preserve">1.75336909294128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72205877304077</t>
+    <t xml:space="preserve">1.72205901145935</t>
   </si>
   <si>
     <t xml:space="preserve">1.71758592128754</t>
@@ -1244,31 +1244,31 @@
     <t xml:space="preserve">1.61918258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57445383071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55656254291534</t>
+    <t xml:space="preserve">1.57445394992828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55656230449677</t>
   </si>
   <si>
     <t xml:space="preserve">1.59234535694122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61023688316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70416748523712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71311318874359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78020632266998</t>
+    <t xml:space="preserve">1.61023676395416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70416724681854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7131130695343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78020644187927</t>
   </si>
   <si>
     <t xml:space="preserve">1.81598925590515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80704367160797</t>
+    <t xml:space="preserve">1.80704355239868</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">1.82493507862091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79809784889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88755512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8517724275589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650106430054</t>
+    <t xml:space="preserve">1.7980979681015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88755524158478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85177230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650130271912</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333841323853</t>
@@ -1310,43 +1310,43 @@
     <t xml:space="preserve">2.03068780899048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9770131111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439282894135</t>
+    <t xml:space="preserve">1.97701334953308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595893383026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439294815063</t>
   </si>
   <si>
     <t xml:space="preserve">1.9054468870163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94123005867004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67285716533661</t>
+    <t xml:space="preserve">1.94122993946075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
     <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66826140880585</t>
+    <t xml:space="preserve">1.66826152801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.6498783826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65907001495361</t>
+    <t xml:space="preserve">1.65906989574432</t>
   </si>
   <si>
     <t xml:space="preserve">1.68664455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70502758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6728572845459</t>
+    <t xml:space="preserve">1.70502769947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67285740375519</t>
   </si>
   <si>
     <t xml:space="preserve">1.69583606719971</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">1.70962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71881473064423</t>
+    <t xml:space="preserve">1.71881484985352</t>
   </si>
   <si>
     <t xml:space="preserve">1.73719799518585</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">1.7326021194458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68204879760742</t>
+    <t xml:space="preserve">1.68204891681671</t>
   </si>
   <si>
     <t xml:space="preserve">1.65447413921356</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6636655330658</t>
+    <t xml:space="preserve">1.66366565227509</t>
   </si>
   <si>
     <t xml:space="preserve">1.63149547576904</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">1.5901335477829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64068675041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60851669311523</t>
+    <t xml:space="preserve">1.64068686962128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60851657390594</t>
   </si>
   <si>
     <t xml:space="preserve">1.58553779125214</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">1.61770808696747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6360912322998</t>
+    <t xml:space="preserve">1.63609111309052</t>
   </si>
   <si>
     <t xml:space="preserve">1.62230384349823</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58094215393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71421909332275</t>
+    <t xml:space="preserve">1.58094203472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71421921253204</t>
   </si>
   <si>
     <t xml:space="preserve">1.61311233043671</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">1.57175052165985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55336761474609</t>
+    <t xml:space="preserve">1.55336737632751</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255900859833</t>
+    <t xml:space="preserve">1.56255888938904</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38332414627075</t>
+    <t xml:space="preserve">1.38332426548004</t>
   </si>
   <si>
     <t xml:space="preserve">1.3879200220108</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">1.22706830501556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3051962852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221762180328</t>
+    <t xml:space="preserve">1.30519640445709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221750259399</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24085569381714</t>
+    <t xml:space="preserve">1.24085581302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.31438779830933</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655833244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34196245670319</t>
+    <t xml:space="preserve">1.34655821323395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3419623374939</t>
   </si>
   <si>
     <t xml:space="preserve">1.41089880466461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630292892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39711165428162</t>
+    <t xml:space="preserve">1.40630304813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39711153507233</t>
   </si>
   <si>
     <t xml:space="preserve">1.40170729160309</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">1.49821829795837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48902678489685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47983515262604</t>
+    <t xml:space="preserve">1.48902690410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47983527183533</t>
   </si>
   <si>
     <t xml:space="preserve">1.46145224571228</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43387746810913</t>
+    <t xml:space="preserve">1.43387758731842</t>
   </si>
   <si>
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685636997223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42468619346619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42928171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37872838973999</t>
+    <t xml:space="preserve">1.45685660839081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4246860742569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42928183078766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37872850894928</t>
   </si>
   <si>
     <t xml:space="preserve">1.39251577854156</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413287162781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35574960708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41549456119537</t>
+    <t xml:space="preserve">1.37413275241852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35574972629547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41549468040466</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36034548282623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31898367404938</t>
+    <t xml:space="preserve">1.36034560203552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31898355484009</t>
   </si>
   <si>
     <t xml:space="preserve">1.45226073265076</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">1.43847346305847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50281417369843</t>
+    <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">1.46604800224304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3281751871109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30979204177856</t>
+    <t xml:space="preserve">1.32817530632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30979192256927</t>
   </si>
   <si>
     <t xml:space="preserve">1.30060052871704</t>
@@ -1586,34 +1586,34 @@
     <t xml:space="preserve">1.51200556755066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4844309091568</t>
+    <t xml:space="preserve">1.48443102836609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52579283714294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53958022594452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54877161979675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57634627819061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54417586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796325206757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.530388712883</t>
+    <t xml:space="preserve">1.53958010673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54877173900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5763463973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54417598247528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796313285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53038859367371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396404743195</t>
+    <t xml:space="preserve">1.77396380901337</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">1.79234719276428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87507057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021976947784</t>
+    <t xml:space="preserve">1.8750706911087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021988868713</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
@@ -1634,64 +1634,64 @@
     <t xml:space="preserve">1.89345383644104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8383047580719</t>
+    <t xml:space="preserve">1.83830463886261</t>
   </si>
   <si>
     <t xml:space="preserve">1.82911312580109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78775143623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451736927032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77855980396271</t>
+    <t xml:space="preserve">1.78775131702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451748847961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77855956554413</t>
   </si>
   <si>
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153870582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84749615192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76936817169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79694283008575</t>
+    <t xml:space="preserve">1.80153858661652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84749627113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76936829090118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79694294929504</t>
   </si>
   <si>
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587929725647</t>
+    <t xml:space="preserve">1.86587917804718</t>
   </si>
   <si>
     <t xml:space="preserve">1.90264523029327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92102825641632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85668766498566</t>
+    <t xml:space="preserve">1.92102837562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85668778419495</t>
   </si>
   <si>
     <t xml:space="preserve">1.81073009967804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09566760063171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647584915161</t>
+    <t xml:space="preserve">2.09566736221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08647561073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.02213501930237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98536896705627</t>
+    <t xml:space="preserve">1.98536920547485</t>
   </si>
   <si>
     <t xml:space="preserve">2.04051828384399</t>
@@ -1703,88 +1703,91 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405038833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12324190139771</t>
+    <t xml:space="preserve">2.11405062675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12324166297913</t>
   </si>
   <si>
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928592681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.536860704422</t>
+    <t xml:space="preserve">2.50928568840027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63796734809875</t>
+    <t xml:space="preserve">2.63796710968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68392467498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73035979270935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69321203231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72107267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86966347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99039387702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19470643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08326292037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825451850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93467235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85108947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92538547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96253323554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90681147575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86037683486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80465507507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63749027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60962915420532</t>
   </si>
   <si>
     <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73035955429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69321203231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72107291221619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322907447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86966347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81394195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99039363861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1947066783905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08326315879822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825451850891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93467235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85108971595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92538523674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96253299713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90681147575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86037659645081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80465507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63749003410339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6096293926239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66535115242004</t>
+    <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
     <t xml:space="preserve">2.73964643478394</t>
@@ -1811,7 +1814,7 @@
     <t xml:space="preserve">2.59105563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64677715301514</t>
+    <t xml:space="preserve">2.64677691459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.87895059585571</t>
@@ -1820,13 +1823,13 @@
     <t xml:space="preserve">2.91609835624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7953679561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78608107566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83251571655273</t>
+    <t xml:space="preserve">2.79536819458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78608131408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83251595497131</t>
   </si>
   <si>
     <t xml:space="preserve">2.8882372379303</t>
@@ -1847,22 +1850,22 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752411842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61891651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55390787124634</t>
+    <t xml:space="preserve">2.89752459526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61891627311707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55390763282776</t>
   </si>
   <si>
     <t xml:space="preserve">2.71178579330444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.999680519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06468939781189</t>
+    <t xml:space="preserve">2.99968075752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06468915939331</t>
   </si>
   <si>
     <t xml:space="preserve">3.04611539840698</t>
@@ -1871,28 +1874,28 @@
     <t xml:space="preserve">3.10183691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11112403869629</t>
+    <t xml:space="preserve">3.11112380027771</t>
   </si>
   <si>
     <t xml:space="preserve">3.07397627830505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97181987762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0368287563324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00896763801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395899772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8418025970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76750731468201</t>
+    <t xml:space="preserve">2.97182011604309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03682851791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00896787643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84180283546448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76750755310059</t>
   </si>
   <si>
     <t xml:space="preserve">2.30316042900085</t>
@@ -1901,13 +1904,13 @@
     <t xml:space="preserve">2.25672578811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34959530830383</t>
+    <t xml:space="preserve">2.34959506988525</t>
   </si>
   <si>
     <t xml:space="preserve">2.48889923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38674283027649</t>
+    <t xml:space="preserve">2.38674259185791</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
@@ -1916,7 +1919,7 @@
     <t xml:space="preserve">2.58176851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56319499015808</t>
+    <t xml:space="preserve">2.5631947517395</t>
   </si>
   <si>
     <t xml:space="preserve">2.51675987243652</t>
@@ -1934,39 +1937,42 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35888195037842</t>
+    <t xml:space="preserve">2.358882188797</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602971076965</t>
+    <t xml:space="preserve">2.39602994918823</t>
   </si>
   <si>
     <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41460347175598</t>
+    <t xml:space="preserve">2.41460371017456</t>
   </si>
   <si>
     <t xml:space="preserve">2.28458666801453</t>
   </si>
   <si>
+    <t xml:space="preserve">2.27529954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30374097824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28478002548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31322145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24685835838318</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.27529978752136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30374097824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28478002548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31322145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24685835838318</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.22789740562439</t>
   </si>
   <si>
@@ -2145,9 +2151,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.24612903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27529954910278</t>
   </si>
   <si>
     <t xml:space="preserve">2.17806458473206</t>
@@ -38843,7 +38846,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1390" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38869,7 +38872,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1391" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38895,7 +38898,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1392" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38921,7 +38924,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1393" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -38999,7 +39002,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39025,7 +39028,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1397" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39129,7 +39132,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39155,7 +39158,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1402" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39181,7 +39184,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1403" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39207,7 +39210,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39233,7 +39236,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1405" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39259,7 +39262,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39285,7 +39288,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39311,7 +39314,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39337,7 +39340,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1409" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39363,7 +39366,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1410" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39389,7 +39392,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1411" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39415,7 +39418,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1412" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39441,7 +39444,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1413" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39467,7 +39470,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1414" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39493,7 +39496,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1415" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39519,7 +39522,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1416" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39545,7 +39548,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1417" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39597,7 +39600,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1419" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39623,7 +39626,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1420" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39701,7 +39704,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1423" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39779,7 +39782,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1426" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39857,7 +39860,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1429" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39883,7 +39886,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1430" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39935,7 +39938,7 @@
         <v>3</v>
       </c>
       <c r="G1432" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40013,7 +40016,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1435" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40039,7 +40042,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1436" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40117,7 +40120,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1439" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40325,7 +40328,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1447" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40351,7 +40354,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1448" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40377,7 +40380,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1449" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40403,7 +40406,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40429,7 +40432,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1451" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40455,7 +40458,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1452" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40481,7 +40484,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40533,7 +40536,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1455" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40559,7 +40562,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40663,7 +40666,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1460" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40689,7 +40692,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1461" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40715,7 +40718,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1462" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40741,7 +40744,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1463" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40767,7 +40770,7 @@
         <v>2.75</v>
       </c>
       <c r="G1464" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40793,7 +40796,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1465" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40819,7 +40822,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1466" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40845,7 +40848,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1467" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40871,7 +40874,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1468" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40897,7 +40900,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1469" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40923,7 +40926,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1470" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40949,7 +40952,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41027,7 +41030,7 @@
         <v>3</v>
       </c>
       <c r="G1474" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41079,7 +41082,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1476" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41131,7 +41134,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1478" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41183,7 +41186,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41209,7 +41212,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1481" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41235,7 +41238,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1482" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41261,7 +41264,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1483" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41287,7 +41290,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41313,7 +41316,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1485" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41339,7 +41342,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1486" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41365,7 +41368,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1487" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41391,7 +41394,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1488" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41469,7 +41472,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1491" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41495,7 +41498,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1492" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41521,7 +41524,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1493" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41547,7 +41550,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1494" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41573,7 +41576,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41599,7 +41602,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1496" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41625,7 +41628,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1497" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41677,7 +41680,7 @@
         <v>3</v>
       </c>
       <c r="G1499" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41703,7 +41706,7 @@
         <v>3</v>
       </c>
       <c r="G1500" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41755,7 +41758,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1502" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41781,7 +41784,7 @@
         <v>3</v>
       </c>
       <c r="G1503" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41807,7 +41810,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1504" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41885,7 +41888,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1507" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41911,7 +41914,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1508" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42119,7 +42122,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1516" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42171,7 +42174,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1518" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42197,7 +42200,7 @@
         <v>3</v>
       </c>
       <c r="G1519" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42275,7 +42278,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1522" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42379,7 +42382,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1526" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42431,7 +42434,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1528" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42457,7 +42460,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1529" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42483,7 +42486,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1530" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42535,7 +42538,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42561,7 +42564,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1533" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42587,7 +42590,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1534" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42639,7 +42642,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1536" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42665,7 +42668,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1537" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42769,7 +42772,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42821,7 +42824,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1543" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42847,7 +42850,7 @@
         <v>3</v>
       </c>
       <c r="G1544" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42925,7 +42928,7 @@
         <v>3</v>
       </c>
       <c r="G1547" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42951,7 +42954,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1548" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42977,7 +42980,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1549" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43003,7 +43006,7 @@
         <v>3</v>
       </c>
       <c r="G1550" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43029,7 +43032,7 @@
         <v>3</v>
       </c>
       <c r="G1551" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43055,7 +43058,7 @@
         <v>3</v>
       </c>
       <c r="G1552" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43081,7 +43084,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1553" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43107,7 +43110,7 @@
         <v>3</v>
       </c>
       <c r="G1554" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43185,7 +43188,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1557" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43263,7 +43266,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1560" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43289,7 +43292,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1561" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43341,7 +43344,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1563" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43367,7 +43370,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1564" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43393,7 +43396,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1565" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43419,7 +43422,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1566" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43497,7 +43500,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1569" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43523,7 +43526,7 @@
         <v>2.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43549,7 +43552,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43575,7 +43578,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43601,7 +43604,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1573" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43627,7 +43630,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1574" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43653,7 +43656,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1575" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43679,7 +43682,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1576" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43705,7 +43708,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1577" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43731,7 +43734,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1578" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43783,7 +43786,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1580" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43809,7 +43812,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1581" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43835,7 +43838,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1582" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43861,7 +43864,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43887,7 +43890,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1584" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43913,7 +43916,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1585" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43939,7 +43942,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1586" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43965,7 +43968,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43991,7 +43994,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44017,7 +44020,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1589" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44069,7 +44072,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1591" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44121,7 +44124,7 @@
         <v>2.75</v>
       </c>
       <c r="G1593" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44147,7 +44150,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1594" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44173,7 +44176,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1595" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44199,7 +44202,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1596" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44225,7 +44228,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44251,7 +44254,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1598" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44277,7 +44280,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44303,7 +44306,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1600" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44329,7 +44332,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1601" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44355,7 +44358,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1602" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44381,7 +44384,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1603" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44407,7 +44410,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1604" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44433,7 +44436,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1605" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44459,7 +44462,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44485,7 +44488,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44511,7 +44514,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1608" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44537,7 +44540,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44563,7 +44566,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1610" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44589,7 +44592,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1611" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44615,7 +44618,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44641,7 +44644,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1613" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44667,7 +44670,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44693,7 +44696,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44719,7 +44722,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1616" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44745,7 +44748,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1617" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44771,7 +44774,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1618" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44797,7 +44800,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44823,7 +44826,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44849,7 +44852,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44875,7 +44878,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1622" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44901,7 +44904,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44927,7 +44930,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1624" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44953,7 +44956,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44979,7 +44982,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1626" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45005,7 +45008,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1627" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45031,7 +45034,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45057,7 +45060,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1629" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45083,7 +45086,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45109,7 +45112,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45135,7 +45138,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1632" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45161,7 +45164,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45187,7 +45190,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1634" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45213,7 +45216,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45239,7 +45242,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45265,7 +45268,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45291,7 +45294,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45317,7 +45320,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45343,7 +45346,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45369,7 +45372,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45395,7 +45398,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45421,7 +45424,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45447,7 +45450,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45473,7 +45476,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45499,7 +45502,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45525,7 +45528,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45551,7 +45554,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45577,7 +45580,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45603,7 +45606,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45629,7 +45632,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45655,7 +45658,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45681,7 +45684,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45707,7 +45710,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45733,7 +45736,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45759,7 +45762,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45785,7 +45788,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45811,7 +45814,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45837,7 +45840,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45863,7 +45866,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45889,7 +45892,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45915,7 +45918,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45941,7 +45944,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45967,7 +45970,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45993,7 +45996,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46019,7 +46022,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46045,7 +46048,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46071,7 +46074,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46097,7 +46100,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46123,7 +46126,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46149,7 +46152,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46175,7 +46178,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46201,7 +46204,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46227,7 +46230,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46253,7 +46256,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46279,7 +46282,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46305,7 +46308,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46331,7 +46334,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46357,7 +46360,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46383,7 +46386,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46409,7 +46412,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46435,7 +46438,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46461,7 +46464,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46487,7 +46490,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46513,7 +46516,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46539,7 +46542,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46565,7 +46568,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46591,7 +46594,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46617,7 +46620,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46643,7 +46646,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46669,7 +46672,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46695,7 +46698,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46721,7 +46724,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46747,7 +46750,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46773,7 +46776,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46799,7 +46802,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46825,7 +46828,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46851,7 +46854,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46877,7 +46880,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46903,7 +46906,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46929,7 +46932,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46955,7 +46958,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46981,7 +46984,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47007,7 +47010,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47033,7 +47036,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47059,7 +47062,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47085,7 +47088,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47111,7 +47114,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47137,7 +47140,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47163,7 +47166,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47189,7 +47192,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47215,7 +47218,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47241,7 +47244,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47267,7 +47270,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47293,7 +47296,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47319,7 +47322,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47345,7 +47348,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47371,7 +47374,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47397,7 +47400,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47423,7 +47426,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47449,7 +47452,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47475,7 +47478,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47501,7 +47504,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47527,7 +47530,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47553,7 +47556,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47579,7 +47582,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47605,7 +47608,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47631,7 +47634,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47657,7 +47660,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47683,7 +47686,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47709,7 +47712,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47735,7 +47738,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47761,7 +47764,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47787,7 +47790,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47813,7 +47816,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47839,7 +47842,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47865,7 +47868,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47891,7 +47894,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47917,7 +47920,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47943,7 +47946,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47969,7 +47972,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47995,7 +47998,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48021,7 +48024,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48047,7 +48050,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48073,7 +48076,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48099,7 +48102,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48125,7 +48128,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48151,7 +48154,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48177,7 +48180,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48203,7 +48206,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48229,7 +48232,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48255,7 +48258,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48281,7 +48284,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48307,7 +48310,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48333,7 +48336,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48359,7 +48362,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48385,7 +48388,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48411,7 +48414,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48437,7 +48440,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48463,7 +48466,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48489,7 +48492,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48515,7 +48518,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48541,7 +48544,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48567,7 +48570,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48593,7 +48596,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48619,7 +48622,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48645,7 +48648,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48671,7 +48674,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48697,7 +48700,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48723,7 +48726,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48749,7 +48752,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48775,7 +48778,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48801,7 +48804,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48827,7 +48830,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48853,7 +48856,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48879,7 +48882,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48905,7 +48908,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48931,7 +48934,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48957,7 +48960,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48983,7 +48986,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49009,7 +49012,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49035,7 +49038,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49061,7 +49064,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49087,7 +49090,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49113,7 +49116,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49139,7 +49142,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49165,7 +49168,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49191,7 +49194,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49217,7 +49220,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49243,7 +49246,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49269,7 +49272,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49295,7 +49298,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49321,7 +49324,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49347,7 +49350,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49373,7 +49376,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49399,7 +49402,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49425,7 +49428,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49451,7 +49454,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49477,7 +49480,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49503,7 +49506,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49529,7 +49532,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49555,7 +49558,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49581,7 +49584,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49607,7 +49610,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49633,7 +49636,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1805" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49659,7 +49662,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49685,7 +49688,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49711,7 +49714,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49737,7 +49740,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49763,7 +49766,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49789,7 +49792,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49815,7 +49818,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49841,7 +49844,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49867,7 +49870,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1814" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49893,7 +49896,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49919,7 +49922,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49945,7 +49948,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49971,7 +49974,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -49997,7 +50000,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50023,7 +50026,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50049,7 +50052,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50075,7 +50078,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1822" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50101,7 +50104,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50127,7 +50130,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50153,7 +50156,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50179,7 +50182,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50205,7 +50208,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50231,7 +50234,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50257,7 +50260,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50283,7 +50286,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50309,7 +50312,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50335,7 +50338,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50361,7 +50364,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50387,7 +50390,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50413,7 +50416,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50439,7 +50442,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50465,7 +50468,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50491,7 +50494,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50517,7 +50520,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50543,7 +50546,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50569,7 +50572,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50595,7 +50598,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50621,7 +50624,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1843" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50647,7 +50650,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50673,7 +50676,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50699,7 +50702,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1846" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50725,7 +50728,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1847" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50751,7 +50754,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50777,7 +50780,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50803,7 +50806,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50829,7 +50832,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50855,7 +50858,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50881,7 +50884,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50907,7 +50910,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50933,7 +50936,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50959,7 +50962,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50985,7 +50988,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51011,7 +51014,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51037,7 +51040,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1859" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51063,7 +51066,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51089,7 +51092,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1861" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51115,7 +51118,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1862" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51141,7 +51144,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1863" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51167,7 +51170,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51193,7 +51196,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1865" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51219,7 +51222,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51245,7 +51248,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51271,7 +51274,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1868" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51297,7 +51300,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51323,7 +51326,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51349,7 +51352,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51375,7 +51378,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51401,7 +51404,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51427,7 +51430,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51453,7 +51456,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51479,7 +51482,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51505,7 +51508,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51531,7 +51534,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51557,7 +51560,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51583,7 +51586,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51609,7 +51612,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51635,7 +51638,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51661,7 +51664,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1883" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51687,7 +51690,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1884" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51713,7 +51716,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1885" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51739,7 +51742,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51765,7 +51768,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1887" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51791,7 +51794,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51817,7 +51820,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51843,7 +51846,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51869,7 +51872,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51895,7 +51898,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51921,7 +51924,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51947,7 +51950,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51973,7 +51976,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -51999,7 +52002,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52025,7 +52028,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52051,7 +52054,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52077,7 +52080,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52103,7 +52106,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52129,7 +52132,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52155,7 +52158,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52181,7 +52184,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52207,7 +52210,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52233,7 +52236,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52259,7 +52262,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52285,7 +52288,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52311,7 +52314,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52337,7 +52340,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52363,7 +52366,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52389,7 +52392,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52415,7 +52418,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52441,7 +52444,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52467,7 +52470,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52493,7 +52496,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52519,7 +52522,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52545,7 +52548,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52571,7 +52574,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52597,7 +52600,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52623,7 +52626,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52649,7 +52652,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52675,7 +52678,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52701,7 +52704,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52727,7 +52730,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52753,7 +52756,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52779,7 +52782,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52805,7 +52808,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52831,7 +52834,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52857,7 +52860,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52883,7 +52886,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52909,7 +52912,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52935,7 +52938,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52961,7 +52964,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52987,7 +52990,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53013,7 +53016,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53039,7 +53042,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53065,7 +53068,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53091,7 +53094,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53117,7 +53120,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53143,7 +53146,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53169,7 +53172,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53195,7 +53198,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1942" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53221,7 +53224,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53247,7 +53250,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53273,7 +53276,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53299,7 +53302,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53325,7 +53328,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53351,7 +53354,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53377,7 +53380,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53403,7 +53406,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53429,7 +53432,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53455,7 +53458,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53481,7 +53484,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1953" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53507,7 +53510,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53533,7 +53536,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53559,7 +53562,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53585,7 +53588,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53611,7 +53614,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53637,7 +53640,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53663,7 +53666,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53689,7 +53692,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53715,7 +53718,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53741,7 +53744,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53767,7 +53770,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53793,7 +53796,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53819,7 +53822,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53845,7 +53848,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53871,7 +53874,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53897,7 +53900,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53923,7 +53926,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53949,7 +53952,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53975,7 +53978,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54001,7 +54004,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54027,7 +54030,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54053,7 +54056,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54079,7 +54082,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54105,7 +54108,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54131,7 +54134,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54157,7 +54160,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54183,7 +54186,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54209,7 +54212,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54235,7 +54238,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54261,7 +54264,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54287,7 +54290,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54313,7 +54316,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54339,7 +54342,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54365,7 +54368,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54391,7 +54394,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54417,7 +54420,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54443,7 +54446,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54469,7 +54472,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54495,7 +54498,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54521,7 +54524,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54547,7 +54550,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54573,7 +54576,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54599,7 +54602,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54625,7 +54628,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54651,7 +54654,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54677,7 +54680,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54703,7 +54706,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54729,7 +54732,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54755,7 +54758,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54781,7 +54784,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54807,7 +54810,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54833,7 +54836,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54859,7 +54862,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54885,7 +54888,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54911,7 +54914,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54937,7 +54940,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54963,7 +54966,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54989,7 +54992,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55015,7 +55018,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55041,7 +55044,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55067,7 +55070,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55093,7 +55096,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55119,7 +55122,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55145,7 +55148,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55171,7 +55174,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55197,7 +55200,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55223,7 +55226,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55249,7 +55252,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55275,7 +55278,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55301,7 +55304,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55327,7 +55330,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55353,7 +55356,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55379,7 +55382,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55405,7 +55408,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55431,7 +55434,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55457,7 +55460,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55483,7 +55486,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55509,7 +55512,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55535,7 +55538,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55561,7 +55564,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55587,7 +55590,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55613,7 +55616,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55639,7 +55642,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55665,7 +55668,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55691,7 +55694,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55717,7 +55720,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55743,7 +55746,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55769,7 +55772,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55795,7 +55798,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55821,7 +55824,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55847,7 +55850,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55873,7 +55876,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55899,7 +55902,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55925,7 +55928,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55951,7 +55954,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55977,7 +55980,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56003,7 +56006,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56029,7 +56032,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56055,7 +56058,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56081,7 +56084,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56107,7 +56110,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56133,7 +56136,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56159,7 +56162,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56185,7 +56188,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56211,7 +56214,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56237,7 +56240,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56263,7 +56266,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56289,7 +56292,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56315,7 +56318,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56341,7 +56344,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56367,7 +56370,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56393,7 +56396,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56419,7 +56422,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56445,7 +56448,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56471,7 +56474,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56497,7 +56500,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56523,7 +56526,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56549,7 +56552,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56575,7 +56578,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56601,7 +56604,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56627,7 +56630,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56653,7 +56656,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56679,7 +56682,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56705,7 +56708,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56731,7 +56734,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56757,7 +56760,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56783,7 +56786,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56809,7 +56812,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56835,7 +56838,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56861,7 +56864,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56887,7 +56890,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56913,7 +56916,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56939,7 +56942,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56965,7 +56968,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56991,7 +56994,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57017,7 +57020,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57043,7 +57046,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57069,7 +57072,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57095,7 +57098,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57121,7 +57124,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57147,7 +57150,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57173,7 +57176,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57199,7 +57202,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57225,7 +57228,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57251,7 +57254,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57277,7 +57280,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57303,7 +57306,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57329,7 +57332,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57355,7 +57358,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57381,7 +57384,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57407,7 +57410,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57433,7 +57436,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57459,7 +57462,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57485,7 +57488,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57511,7 +57514,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57537,7 +57540,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57563,7 +57566,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57589,7 +57592,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57615,7 +57618,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57641,7 +57644,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57667,7 +57670,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57693,7 +57696,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57719,7 +57722,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57745,7 +57748,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57771,7 +57774,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57797,7 +57800,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57823,7 +57826,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57849,7 +57852,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57875,7 +57878,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57901,7 +57904,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57927,7 +57930,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57953,7 +57956,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57979,7 +57982,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58005,7 +58008,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58031,7 +58034,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58057,7 +58060,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58083,7 +58086,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58109,7 +58112,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58135,7 +58138,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58161,7 +58164,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58187,7 +58190,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58213,7 +58216,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58239,7 +58242,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58265,7 +58268,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58291,7 +58294,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58317,7 +58320,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58343,7 +58346,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58369,7 +58372,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58395,7 +58398,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58421,7 +58424,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58447,7 +58450,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58473,7 +58476,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58499,7 +58502,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58525,7 +58528,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58551,7 +58554,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58559,27 +58562,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6456134259</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>2670</v>
+        <v>1000</v>
       </c>
       <c r="C2149" t="n">
         <v>2.16000008583069</v>
       </c>
       <c r="D2149" t="n">
-        <v>2.13000011444092</v>
+        <v>2.16000008583069</v>
       </c>
       <c r="E2149" t="n">
-        <v>2.14000010490417</v>
+        <v>2.16000008583069</v>
       </c>
       <c r="F2149" t="n">
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>2670</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>784</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6224652778</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>3878</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>2.1800000667572</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>786</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.803382396698</t>
+    <t xml:space="preserve">1.80338215827942</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
@@ -47,79 +47,79 @@
     <t xml:space="preserve">1.79827857017517</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74383664131165</t>
+    <t xml:space="preserve">1.74383676052094</t>
   </si>
   <si>
     <t xml:space="preserve">1.75404453277588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73533010482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72682356834412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661591529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854427337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66047286987305</t>
+    <t xml:space="preserve">1.73533022403717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7268238067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661579608917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854439258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66047275066376</t>
   </si>
   <si>
     <t xml:space="preserve">1.64175856113434</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53117346763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64090776443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005696773529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410258293152</t>
+    <t xml:space="preserve">1.53117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6409078836441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005720615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410270214081</t>
   </si>
   <si>
     <t xml:space="preserve">1.65026497840881</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63325178623199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60773241519928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839455127716</t>
+    <t xml:space="preserve">1.63325202465057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6077321767807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839443206787</t>
   </si>
   <si>
     <t xml:space="preserve">1.58646607398987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61283624172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58221280574799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49714779853821</t>
+    <t xml:space="preserve">1.6128363609314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58221304416656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49714767932892</t>
   </si>
   <si>
     <t xml:space="preserve">1.55158936977386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50565409660339</t>
+    <t xml:space="preserve">1.5056539773941</t>
   </si>
   <si>
     <t xml:space="preserve">1.48608922958374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56434905529022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7013041973114</t>
+    <t xml:space="preserve">1.56434917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70130407810211</t>
   </si>
   <si>
     <t xml:space="preserve">1.68429112434387</t>
@@ -131,19 +131,19 @@
     <t xml:space="preserve">1.69279754161835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68684303760529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69194686412811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6893949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71831703186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65366768836975</t>
+    <t xml:space="preserve">1.686842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6919469833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68939507007599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71831715106964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65366756916046</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686250686646</t>
@@ -155,22 +155,22 @@
     <t xml:space="preserve">1.69024562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68173909187317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65111553668976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62049198150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63750529289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63240122795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6153883934021</t>
+    <t xml:space="preserve">1.68173921108246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65111565589905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62049210071564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63750517368317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63240146636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61538827419281</t>
   </si>
   <si>
     <t xml:space="preserve">1.60432994365692</t>
@@ -182,73 +182,73 @@
     <t xml:space="preserve">1.58986878395081</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60177755355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688185691833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59922575950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59752464294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54818689823151</t>
+    <t xml:space="preserve">1.60177791118622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688173770905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59922587871552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59752476215363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54818665981293</t>
   </si>
   <si>
     <t xml:space="preserve">1.53202438354492</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53372573852539</t>
+    <t xml:space="preserve">1.5337256193161</t>
   </si>
   <si>
     <t xml:space="preserve">1.57881021499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53542697429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56094646453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53287506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52096593379974</t>
+    <t xml:space="preserve">1.53542673587799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56094658374786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53287494182587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52096581459045</t>
   </si>
   <si>
     <t xml:space="preserve">1.55329060554504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54648542404175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53968024253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52862191200256</t>
+    <t xml:space="preserve">1.54648530483246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53968000411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52862179279327</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703013896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654900074005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626209259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47885811328888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47539675235748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46933925151825</t>
+    <t xml:space="preserve">1.49703001976013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654876232147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626197338104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47885799407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47539687156677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46933937072754</t>
   </si>
   <si>
     <t xml:space="preserve">1.45376324653625</t>
@@ -266,31 +266,31 @@
     <t xml:space="preserve">1.49270343780518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5229903459549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46674358844757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4736659526825</t>
+    <t xml:space="preserve">1.52298998832703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837673664093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46674335002899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47366607189178</t>
   </si>
   <si>
     <t xml:space="preserve">1.50568354129791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44510984420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.451167345047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42001521587372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760869026184</t>
+    <t xml:space="preserve">1.44511008262634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45116746425629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760880947113</t>
   </si>
   <si>
     <t xml:space="preserve">1.45895540714264</t>
@@ -302,22 +302,22 @@
     <t xml:space="preserve">1.47107005119324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46501266956329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52039408683777</t>
+    <t xml:space="preserve">1.46501278877258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52039420604706</t>
   </si>
   <si>
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212500572205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47712731361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50222218036652</t>
+    <t xml:space="preserve">1.52212488651276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47712743282318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50222206115723</t>
   </si>
   <si>
     <t xml:space="preserve">1.49616479873657</t>
@@ -332,19 +332,19 @@
     <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51347136497498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53077840805054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50308740139008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049138069153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135672092438</t>
+    <t xml:space="preserve">1.51347148418427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53077816963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50308728218079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049126148224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135695934296</t>
   </si>
   <si>
     <t xml:space="preserve">1.53337407112122</t>
@@ -359,58 +359,58 @@
     <t xml:space="preserve">1.51174092292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54375839233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55500769615173</t>
+    <t xml:space="preserve">1.54375827312469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55500757694244</t>
   </si>
   <si>
     <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54029679298401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53250885009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55587291717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54462337493896</t>
+    <t xml:space="preserve">1.5402969121933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53250873088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55587303638458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54462349414825</t>
   </si>
   <si>
     <t xml:space="preserve">1.5576034784317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49443399906158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231959342957</t>
+    <t xml:space="preserve">1.49443411827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010765552521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231935501099</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454888343811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52558612823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52645146846771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55673813819885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54116213321686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55327689647675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54202747344971</t>
+    <t xml:space="preserve">1.52558624744415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.526451587677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55673825740814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54116225242615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55327665805817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.542027592659</t>
   </si>
   <si>
     <t xml:space="preserve">1.51693296432495</t>
@@ -419,10 +419,10 @@
     <t xml:space="preserve">1.5385662317276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51606738567352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54635417461395</t>
+    <t xml:space="preserve">1.51606750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54635429382324</t>
   </si>
   <si>
     <t xml:space="preserve">1.57404494285583</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">1.57317960262299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56971824169159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54981565475464</t>
+    <t xml:space="preserve">1.5697181224823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54981553554535</t>
   </si>
   <si>
     <t xml:space="preserve">1.55846893787384</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">1.59135162830353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59221708774567</t>
+    <t xml:space="preserve">1.59221696853638</t>
   </si>
   <si>
     <t xml:space="preserve">1.60000491142273</t>
@@ -455,19 +455,19 @@
     <t xml:space="preserve">1.56625699996948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55414235591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64413702487946</t>
+    <t xml:space="preserve">1.55414223670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64413726329803</t>
   </si>
   <si>
     <t xml:space="preserve">1.58096766471863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60779309272766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57664084434509</t>
+    <t xml:space="preserve">1.60779297351837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57664096355438</t>
   </si>
   <si>
     <t xml:space="preserve">1.57750618457794</t>
@@ -476,25 +476,25 @@
     <t xml:space="preserve">1.59827446937561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59913980960846</t>
+    <t xml:space="preserve">1.59913969039917</t>
   </si>
   <si>
     <t xml:space="preserve">1.60087037086487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63461863994598</t>
+    <t xml:space="preserve">1.6346184015274</t>
   </si>
   <si>
     <t xml:space="preserve">1.60952365398407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61731171607971</t>
+    <t xml:space="preserve">1.617311835289</t>
   </si>
   <si>
     <t xml:space="preserve">1.61817717552185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6519250869751</t>
+    <t xml:space="preserve">1.65192520618439</t>
   </si>
   <si>
     <t xml:space="preserve">1.59654366970062</t>
@@ -503,40 +503,40 @@
     <t xml:space="preserve">1.60519707202911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6190425157547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61211967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65971314907074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66057848930359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65279030799866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67442381381989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67009723186493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66144371032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64154100418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63634896278381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625190734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68048131465912</t>
+    <t xml:space="preserve">1.61904239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61211979389191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65971326828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6605783700943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65279042720795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67442393302917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67009711265564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66144382953644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6415411233902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6363490819931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625178813934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68048107624054</t>
   </si>
   <si>
     <t xml:space="preserve">1.66317462921143</t>
@@ -545,16 +545,16 @@
     <t xml:space="preserve">1.76701474189758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82585728168488</t>
+    <t xml:space="preserve">1.82585740089417</t>
   </si>
   <si>
     <t xml:space="preserve">1.81893479824066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682027339935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77739870548248</t>
+    <t xml:space="preserve">1.80682039260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77739858627319</t>
   </si>
   <si>
     <t xml:space="preserve">1.79816687107086</t>
@@ -563,13 +563,13 @@
     <t xml:space="preserve">1.77393734455109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75836145877838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79124402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7514386177063</t>
+    <t xml:space="preserve">1.75836133956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79124414920807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75143849849701</t>
   </si>
   <si>
     <t xml:space="preserve">1.72980535030365</t>
@@ -578,61 +578,61 @@
     <t xml:space="preserve">1.74797737598419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7445160150528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75663065910339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201231479645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74105453491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278521537781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71855592727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73932421207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76528406143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78432142734528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80855071544647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76182270050049</t>
+    <t xml:space="preserve">1.74451613426208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75663077831268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758820056915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201243400574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74105489253998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7427853345871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7185560464859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7393239736557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76528418064117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78432154655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80855083465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76182281970978</t>
   </si>
   <si>
     <t xml:space="preserve">1.7687451839447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78259086608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79989743232727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82412707805634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720399856567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80335891246796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84316408634186</t>
+    <t xml:space="preserve">1.78259074687958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79989719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82412695884705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720411777496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80335903167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84316444396973</t>
   </si>
   <si>
     <t xml:space="preserve">1.79297482967377</t>
@@ -641,34 +641,34 @@
     <t xml:space="preserve">1.81547355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7860518693924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83451092243195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87777745723724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623627185822</t>
+    <t xml:space="preserve">1.78605210781097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354852676392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83451080322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87777781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623651027679</t>
   </si>
   <si>
     <t xml:space="preserve">1.92104458808899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90373802185059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83797240257263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96253132820129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04503464698792</t>
+    <t xml:space="preserve">1.90373766422272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83797216415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96253097057343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04503440856934</t>
   </si>
   <si>
     <t xml:space="preserve">2.41366744041443</t>
@@ -677,64 +677,64 @@
     <t xml:space="preserve">2.42244458198547</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3083438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2469048500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648767471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39260315895081</t>
+    <t xml:space="preserve">2.30834436416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24690508842468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648743629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39260268211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.4171781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40489053726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31712079048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26972484588623</t>
+    <t xml:space="preserve">2.40489077568054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31712102890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26972508430481</t>
   </si>
   <si>
     <t xml:space="preserve">2.20653128623962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13280463218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08014225959778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01870346069336</t>
+    <t xml:space="preserve">2.13280439376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08014249801636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01870369911194</t>
   </si>
   <si>
     <t xml:space="preserve">2.07136559486389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12753844261169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06258845329285</t>
+    <t xml:space="preserve">2.12753796577454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06258869171143</t>
   </si>
   <si>
     <t xml:space="preserve">2.08540868759155</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12402749061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647368431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104867935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1152503490448</t>
+    <t xml:space="preserve">2.12402772903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647320747375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104891777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11525058746338</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296273231506</t>
@@ -743,73 +743,73 @@
     <t xml:space="preserve">2.03976845741272</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0538113117218</t>
+    <t xml:space="preserve">2.05381155014038</t>
   </si>
   <si>
     <t xml:space="preserve">2.03625750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0309910774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03450226783752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00992679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763894081116</t>
+    <t xml:space="preserve">2.03099131584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0345025062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00992703437805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763906002045</t>
   </si>
   <si>
     <t xml:space="preserve">1.9835958480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98535120487213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00114941596985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01694846153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99588370323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710668087006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03274655342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06785488128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07663202285767</t>
+    <t xml:space="preserve">1.98535144329071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00115013122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01694822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99588346481323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710656166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0327467918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06785440444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07663154602051</t>
   </si>
   <si>
     <t xml:space="preserve">2.04854536056519</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99061715602875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97481894493103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97130823135376</t>
+    <t xml:space="preserve">1.99061763286591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97481870651245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97130799293518</t>
   </si>
   <si>
     <t xml:space="preserve">1.96604180335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99237298965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99939453601837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20301985740662</t>
+    <t xml:space="preserve">1.99237251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99939441680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2030200958252</t>
   </si>
   <si>
     <t xml:space="preserve">2.32414221763611</t>
@@ -818,7 +818,7 @@
     <t xml:space="preserve">2.29078984260559</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43122124671936</t>
+    <t xml:space="preserve">2.43122148513794</t>
   </si>
   <si>
     <t xml:space="preserve">2.34345173835754</t>
@@ -827,19 +827,19 @@
     <t xml:space="preserve">2.48914933204651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48563885688782</t>
+    <t xml:space="preserve">2.48563861846924</t>
   </si>
   <si>
     <t xml:space="preserve">2.43999838829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37855958938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207030296326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38558125495911</t>
+    <t xml:space="preserve">2.37855982780457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38558101654053</t>
   </si>
   <si>
     <t xml:space="preserve">2.35925030708313</t>
@@ -848,13 +848,13 @@
     <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48739409446716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44175362586975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984028816223</t>
+    <t xml:space="preserve">2.48739433288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44175386428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46983981132507</t>
   </si>
   <si>
     <t xml:space="preserve">2.42946577072144</t>
@@ -863,25 +863,25 @@
     <t xml:space="preserve">2.37504863739014</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39084720611572</t>
+    <t xml:space="preserve">2.3908474445343</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38909196853638</t>
+    <t xml:space="preserve">2.3890917301178</t>
   </si>
   <si>
     <t xml:space="preserve">2.4189338684082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43473243713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41542291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39611339569092</t>
+    <t xml:space="preserve">2.43473219871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41542315483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3961136341095</t>
   </si>
   <si>
     <t xml:space="preserve">2.41015672683716</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">2.44877552986145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45579695701599</t>
+    <t xml:space="preserve">2.45579719543457</t>
   </si>
   <si>
     <t xml:space="preserve">2.33994078636169</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15738010406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22232985496521</t>
+    <t xml:space="preserve">2.15737986564636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22232961654663</t>
   </si>
   <si>
     <t xml:space="preserve">2.1696674823761</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">2.1924877166748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38733649253845</t>
+    <t xml:space="preserve">2.38733625411987</t>
   </si>
   <si>
     <t xml:space="preserve">2.35222887992859</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37329316139221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627173423767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35749483108521</t>
+    <t xml:space="preserve">2.37329363822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627221107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35749506950378</t>
   </si>
   <si>
     <t xml:space="preserve">2.28376841545105</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">2.30658841133118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28201293945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589793205261</t>
+    <t xml:space="preserve">2.28201270103455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589769363403</t>
   </si>
   <si>
     <t xml:space="preserve">2.31360983848572</t>
@@ -956,31 +956,31 @@
     <t xml:space="preserve">2.33116388320923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29254508018494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3013219833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29781126976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27323627471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46632957458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49266004562378</t>
+    <t xml:space="preserve">2.29254531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30132246017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29781150817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2732355594635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36100554466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46632933616638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49266028404236</t>
   </si>
   <si>
     <t xml:space="preserve">2.60676097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65064573287964</t>
+    <t xml:space="preserve">2.65064597129822</t>
   </si>
   <si>
     <t xml:space="preserve">2.62431478500366</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">2.54532217979431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53654479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45755243301392</t>
+    <t xml:space="preserve">2.53654527664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45755219459534</t>
   </si>
   <si>
     <t xml:space="preserve">2.48388314247131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36978268623352</t>
+    <t xml:space="preserve">2.3697829246521</t>
   </si>
   <si>
     <t xml:space="preserve">2.5277681350708</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">2.6857533454895</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69453072547913</t>
+    <t xml:space="preserve">2.69453048706055</t>
   </si>
   <si>
     <t xml:space="preserve">2.72963833808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73841524124146</t>
+    <t xml:space="preserve">2.73841547966003</t>
   </si>
   <si>
     <t xml:space="preserve">2.51021409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59798407554626</t>
+    <t xml:space="preserve">2.59798383712769</t>
   </si>
   <si>
     <t xml:space="preserve">2.61553812026978</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3346745967865</t>
+    <t xml:space="preserve">2.33467483520508</t>
   </si>
   <si>
     <t xml:space="preserve">2.21179699897766</t>
@@ -1052,28 +1052,28 @@
     <t xml:space="preserve">2.18276572227478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2364399433136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36168074607849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589769363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31695222854614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3348433971405</t>
+    <t xml:space="preserve">2.23644018173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36168050765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589745521545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31695175170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33484315872192</t>
   </si>
   <si>
     <t xml:space="preserve">2.34378910064697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41535544395447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42430114746094</t>
+    <t xml:space="preserve">2.41535520553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42430090904236</t>
   </si>
   <si>
     <t xml:space="preserve">2.37062668800354</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">2.37957215309143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39746403694153</t>
+    <t xml:space="preserve">2.39746356010437</t>
   </si>
   <si>
     <t xml:space="preserve">2.35273504257202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28116917610168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24538564682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27222299575806</t>
+    <t xml:space="preserve">2.28116893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24538588523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27222275733948</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854877471924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2006573677063</t>
+    <t xml:space="preserve">2.20065712928772</t>
   </si>
   <si>
     <t xml:space="preserve">2.17382001876831</t>
@@ -1109,13 +1109,13 @@
     <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15592813491821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29011464118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13803672790527</t>
+    <t xml:space="preserve">2.15592861175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.290114402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13803696632385</t>
   </si>
   <si>
     <t xml:space="preserve">2.14698266983032</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve">2.07541632652283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12014508247375</t>
+    <t xml:space="preserve">2.12014532089233</t>
   </si>
   <si>
     <t xml:space="preserve">2.12909126281738</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">2.06647086143494</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03963303565979</t>
+    <t xml:space="preserve">2.03963351249695</t>
   </si>
   <si>
     <t xml:space="preserve">2.02174186706543</t>
@@ -1151,31 +1151,31 @@
     <t xml:space="preserve">2.08436226844788</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11119961738586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09330773353577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99490463733673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93228435516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017576217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87860953807831</t>
+    <t xml:space="preserve">2.11119937896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09330797195435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99490416049957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93228423595428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017564296722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87860941886902</t>
   </si>
   <si>
     <t xml:space="preserve">1.86966383457184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83388078212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77126061916351</t>
+    <t xml:space="preserve">1.83388090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77126049995422</t>
   </si>
   <si>
     <t xml:space="preserve">1.74442338943481</t>
@@ -1184,10 +1184,10 @@
     <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68180298805237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72653186321259</t>
+    <t xml:space="preserve">1.68180310726166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7265317440033</t>
   </si>
   <si>
     <t xml:space="preserve">1.73547756671906</t>
@@ -1196,16 +1196,16 @@
     <t xml:space="preserve">1.76231479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73995053768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76678764820099</t>
+    <t xml:space="preserve">1.73995041847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76678776741028</t>
   </si>
   <si>
     <t xml:space="preserve">1.74889624118805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69522166252136</t>
+    <t xml:space="preserve">1.69522178173065</t>
   </si>
   <si>
     <t xml:space="preserve">1.64601993560791</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">1.66391146183014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6862758398056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69969439506531</t>
+    <t xml:space="preserve">1.68627595901489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69969463348389</t>
   </si>
   <si>
     <t xml:space="preserve">1.73100459575653</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">1.75336909294128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72205901145935</t>
+    <t xml:space="preserve">1.72205889225006</t>
   </si>
   <si>
     <t xml:space="preserve">1.71758592128754</t>
@@ -1244,10 +1244,10 @@
     <t xml:space="preserve">1.61918258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57445394992828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55656230449677</t>
+    <t xml:space="preserve">1.57445383071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55656242370605</t>
   </si>
   <si>
     <t xml:space="preserve">1.59234535694122</t>
@@ -1256,22 +1256,22 @@
     <t xml:space="preserve">1.61023676395416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70416724681854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7131130695343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78020644187927</t>
+    <t xml:space="preserve">1.70416748523712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71311330795288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78020632266998</t>
   </si>
   <si>
     <t xml:space="preserve">1.81598925590515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80704355239868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84282672405243</t>
+    <t xml:space="preserve">1.80704367160797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84282660484314</t>
   </si>
   <si>
     <t xml:space="preserve">1.86071813106537</t>
@@ -1280,25 +1280,25 @@
     <t xml:space="preserve">1.82493507862091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7980979681015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88755524158478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85177230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650130271912</t>
+    <t xml:space="preserve">1.79809784889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88755536079407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8517724275589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650106430054</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333841323853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96806752681732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01279616355896</t>
+    <t xml:space="preserve">1.96806728839874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01279592514038</t>
   </si>
   <si>
     <t xml:space="preserve">2.00385022163391</t>
@@ -1310,45 +1310,45 @@
     <t xml:space="preserve">2.03068780899048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97701334953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595893383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439294815063</t>
+    <t xml:space="preserve">1.9770131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439282894135</t>
   </si>
   <si>
     <t xml:space="preserve">1.9054468870163</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94122993946075</t>
+    <t xml:space="preserve">1.94123005867004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67285716533661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70043182373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66826140880585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6498783826828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65907001495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68664455413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70502758026123</t>
   </si>
   <si>
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70043182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66826152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6498783826828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65906989574432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68664455413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70502769947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67285740375519</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.69583606719971</t>
   </si>
   <si>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">1.70962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71881484985352</t>
+    <t xml:space="preserve">1.71881473064423</t>
   </si>
   <si>
     <t xml:space="preserve">1.73719799518585</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">1.7326021194458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68204891681671</t>
+    <t xml:space="preserve">1.68204879760742</t>
   </si>
   <si>
     <t xml:space="preserve">1.65447413921356</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66366565227509</t>
+    <t xml:space="preserve">1.6636655330658</t>
   </si>
   <si>
     <t xml:space="preserve">1.63149547576904</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">1.5901335477829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64068686962128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60851657390594</t>
+    <t xml:space="preserve">1.64068675041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60851669311523</t>
   </si>
   <si>
     <t xml:space="preserve">1.58553779125214</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">1.61770808696747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63609111309052</t>
+    <t xml:space="preserve">1.6360912322998</t>
   </si>
   <si>
     <t xml:space="preserve">1.62230384349823</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58094203472137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71421921253204</t>
+    <t xml:space="preserve">1.58094215393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71421909332275</t>
   </si>
   <si>
     <t xml:space="preserve">1.61311233043671</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">1.57175052165985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55336737632751</t>
+    <t xml:space="preserve">1.55336761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255888938904</t>
+    <t xml:space="preserve">1.56255900859833</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38332426548004</t>
+    <t xml:space="preserve">1.38332414627075</t>
   </si>
   <si>
     <t xml:space="preserve">1.3879200220108</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">1.22706830501556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30519640445709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221750259399</t>
+    <t xml:space="preserve">1.3051962852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221762180328</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24085581302643</t>
+    <t xml:space="preserve">1.24085569381714</t>
   </si>
   <si>
     <t xml:space="preserve">1.31438779830933</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655821323395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3419623374939</t>
+    <t xml:space="preserve">1.34655833244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34196245670319</t>
   </si>
   <si>
     <t xml:space="preserve">1.41089880466461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630304813385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39711153507233</t>
+    <t xml:space="preserve">1.40630292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39711165428162</t>
   </si>
   <si>
     <t xml:space="preserve">1.40170729160309</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">1.49821829795837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48902690410614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47983527183533</t>
+    <t xml:space="preserve">1.48902678489685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47983515262604</t>
   </si>
   <si>
     <t xml:space="preserve">1.46145224571228</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43387758731842</t>
+    <t xml:space="preserve">1.43387746810913</t>
   </si>
   <si>
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685660839081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4246860742569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42928183078766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37872850894928</t>
+    <t xml:space="preserve">1.45685636997223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42468619346619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42928171157837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37872838973999</t>
   </si>
   <si>
     <t xml:space="preserve">1.39251577854156</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413275241852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35574972629547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41549468040466</t>
+    <t xml:space="preserve">1.37413287162781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35574960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41549456119537</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36034560203552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31898355484009</t>
+    <t xml:space="preserve">1.36034548282623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31898367404938</t>
   </si>
   <si>
     <t xml:space="preserve">1.45226073265076</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">1.43847346305847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50281405448914</t>
+    <t xml:space="preserve">1.50281417369843</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">1.46604800224304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32817530632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30979192256927</t>
+    <t xml:space="preserve">1.3281751871109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30979204177856</t>
   </si>
   <si>
     <t xml:space="preserve">1.30060052871704</t>
@@ -1586,34 +1586,34 @@
     <t xml:space="preserve">1.51200556755066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48443102836609</t>
+    <t xml:space="preserve">1.4844309091568</t>
   </si>
   <si>
     <t xml:space="preserve">1.52579283714294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53958010673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54877173900604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5763463973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54417598247528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796313285828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53038859367371</t>
+    <t xml:space="preserve">1.53958022594452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54877161979675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57634627819061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54417586326599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796325206757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.530388712883</t>
   </si>
   <si>
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396380901337</t>
+    <t xml:space="preserve">1.77396404743195</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">1.79234719276428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8750706911087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021988868713</t>
+    <t xml:space="preserve">1.87507057189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021976947784</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
@@ -1634,64 +1634,64 @@
     <t xml:space="preserve">1.89345383644104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83830463886261</t>
+    <t xml:space="preserve">1.8383047580719</t>
   </si>
   <si>
     <t xml:space="preserve">1.82911312580109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78775131702423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451748847961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77855956554413</t>
+    <t xml:space="preserve">1.78775143623352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451736927032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77855980396271</t>
   </si>
   <si>
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153858661652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84749627113342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76936829090118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79694294929504</t>
+    <t xml:space="preserve">1.80153870582581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84749615192413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76936817169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79694283008575</t>
   </si>
   <si>
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587917804718</t>
+    <t xml:space="preserve">1.86587929725647</t>
   </si>
   <si>
     <t xml:space="preserve">1.90264523029327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92102837562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85668778419495</t>
+    <t xml:space="preserve">1.92102825641632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85668766498566</t>
   </si>
   <si>
     <t xml:space="preserve">1.81073009967804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09566736221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647561073303</t>
+    <t xml:space="preserve">2.09566760063171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08647584915161</t>
   </si>
   <si>
     <t xml:space="preserve">2.02213501930237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98536920547485</t>
+    <t xml:space="preserve">1.98536896705627</t>
   </si>
   <si>
     <t xml:space="preserve">2.04051828384399</t>
@@ -1703,40 +1703,40 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405062675476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12324166297913</t>
+    <t xml:space="preserve">2.11405038833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12324190139771</t>
   </si>
   <si>
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928568840027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53686046600342</t>
+    <t xml:space="preserve">2.50928592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.536860704422</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63796710968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68392467498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73035979270935</t>
+    <t xml:space="preserve">2.63796734809875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68392491340637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73035955429077</t>
   </si>
   <si>
     <t xml:space="preserve">2.69321203231812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72107267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322883605957</t>
+    <t xml:space="preserve">2.72107291221619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322907447815</t>
   </si>
   <si>
     <t xml:space="preserve">2.86966347694397</t>
@@ -1745,13 +1745,13 @@
     <t xml:space="preserve">2.81394195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99039387702942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19470643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08326292037964</t>
+    <t xml:space="preserve">2.99039363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1947066783905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08326315879822</t>
   </si>
   <si>
     <t xml:space="preserve">3.01825451850891</t>
@@ -1760,34 +1760,31 @@
     <t xml:space="preserve">2.93467235565186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85108947753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92538547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96253323554993</t>
+    <t xml:space="preserve">2.85108971595764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92538523674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96253299713135</t>
   </si>
   <si>
     <t xml:space="preserve">2.90681147575378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86037683486938</t>
+    <t xml:space="preserve">2.86037659645081</t>
   </si>
   <si>
     <t xml:space="preserve">2.80465507507324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63749027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60962915420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68392491340637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66535091400146</t>
+    <t xml:space="preserve">2.63749003410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6096293926239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66535115242004</t>
   </si>
   <si>
     <t xml:space="preserve">2.73964643478394</t>
@@ -1814,7 +1811,7 @@
     <t xml:space="preserve">2.59105563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64677691459656</t>
+    <t xml:space="preserve">2.64677715301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.87895059585571</t>
@@ -1823,13 +1820,13 @@
     <t xml:space="preserve">2.91609835624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79536819458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78608131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83251595497131</t>
+    <t xml:space="preserve">2.7953679561615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78608107566833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">2.8882372379303</t>
@@ -1850,22 +1847,22 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752459526062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61891627311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55390763282776</t>
+    <t xml:space="preserve">2.89752411842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61891651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55390787124634</t>
   </si>
   <si>
     <t xml:space="preserve">2.71178579330444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99968075752258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06468915939331</t>
+    <t xml:space="preserve">2.999680519104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06468939781189</t>
   </si>
   <si>
     <t xml:space="preserve">3.04611539840698</t>
@@ -1874,28 +1871,28 @@
     <t xml:space="preserve">3.10183691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11112380027771</t>
+    <t xml:space="preserve">3.11112403869629</t>
   </si>
   <si>
     <t xml:space="preserve">3.07397627830505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97182011604309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03682851791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00896787643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395923614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84180283546448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76750755310059</t>
+    <t xml:space="preserve">2.97181987762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0368287563324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00896763801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395899772644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8418025970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76750731468201</t>
   </si>
   <si>
     <t xml:space="preserve">2.30316042900085</t>
@@ -1904,13 +1901,13 @@
     <t xml:space="preserve">2.25672578811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34959506988525</t>
+    <t xml:space="preserve">2.34959530830383</t>
   </si>
   <si>
     <t xml:space="preserve">2.48889923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38674259185791</t>
+    <t xml:space="preserve">2.38674283027649</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
@@ -1919,7 +1916,7 @@
     <t xml:space="preserve">2.58176851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5631947517395</t>
+    <t xml:space="preserve">2.56319499015808</t>
   </si>
   <si>
     <t xml:space="preserve">2.51675987243652</t>
@@ -1937,222 +1934,222 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.358882188797</t>
+    <t xml:space="preserve">2.35888195037842</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602994918823</t>
+    <t xml:space="preserve">2.39602971076965</t>
   </si>
   <si>
     <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41460371017456</t>
+    <t xml:space="preserve">2.41460347175598</t>
   </si>
   <si>
     <t xml:space="preserve">2.28458666801453</t>
   </si>
   <si>
+    <t xml:space="preserve">2.27529978752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30374097824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28478002548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31322145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24685835838318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22789740562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26581931114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23737788200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18049550056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15205407142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13309359550476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07621097564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12361288070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10465216636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11413264274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03828930854797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04776978492737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14257383346558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16153454780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19945621490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17101502418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25633883476257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18997573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05725002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02880883216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00984787940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06673073768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99088704586029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97192621231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96244585514069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98140668869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00036764144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94348502159119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92452430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90556347370148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95296549797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91504383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93400454521179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88660264015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86764168739319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85816144943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84868097305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89134287834167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88186240196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89608299732208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87712216377258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08569121360779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38906455039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44594717025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46490788459778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41750574111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36062335968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29426050186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32270169258118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37958431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35114288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33218216896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37010359764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34166264533997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802550315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.218416929245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30447006225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26557588577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24612903594971</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.27529954910278</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30374097824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28478002548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31322145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24685835838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27529978752136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22789740562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26581931114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23737788200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18049550056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15205407142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13309359550476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07621097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12361288070679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10465216636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11413264274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03828930854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04776978492737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14257383346558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16153454780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19945621490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17101502418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25633883476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20893669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18997573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05725002288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02880883216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00984787940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06673073768616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99088704586029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97192621231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96244585514069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98140668869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00036764144897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94348502159119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92452430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90556347370148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95296549797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91504383087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93400454521179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88660264015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86764168739319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85816144943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84868097305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89134287834167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88186240196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89608299732208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87712216377258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08569121360779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38906455039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44594717025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46490788459778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41750574111938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36062335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29426050186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32270169258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37958431243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35114288330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33218216896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37010359764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34166264533997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802550315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.218416929245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30447006225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26557588577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24612903594971</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.17806458473206</t>
   </si>
   <si>
@@ -2373,6 +2370,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.17000007629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09999990463257</t>
   </si>
 </sst>
 </file>
@@ -38846,7 +38846,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1390" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38872,7 +38872,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1391" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38898,7 +38898,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1392" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38924,7 +38924,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1393" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39002,7 +39002,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39028,7 +39028,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1397" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39132,7 +39132,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39158,7 +39158,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1402" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39184,7 +39184,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1403" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39210,7 +39210,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39236,7 +39236,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1405" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39262,7 +39262,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39288,7 +39288,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39314,7 +39314,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39340,7 +39340,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1409" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39366,7 +39366,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1410" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39392,7 +39392,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1411" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39418,7 +39418,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1412" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39444,7 +39444,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1413" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39470,7 +39470,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1414" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39496,7 +39496,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1415" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39522,7 +39522,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1416" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39548,7 +39548,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1417" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39600,7 +39600,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1419" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39626,7 +39626,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1420" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39704,7 +39704,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1423" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39782,7 +39782,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1426" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39860,7 +39860,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1429" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39886,7 +39886,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1430" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39938,7 +39938,7 @@
         <v>3</v>
       </c>
       <c r="G1432" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40016,7 +40016,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1435" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40042,7 +40042,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1436" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40120,7 +40120,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1439" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40328,7 +40328,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1447" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40354,7 +40354,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1448" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40380,7 +40380,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1449" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40406,7 +40406,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40432,7 +40432,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1451" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40458,7 +40458,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1452" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40484,7 +40484,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40536,7 +40536,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1455" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40562,7 +40562,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40666,7 +40666,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1460" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40692,7 +40692,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1461" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40718,7 +40718,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1462" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40744,7 +40744,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1463" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40770,7 +40770,7 @@
         <v>2.75</v>
       </c>
       <c r="G1464" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40796,7 +40796,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1465" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40822,7 +40822,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1466" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40848,7 +40848,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1467" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40874,7 +40874,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1468" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40900,7 +40900,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1469" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40926,7 +40926,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1470" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40952,7 +40952,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41030,7 +41030,7 @@
         <v>3</v>
       </c>
       <c r="G1474" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41082,7 +41082,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1476" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41134,7 +41134,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1478" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41186,7 +41186,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41212,7 +41212,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1481" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41238,7 +41238,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1482" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41264,7 +41264,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1483" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41290,7 +41290,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41316,7 +41316,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1485" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41342,7 +41342,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1486" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41368,7 +41368,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1487" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41394,7 +41394,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1488" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41472,7 +41472,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1491" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41498,7 +41498,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1492" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41524,7 +41524,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1493" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41550,7 +41550,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1494" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41576,7 +41576,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41602,7 +41602,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1496" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41628,7 +41628,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1497" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41680,7 +41680,7 @@
         <v>3</v>
       </c>
       <c r="G1499" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41706,7 +41706,7 @@
         <v>3</v>
       </c>
       <c r="G1500" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41758,7 +41758,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1502" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41784,7 +41784,7 @@
         <v>3</v>
       </c>
       <c r="G1503" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41810,7 +41810,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1504" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41888,7 +41888,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1507" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41914,7 +41914,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1508" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42122,7 +42122,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1516" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42174,7 +42174,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1518" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42200,7 +42200,7 @@
         <v>3</v>
       </c>
       <c r="G1519" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42278,7 +42278,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1522" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42382,7 +42382,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1526" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42434,7 +42434,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1528" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42460,7 +42460,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1529" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42486,7 +42486,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1530" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42538,7 +42538,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42564,7 +42564,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1533" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42590,7 +42590,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1534" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42642,7 +42642,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1536" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42668,7 +42668,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1537" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42772,7 +42772,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42824,7 +42824,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1543" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42850,7 +42850,7 @@
         <v>3</v>
       </c>
       <c r="G1544" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42928,7 +42928,7 @@
         <v>3</v>
       </c>
       <c r="G1547" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42954,7 +42954,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1548" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -42980,7 +42980,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1549" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43006,7 +43006,7 @@
         <v>3</v>
       </c>
       <c r="G1550" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43032,7 +43032,7 @@
         <v>3</v>
       </c>
       <c r="G1551" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43058,7 +43058,7 @@
         <v>3</v>
       </c>
       <c r="G1552" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43084,7 +43084,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1553" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43110,7 +43110,7 @@
         <v>3</v>
       </c>
       <c r="G1554" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43188,7 +43188,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1557" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43266,7 +43266,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1560" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43292,7 +43292,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1561" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43344,7 +43344,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1563" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43370,7 +43370,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1564" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43396,7 +43396,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1565" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43422,7 +43422,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1566" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43500,7 +43500,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1569" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43526,7 +43526,7 @@
         <v>2.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43552,7 +43552,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43578,7 +43578,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43604,7 +43604,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1573" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43630,7 +43630,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1574" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43656,7 +43656,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1575" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43682,7 +43682,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1576" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43708,7 +43708,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1577" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43734,7 +43734,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1578" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43786,7 +43786,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1580" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43812,7 +43812,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1581" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43838,7 +43838,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1582" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43864,7 +43864,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43890,7 +43890,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1584" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43916,7 +43916,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1585" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43942,7 +43942,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1586" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43968,7 +43968,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -43994,7 +43994,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44020,7 +44020,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1589" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44072,7 +44072,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1591" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44124,7 +44124,7 @@
         <v>2.75</v>
       </c>
       <c r="G1593" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44150,7 +44150,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1594" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44176,7 +44176,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1595" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44202,7 +44202,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1596" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44228,7 +44228,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44254,7 +44254,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1598" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44280,7 +44280,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44306,7 +44306,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1600" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44332,7 +44332,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1601" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44358,7 +44358,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1602" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44384,7 +44384,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1603" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44410,7 +44410,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1604" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44436,7 +44436,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1605" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44462,7 +44462,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44488,7 +44488,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44514,7 +44514,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1608" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44540,7 +44540,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44566,7 +44566,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1610" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44592,7 +44592,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1611" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44618,7 +44618,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44644,7 +44644,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1613" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44670,7 +44670,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44696,7 +44696,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44722,7 +44722,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1616" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44748,7 +44748,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1617" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44774,7 +44774,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1618" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44800,7 +44800,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44826,7 +44826,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44852,7 +44852,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44878,7 +44878,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1622" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44904,7 +44904,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44930,7 +44930,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1624" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44956,7 +44956,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -44982,7 +44982,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1626" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45008,7 +45008,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1627" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45034,7 +45034,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45060,7 +45060,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1629" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45086,7 +45086,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45112,7 +45112,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45138,7 +45138,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1632" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45164,7 +45164,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45190,7 +45190,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1634" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45216,7 +45216,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45242,7 +45242,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45268,7 +45268,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45294,7 +45294,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45320,7 +45320,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45346,7 +45346,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45372,7 +45372,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45398,7 +45398,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45424,7 +45424,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45450,7 +45450,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45476,7 +45476,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45502,7 +45502,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45528,7 +45528,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45554,7 +45554,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45580,7 +45580,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45606,7 +45606,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45632,7 +45632,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45658,7 +45658,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45684,7 +45684,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45710,7 +45710,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45736,7 +45736,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45762,7 +45762,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45788,7 +45788,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45814,7 +45814,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45840,7 +45840,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45866,7 +45866,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45892,7 +45892,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45918,7 +45918,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45944,7 +45944,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45970,7 +45970,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -45996,7 +45996,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46022,7 +46022,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46048,7 +46048,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46074,7 +46074,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46100,7 +46100,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46126,7 +46126,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46152,7 +46152,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46178,7 +46178,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46204,7 +46204,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46230,7 +46230,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46256,7 +46256,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46282,7 +46282,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46308,7 +46308,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46334,7 +46334,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46360,7 +46360,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46386,7 +46386,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46412,7 +46412,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46438,7 +46438,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46464,7 +46464,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46490,7 +46490,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46516,7 +46516,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46542,7 +46542,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46568,7 +46568,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46594,7 +46594,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46620,7 +46620,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46646,7 +46646,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46672,7 +46672,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46698,7 +46698,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46724,7 +46724,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46750,7 +46750,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46776,7 +46776,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46802,7 +46802,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46828,7 +46828,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46854,7 +46854,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46880,7 +46880,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46906,7 +46906,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46932,7 +46932,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46958,7 +46958,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46984,7 +46984,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47010,7 +47010,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47036,7 +47036,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47062,7 +47062,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47088,7 +47088,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47114,7 +47114,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47140,7 +47140,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47166,7 +47166,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47192,7 +47192,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47218,7 +47218,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47244,7 +47244,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47270,7 +47270,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47296,7 +47296,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47322,7 +47322,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47348,7 +47348,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47374,7 +47374,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47400,7 +47400,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47426,7 +47426,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47452,7 +47452,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47478,7 +47478,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47504,7 +47504,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47530,7 +47530,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47556,7 +47556,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47582,7 +47582,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47608,7 +47608,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47634,7 +47634,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47660,7 +47660,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47686,7 +47686,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47712,7 +47712,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47738,7 +47738,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47764,7 +47764,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47790,7 +47790,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47816,7 +47816,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47842,7 +47842,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47868,7 +47868,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47894,7 +47894,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47920,7 +47920,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47946,7 +47946,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47972,7 +47972,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -47998,7 +47998,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48024,7 +48024,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48050,7 +48050,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48076,7 +48076,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48102,7 +48102,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48128,7 +48128,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48154,7 +48154,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48180,7 +48180,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48206,7 +48206,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48232,7 +48232,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48258,7 +48258,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48284,7 +48284,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48310,7 +48310,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48336,7 +48336,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48362,7 +48362,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48388,7 +48388,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48414,7 +48414,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48440,7 +48440,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48466,7 +48466,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48492,7 +48492,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48518,7 +48518,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48544,7 +48544,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48570,7 +48570,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48596,7 +48596,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48622,7 +48622,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48648,7 +48648,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48674,7 +48674,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48700,7 +48700,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48726,7 +48726,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48752,7 +48752,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48778,7 +48778,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48804,7 +48804,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48830,7 +48830,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48856,7 +48856,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48882,7 +48882,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48908,7 +48908,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48934,7 +48934,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48960,7 +48960,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48986,7 +48986,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49012,7 +49012,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49038,7 +49038,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49064,7 +49064,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49090,7 +49090,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49116,7 +49116,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49142,7 +49142,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49168,7 +49168,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49194,7 +49194,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49220,7 +49220,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49246,7 +49246,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49272,7 +49272,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49298,7 +49298,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49324,7 +49324,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49350,7 +49350,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49376,7 +49376,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49402,7 +49402,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49428,7 +49428,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49454,7 +49454,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49480,7 +49480,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49506,7 +49506,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49532,7 +49532,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49558,7 +49558,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49584,7 +49584,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49610,7 +49610,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49636,7 +49636,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1805" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49662,7 +49662,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49688,7 +49688,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49714,7 +49714,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49740,7 +49740,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49766,7 +49766,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49792,7 +49792,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49818,7 +49818,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49844,7 +49844,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49870,7 +49870,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1814" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49896,7 +49896,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49922,7 +49922,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49948,7 +49948,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49974,7 +49974,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50000,7 +50000,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50026,7 +50026,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50052,7 +50052,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50078,7 +50078,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1822" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50104,7 +50104,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50130,7 +50130,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50156,7 +50156,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50182,7 +50182,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50208,7 +50208,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50234,7 +50234,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50260,7 +50260,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50286,7 +50286,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50312,7 +50312,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50338,7 +50338,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50364,7 +50364,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50390,7 +50390,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50416,7 +50416,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50442,7 +50442,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50468,7 +50468,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50494,7 +50494,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50520,7 +50520,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50546,7 +50546,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50572,7 +50572,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50598,7 +50598,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50624,7 +50624,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1843" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50650,7 +50650,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50676,7 +50676,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50702,7 +50702,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1846" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50728,7 +50728,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1847" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50754,7 +50754,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50780,7 +50780,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50806,7 +50806,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50832,7 +50832,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50858,7 +50858,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50884,7 +50884,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50910,7 +50910,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50936,7 +50936,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50962,7 +50962,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50988,7 +50988,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51014,7 +51014,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51040,7 +51040,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1859" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51066,7 +51066,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51092,7 +51092,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1861" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51118,7 +51118,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1862" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51144,7 +51144,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1863" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51170,7 +51170,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51196,7 +51196,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1865" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51222,7 +51222,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51248,7 +51248,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51274,7 +51274,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1868" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51300,7 +51300,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51326,7 +51326,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51352,7 +51352,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51378,7 +51378,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51404,7 +51404,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51430,7 +51430,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51456,7 +51456,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51482,7 +51482,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51508,7 +51508,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51534,7 +51534,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51560,7 +51560,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51586,7 +51586,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51612,7 +51612,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51638,7 +51638,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51664,7 +51664,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1883" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51690,7 +51690,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1884" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51716,7 +51716,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1885" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51742,7 +51742,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51768,7 +51768,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1887" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51794,7 +51794,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51820,7 +51820,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51846,7 +51846,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51872,7 +51872,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51898,7 +51898,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51924,7 +51924,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51950,7 +51950,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51976,7 +51976,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52002,7 +52002,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52028,7 +52028,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52054,7 +52054,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52080,7 +52080,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52106,7 +52106,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52132,7 +52132,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52158,7 +52158,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52184,7 +52184,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52210,7 +52210,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52236,7 +52236,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52262,7 +52262,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52288,7 +52288,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52314,7 +52314,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52340,7 +52340,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52366,7 +52366,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52392,7 +52392,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52418,7 +52418,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52444,7 +52444,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52470,7 +52470,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52496,7 +52496,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52522,7 +52522,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52548,7 +52548,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52574,7 +52574,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52600,7 +52600,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52626,7 +52626,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52652,7 +52652,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52678,7 +52678,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52704,7 +52704,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52730,7 +52730,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52756,7 +52756,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52782,7 +52782,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52808,7 +52808,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52834,7 +52834,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52860,7 +52860,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52886,7 +52886,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52912,7 +52912,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52938,7 +52938,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52964,7 +52964,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52990,7 +52990,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53016,7 +53016,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53042,7 +53042,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53068,7 +53068,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53094,7 +53094,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53120,7 +53120,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53146,7 +53146,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53172,7 +53172,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53198,7 +53198,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1942" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53224,7 +53224,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53250,7 +53250,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53276,7 +53276,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53302,7 +53302,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53328,7 +53328,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53354,7 +53354,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53380,7 +53380,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53406,7 +53406,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53432,7 +53432,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53458,7 +53458,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53484,7 +53484,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1953" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53510,7 +53510,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53536,7 +53536,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53562,7 +53562,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53588,7 +53588,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53614,7 +53614,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53640,7 +53640,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53666,7 +53666,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53692,7 +53692,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53718,7 +53718,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53744,7 +53744,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53770,7 +53770,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53796,7 +53796,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53822,7 +53822,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53848,7 +53848,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53874,7 +53874,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53900,7 +53900,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53926,7 +53926,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53952,7 +53952,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53978,7 +53978,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54004,7 +54004,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54030,7 +54030,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54056,7 +54056,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54082,7 +54082,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54108,7 +54108,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54134,7 +54134,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54160,7 +54160,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54186,7 +54186,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54212,7 +54212,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54238,7 +54238,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54264,7 +54264,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54290,7 +54290,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54316,7 +54316,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54342,7 +54342,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54368,7 +54368,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54394,7 +54394,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54420,7 +54420,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54446,7 +54446,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54472,7 +54472,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54498,7 +54498,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54524,7 +54524,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54550,7 +54550,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54576,7 +54576,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54602,7 +54602,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54628,7 +54628,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54654,7 +54654,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54680,7 +54680,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54706,7 +54706,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54732,7 +54732,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54758,7 +54758,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54784,7 +54784,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54810,7 +54810,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54836,7 +54836,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54862,7 +54862,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54888,7 +54888,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54914,7 +54914,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54940,7 +54940,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54966,7 +54966,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -54992,7 +54992,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55018,7 +55018,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55044,7 +55044,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55070,7 +55070,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55096,7 +55096,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55122,7 +55122,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55148,7 +55148,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55174,7 +55174,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55200,7 +55200,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55226,7 +55226,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55252,7 +55252,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55278,7 +55278,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55304,7 +55304,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55330,7 +55330,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55356,7 +55356,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55382,7 +55382,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55408,7 +55408,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55434,7 +55434,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55460,7 +55460,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55486,7 +55486,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55512,7 +55512,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55538,7 +55538,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55564,7 +55564,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55590,7 +55590,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55616,7 +55616,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55642,7 +55642,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55668,7 +55668,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55694,7 +55694,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55720,7 +55720,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55746,7 +55746,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55772,7 +55772,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55798,7 +55798,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55824,7 +55824,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55850,7 +55850,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55876,7 +55876,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55902,7 +55902,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55928,7 +55928,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55954,7 +55954,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55980,7 +55980,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56006,7 +56006,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56032,7 +56032,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56058,7 +56058,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56084,7 +56084,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56110,7 +56110,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56136,7 +56136,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56162,7 +56162,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56188,7 +56188,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56214,7 +56214,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56240,7 +56240,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56266,7 +56266,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56292,7 +56292,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56318,7 +56318,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56344,7 +56344,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56370,7 +56370,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56396,7 +56396,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56422,7 +56422,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56448,7 +56448,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56474,7 +56474,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56500,7 +56500,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56526,7 +56526,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56552,7 +56552,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56578,7 +56578,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56604,7 +56604,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56630,7 +56630,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56656,7 +56656,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56682,7 +56682,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56708,7 +56708,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56734,7 +56734,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56760,7 +56760,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56786,7 +56786,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56812,7 +56812,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56838,7 +56838,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56864,7 +56864,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56890,7 +56890,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56916,7 +56916,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56942,7 +56942,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56968,7 +56968,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -56994,7 +56994,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57020,7 +57020,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57046,7 +57046,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57072,7 +57072,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57098,7 +57098,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57124,7 +57124,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57150,7 +57150,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57176,7 +57176,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57202,7 +57202,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57228,7 +57228,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57254,7 +57254,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57280,7 +57280,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57306,7 +57306,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57332,7 +57332,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57358,7 +57358,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57384,7 +57384,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57410,7 +57410,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57436,7 +57436,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57462,7 +57462,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57488,7 +57488,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57514,7 +57514,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57540,7 +57540,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57566,7 +57566,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57592,7 +57592,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57618,7 +57618,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57644,7 +57644,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57670,7 +57670,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57696,7 +57696,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57722,7 +57722,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57748,7 +57748,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57774,7 +57774,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57800,7 +57800,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57826,7 +57826,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57852,7 +57852,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57878,7 +57878,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57904,7 +57904,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57930,7 +57930,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57956,7 +57956,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57982,7 +57982,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58008,7 +58008,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58034,7 +58034,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58060,7 +58060,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58086,7 +58086,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58112,7 +58112,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58138,7 +58138,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58164,7 +58164,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58190,7 +58190,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58216,7 +58216,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58242,7 +58242,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58268,7 +58268,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58294,7 +58294,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58320,7 +58320,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58346,7 +58346,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58372,7 +58372,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58398,7 +58398,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58424,7 +58424,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58450,7 +58450,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58476,7 +58476,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58502,7 +58502,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58528,7 +58528,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58554,7 +58554,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58580,7 +58580,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58606,7 +58606,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58614,7 +58614,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6224652778</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>3878</v>
@@ -58632,9 +58632,35 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
+        <v>785</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.649375</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>10911</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>2.16000008583069</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="G2152" t="s">
         <v>786</v>
       </c>
-      <c r="H2151" t="s">
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="790">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338215827942</t>
+    <t xml:space="preserve">1.80338203907013</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
@@ -47,31 +47,31 @@
     <t xml:space="preserve">1.79827845096588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74383676052094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75404453277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73532998561859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7268238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661579608917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854439258575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66047275066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175832271576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5311735868454</t>
+    <t xml:space="preserve">1.74383664131165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75404465198517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73533010482788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72682356834412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661555767059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66047286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175844192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117346763611</t>
   </si>
   <si>
     <t xml:space="preserve">1.64090776443481</t>
@@ -80,58 +80,58 @@
     <t xml:space="preserve">1.64005708694458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410258293152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65026497840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325190544128</t>
+    <t xml:space="preserve">1.63410246372223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65026521682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325178623199</t>
   </si>
   <si>
     <t xml:space="preserve">1.60773241519928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55839443206787</t>
+    <t xml:space="preserve">1.55839431285858</t>
   </si>
   <si>
     <t xml:space="preserve">1.58646607398987</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6128363609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5822126865387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49714779853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55158936977386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5056539773941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56434905529022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70130407810211</t>
+    <t xml:space="preserve">1.61283612251282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58221292495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49714767932892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55158948898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50565409660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608899116516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56434917449951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70130395889282</t>
   </si>
   <si>
     <t xml:space="preserve">1.68429112434387</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70640802383423</t>
+    <t xml:space="preserve">1.70640790462494</t>
   </si>
   <si>
     <t xml:space="preserve">1.69279742240906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68684315681458</t>
+    <t xml:space="preserve">1.68684303760529</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194686412811</t>
@@ -140,52 +140,52 @@
     <t xml:space="preserve">1.6893949508667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71831703186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65366756916046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64686226844788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61623895168304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69024550914764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68173933029175</t>
+    <t xml:space="preserve">1.71831715106964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65366744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64686238765717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61623883247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69024562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68173897266388</t>
   </si>
   <si>
     <t xml:space="preserve">1.65111577510834</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62049221992493</t>
+    <t xml:space="preserve">1.62049210071564</t>
   </si>
   <si>
     <t xml:space="preserve">1.63750517368317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63240110874176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6153883934021</t>
+    <t xml:space="preserve">1.63240122795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61538827419281</t>
   </si>
   <si>
     <t xml:space="preserve">1.60432982444763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5805116891861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986854553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177767276764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688173770905</t>
+    <t xml:space="preserve">1.58051156997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986878395081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177791118622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688185691833</t>
   </si>
   <si>
     <t xml:space="preserve">1.59922587871552</t>
@@ -212,52 +212,52 @@
     <t xml:space="preserve">1.56094646453857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53287529945374</t>
+    <t xml:space="preserve">1.53287506103516</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096581459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55329060554504</t>
+    <t xml:space="preserve">1.55329048633575</t>
   </si>
   <si>
     <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53968024253845</t>
+    <t xml:space="preserve">1.53968012332916</t>
   </si>
   <si>
     <t xml:space="preserve">1.52862167358398</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5039529800415</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.50395286083221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703013896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654888153076</t>
+    <t xml:space="preserve">1.50395274162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49703025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654876232147</t>
   </si>
   <si>
     <t xml:space="preserve">1.47626197338104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4788578748703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47539663314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46933937072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45376324653625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405027389526</t>
+    <t xml:space="preserve">1.47885799407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47539675235748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46933925151825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45376348495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405015468597</t>
   </si>
   <si>
     <t xml:space="preserve">1.47972345352173</t>
@@ -269,49 +269,49 @@
     <t xml:space="preserve">1.49270343780518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52299010753632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837673664093</t>
+    <t xml:space="preserve">1.52299022674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837685585022</t>
   </si>
   <si>
     <t xml:space="preserve">1.46674346923828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47366583347321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50568354129791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44510996341705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.451167345047</t>
+    <t xml:space="preserve">1.47366607189178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50568330287933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44510984420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45116746425629</t>
   </si>
   <si>
     <t xml:space="preserve">1.42001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46760880947113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45895528793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5143369436264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47107017040253</t>
+    <t xml:space="preserve">1.46760869026184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45895540714264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51433682441711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47107005119324</t>
   </si>
   <si>
     <t xml:space="preserve">1.46501278877258</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52039408683777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49183821678162</t>
+    <t xml:space="preserve">1.52039420604706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
     <t xml:space="preserve">1.52212476730347</t>
@@ -323,136 +323,136 @@
     <t xml:space="preserve">1.50222218036652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49616467952728</t>
+    <t xml:space="preserve">1.49616479873657</t>
   </si>
   <si>
     <t xml:space="preserve">1.5299129486084</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50827956199646</t>
+    <t xml:space="preserve">1.50827944278717</t>
   </si>
   <si>
     <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51347160339355</t>
+    <t xml:space="preserve">1.51347148418427</t>
   </si>
   <si>
     <t xml:space="preserve">1.53077828884125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50308752059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049126148224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135672092438</t>
+    <t xml:space="preserve">1.50308728218079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049138069153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135684013367</t>
   </si>
   <si>
     <t xml:space="preserve">1.53337419033051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48318481445312</t>
+    <t xml:space="preserve">1.48318469524384</t>
   </si>
   <si>
     <t xml:space="preserve">1.51866340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51174080371857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54375827312469</t>
+    <t xml:space="preserve">1.51174068450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54375815391541</t>
   </si>
   <si>
     <t xml:space="preserve">1.55500757694244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54895031452179</t>
+    <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
     <t xml:space="preserve">1.54029679298401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53250896930695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.555872797966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54462361335754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5576034784317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443411827087</t>
+    <t xml:space="preserve">1.53250908851624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55587291717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54462337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55760335922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443423748016</t>
   </si>
   <si>
     <t xml:space="preserve">1.49010741710663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48231959342957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5454888343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52558624744415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.526451587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55673825740814</t>
+    <t xml:space="preserve">1.48231947422028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54548895359039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52558612823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52645170688629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55673837661743</t>
   </si>
   <si>
     <t xml:space="preserve">1.54116225242615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55327677726746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54202747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693272590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53856611251831</t>
+    <t xml:space="preserve">1.55327689647675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.542027592659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693284511566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53856635093689</t>
   </si>
   <si>
     <t xml:space="preserve">1.51606750488281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54635405540466</t>
+    <t xml:space="preserve">1.54635417461395</t>
   </si>
   <si>
     <t xml:space="preserve">1.57404506206512</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837164402008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57317972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56971836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54981565475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55846905708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59135162830353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221708774567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60000503063202</t>
+    <t xml:space="preserve">1.57837176322937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57317960262299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56971824169159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54981553554535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55846893787384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59135174751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221696853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60000491142273</t>
   </si>
   <si>
     <t xml:space="preserve">1.56625688076019</t>
@@ -464,34 +464,34 @@
     <t xml:space="preserve">1.64413702487946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58096778392792</t>
+    <t xml:space="preserve">1.58096766471863</t>
   </si>
   <si>
     <t xml:space="preserve">1.60779309272766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664096355438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57750618457794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59827423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59913957118988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60087037086487</t>
+    <t xml:space="preserve">1.57664108276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57750642299652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59827435016632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59913969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60087025165558</t>
   </si>
   <si>
     <t xml:space="preserve">1.63461852073669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60952365398407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61731171607971</t>
+    <t xml:space="preserve">1.60952377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.617311835289</t>
   </si>
   <si>
     <t xml:space="preserve">1.61817705631256</t>
@@ -500,7 +500,7 @@
     <t xml:space="preserve">1.65192520618439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59654366970062</t>
+    <t xml:space="preserve">1.59654378890991</t>
   </si>
   <si>
     <t xml:space="preserve">1.60519707202911</t>
@@ -509,22 +509,22 @@
     <t xml:space="preserve">1.6190425157547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61211979389191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65971314907074</t>
+    <t xml:space="preserve">1.61211967468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65971302986145</t>
   </si>
   <si>
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279054641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67442381381989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67009723186493</t>
+    <t xml:space="preserve">1.65279042720795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6744236946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67009711265564</t>
   </si>
   <si>
     <t xml:space="preserve">1.66144371032715</t>
@@ -533,34 +533,34 @@
     <t xml:space="preserve">1.6415411233902</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63634920120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625178813934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68048119544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76701474189758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82585740089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81893503665924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682027339935</t>
+    <t xml:space="preserve">1.6363490819931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68048131465912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317451000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76701486110687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82585752010345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81893479824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682015419006</t>
   </si>
   <si>
     <t xml:space="preserve">1.77739870548248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79816699028015</t>
+    <t xml:space="preserve">1.79816687107086</t>
   </si>
   <si>
     <t xml:space="preserve">1.77393734455109</t>
@@ -572,28 +572,28 @@
     <t xml:space="preserve">1.79124402999878</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7514386177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72980535030365</t>
+    <t xml:space="preserve">1.75143849849701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72980523109436</t>
   </si>
   <si>
     <t xml:space="preserve">1.74797737598419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7445160150528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75663077831268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201231479645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74105477333069</t>
+    <t xml:space="preserve">1.74451613426208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75663065910339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758820056915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201243400574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74105489253998</t>
   </si>
   <si>
     <t xml:space="preserve">1.74278521537781</t>
@@ -602,16 +602,16 @@
     <t xml:space="preserve">1.71855592727661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73932409286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76528382301331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78432142734528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80855083465576</t>
+    <t xml:space="preserve">1.73932421207428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7652839422226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78432154655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80855107307434</t>
   </si>
   <si>
     <t xml:space="preserve">1.76182270050049</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">1.78259086608887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79989743232727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82412683963776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720435619354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80335867404938</t>
+    <t xml:space="preserve">1.79989731311798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82412707805634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720411777496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80335879325867</t>
   </si>
   <si>
     <t xml:space="preserve">1.84316444396973</t>
@@ -641,7 +641,7 @@
     <t xml:space="preserve">1.79297482967377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81547355651855</t>
+    <t xml:space="preserve">1.81547367572784</t>
   </si>
   <si>
     <t xml:space="preserve">1.78605210781097</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">1.85354828834534</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83451068401337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87777781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9262363910675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92104434967041</t>
+    <t xml:space="preserve">1.83451056480408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87777757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9210444688797</t>
   </si>
   <si>
     <t xml:space="preserve">1.90373778343201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83797252178192</t>
+    <t xml:space="preserve">1.83797240257263</t>
   </si>
   <si>
     <t xml:space="preserve">1.962531208992</t>
@@ -674,28 +674,28 @@
     <t xml:space="preserve">2.04503440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41366744041443</t>
+    <t xml:space="preserve">2.41366720199585</t>
   </si>
   <si>
     <t xml:space="preserve">2.42244434356689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30834412574768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24690508842468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648767471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39260292053223</t>
+    <t xml:space="preserve">2.3083438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2469048500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648743629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39260268211365</t>
   </si>
   <si>
     <t xml:space="preserve">2.4171781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40489077568054</t>
+    <t xml:space="preserve">2.40489029884338</t>
   </si>
   <si>
     <t xml:space="preserve">2.31712102890015</t>
@@ -707,22 +707,22 @@
     <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13280463218689</t>
+    <t xml:space="preserve">2.13280439376831</t>
   </si>
   <si>
     <t xml:space="preserve">2.08014249801636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01870346069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07136535644531</t>
+    <t xml:space="preserve">2.01870369911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07136559486389</t>
   </si>
   <si>
     <t xml:space="preserve">2.12753820419312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06258821487427</t>
+    <t xml:space="preserve">2.06258845329285</t>
   </si>
   <si>
     <t xml:space="preserve">2.08540868759155</t>
@@ -731,103 +731,103 @@
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647320747375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104867935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11525058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10296225547791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03976821899414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05381178855896</t>
+    <t xml:space="preserve">2.10647344589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104891777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1152503490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10296249389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03976845741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
     <t xml:space="preserve">2.03625750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03099131584167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0345025062561</t>
+    <t xml:space="preserve">2.03099155426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03450226783752</t>
   </si>
   <si>
     <t xml:space="preserve">2.00992679595947</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99763906002045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98359560966492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98535144329071</t>
+    <t xml:space="preserve">1.99763882160187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9835958480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98535108566284</t>
   </si>
   <si>
     <t xml:space="preserve">2.00114989280701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01694798469543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99588370323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710680007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0327467918396</t>
+    <t xml:space="preserve">2.01694822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99588358402252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710691928864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03274726867676</t>
   </si>
   <si>
     <t xml:space="preserve">2.06785464286804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07663154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04854583740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061763286591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97481870651245</t>
+    <t xml:space="preserve">2.07663130760193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04854559898376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061751365662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97481918334961</t>
   </si>
   <si>
     <t xml:space="preserve">1.97130811214447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96604216098785</t>
+    <t xml:space="preserve">1.96604180335999</t>
   </si>
   <si>
     <t xml:space="preserve">1.99237298965454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99939453601837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2030200958252</t>
+    <t xml:space="preserve">1.99939441680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20302033424377</t>
   </si>
   <si>
     <t xml:space="preserve">2.32414221763611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29078960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122148513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34345173835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48914980888367</t>
+    <t xml:space="preserve">2.29078984260559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122124671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34345197677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48914957046509</t>
   </si>
   <si>
     <t xml:space="preserve">2.48563885688782</t>
@@ -842,31 +842,31 @@
     <t xml:space="preserve">2.38207030296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38558125495911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35925030708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49792671203613</t>
+    <t xml:space="preserve">2.38558101654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35925006866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
     <t xml:space="preserve">2.48739409446716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44175362586975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984004974365</t>
+    <t xml:space="preserve">2.44175386428833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46983981132507</t>
   </si>
   <si>
     <t xml:space="preserve">2.42946600914001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37504863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084768295288</t>
+    <t xml:space="preserve">2.37504887580872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3908474445343</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">2.38909196853638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41893362998962</t>
+    <t xml:space="preserve">2.4189338684082</t>
   </si>
   <si>
     <t xml:space="preserve">2.43473219871521</t>
@@ -884,31 +884,31 @@
     <t xml:space="preserve">2.41542291641235</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3961136341095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41015696525574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43824291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44877552986145</t>
+    <t xml:space="preserve">2.39611339569092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41015672683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43824315071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44877576828003</t>
   </si>
   <si>
     <t xml:space="preserve">2.45579695701599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33994054794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238721847534</t>
+    <t xml:space="preserve">2.33994078636169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238698005676</t>
   </si>
   <si>
     <t xml:space="preserve">2.15737986564636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22232961654663</t>
+    <t xml:space="preserve">2.22232937812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.1696674823761</t>
@@ -926,16 +926,16 @@
     <t xml:space="preserve">2.35222864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37329339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627221107483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35749506950378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28376817703247</t>
+    <t xml:space="preserve">2.37329316139221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35749483108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28376841545105</t>
   </si>
   <si>
     <t xml:space="preserve">2.30658841133118</t>
@@ -944,22 +944,22 @@
     <t xml:space="preserve">2.28201270103455</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32589793205261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3136100769043</t>
+    <t xml:space="preserve">2.32589817047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31360983848572</t>
   </si>
   <si>
     <t xml:space="preserve">2.29956674575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25568199157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33116388320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29254508018494</t>
+    <t xml:space="preserve">2.25568175315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33116412162781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29254531860352</t>
   </si>
   <si>
     <t xml:space="preserve">2.30132222175598</t>
@@ -968,19 +968,19 @@
     <t xml:space="preserve">2.29781150817871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27323603630066</t>
+    <t xml:space="preserve">2.27323579788208</t>
   </si>
   <si>
     <t xml:space="preserve">2.36100578308105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4663290977478</t>
+    <t xml:space="preserve">2.46632957458496</t>
   </si>
   <si>
     <t xml:space="preserve">2.49266028404236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60676097869873</t>
+    <t xml:space="preserve">2.60676121711731</t>
   </si>
   <si>
     <t xml:space="preserve">2.65064573287964</t>
@@ -989,7 +989,7 @@
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65942287445068</t>
+    <t xml:space="preserve">2.65942239761353</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043026924133</t>
@@ -1001,28 +1001,28 @@
     <t xml:space="preserve">2.53654503822327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45755219459534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48388338088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36978244781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5277681350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6857533454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69453048706055</t>
+    <t xml:space="preserve">2.4575526714325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48388361930847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36978268623352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52776789665222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68575358390808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69453072547913</t>
   </si>
   <si>
     <t xml:space="preserve">2.72963857650757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73841547966003</t>
+    <t xml:space="preserve">2.73841524124146</t>
   </si>
   <si>
     <t xml:space="preserve">2.51021409034729</t>
@@ -1034,28 +1034,28 @@
     <t xml:space="preserve">2.61553812026978</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63309192657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56287622451782</t>
+    <t xml:space="preserve">2.63309216499329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56287598609924</t>
   </si>
   <si>
     <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33467483520508</t>
+    <t xml:space="preserve">2.33467507362366</t>
   </si>
   <si>
     <t xml:space="preserve">2.21179699897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26327753067017</t>
+    <t xml:space="preserve">2.26327729225159</t>
   </si>
   <si>
     <t xml:space="preserve">2.18276572227478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2364399433136</t>
+    <t xml:space="preserve">2.23644018173218</t>
   </si>
   <si>
     <t xml:space="preserve">2.36168074607849</t>
@@ -1067,7 +1067,7 @@
     <t xml:space="preserve">2.31695199012756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33484315872192</t>
+    <t xml:space="preserve">2.3348433971405</t>
   </si>
   <si>
     <t xml:space="preserve">2.34378910064697</t>
@@ -1079,19 +1079,19 @@
     <t xml:space="preserve">2.42430090904236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37062692642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37957239151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746403694153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3527352809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28116917610168</t>
+    <t xml:space="preserve">2.37062668800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37957262992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35273504257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28116893768311</t>
   </si>
   <si>
     <t xml:space="preserve">2.24538588523865</t>
@@ -1100,16 +1100,16 @@
     <t xml:space="preserve">2.27222299575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21854877471924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20065712928772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17382001876831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2543318271637</t>
+    <t xml:space="preserve">2.21854901313782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2006573677063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17381978034973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
     <t xml:space="preserve">2.15592837333679</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.29011464118958</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13803696632385</t>
+    <t xml:space="preserve">2.13803672790527</t>
   </si>
   <si>
     <t xml:space="preserve">2.14698243141174</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">2.16487407684326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10225343704224</t>
+    <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
     <t xml:space="preserve">2.07541632652283</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">2.05752491950989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06647062301636</t>
+    <t xml:space="preserve">2.06647086143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.03963327407837</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">2.11119937896729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09330797195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99490463733673</t>
+    <t xml:space="preserve">2.09330773353577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99490487575531</t>
   </si>
   <si>
     <t xml:space="preserve">1.93228435516357</t>
@@ -1169,22 +1169,22 @@
     <t xml:space="preserve">1.95017576217651</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8786096572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86966395378113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83388078212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77126061916351</t>
+    <t xml:space="preserve">1.87860977649689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86966407299042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83388090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77126049995422</t>
   </si>
   <si>
     <t xml:space="preserve">1.74442327022552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67733013629913</t>
+    <t xml:space="preserve">1.67733001708984</t>
   </si>
   <si>
     <t xml:space="preserve">1.68180298805237</t>
@@ -1199,31 +1199,31 @@
     <t xml:space="preserve">1.76231479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73995053768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76678776741028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74889612197876</t>
+    <t xml:space="preserve">1.73995041847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76678788661957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74889624118805</t>
   </si>
   <si>
     <t xml:space="preserve">1.69522154331207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64601993560791</t>
+    <t xml:space="preserve">1.6460200548172</t>
   </si>
   <si>
     <t xml:space="preserve">1.65496575832367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66838431358337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66391146183014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6862758398056</t>
+    <t xml:space="preserve">1.66838419437408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66391134262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68627572059631</t>
   </si>
   <si>
     <t xml:space="preserve">1.6996945142746</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">1.70864033699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75336921215057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72205901145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71758580207825</t>
+    <t xml:space="preserve">1.75336909294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72205889225006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71758592128754</t>
   </si>
   <si>
     <t xml:space="preserve">1.61918258666992</t>
@@ -1262,16 +1262,16 @@
     <t xml:space="preserve">1.70416736602783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7131130695343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78020632266998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81598949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80704355239868</t>
+    <t xml:space="preserve">1.71311318874359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78020620346069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81598937511444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80704367160797</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
@@ -1283,28 +1283,28 @@
     <t xml:space="preserve">1.82493507862091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7980979681015</t>
+    <t xml:space="preserve">1.79809784889221</t>
   </si>
   <si>
     <t xml:space="preserve">1.88755536079407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85177230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650118350983</t>
+    <t xml:space="preserve">1.8517724275589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650106430054</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333853244781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96806728839874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01279592514038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00385069847107</t>
+    <t xml:space="preserve">1.96806740760803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01279640197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00385046005249</t>
   </si>
   <si>
     <t xml:space="preserve">2.04857921600342</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">2.03068780899048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97701287269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595893383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439270973206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90544724464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94123029708862</t>
+    <t xml:space="preserve">1.9770131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595881462097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90544712543488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94122993946075</t>
   </si>
   <si>
     <t xml:space="preserve">1.67285716533661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70043182373047</t>
+    <t xml:space="preserve">1.70043170452118</t>
   </si>
   <si>
     <t xml:space="preserve">1.66826152801514</t>
@@ -1340,19 +1340,19 @@
     <t xml:space="preserve">1.6498783826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65907001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68664467334747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70502758026123</t>
+    <t xml:space="preserve">1.65906989574432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68664455413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70502769947052</t>
   </si>
   <si>
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69583606719971</t>
+    <t xml:space="preserve">1.695836186409</t>
   </si>
   <si>
     <t xml:space="preserve">1.69124031066895</t>
@@ -1364,7 +1364,7 @@
     <t xml:space="preserve">1.71881484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73719799518585</t>
+    <t xml:space="preserve">1.73719787597656</t>
   </si>
   <si>
     <t xml:space="preserve">1.7326021194458</t>
@@ -1373,10 +1373,10 @@
     <t xml:space="preserve">1.68204879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65447413921356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67745316028595</t>
+    <t xml:space="preserve">1.65447425842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
     <t xml:space="preserve">1.66366565227509</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">1.63149535655975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62689971923828</t>
+    <t xml:space="preserve">1.6268994808197</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932506084442</t>
@@ -1400,25 +1400,25 @@
     <t xml:space="preserve">1.60851657390594</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58553767204285</t>
+    <t xml:space="preserve">1.58553779125214</t>
   </si>
   <si>
     <t xml:space="preserve">1.60392081737518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61770808696747</t>
+    <t xml:space="preserve">1.61770796775818</t>
   </si>
   <si>
     <t xml:space="preserve">1.63609111309052</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62230384349823</t>
+    <t xml:space="preserve">1.62230396270752</t>
   </si>
   <si>
     <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58094203472137</t>
+    <t xml:space="preserve">1.58094215393066</t>
   </si>
   <si>
     <t xml:space="preserve">1.71421909332275</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">1.61311233043671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59472930431366</t>
+    <t xml:space="preserve">1.59472942352295</t>
   </si>
   <si>
     <t xml:space="preserve">1.57175052165985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55336737632751</t>
+    <t xml:space="preserve">1.5533674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255900859833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53498435020447</t>
+    <t xml:space="preserve">1.56255912780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53498446941376</t>
   </si>
   <si>
     <t xml:space="preserve">1.38332438468933</t>
@@ -1457,10 +1457,10 @@
     <t xml:space="preserve">1.22706842422485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30519640445709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221750259399</t>
+    <t xml:space="preserve">1.30519616603851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221762180328</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">1.24085569381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31438791751862</t>
+    <t xml:space="preserve">1.31438779830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.32357943058014</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">1.4108989238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630304813385</t>
+    <t xml:space="preserve">1.40630292892456</t>
   </si>
   <si>
     <t xml:space="preserve">1.39711153507233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40170729160309</t>
+    <t xml:space="preserve">1.40170741081238</t>
   </si>
   <si>
     <t xml:space="preserve">1.44766497612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4936226606369</t>
+    <t xml:space="preserve">1.49362254142761</t>
   </si>
   <si>
     <t xml:space="preserve">1.49821829795837</t>
@@ -1505,16 +1505,16 @@
     <t xml:space="preserve">1.48902678489685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983539104462</t>
+    <t xml:space="preserve">1.47983527183533</t>
   </si>
   <si>
     <t xml:space="preserve">1.46145236492157</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50740969181061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43387758731842</t>
+    <t xml:space="preserve">1.5074098110199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43387770652771</t>
   </si>
   <si>
     <t xml:space="preserve">1.44306921958923</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413275241852</t>
+    <t xml:space="preserve">1.37413287162781</t>
   </si>
   <si>
     <t xml:space="preserve">1.35574972629547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41549468040466</t>
+    <t xml:space="preserve">1.41549456119537</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
@@ -1562,25 +1562,25 @@
     <t xml:space="preserve">1.45226073265076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43847346305847</t>
+    <t xml:space="preserve">1.43847334384918</t>
   </si>
   <si>
     <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42009019851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46604800224304</t>
+    <t xml:space="preserve">1.42009031772614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46604788303375</t>
   </si>
   <si>
     <t xml:space="preserve">1.3281751871109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30979192256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30060052871704</t>
+    <t xml:space="preserve">1.30979204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30060064792633</t>
   </si>
   <si>
     <t xml:space="preserve">1.28681325912476</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">1.52579283714294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53958010673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54877173900604</t>
+    <t xml:space="preserve">1.53957998752594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54877161979675</t>
   </si>
   <si>
     <t xml:space="preserve">1.57634627819061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54417586326599</t>
+    <t xml:space="preserve">1.54417598247528</t>
   </si>
   <si>
     <t xml:space="preserve">1.55796325206757</t>
@@ -1616,7 +1616,7 @@
     <t xml:space="preserve">1.5671546459198</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396380901337</t>
+    <t xml:space="preserve">1.77396392822266</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">1.79234707355499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8750706911087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021988868713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88426220417023</t>
+    <t xml:space="preserve">1.87507081031799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021976947784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88426232337952</t>
   </si>
   <si>
     <t xml:space="preserve">1.89345383644104</t>
@@ -1640,22 +1640,22 @@
     <t xml:space="preserve">1.83830463886261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8291130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78775143623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451748847961</t>
+    <t xml:space="preserve">1.82911312580109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78775119781494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451736927032</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78315556049347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80153858661652</t>
+    <t xml:space="preserve">1.78315567970276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80153870582581</t>
   </si>
   <si>
     <t xml:space="preserve">1.84749627113342</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">1.79694283008575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83370900154114</t>
+    <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
     <t xml:space="preserve">1.86587929725647</t>
@@ -1679,7 +1679,7 @@
     <t xml:space="preserve">1.92102837562561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85668766498566</t>
+    <t xml:space="preserve">1.85668778419495</t>
   </si>
   <si>
     <t xml:space="preserve">1.81073009967804</t>
@@ -1703,10 +1703,10 @@
     <t xml:space="preserve">2.14162468910217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16919946670532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11405062675476</t>
+    <t xml:space="preserve">2.16919922828674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11405038833618</t>
   </si>
   <si>
     <t xml:space="preserve">2.12324190139771</t>
@@ -1721,7 +1721,7 @@
     <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46332812309265</t>
+    <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
     <t xml:space="preserve">2.63796710968018</t>
@@ -1730,10 +1730,10 @@
     <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73035979270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69321203231812</t>
+    <t xml:space="preserve">2.73035955429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69321179389954</t>
   </si>
   <si>
     <t xml:space="preserve">2.72107243537903</t>
@@ -1745,22 +1745,22 @@
     <t xml:space="preserve">2.86966347694397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81394195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.990394115448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19470643997192</t>
+    <t xml:space="preserve">2.81394171714783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99039387702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1947066783905</t>
   </si>
   <si>
     <t xml:space="preserve">3.08326315879822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01825475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93467235565186</t>
+    <t xml:space="preserve">3.01825451850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93467211723328</t>
   </si>
   <si>
     <t xml:space="preserve">2.85108971595764</t>
@@ -1775,13 +1775,13 @@
     <t xml:space="preserve">2.90681147575378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86037683486938</t>
+    <t xml:space="preserve">2.86037659645081</t>
   </si>
   <si>
     <t xml:space="preserve">2.80465507507324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63749027252197</t>
+    <t xml:space="preserve">2.63749003410339</t>
   </si>
   <si>
     <t xml:space="preserve">2.60962915420532</t>
@@ -1790,7 +1790,7 @@
     <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73964643478394</t>
+    <t xml:space="preserve">2.73964667320251</t>
   </si>
   <si>
     <t xml:space="preserve">2.75822043418884</t>
@@ -1808,7 +1808,7 @@
     <t xml:space="preserve">2.67463803291321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62820315361023</t>
+    <t xml:space="preserve">2.62820339202881</t>
   </si>
   <si>
     <t xml:space="preserve">2.59105563163757</t>
@@ -1817,7 +1817,7 @@
     <t xml:space="preserve">2.64677691459656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87895059585571</t>
+    <t xml:space="preserve">2.87895035743713</t>
   </si>
   <si>
     <t xml:space="preserve">2.91609835624695</t>
@@ -1829,7 +1829,7 @@
     <t xml:space="preserve">2.78608131408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83251571655273</t>
+    <t xml:space="preserve">2.83251595497131</t>
   </si>
   <si>
     <t xml:space="preserve">2.88823747634888</t>
@@ -1877,10 +1877,10 @@
     <t xml:space="preserve">3.11112380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07397603988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97182011604309</t>
+    <t xml:space="preserve">3.07397627830505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97181987762451</t>
   </si>
   <si>
     <t xml:space="preserve">3.03682851791382</t>
@@ -1889,13 +1889,13 @@
     <t xml:space="preserve">3.00896763801575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94395899772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84180283546448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76750755310059</t>
+    <t xml:space="preserve">2.94395923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8418025970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76750731468201</t>
   </si>
   <si>
     <t xml:space="preserve">2.30316066741943</t>
@@ -1907,10 +1907,10 @@
     <t xml:space="preserve">2.34959506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48889923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38674259185791</t>
+    <t xml:space="preserve">2.48889899253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38674283027649</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
@@ -1925,7 +1925,7 @@
     <t xml:space="preserve">2.51675987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4517514705658</t>
+    <t xml:space="preserve">2.45175170898438</t>
   </si>
   <si>
     <t xml:space="preserve">2.44246459007263</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">2.34030818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33102130889893</t>
+    <t xml:space="preserve">2.3310215473175</t>
   </si>
   <si>
     <t xml:space="preserve">2.35888195037842</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602994918823</t>
+    <t xml:space="preserve">2.39602971076965</t>
   </si>
   <si>
     <t xml:space="preserve">2.36816906929016</t>
@@ -2379,6 +2379,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.07999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04999995231628</t>
   </si>
 </sst>
 </file>
@@ -58698,7 +58701,7 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.5746990741</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>34697</v>
@@ -58710,7 +58713,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="E2154" t="n">
-        <v>2.11999988555908</v>
+        <v>2.0699999332428</v>
       </c>
       <c r="F2154" t="n">
         <v>2.07999992370605</v>
@@ -58719,6 +58722,32 @@
         <v>788</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.644212963</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>3582</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>2.09999990463257</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="791">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,124 +44,124 @@
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74383687973022</t>
+    <t xml:space="preserve">1.79827868938446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74383664131165</t>
   </si>
   <si>
     <t xml:space="preserve">1.75404453277588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73533010482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72682356834412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854427337646</t>
+    <t xml:space="preserve">1.73533022403717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72682368755341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661579608917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854439258575</t>
   </si>
   <si>
     <t xml:space="preserve">1.66047275066376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64175832271576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5311735868454</t>
+    <t xml:space="preserve">1.64175844192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117370605469</t>
   </si>
   <si>
     <t xml:space="preserve">1.64090776443481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64005696773529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410270214081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6502650976181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325202465057</t>
+    <t xml:space="preserve">1.64005720615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410258293152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65026485919952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325190544128</t>
   </si>
   <si>
     <t xml:space="preserve">1.60773241519928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55839455127716</t>
+    <t xml:space="preserve">1.55839443206787</t>
   </si>
   <si>
     <t xml:space="preserve">1.58646619319916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61283624172211</t>
+    <t xml:space="preserve">1.6128363609314</t>
   </si>
   <si>
     <t xml:space="preserve">1.58221280574799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49714756011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55158936977386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50565409660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608899116516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5643492937088</t>
+    <t xml:space="preserve">1.49714767932892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55158925056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5056539773941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608887195587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56434905529022</t>
   </si>
   <si>
     <t xml:space="preserve">1.7013041973114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68429100513458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70640778541565</t>
+    <t xml:space="preserve">1.68429112434387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70640814304352</t>
   </si>
   <si>
     <t xml:space="preserve">1.69279754161835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68684315681458</t>
+    <t xml:space="preserve">1.68684303760529</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194686412811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6893949508667</t>
+    <t xml:space="preserve">1.68939518928528</t>
   </si>
   <si>
     <t xml:space="preserve">1.71831703186035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65366756916046</t>
+    <t xml:space="preserve">1.65366768836975</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686238765717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61623895168304</t>
+    <t xml:space="preserve">1.61623907089233</t>
   </si>
   <si>
     <t xml:space="preserve">1.69024562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68173897266388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65111553668976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62049221992493</t>
+    <t xml:space="preserve">1.68173921108246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65111565589905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62049210071564</t>
   </si>
   <si>
     <t xml:space="preserve">1.63750517368317</t>
@@ -176,22 +176,22 @@
     <t xml:space="preserve">1.60432982444763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58051145076752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986866474152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177791118622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688185691833</t>
+    <t xml:space="preserve">1.5805116891861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986854553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177779197693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688173770905</t>
   </si>
   <si>
     <t xml:space="preserve">1.59922575950623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59752464294434</t>
+    <t xml:space="preserve">1.59752452373505</t>
   </si>
   <si>
     <t xml:space="preserve">1.54818677902222</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">1.57881021499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53542697429657</t>
+    <t xml:space="preserve">1.53542685508728</t>
   </si>
   <si>
     <t xml:space="preserve">1.56094658374786</t>
@@ -218,31 +218,31 @@
     <t xml:space="preserve">1.52096581459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55329060554504</t>
+    <t xml:space="preserve">1.55329048633575</t>
   </si>
   <si>
     <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53968000411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52862167358398</t>
+    <t xml:space="preserve">1.53968024253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52862179279327</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703013896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654888153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626197338104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47885799407959</t>
+    <t xml:space="preserve">1.49703025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654876232147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626221179962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47885823249817</t>
   </si>
   <si>
     <t xml:space="preserve">1.47539675235748</t>
@@ -251,52 +251,52 @@
     <t xml:space="preserve">1.46933937072754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45376336574554</t>
+    <t xml:space="preserve">1.45376324653625</t>
   </si>
   <si>
     <t xml:space="preserve">1.48405015468597</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47972345352173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48664605617523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49270331859589</t>
+    <t xml:space="preserve">1.47972333431244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48664617538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49270355701447</t>
   </si>
   <si>
     <t xml:space="preserve">1.52299022674561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48837685585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46674346923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47366607189178</t>
+    <t xml:space="preserve">1.48837661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46674335002899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47366583347321</t>
   </si>
   <si>
     <t xml:space="preserve">1.50568354129791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44511008262634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45116746425629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42001521587372</t>
+    <t xml:space="preserve">1.44510984420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.451167345047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42001533508301</t>
   </si>
   <si>
     <t xml:space="preserve">1.46760869026184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45895540714264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51433670520782</t>
+    <t xml:space="preserve">1.45895528793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5143369436264</t>
   </si>
   <si>
     <t xml:space="preserve">1.47107005119324</t>
@@ -305,46 +305,46 @@
     <t xml:space="preserve">1.46501266956329</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52039408683777</t>
+    <t xml:space="preserve">1.52039420604706</t>
   </si>
   <si>
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212464809418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47712755203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50222218036652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5299129486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827944278717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51087546348572</t>
+    <t xml:space="preserve">1.52212476730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47712743282318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50222206115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616491794586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991282939911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827956199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
     <t xml:space="preserve">1.51347148418427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53077816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50308752059937</t>
+    <t xml:space="preserve">1.53077828884125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50308740139008</t>
   </si>
   <si>
     <t xml:space="preserve">1.50049138069153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135684013367</t>
+    <t xml:space="preserve">1.50135672092438</t>
   </si>
   <si>
     <t xml:space="preserve">1.53337419033051</t>
@@ -353,7 +353,7 @@
     <t xml:space="preserve">1.48318481445312</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51866328716278</t>
+    <t xml:space="preserve">1.51866352558136</t>
   </si>
   <si>
     <t xml:space="preserve">1.51174080371857</t>
@@ -362,16 +362,16 @@
     <t xml:space="preserve">1.54375827312469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55500769615173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54895031452179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5402969121933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53250873088837</t>
+    <t xml:space="preserve">1.55500757694244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5489501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54029703140259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53250885009766</t>
   </si>
   <si>
     <t xml:space="preserve">1.55587291717529</t>
@@ -380,13 +380,13 @@
     <t xml:space="preserve">1.54462361335754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5576034784317</t>
+    <t xml:space="preserve">1.55760371685028</t>
   </si>
   <si>
     <t xml:space="preserve">1.49443399906158</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49010741710663</t>
+    <t xml:space="preserve">1.49010753631592</t>
   </si>
   <si>
     <t xml:space="preserve">1.48231935501099</t>
@@ -401,7 +401,7 @@
     <t xml:space="preserve">1.52645146846771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55673825740814</t>
+    <t xml:space="preserve">1.55673837661743</t>
   </si>
   <si>
     <t xml:space="preserve">1.54116213321686</t>
@@ -410,34 +410,34 @@
     <t xml:space="preserve">1.55327689647675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.542027592659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693296432495</t>
+    <t xml:space="preserve">1.54202735424042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693308353424</t>
   </si>
   <si>
     <t xml:space="preserve">1.5385662317276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51606738567352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54635429382324</t>
+    <t xml:space="preserve">1.51606750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54635405540466</t>
   </si>
   <si>
     <t xml:space="preserve">1.57404494285583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837152481079</t>
+    <t xml:space="preserve">1.57837176322937</t>
   </si>
   <si>
     <t xml:space="preserve">1.57317960262299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56971824169159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54981565475464</t>
+    <t xml:space="preserve">1.56971836090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54981553554535</t>
   </si>
   <si>
     <t xml:space="preserve">1.55846893787384</t>
@@ -446,22 +446,22 @@
     <t xml:space="preserve">1.59135162830353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59221696853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60000514984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56625688076019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55414211750031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64413714408875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58096778392792</t>
+    <t xml:space="preserve">1.59221708774567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60000503063202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56625699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55414223670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64413702487946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58096766471863</t>
   </si>
   <si>
     <t xml:space="preserve">1.60779297351837</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59827423095703</t>
+    <t xml:space="preserve">1.59827435016632</t>
   </si>
   <si>
     <t xml:space="preserve">1.59913980960846</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">1.60087037086487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6346184015274</t>
+    <t xml:space="preserve">1.63461852073669</t>
   </si>
   <si>
     <t xml:space="preserve">1.60952377319336</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">1.61731171607971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61817705631256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6519250869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59654378890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60519707202911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6190425157547</t>
+    <t xml:space="preserve">1.61817717552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65192520618439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5965439081192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6051971912384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61904239654541</t>
   </si>
   <si>
     <t xml:space="preserve">1.61211979389191</t>
@@ -515,31 +515,31 @@
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279066562653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67442381381989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67009699344635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66144394874573</t>
+    <t xml:space="preserve">1.65279054641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6744236946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67009723186493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66144382953644</t>
   </si>
   <si>
     <t xml:space="preserve">1.64154100418091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6363490819931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625178813934</t>
+    <t xml:space="preserve">1.63634920120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625190734863</t>
   </si>
   <si>
     <t xml:space="preserve">1.68048107624054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317462921143</t>
+    <t xml:space="preserve">1.66317451000214</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701486110687</t>
@@ -551,25 +551,25 @@
     <t xml:space="preserve">1.81893467903137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682015419006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77739858627319</t>
+    <t xml:space="preserve">1.80682027339935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77739870548248</t>
   </si>
   <si>
     <t xml:space="preserve">1.79816699028015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77393758296967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75836133956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79124402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7514386177063</t>
+    <t xml:space="preserve">1.77393734455109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75836157798767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79124414920807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75143873691559</t>
   </si>
   <si>
     <t xml:space="preserve">1.72980523109436</t>
@@ -584,13 +584,13 @@
     <t xml:space="preserve">1.75663077831268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82758831977844</t>
+    <t xml:space="preserve">1.82758820056915</t>
   </si>
   <si>
     <t xml:space="preserve">1.81201231479645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74105477333069</t>
+    <t xml:space="preserve">1.7410546541214</t>
   </si>
   <si>
     <t xml:space="preserve">1.7427853345871</t>
@@ -599,61 +599,61 @@
     <t xml:space="preserve">1.7185560464859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7393239736557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76528418064117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78432154655457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80855083465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76182270050049</t>
+    <t xml:space="preserve">1.73932409286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7652839422226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78432130813599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80855059623718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7618225812912</t>
   </si>
   <si>
     <t xml:space="preserve">1.76874530315399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78259074687958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79989719390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82412707805634</t>
+    <t xml:space="preserve">1.78259086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79989731311798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82412695884705</t>
   </si>
   <si>
     <t xml:space="preserve">1.81720411777496</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80335903167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84316432476044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79297494888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81547367572784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78605210781097</t>
+    <t xml:space="preserve">1.80335891246796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84316444396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79297482967377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81547343730927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78605198860168</t>
   </si>
   <si>
     <t xml:space="preserve">1.85354816913605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83451068401337</t>
+    <t xml:space="preserve">1.83451092243195</t>
   </si>
   <si>
     <t xml:space="preserve">1.87777769565582</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92623627185822</t>
+    <t xml:space="preserve">1.92623662948608</t>
   </si>
   <si>
     <t xml:space="preserve">1.9210444688797</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">1.90373778343201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83797216415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96253108978271</t>
+    <t xml:space="preserve">1.83797228336334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96253097057343</t>
   </si>
   <si>
     <t xml:space="preserve">2.04503440856934</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">2.41366744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42244434356689</t>
+    <t xml:space="preserve">2.42244482040405</t>
   </si>
   <si>
     <t xml:space="preserve">2.30834412574768</t>
@@ -683,37 +683,37 @@
     <t xml:space="preserve">2.2469048500061</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43648767471313</t>
+    <t xml:space="preserve">2.43648791313171</t>
   </si>
   <si>
     <t xml:space="preserve">2.39260315895081</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41717839241028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40489077568054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31712055206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26972532272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20653104782104</t>
+    <t xml:space="preserve">2.4171781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40489053726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31712079048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26972508430481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
     <t xml:space="preserve">2.13280439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08014249801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01870346069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07136535644531</t>
+    <t xml:space="preserve">2.08014225959778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01870369911194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07136559486389</t>
   </si>
   <si>
     <t xml:space="preserve">2.12753820419312</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">2.06258845329285</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08540892601013</t>
+    <t xml:space="preserve">2.08540844917297</t>
   </si>
   <si>
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647344589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104915618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11525011062622</t>
+    <t xml:space="preserve">2.10647368431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104867935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11525082588196</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296249389648</t>
@@ -743,43 +743,43 @@
     <t xml:space="preserve">2.03976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05381155014038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03625774383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0309910774231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03450226783752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00992703437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763882160187</t>
+    <t xml:space="preserve">2.0538113117218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03625750541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03099155426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0345025062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00992655754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763870239258</t>
   </si>
   <si>
     <t xml:space="preserve">1.9835958480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98535120487213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00114989280701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01694846153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99588346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710644245148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0327467918396</t>
+    <t xml:space="preserve">1.98535144329071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00114965438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01694822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99588370323181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710680007935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03274703025818</t>
   </si>
   <si>
     <t xml:space="preserve">2.06785464286804</t>
@@ -788,37 +788,37 @@
     <t xml:space="preserve">2.07663154602051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04854559898376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061715602875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97481870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97130835056305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96604192256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99237263202667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99939429759979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2030200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32414245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29078936576843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122124671936</t>
+    <t xml:space="preserve">2.04854536056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061739444733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97481894493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97130787372589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9660416841507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99237298965454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99939453601837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20301985740662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32414197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078984260559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122148513794</t>
   </si>
   <si>
     <t xml:space="preserve">2.34345173835754</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">2.48563861846924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43999814987183</t>
+    <t xml:space="preserve">2.43999838829041</t>
   </si>
   <si>
     <t xml:space="preserve">2.37855958938599</t>
@@ -839,43 +839,43 @@
     <t xml:space="preserve">2.38207030296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38558149337769</t>
+    <t xml:space="preserve">2.38558125495911</t>
   </si>
   <si>
     <t xml:space="preserve">2.35925030708313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49792623519897</t>
+    <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
     <t xml:space="preserve">2.48739409446716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44175410270691</t>
+    <t xml:space="preserve">2.44175362586975</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984004974365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42946600914001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37504863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3908474445343</t>
+    <t xml:space="preserve">2.42946577072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37504911422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084768295288</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38909196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4189338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43473219871521</t>
+    <t xml:space="preserve">2.3890917301178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41893362998962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43473243713379</t>
   </si>
   <si>
     <t xml:space="preserve">2.41542291641235</t>
@@ -884,7 +884,7 @@
     <t xml:space="preserve">2.3961136341095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41015672683716</t>
+    <t xml:space="preserve">2.41015696525574</t>
   </si>
   <si>
     <t xml:space="preserve">2.43824315071106</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">2.44877529144287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45579719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33994102478027</t>
+    <t xml:space="preserve">2.45579695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33994078636169</t>
   </si>
   <si>
     <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15737986564636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22232961654663</t>
+    <t xml:space="preserve">2.15737962722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22232937812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.1696674823761</t>
@@ -914,13 +914,13 @@
     <t xml:space="preserve">2.16791224479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19248795509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733649253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222887992859</t>
+    <t xml:space="preserve">2.1924877166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222864151001</t>
   </si>
   <si>
     <t xml:space="preserve">2.37329363822937</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">2.28376817703247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3065881729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28201293945312</t>
+    <t xml:space="preserve">2.30658841133118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28201270103455</t>
   </si>
   <si>
     <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31360983848572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956674575806</t>
+    <t xml:space="preserve">2.31361031532288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956650733948</t>
   </si>
   <si>
     <t xml:space="preserve">2.25568222999573</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">2.33116388320923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29254531860352</t>
+    <t xml:space="preserve">2.29254508018494</t>
   </si>
   <si>
     <t xml:space="preserve">2.30132222175598</t>
@@ -965,22 +965,22 @@
     <t xml:space="preserve">2.29781126976013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27323579788208</t>
+    <t xml:space="preserve">2.27323603630066</t>
   </si>
   <si>
     <t xml:space="preserve">2.36100554466248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46632933616638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49266004562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60676097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65064573287964</t>
+    <t xml:space="preserve">2.4663290977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49266028404236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60676074028015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65064549446106</t>
   </si>
   <si>
     <t xml:space="preserve">2.62431478500366</t>
@@ -989,25 +989,25 @@
     <t xml:space="preserve">2.6594226360321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58043026924133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54532241821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53654503822327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4575526714325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48388338088989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36978268623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.52776837348938</t>
+    <t xml:space="preserve">2.58043003082275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54532217979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53654479980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45755243301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48388290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36978220939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5277681350708</t>
   </si>
   <si>
     <t xml:space="preserve">2.6857533454895</t>
@@ -1016,19 +1016,19 @@
     <t xml:space="preserve">2.69453024864197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72963881492615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73841524124146</t>
+    <t xml:space="preserve">2.72963833808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73841547966003</t>
   </si>
   <si>
     <t xml:space="preserve">2.51021409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59798383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61553812026978</t>
+    <t xml:space="preserve">2.59798407554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6155378818512</t>
   </si>
   <si>
     <t xml:space="preserve">2.63309168815613</t>
@@ -1037,25 +1037,25 @@
     <t xml:space="preserve">2.56287598609924</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51899123191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33467507362366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179747581482</t>
+    <t xml:space="preserve">2.51899099349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3346745967865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179699897766</t>
   </si>
   <si>
     <t xml:space="preserve">2.26327753067017</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18276596069336</t>
+    <t xml:space="preserve">2.1827654838562</t>
   </si>
   <si>
     <t xml:space="preserve">2.23644018173218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36168098449707</t>
+    <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
     <t xml:space="preserve">2.32589769363403</t>
@@ -1073,16 +1073,16 @@
     <t xml:space="preserve">2.41535544395447</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42430090904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37062668800354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37957262992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746379852295</t>
+    <t xml:space="preserve">2.42430114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37062692642212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37957215309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746403694153</t>
   </si>
   <si>
     <t xml:space="preserve">2.3527352809906</t>
@@ -1091,34 +1091,34 @@
     <t xml:space="preserve">2.28116893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24538588523865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27222323417664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854901313782</t>
+    <t xml:space="preserve">2.24538564682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27222299575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854877471924</t>
   </si>
   <si>
     <t xml:space="preserve">2.20065712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17381978034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25433158874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15592837333679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29011464118958</t>
+    <t xml:space="preserve">2.17382001876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2543318271637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15592813491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.290114402771</t>
   </si>
   <si>
     <t xml:space="preserve">2.13803672790527</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14698243141174</t>
+    <t xml:space="preserve">2.14698266983032</t>
   </si>
   <si>
     <t xml:space="preserve">2.16487407684326</t>
@@ -1142,67 +1142,67 @@
     <t xml:space="preserve">2.06647062301636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03963351249695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02174162864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0843620300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11119914054871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09330797195435</t>
+    <t xml:space="preserve">2.03963327407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02174186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08436226844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11119937896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09330773353577</t>
   </si>
   <si>
     <t xml:space="preserve">1.99490463733673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93228447437286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017564296722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87860953807831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86966395378113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83388090133667</t>
+    <t xml:space="preserve">1.93228435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017576217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8786096572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86966383457184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83388078212738</t>
   </si>
   <si>
     <t xml:space="preserve">1.77126061916351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74442327022552</t>
+    <t xml:space="preserve">1.74442338943481</t>
   </si>
   <si>
     <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68180298805237</t>
+    <t xml:space="preserve">1.68180286884308</t>
   </si>
   <si>
     <t xml:space="preserve">1.7265317440033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73547768592834</t>
+    <t xml:space="preserve">1.73547756671906</t>
   </si>
   <si>
     <t xml:space="preserve">1.76231479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">1.739950299263</t>
+    <t xml:space="preserve">1.73995041847229</t>
   </si>
   <si>
     <t xml:space="preserve">1.76678776741028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74889624118805</t>
+    <t xml:space="preserve">1.74889612197876</t>
   </si>
   <si>
     <t xml:space="preserve">1.69522166252136</t>
@@ -1214,7 +1214,7 @@
     <t xml:space="preserve">1.65496563911438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66838431358337</t>
+    <t xml:space="preserve">1.66838443279266</t>
   </si>
   <si>
     <t xml:space="preserve">1.66391146183014</t>
@@ -1223,28 +1223,28 @@
     <t xml:space="preserve">1.6862758398056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69969439506531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73100459575653</t>
+    <t xml:space="preserve">1.6996945142746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73100447654724</t>
   </si>
   <si>
     <t xml:space="preserve">1.70864033699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75336921215057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72205889225006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71758592128754</t>
+    <t xml:space="preserve">1.75336909294128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72205901145935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71758604049683</t>
   </si>
   <si>
     <t xml:space="preserve">1.61918258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5744537115097</t>
+    <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
     <t xml:space="preserve">1.55656230449677</t>
@@ -1253,28 +1253,28 @@
     <t xml:space="preserve">1.59234535694122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61023700237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70416748523712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7131130695343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78020632266998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81598949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80704367160797</t>
+    <t xml:space="preserve">1.61023688316345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70416724681854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71311318874359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78020644187927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81598925590515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80704355239868</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86071813106537</t>
+    <t xml:space="preserve">1.86071825027466</t>
   </si>
   <si>
     <t xml:space="preserve">1.8249351978302</t>
@@ -1283,52 +1283,52 @@
     <t xml:space="preserve">1.7980979681015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755536079407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8517724275589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650106430054</t>
+    <t xml:space="preserve">1.88755548000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85177230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650118350983</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333853244781</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96806740760803</t>
+    <t xml:space="preserve">1.96806728839874</t>
   </si>
   <si>
     <t xml:space="preserve">2.01279616355896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00385046005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04857897758484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0306875705719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97701323032379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595893383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439270973206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90544700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94123005867004</t>
+    <t xml:space="preserve">2.00385022163391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04857921600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03068780899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9770131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595869541168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90544712543488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94122993946075</t>
   </si>
   <si>
     <t xml:space="preserve">1.67285716533661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70043170452118</t>
+    <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
     <t xml:space="preserve">1.66826152801514</t>
@@ -1337,25 +1337,25 @@
     <t xml:space="preserve">1.6498783826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65906989574432</t>
+    <t xml:space="preserve">1.65907001495361</t>
   </si>
   <si>
     <t xml:space="preserve">1.68664455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70502769947052</t>
+    <t xml:space="preserve">1.70502758026123</t>
   </si>
   <si>
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.695836186409</t>
+    <t xml:space="preserve">1.69583606719971</t>
   </si>
   <si>
     <t xml:space="preserve">1.69124031066895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70962333679199</t>
+    <t xml:space="preserve">1.70962345600128</t>
   </si>
   <si>
     <t xml:space="preserve">1.71881484985352</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">1.68204879760742</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65447425842285</t>
+    <t xml:space="preserve">1.65447413921356</t>
   </si>
   <si>
     <t xml:space="preserve">1.67745304107666</t>
@@ -1379,10 +1379,10 @@
     <t xml:space="preserve">1.66366565227509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63149535655975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6268994808197</t>
+    <t xml:space="preserve">1.63149547576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62689960002899</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932506084442</t>
@@ -1403,22 +1403,22 @@
     <t xml:space="preserve">1.60392081737518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61770796775818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63609111309052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62230396270752</t>
+    <t xml:space="preserve">1.61770808696747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6360912322998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62230384349823</t>
   </si>
   <si>
     <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58094215393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71421909332275</t>
+    <t xml:space="preserve">1.58094203472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71421921253204</t>
   </si>
   <si>
     <t xml:space="preserve">1.61311233043671</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">1.59472942352295</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57175052165985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5533674955368</t>
+    <t xml:space="preserve">1.57175064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55336737632751</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255912780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53498446941376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.38332438468933</t>
+    <t xml:space="preserve">1.56255888938904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53498435020447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.38332426548004</t>
   </si>
   <si>
     <t xml:space="preserve">1.3879200220108</t>
@@ -1454,10 +1454,10 @@
     <t xml:space="preserve">1.22706842422485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30519616603851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221762180328</t>
+    <t xml:space="preserve">1.3051962852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221750259399</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
@@ -1472,7 +1472,7 @@
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655809402466</t>
+    <t xml:space="preserve">1.34655821323395</t>
   </si>
   <si>
     <t xml:space="preserve">1.34196245670319</t>
@@ -1481,16 +1481,16 @@
     <t xml:space="preserve">1.4108989238739</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630292892456</t>
+    <t xml:space="preserve">1.40630316734314</t>
   </si>
   <si>
     <t xml:space="preserve">1.39711153507233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40170741081238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44766497612</t>
+    <t xml:space="preserve">1.40170729160309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44766485691071</t>
   </si>
   <si>
     <t xml:space="preserve">1.49362254142761</t>
@@ -1511,25 +1511,25 @@
     <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43387770652771</t>
+    <t xml:space="preserve">1.43387758731842</t>
   </si>
   <si>
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685636997223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4246860742569</t>
+    <t xml:space="preserve">1.45685660839081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42468595504761</t>
   </si>
   <si>
     <t xml:space="preserve">1.42928183078766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872850894928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39251577854156</t>
+    <t xml:space="preserve">1.37872838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39251565933228</t>
   </si>
   <si>
     <t xml:space="preserve">1.33277094364166</t>
@@ -1538,19 +1538,19 @@
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413287162781</t>
+    <t xml:space="preserve">1.37413275241852</t>
   </si>
   <si>
     <t xml:space="preserve">1.35574972629547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41549456119537</t>
+    <t xml:space="preserve">1.41549468040466</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36034548282623</t>
+    <t xml:space="preserve">1.36034560203552</t>
   </si>
   <si>
     <t xml:space="preserve">1.31898355484009</t>
@@ -1559,7 +1559,7 @@
     <t xml:space="preserve">1.45226073265076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43847334384918</t>
+    <t xml:space="preserve">1.43847346305847</t>
   </si>
   <si>
     <t xml:space="preserve">1.50281405448914</t>
@@ -1568,22 +1568,22 @@
     <t xml:space="preserve">1.42009031772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46604788303375</t>
+    <t xml:space="preserve">1.46604800224304</t>
   </si>
   <si>
     <t xml:space="preserve">1.3281751871109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30979204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30060064792633</t>
+    <t xml:space="preserve">1.30979192256927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30060052871704</t>
   </si>
   <si>
     <t xml:space="preserve">1.28681325912476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51200556755066</t>
+    <t xml:space="preserve">1.51200544834137</t>
   </si>
   <si>
     <t xml:space="preserve">1.48443102836609</t>
@@ -1592,28 +1592,28 @@
     <t xml:space="preserve">1.52579283714294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53957998752594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54877161979675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57634627819061</t>
+    <t xml:space="preserve">1.53958010673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54877173900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5763463973999</t>
   </si>
   <si>
     <t xml:space="preserve">1.54417598247528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55796325206757</t>
+    <t xml:space="preserve">1.55796313285828</t>
   </si>
   <si>
     <t xml:space="preserve">1.53038859367371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5671546459198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77396392822266</t>
+    <t xml:space="preserve">1.56715476512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77396380901337</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">1.87507081031799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93021976947784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88426232337952</t>
+    <t xml:space="preserve">1.93021988868713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88426220417023</t>
   </si>
   <si>
     <t xml:space="preserve">1.89345383644104</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">1.82911312580109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78775119781494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451736927032</t>
+    <t xml:space="preserve">1.78775131702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451748847961</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78315567970276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80153870582581</t>
+    <t xml:space="preserve">1.78315556049347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80153858661652</t>
   </si>
   <si>
     <t xml:space="preserve">1.84749627113342</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587929725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90264534950256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92102837562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85668778419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81073009967804</t>
+    <t xml:space="preserve">1.86587917804718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90264523029327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92102813720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85668766498566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81073021888733</t>
   </si>
   <si>
     <t xml:space="preserve">2.09566736221313</t>
@@ -1697,13 +1697,13 @@
     <t xml:space="preserve">2.04051828384399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14162468910217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16919922828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11405038833618</t>
+    <t xml:space="preserve">2.14162492752075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16919946670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11405062675476</t>
   </si>
   <si>
     <t xml:space="preserve">2.12324190139771</t>
@@ -1712,7 +1712,7 @@
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928592681885</t>
+    <t xml:space="preserve">2.50928568840027</t>
   </si>
   <si>
     <t xml:space="preserve">2.53686046600342</t>
@@ -1727,58 +1727,58 @@
     <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73035955429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69321179389954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72107243537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322907447815</t>
+    <t xml:space="preserve">2.73035979270935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69321203231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72107267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322883605957</t>
   </si>
   <si>
     <t xml:space="preserve">2.86966347694397</t>
   </si>
   <si>
-    <t xml:space="preserve">2.81394171714783</t>
+    <t xml:space="preserve">2.81394195556641</t>
   </si>
   <si>
     <t xml:space="preserve">2.99039387702942</t>
   </si>
   <si>
-    <t xml:space="preserve">3.1947066783905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08326315879822</t>
+    <t xml:space="preserve">3.19470643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08326292037964</t>
   </si>
   <si>
     <t xml:space="preserve">3.01825451850891</t>
   </si>
   <si>
-    <t xml:space="preserve">2.93467211723328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85108971595764</t>
+    <t xml:space="preserve">2.93467235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85108947753906</t>
   </si>
   <si>
     <t xml:space="preserve">2.92538547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96253299713135</t>
+    <t xml:space="preserve">2.96253323554993</t>
   </si>
   <si>
     <t xml:space="preserve">2.90681147575378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86037659645081</t>
+    <t xml:space="preserve">2.86037683486938</t>
   </si>
   <si>
     <t xml:space="preserve">2.80465507507324</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63749003410339</t>
+    <t xml:space="preserve">2.63749027252197</t>
   </si>
   <si>
     <t xml:space="preserve">2.60962915420532</t>
@@ -1787,7 +1787,7 @@
     <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73964667320251</t>
+    <t xml:space="preserve">2.73964643478394</t>
   </si>
   <si>
     <t xml:space="preserve">2.75822043418884</t>
@@ -1799,13 +1799,13 @@
     <t xml:space="preserve">2.70249891281128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65606427192688</t>
+    <t xml:space="preserve">2.6560640335083</t>
   </si>
   <si>
     <t xml:space="preserve">2.67463803291321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62820339202881</t>
+    <t xml:space="preserve">2.62820315361023</t>
   </si>
   <si>
     <t xml:space="preserve">2.59105563163757</t>
@@ -1814,7 +1814,7 @@
     <t xml:space="preserve">2.64677691459656</t>
   </si>
   <si>
-    <t xml:space="preserve">2.87895035743713</t>
+    <t xml:space="preserve">2.87895059585571</t>
   </si>
   <si>
     <t xml:space="preserve">2.91609835624695</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">2.83251595497131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.88823747634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95324635505676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09255003929138</t>
+    <t xml:space="preserve">2.8882372379303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95324611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09255027770996</t>
   </si>
   <si>
     <t xml:space="preserve">3.18541955947876</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752435684204</t>
+    <t xml:space="preserve">2.89752459526062</t>
   </si>
   <si>
     <t xml:space="preserve">2.61891627311707</t>
@@ -1877,25 +1877,25 @@
     <t xml:space="preserve">3.07397627830505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97181987762451</t>
+    <t xml:space="preserve">2.97182011604309</t>
   </si>
   <si>
     <t xml:space="preserve">3.03682851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00896763801575</t>
+    <t xml:space="preserve">3.00896787643433</t>
   </si>
   <si>
     <t xml:space="preserve">2.94395923614502</t>
   </si>
   <si>
-    <t xml:space="preserve">2.8418025970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76750731468201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30316066741943</t>
+    <t xml:space="preserve">2.84180283546448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76750755310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30316042900085</t>
   </si>
   <si>
     <t xml:space="preserve">2.25672578811646</t>
@@ -1904,10 +1904,10 @@
     <t xml:space="preserve">2.34959506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48889899253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38674283027649</t>
+    <t xml:space="preserve">2.48889923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38674259185791</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve">2.51675987243652</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45175170898438</t>
+    <t xml:space="preserve">2.4517514705658</t>
   </si>
   <si>
     <t xml:space="preserve">2.44246459007263</t>
@@ -1931,19 +1931,19 @@
     <t xml:space="preserve">2.34030818939209</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3310215473175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35888195037842</t>
+    <t xml:space="preserve">2.33102130889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.358882188797</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602971076965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36816906929016</t>
+    <t xml:space="preserve">2.39602994918823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
     <t xml:space="preserve">2.41460371017456</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.30374097824097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28478026390076</t>
+    <t xml:space="preserve">2.28478002548218</t>
   </si>
   <si>
     <t xml:space="preserve">2.31322145462036</t>
@@ -1967,6 +1967,9 @@
     <t xml:space="preserve">2.24685835838318</t>
   </si>
   <si>
+    <t xml:space="preserve">2.27529978752136</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.22789740562439</t>
   </si>
   <si>
@@ -1979,16 +1982,16 @@
     <t xml:space="preserve">2.18049550056458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15205430984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13309335708618</t>
+    <t xml:space="preserve">2.15205407142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13309359550476</t>
   </si>
   <si>
     <t xml:space="preserve">2.07621097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12361311912537</t>
+    <t xml:space="preserve">2.12361288070679</t>
   </si>
   <si>
     <t xml:space="preserve">2.10465216636658</t>
@@ -2003,7 +2006,7 @@
     <t xml:space="preserve">2.04776978492737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.142573595047</t>
+    <t xml:space="preserve">2.14257383346558</t>
   </si>
   <si>
     <t xml:space="preserve">2.16153454780579</t>
@@ -2018,13 +2021,13 @@
     <t xml:space="preserve">2.25633883476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2089364528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18997597694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05725026130676</t>
+    <t xml:space="preserve">2.20893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18997573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05725002288818</t>
   </si>
   <si>
     <t xml:space="preserve">2.02880883216858</t>
@@ -2033,10 +2036,10 @@
     <t xml:space="preserve">2.00984787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06673049926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99088716506958</t>
+    <t xml:space="preserve">2.06673073768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99088704586029</t>
   </si>
   <si>
     <t xml:space="preserve">1.97192621231079</t>
@@ -2045,10 +2048,10 @@
     <t xml:space="preserve">1.96244585514069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98140680789948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0003674030304</t>
+    <t xml:space="preserve">1.98140668869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00036764144897</t>
   </si>
   <si>
     <t xml:space="preserve">1.94348502159119</t>
@@ -2069,10 +2072,10 @@
     <t xml:space="preserve">1.93400454521179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88660252094269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86764180660248</t>
+    <t xml:space="preserve">1.88660264015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86764168739319</t>
   </si>
   <si>
     <t xml:space="preserve">1.85816144943237</t>
@@ -2093,7 +2096,7 @@
     <t xml:space="preserve">1.87712216377258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08569145202637</t>
+    <t xml:space="preserve">2.08569121360779</t>
   </si>
   <si>
     <t xml:space="preserve">2.38906455039978</t>
@@ -2105,7 +2108,7 @@
     <t xml:space="preserve">2.46490788459778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41750597953796</t>
+    <t xml:space="preserve">2.41750574111938</t>
   </si>
   <si>
     <t xml:space="preserve">2.36062335968018</t>
@@ -2120,7 +2123,7 @@
     <t xml:space="preserve">2.37958431243896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35114312171936</t>
+    <t xml:space="preserve">2.35114288330078</t>
   </si>
   <si>
     <t xml:space="preserve">2.33218216896057</t>
@@ -2129,13 +2132,13 @@
     <t xml:space="preserve">2.37010359764099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34166240692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802526473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21841716766357</t>
+    <t xml:space="preserve">2.34166264533997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802550315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.218416929245</t>
   </si>
   <si>
     <t xml:space="preserve">2.30447006225586</t>
@@ -45095,7 +45098,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45121,7 +45124,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45173,7 +45176,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45225,7 +45228,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45251,7 +45254,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45277,7 +45280,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45303,7 +45306,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45329,7 +45332,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45355,7 +45358,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45381,7 +45384,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45407,7 +45410,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45433,7 +45436,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45459,7 +45462,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45485,7 +45488,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45511,7 +45514,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45537,7 +45540,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45563,7 +45566,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45589,7 +45592,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45615,7 +45618,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45641,7 +45644,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45667,7 +45670,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45693,7 +45696,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45719,7 +45722,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45745,7 +45748,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45771,7 +45774,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45797,7 +45800,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45823,7 +45826,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45849,7 +45852,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45875,7 +45878,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45901,7 +45904,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45953,7 +45956,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45979,7 +45982,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46005,7 +46008,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46031,7 +46034,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46057,7 +46060,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46083,7 +46086,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46109,7 +46112,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46135,7 +46138,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46161,7 +46164,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46187,7 +46190,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46213,7 +46216,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46239,7 +46242,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46265,7 +46268,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46291,7 +46294,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46317,7 +46320,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46343,7 +46346,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46369,7 +46372,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46395,7 +46398,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46421,7 +46424,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46447,7 +46450,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46473,7 +46476,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46499,7 +46502,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46525,7 +46528,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46551,7 +46554,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46577,7 +46580,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46603,7 +46606,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46629,7 +46632,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46655,7 +46658,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46681,7 +46684,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46707,7 +46710,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46733,7 +46736,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46759,7 +46762,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46785,7 +46788,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46811,7 +46814,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46837,7 +46840,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46863,7 +46866,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46889,7 +46892,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46915,7 +46918,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46941,7 +46944,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46967,7 +46970,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46993,7 +46996,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47019,7 +47022,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47045,7 +47048,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47071,7 +47074,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47097,7 +47100,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47123,7 +47126,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47149,7 +47152,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47175,7 +47178,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47201,7 +47204,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47227,7 +47230,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47253,7 +47256,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47279,7 +47282,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47305,7 +47308,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47331,7 +47334,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47357,7 +47360,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47383,7 +47386,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47409,7 +47412,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47435,7 +47438,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47461,7 +47464,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47487,7 +47490,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47513,7 +47516,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47539,7 +47542,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47565,7 +47568,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47591,7 +47594,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47617,7 +47620,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47643,7 +47646,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47669,7 +47672,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47695,7 +47698,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47721,7 +47724,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47747,7 +47750,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47773,7 +47776,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47799,7 +47802,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47825,7 +47828,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47851,7 +47854,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47877,7 +47880,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47903,7 +47906,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47929,7 +47932,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47955,7 +47958,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47981,7 +47984,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48007,7 +48010,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48033,7 +48036,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48059,7 +48062,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48085,7 +48088,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48111,7 +48114,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48137,7 +48140,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48163,7 +48166,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48189,7 +48192,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48215,7 +48218,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48241,7 +48244,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48267,7 +48270,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48293,7 +48296,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48319,7 +48322,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48345,7 +48348,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48371,7 +48374,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48397,7 +48400,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48423,7 +48426,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48449,7 +48452,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48475,7 +48478,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48501,7 +48504,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48527,7 +48530,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48553,7 +48556,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48579,7 +48582,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48605,7 +48608,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48631,7 +48634,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48657,7 +48660,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48683,7 +48686,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48709,7 +48712,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48735,7 +48738,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48761,7 +48764,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48787,7 +48790,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48813,7 +48816,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48839,7 +48842,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48865,7 +48868,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48891,7 +48894,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48917,7 +48920,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48943,7 +48946,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48969,7 +48972,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48995,7 +48998,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49021,7 +49024,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49047,7 +49050,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49073,7 +49076,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49099,7 +49102,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49125,7 +49128,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49151,7 +49154,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49177,7 +49180,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49203,7 +49206,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49229,7 +49232,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49255,7 +49258,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49281,7 +49284,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49307,7 +49310,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49333,7 +49336,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49359,7 +49362,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49385,7 +49388,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49411,7 +49414,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49437,7 +49440,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49463,7 +49466,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49489,7 +49492,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49515,7 +49518,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49541,7 +49544,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49567,7 +49570,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49593,7 +49596,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49671,7 +49674,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49697,7 +49700,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49723,7 +49726,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49749,7 +49752,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49775,7 +49778,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49801,7 +49804,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49827,7 +49830,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49853,7 +49856,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49905,7 +49908,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49931,7 +49934,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49957,7 +49960,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49983,7 +49986,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50009,7 +50012,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50035,7 +50038,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50061,7 +50064,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50113,7 +50116,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50139,7 +50142,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50165,7 +50168,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50191,7 +50194,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50217,7 +50220,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50243,7 +50246,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50269,7 +50272,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50295,7 +50298,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50321,7 +50324,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50373,7 +50376,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50399,7 +50402,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50425,7 +50428,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50451,7 +50454,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50477,7 +50480,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50503,7 +50506,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50529,7 +50532,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50555,7 +50558,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50581,7 +50584,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50607,7 +50610,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50659,7 +50662,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50685,7 +50688,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50763,7 +50766,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50789,7 +50792,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50815,7 +50818,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50841,7 +50844,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50867,7 +50870,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50893,7 +50896,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50919,7 +50922,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50945,7 +50948,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50971,7 +50974,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -50997,7 +51000,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51023,7 +51026,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51075,7 +51078,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51179,7 +51182,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51231,7 +51234,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51257,7 +51260,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51309,7 +51312,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51335,7 +51338,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51361,7 +51364,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51387,7 +51390,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51413,7 +51416,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51439,7 +51442,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51465,7 +51468,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51491,7 +51494,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51517,7 +51520,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51543,7 +51546,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51569,7 +51572,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51595,7 +51598,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51621,7 +51624,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51647,7 +51650,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51751,7 +51754,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51803,7 +51806,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51829,7 +51832,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51855,7 +51858,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51881,7 +51884,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51907,7 +51910,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51933,7 +51936,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51959,7 +51962,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51985,7 +51988,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52011,7 +52014,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52037,7 +52040,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52063,7 +52066,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52089,7 +52092,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52115,7 +52118,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52141,7 +52144,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52167,7 +52170,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52193,7 +52196,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52219,7 +52222,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52245,7 +52248,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52271,7 +52274,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52297,7 +52300,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52323,7 +52326,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52349,7 +52352,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52375,7 +52378,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52401,7 +52404,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52427,7 +52430,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52453,7 +52456,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52479,7 +52482,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52505,7 +52508,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52531,7 +52534,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52557,7 +52560,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52583,7 +52586,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52609,7 +52612,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52635,7 +52638,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52661,7 +52664,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52687,7 +52690,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52713,7 +52716,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52739,7 +52742,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52765,7 +52768,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52791,7 +52794,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52817,7 +52820,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52843,7 +52846,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52869,7 +52872,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52895,7 +52898,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52921,7 +52924,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52947,7 +52950,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52973,7 +52976,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -52999,7 +53002,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53025,7 +53028,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53051,7 +53054,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53077,7 +53080,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53103,7 +53106,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53129,7 +53132,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53155,7 +53158,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53181,7 +53184,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53233,7 +53236,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53259,7 +53262,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53285,7 +53288,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53311,7 +53314,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53337,7 +53340,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53363,7 +53366,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53389,7 +53392,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53415,7 +53418,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53441,7 +53444,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53467,7 +53470,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53519,7 +53522,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53545,7 +53548,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53571,7 +53574,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53597,7 +53600,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53623,7 +53626,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53649,7 +53652,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53675,7 +53678,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53701,7 +53704,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53727,7 +53730,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53753,7 +53756,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53779,7 +53782,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53805,7 +53808,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53831,7 +53834,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53857,7 +53860,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53883,7 +53886,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53909,7 +53912,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53935,7 +53938,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53961,7 +53964,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53987,7 +53990,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54013,7 +54016,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54039,7 +54042,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54065,7 +54068,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54091,7 +54094,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54117,7 +54120,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54143,7 +54146,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54169,7 +54172,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54195,7 +54198,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54221,7 +54224,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54247,7 +54250,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54273,7 +54276,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54299,7 +54302,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54325,7 +54328,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54351,7 +54354,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54377,7 +54380,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54403,7 +54406,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54429,7 +54432,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54455,7 +54458,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54481,7 +54484,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54507,7 +54510,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54533,7 +54536,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54559,7 +54562,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54585,7 +54588,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54611,7 +54614,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54637,7 +54640,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54663,7 +54666,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54689,7 +54692,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54715,7 +54718,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54741,7 +54744,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54767,7 +54770,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54793,7 +54796,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54819,7 +54822,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54845,7 +54848,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54871,7 +54874,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54897,7 +54900,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54923,7 +54926,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54949,7 +54952,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54975,7 +54978,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55001,7 +55004,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55027,7 +55030,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55053,7 +55056,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55079,7 +55082,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55105,7 +55108,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55131,7 +55134,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55157,7 +55160,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55183,7 +55186,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55209,7 +55212,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55235,7 +55238,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55261,7 +55264,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55287,7 +55290,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55313,7 +55316,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55339,7 +55342,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55365,7 +55368,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55391,7 +55394,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55417,7 +55420,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55443,7 +55446,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55469,7 +55472,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55495,7 +55498,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55521,7 +55524,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55547,7 +55550,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55573,7 +55576,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55599,7 +55602,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55625,7 +55628,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55651,7 +55654,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55677,7 +55680,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55703,7 +55706,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55729,7 +55732,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55755,7 +55758,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55781,7 +55784,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55807,7 +55810,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55833,7 +55836,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55859,7 +55862,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55885,7 +55888,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55911,7 +55914,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55937,7 +55940,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55963,7 +55966,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55989,7 +55992,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56015,7 +56018,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56041,7 +56044,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56067,7 +56070,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56093,7 +56096,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56119,7 +56122,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56145,7 +56148,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56171,7 +56174,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56197,7 +56200,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56223,7 +56226,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56249,7 +56252,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56275,7 +56278,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56301,7 +56304,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56327,7 +56330,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56353,7 +56356,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56379,7 +56382,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56405,7 +56408,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56431,7 +56434,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56457,7 +56460,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56483,7 +56486,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56509,7 +56512,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56535,7 +56538,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56561,7 +56564,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56587,7 +56590,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56613,7 +56616,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56639,7 +56642,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56665,7 +56668,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56691,7 +56694,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56717,7 +56720,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56743,7 +56746,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56769,7 +56772,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56795,7 +56798,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56821,7 +56824,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56847,7 +56850,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56873,7 +56876,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56899,7 +56902,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56925,7 +56928,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56951,7 +56954,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56977,7 +56980,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57003,7 +57006,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57029,7 +57032,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57055,7 +57058,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57081,7 +57084,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57107,7 +57110,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57133,7 +57136,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57159,7 +57162,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57185,7 +57188,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57211,7 +57214,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57237,7 +57240,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57263,7 +57266,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57289,7 +57292,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57315,7 +57318,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57341,7 +57344,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57367,7 +57370,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57393,7 +57396,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57419,7 +57422,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57445,7 +57448,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57471,7 +57474,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57497,7 +57500,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57523,7 +57526,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57549,7 +57552,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57575,7 +57578,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57601,7 +57604,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57627,7 +57630,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57653,7 +57656,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57679,7 +57682,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57705,7 +57708,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57731,7 +57734,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57757,7 +57760,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57783,7 +57786,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57809,7 +57812,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57835,7 +57838,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57861,7 +57864,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57887,7 +57890,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57913,7 +57916,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57939,7 +57942,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57965,7 +57968,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57991,7 +57994,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58017,7 +58020,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58043,7 +58046,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58069,7 +58072,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58095,7 +58098,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58121,7 +58124,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58147,7 +58150,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58173,7 +58176,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58199,7 +58202,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58225,7 +58228,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58251,7 +58254,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58277,7 +58280,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58303,7 +58306,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58329,7 +58332,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58355,7 +58358,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58381,7 +58384,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58407,7 +58410,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58433,7 +58436,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58459,7 +58462,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58485,7 +58488,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58511,7 +58514,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58537,7 +58540,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58563,7 +58566,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58589,7 +58592,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58615,7 +58618,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58641,7 +58644,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58667,7 +58670,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58693,7 +58696,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2153" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58719,7 +58722,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58745,7 +58748,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2155" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58753,7 +58756,7 @@
     </row>
     <row r="2156">
       <c r="A2156" s="1" t="n">
-        <v>45463.6386458333</v>
+        <v>45463.2916666667</v>
       </c>
       <c r="B2156" t="n">
         <v>3576</v>
@@ -58771,9 +58774,35 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2156" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n">
+        <v>45464.6494675926</v>
+      </c>
+      <c r="B2157" t="n">
+        <v>245</v>
+      </c>
+      <c r="C2157" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="D2157" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="E2157" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="F2157" t="n">
+        <v>2.04999995231628</v>
+      </c>
+      <c r="G2157" t="s">
         <v>789</v>
       </c>
-      <c r="H2156" t="s">
+      <c r="H2157" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338227748871</t>
+    <t xml:space="preserve">1.80338215827942</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">1.79827868938446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74383664131165</t>
+    <t xml:space="preserve">1.74383676052094</t>
   </si>
   <si>
     <t xml:space="preserve">1.75404453277588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73533022403717</t>
+    <t xml:space="preserve">1.73533010482788</t>
   </si>
   <si>
     <t xml:space="preserve">1.72682368755341</t>
@@ -71,28 +71,28 @@
     <t xml:space="preserve">1.64175844192505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53117370605469</t>
+    <t xml:space="preserve">1.53117382526398</t>
   </si>
   <si>
     <t xml:space="preserve">1.64090776443481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64005720615387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410258293152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65026485919952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325190544128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60773241519928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839443206787</t>
+    <t xml:space="preserve">1.64005696773529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410246372223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6502650976181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325202465057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60773253440857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839455127716</t>
   </si>
   <si>
     <t xml:space="preserve">1.58646619319916</t>
@@ -101,55 +101,55 @@
     <t xml:space="preserve">1.6128363609314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58221280574799</t>
+    <t xml:space="preserve">1.5822126865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.49714767932892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55158925056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5056539773941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608887195587</t>
+    <t xml:space="preserve">1.55158936977386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50565421581268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608911037445</t>
   </si>
   <si>
     <t xml:space="preserve">1.56434905529022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7013041973114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68429112434387</t>
+    <t xml:space="preserve">1.70130407810211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68429100513458</t>
   </si>
   <si>
     <t xml:space="preserve">1.70640814304352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69279754161835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68684303760529</t>
+    <t xml:space="preserve">1.69279766082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68684315681458</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194686412811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939518928528</t>
+    <t xml:space="preserve">1.68939471244812</t>
   </si>
   <si>
     <t xml:space="preserve">1.71831703186035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65366768836975</t>
+    <t xml:space="preserve">1.65366756916046</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686238765717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61623907089233</t>
+    <t xml:space="preserve">1.61623883247375</t>
   </si>
   <si>
     <t xml:space="preserve">1.69024562835693</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">1.63750517368317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63240122795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61538827419281</t>
+    <t xml:space="preserve">1.63240134716034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61538851261139</t>
   </si>
   <si>
     <t xml:space="preserve">1.60432982444763</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">1.5805116891861</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58986854553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177779197693</t>
+    <t xml:space="preserve">1.58986866474152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177791118622</t>
   </si>
   <si>
     <t xml:space="preserve">1.60688173770905</t>
@@ -203,13 +203,13 @@
     <t xml:space="preserve">1.53372550010681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57881021499634</t>
+    <t xml:space="preserve">1.57881009578705</t>
   </si>
   <si>
     <t xml:space="preserve">1.53542685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56094658374786</t>
+    <t xml:space="preserve">1.56094646453857</t>
   </si>
   <si>
     <t xml:space="preserve">1.53287506103516</t>
@@ -218,25 +218,25 @@
     <t xml:space="preserve">1.52096581459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55329048633575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54648542404175</t>
+    <t xml:space="preserve">1.55329060554504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54648554325104</t>
   </si>
   <si>
     <t xml:space="preserve">1.53968024253845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52862179279327</t>
+    <t xml:space="preserve">1.52862167358398</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654876232147</t>
+    <t xml:space="preserve">1.49703013896942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654888153076</t>
   </si>
   <si>
     <t xml:space="preserve">1.47626221179962</t>
@@ -245,37 +245,37 @@
     <t xml:space="preserve">1.47885823249817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47539675235748</t>
+    <t xml:space="preserve">1.47539687156677</t>
   </si>
   <si>
     <t xml:space="preserve">1.46933937072754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45376324653625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405015468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47972333431244</t>
+    <t xml:space="preserve">1.45376336574554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405027389526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47972345352173</t>
   </si>
   <si>
     <t xml:space="preserve">1.48664617538452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49270355701447</t>
+    <t xml:space="preserve">1.49270331859589</t>
   </si>
   <si>
     <t xml:space="preserve">1.52299022674561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48837661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46674335002899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47366583347321</t>
+    <t xml:space="preserve">1.48837673664093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46674346923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4736659526825</t>
   </si>
   <si>
     <t xml:space="preserve">1.50568354129791</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">1.451167345047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42001533508301</t>
+    <t xml:space="preserve">1.42001521587372</t>
   </si>
   <si>
     <t xml:space="preserve">1.46760869026184</t>
@@ -311,31 +311,31 @@
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212476730347</t>
+    <t xml:space="preserve">1.52212488651276</t>
   </si>
   <si>
     <t xml:space="preserve">1.47712743282318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50222206115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616491794586</t>
+    <t xml:space="preserve">1.50222218036652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616456031799</t>
   </si>
   <si>
     <t xml:space="preserve">1.52991282939911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50827956199646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51087558269501</t>
+    <t xml:space="preserve">1.50827944278717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51087546348572</t>
   </si>
   <si>
     <t xml:space="preserve">1.51347148418427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53077828884125</t>
+    <t xml:space="preserve">1.53077816963196</t>
   </si>
   <si>
     <t xml:space="preserve">1.50308740139008</t>
@@ -344,22 +344,22 @@
     <t xml:space="preserve">1.50049138069153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135672092438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53337419033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51866352558136</t>
+    <t xml:space="preserve">1.50135660171509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53337407112122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318469524384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51866328716278</t>
   </si>
   <si>
     <t xml:space="preserve">1.51174080371857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54375827312469</t>
+    <t xml:space="preserve">1.54375839233398</t>
   </si>
   <si>
     <t xml:space="preserve">1.55500757694244</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54029703140259</t>
+    <t xml:space="preserve">1.5402969121933</t>
   </si>
   <si>
     <t xml:space="preserve">1.53250885009766</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">1.55760371685028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49443399906158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231935501099</t>
+    <t xml:space="preserve">1.49443411827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010741710663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231947422028</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454888343811</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">1.52645146846771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55673837661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54116213321686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55327689647675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54202735424042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693308353424</t>
+    <t xml:space="preserve">1.55673825740814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54116225242615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55327677726746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54202747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693284511566</t>
   </si>
   <si>
     <t xml:space="preserve">1.5385662317276</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">1.54635405540466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57404494285583</t>
+    <t xml:space="preserve">1.57404482364655</t>
   </si>
   <si>
     <t xml:space="preserve">1.57837176322937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57317960262299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56971836090088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54981553554535</t>
+    <t xml:space="preserve">1.57317972183228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56971824169159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54981565475464</t>
   </si>
   <si>
     <t xml:space="preserve">1.55846893787384</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">1.59221708774567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60000503063202</t>
+    <t xml:space="preserve">1.60000491142273</t>
   </si>
   <si>
     <t xml:space="preserve">1.56625699996948</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">1.58096766471863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60779297351837</t>
+    <t xml:space="preserve">1.60779321193695</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664096355438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57750630378723</t>
+    <t xml:space="preserve">1.57750618457794</t>
   </si>
   <si>
     <t xml:space="preserve">1.59827435016632</t>
@@ -479,73 +479,73 @@
     <t xml:space="preserve">1.59913980960846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60087037086487</t>
+    <t xml:space="preserve">1.60087049007416</t>
   </si>
   <si>
     <t xml:space="preserve">1.63461852073669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60952377319336</t>
+    <t xml:space="preserve">1.60952365398407</t>
   </si>
   <si>
     <t xml:space="preserve">1.61731171607971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61817717552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65192520618439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5965439081192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6051971912384</t>
+    <t xml:space="preserve">1.61817693710327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65192532539368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59654366970062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60519695281982</t>
   </si>
   <si>
     <t xml:space="preserve">1.61904239654541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61211979389191</t>
+    <t xml:space="preserve">1.61211967468262</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971302986145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66057848930359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65279054641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6744236946106</t>
+    <t xml:space="preserve">1.66057860851288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65279042720795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67442381381989</t>
   </si>
   <si>
     <t xml:space="preserve">1.67009723186493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66144382953644</t>
+    <t xml:space="preserve">1.66144394874573</t>
   </si>
   <si>
     <t xml:space="preserve">1.64154100418091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63634920120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625190734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68048107624054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317451000214</t>
+    <t xml:space="preserve">1.6363490819931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625178813934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68048119544983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317439079285</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701486110687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82585728168488</t>
+    <t xml:space="preserve">1.82585740089417</t>
   </si>
   <si>
     <t xml:space="preserve">1.81893467903137</t>
@@ -554,40 +554,40 @@
     <t xml:space="preserve">1.80682027339935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77739870548248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79816699028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77393734455109</t>
+    <t xml:space="preserve">1.77739858627319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79816710948944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393746376038</t>
   </si>
   <si>
     <t xml:space="preserve">1.75836157798767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79124414920807</t>
+    <t xml:space="preserve">1.79124402999878</t>
   </si>
   <si>
     <t xml:space="preserve">1.75143873691559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72980523109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7479772567749</t>
+    <t xml:space="preserve">1.72980546951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74797737598419</t>
   </si>
   <si>
     <t xml:space="preserve">1.7445160150528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75663077831268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758820056915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201231479645</t>
+    <t xml:space="preserve">1.75663065910339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758843898773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201255321503</t>
   </si>
   <si>
     <t xml:space="preserve">1.7410546541214</t>
@@ -596,103 +596,103 @@
     <t xml:space="preserve">1.7427853345871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7185560464859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73932409286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7652839422226</t>
+    <t xml:space="preserve">1.71855580806732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7393239736557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76528406143188</t>
   </si>
   <si>
     <t xml:space="preserve">1.78432130813599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80855059623718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7618225812912</t>
+    <t xml:space="preserve">1.80855071544647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76182270050049</t>
   </si>
   <si>
     <t xml:space="preserve">1.76874530315399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78259086608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79989731311798</t>
+    <t xml:space="preserve">1.78259074687958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79989743232727</t>
   </si>
   <si>
     <t xml:space="preserve">1.82412695884705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81720411777496</t>
+    <t xml:space="preserve">1.81720423698425</t>
   </si>
   <si>
     <t xml:space="preserve">1.80335891246796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84316444396973</t>
+    <t xml:space="preserve">1.84316432476044</t>
   </si>
   <si>
     <t xml:space="preserve">1.79297482967377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81547343730927</t>
+    <t xml:space="preserve">1.81547355651855</t>
   </si>
   <si>
     <t xml:space="preserve">1.78605198860168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354816913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83451092243195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87777769565582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623662948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9210444688797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90373778343201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83797228336334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96253097057343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04503440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41366744041443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42244482040405</t>
+    <t xml:space="preserve">1.85354828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83451080322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87777745723724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623651027679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92104423046112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90373766422272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83797216415405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.962531208992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04503464698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41366767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42244458198547</t>
   </si>
   <si>
     <t xml:space="preserve">2.30834412574768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2469048500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648791313171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39260315895081</t>
+    <t xml:space="preserve">2.24690508842468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648767471313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39260292053223</t>
   </si>
   <si>
     <t xml:space="preserve">2.4171781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40489053726196</t>
+    <t xml:space="preserve">2.40489077568054</t>
   </si>
   <si>
     <t xml:space="preserve">2.31712079048157</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13280439376831</t>
+    <t xml:space="preserve">2.13280463218689</t>
   </si>
   <si>
     <t xml:space="preserve">2.08014225959778</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">2.01870369911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07136559486389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12753820419312</t>
+    <t xml:space="preserve">2.07136535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12753796577454</t>
   </si>
   <si>
     <t xml:space="preserve">2.06258845329285</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647368431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104867935181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11525082588196</t>
+    <t xml:space="preserve">2.10647392272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104891777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1152503490448</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296249389648</t>
@@ -746,19 +746,19 @@
     <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03625750541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03099155426025</t>
+    <t xml:space="preserve">2.03625726699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03099131584167</t>
   </si>
   <si>
     <t xml:space="preserve">2.0345025062561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00992655754089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763870239258</t>
+    <t xml:space="preserve">2.00992679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763882160187</t>
   </si>
   <si>
     <t xml:space="preserve">1.9835958480835</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">2.00114965438843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01694822311401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99588370323181</t>
+    <t xml:space="preserve">2.01694846153259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99588346481323</t>
   </si>
   <si>
     <t xml:space="preserve">1.98710680007935</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">2.06785464286804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07663154602051</t>
+    <t xml:space="preserve">2.07663178443909</t>
   </si>
   <si>
     <t xml:space="preserve">2.04854536056519</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">1.97481894493103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97130787372589</t>
+    <t xml:space="preserve">1.97130811214447</t>
   </si>
   <si>
     <t xml:space="preserve">1.9660416841507</t>
@@ -806,19 +806,19 @@
     <t xml:space="preserve">1.99237298965454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99939453601837</t>
+    <t xml:space="preserve">1.99939477443695</t>
   </si>
   <si>
     <t xml:space="preserve">2.20301985740662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32414197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29078984260559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122148513794</t>
+    <t xml:space="preserve">2.32414221763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122124671936</t>
   </si>
   <si>
     <t xml:space="preserve">2.34345173835754</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">2.43999838829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37855958938599</t>
+    <t xml:space="preserve">2.37855935096741</t>
   </si>
   <si>
     <t xml:space="preserve">2.38207030296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38558125495911</t>
+    <t xml:space="preserve">2.38558101654053</t>
   </si>
   <si>
     <t xml:space="preserve">2.35925030708313</t>
@@ -848,22 +848,22 @@
     <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48739409446716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44175362586975</t>
+    <t xml:space="preserve">2.48739433288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44175386428833</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984004974365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42946577072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37504911422729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084768295288</t>
+    <t xml:space="preserve">2.42946600914001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37504887580872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3908474445343</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">2.3890917301178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41893362998962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43473243713379</t>
+    <t xml:space="preserve">2.41893339157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43473219871521</t>
   </si>
   <si>
     <t xml:space="preserve">2.41542291641235</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">2.41015696525574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43824315071106</t>
+    <t xml:space="preserve">2.43824338912964</t>
   </si>
   <si>
     <t xml:space="preserve">2.44877529144287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45579695701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33994078636169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238674163818</t>
+    <t xml:space="preserve">2.45579719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33994054794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238721847534</t>
   </si>
   <si>
     <t xml:space="preserve">2.15737962722778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22232937812805</t>
+    <t xml:space="preserve">2.22232961654663</t>
   </si>
   <si>
     <t xml:space="preserve">2.1696674823761</t>
@@ -917,25 +917,25 @@
     <t xml:space="preserve">2.1924877166748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38733625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37329363822937</t>
+    <t xml:space="preserve">2.38733649253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222840309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37329339981079</t>
   </si>
   <si>
     <t xml:space="preserve">2.36627197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35749506950378</t>
+    <t xml:space="preserve">2.35749483108521</t>
   </si>
   <si>
     <t xml:space="preserve">2.28376817703247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30658841133118</t>
+    <t xml:space="preserve">2.3065881729126</t>
   </si>
   <si>
     <t xml:space="preserve">2.28201270103455</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31361031532288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956650733948</t>
+    <t xml:space="preserve">2.3136100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956674575806</t>
   </si>
   <si>
     <t xml:space="preserve">2.25568222999573</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">2.33116388320923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29254508018494</t>
+    <t xml:space="preserve">2.29254531860352</t>
   </si>
   <si>
     <t xml:space="preserve">2.30132222175598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29781126976013</t>
+    <t xml:space="preserve">2.29781150817871</t>
   </si>
   <si>
     <t xml:space="preserve">2.27323603630066</t>
@@ -974,19 +974,19 @@
     <t xml:space="preserve">2.4663290977478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49266028404236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60676074028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65064549446106</t>
+    <t xml:space="preserve">2.49266004562378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60676097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65064573287964</t>
   </si>
   <si>
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6594226360321</t>
+    <t xml:space="preserve">2.65942287445068</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043003082275</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">2.54532217979431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53654479980469</t>
+    <t xml:space="preserve">2.53654503822327</t>
   </si>
   <si>
     <t xml:space="preserve">2.45755243301392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48388290405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36978220939636</t>
+    <t xml:space="preserve">2.48388314247131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36978244781494</t>
   </si>
   <si>
     <t xml:space="preserve">2.5277681350708</t>
@@ -1019,34 +1019,34 @@
     <t xml:space="preserve">2.72963833808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73841547966003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51021409034729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59798407554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6155378818512</t>
+    <t xml:space="preserve">2.73841571807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51021385192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59798383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61553812026978</t>
   </si>
   <si>
     <t xml:space="preserve">2.63309168815613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56287598609924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51899099349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3346745967865</t>
+    <t xml:space="preserve">2.56287622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51899075508118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33467483520508</t>
   </si>
   <si>
     <t xml:space="preserve">2.21179699897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26327753067017</t>
+    <t xml:space="preserve">2.26327729225159</t>
   </si>
   <si>
     <t xml:space="preserve">2.1827654838562</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32589769363403</t>
+    <t xml:space="preserve">2.32589745521545</t>
   </si>
   <si>
     <t xml:space="preserve">2.31695199012756</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">2.34378910064697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41535544395447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42430114746094</t>
+    <t xml:space="preserve">2.41535520553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42430090904236</t>
   </si>
   <si>
     <t xml:space="preserve">2.37062692642212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37957215309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746403694153</t>
+    <t xml:space="preserve">2.37957239151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746379852295</t>
   </si>
   <si>
     <t xml:space="preserve">2.3527352809906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28116893768311</t>
+    <t xml:space="preserve">2.28116917610168</t>
   </si>
   <si>
     <t xml:space="preserve">2.24538564682007</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">2.17382001876831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2543318271637</t>
+    <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
     <t xml:space="preserve">2.15592813491821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.290114402771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13803672790527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14698266983032</t>
+    <t xml:space="preserve">2.29011464118958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13803696632385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1469829082489</t>
   </si>
   <si>
     <t xml:space="preserve">2.16487407684326</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541632652283</t>
+    <t xml:space="preserve">2.07541608810425</t>
   </si>
   <si>
     <t xml:space="preserve">2.12014508247375</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">1.99490463733673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93228435516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017576217651</t>
+    <t xml:space="preserve">1.93228423595428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9501758813858</t>
   </si>
   <si>
     <t xml:space="preserve">1.8786096572876</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">1.86966383457184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83388078212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77126061916351</t>
+    <t xml:space="preserve">1.83388090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77126049995422</t>
   </si>
   <si>
     <t xml:space="preserve">1.74442338943481</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68180286884308</t>
+    <t xml:space="preserve">1.68180298805237</t>
   </si>
   <si>
     <t xml:space="preserve">1.7265317440033</t>
@@ -1193,25 +1193,25 @@
     <t xml:space="preserve">1.73547756671906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76231479644775</t>
+    <t xml:space="preserve">1.76231491565704</t>
   </si>
   <si>
     <t xml:space="preserve">1.73995041847229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76678776741028</t>
+    <t xml:space="preserve">1.76678764820099</t>
   </si>
   <si>
     <t xml:space="preserve">1.74889612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69522166252136</t>
+    <t xml:space="preserve">1.69522154331207</t>
   </si>
   <si>
     <t xml:space="preserve">1.64601993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65496563911438</t>
+    <t xml:space="preserve">1.65496575832367</t>
   </si>
   <si>
     <t xml:space="preserve">1.66838443279266</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">1.6862758398056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6996945142746</t>
+    <t xml:space="preserve">1.69969439506531</t>
   </si>
   <si>
     <t xml:space="preserve">1.73100447654724</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.70864033699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75336909294128</t>
+    <t xml:space="preserve">1.75336921215057</t>
   </si>
   <si>
     <t xml:space="preserve">1.72205901145935</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55656230449677</t>
+    <t xml:space="preserve">1.55656242370605</t>
   </si>
   <si>
     <t xml:space="preserve">1.59234535694122</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.81598925590515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80704355239868</t>
+    <t xml:space="preserve">1.80704343318939</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.7980979681015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755548000336</t>
+    <t xml:space="preserve">1.88755536079407</t>
   </si>
   <si>
     <t xml:space="preserve">1.85177230834961</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">1.89650118350983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92333853244781</t>
+    <t xml:space="preserve">1.92333841323853</t>
   </si>
   <si>
     <t xml:space="preserve">1.96806728839874</t>
@@ -1313,16 +1313,16 @@
     <t xml:space="preserve">1.9770131111145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98595869541168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439294815063</t>
+    <t xml:space="preserve">1.98595893383026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439270973206</t>
   </si>
   <si>
     <t xml:space="preserve">1.90544712543488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94122993946075</t>
+    <t xml:space="preserve">1.94123005867004</t>
   </si>
   <si>
     <t xml:space="preserve">1.67285716533661</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">1.66826152801514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6498783826828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65907001495361</t>
+    <t xml:space="preserve">1.64987850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65906989574432</t>
   </si>
   <si>
     <t xml:space="preserve">1.68664455413818</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69583606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69124031066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70962345600128</t>
+    <t xml:space="preserve">1.695836186409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69124042987823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70962333679199</t>
   </si>
   <si>
     <t xml:space="preserve">1.71881484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73719787597656</t>
+    <t xml:space="preserve">1.73719799518585</t>
   </si>
   <si>
     <t xml:space="preserve">1.7326021194458</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">1.62689960002899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59932506084442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59013366699219</t>
+    <t xml:space="preserve">1.59932518005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5901335477829</t>
   </si>
   <si>
     <t xml:space="preserve">1.64068686962128</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">1.58553779125214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60392081737518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61770808696747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6360912322998</t>
+    <t xml:space="preserve">1.60392093658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61770796775818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63609111309052</t>
   </si>
   <si>
     <t xml:space="preserve">1.62230384349823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64528262615204</t>
+    <t xml:space="preserve">1.64528274536133</t>
   </si>
   <si>
     <t xml:space="preserve">1.58094203472137</t>
@@ -1421,22 +1421,22 @@
     <t xml:space="preserve">1.71421921253204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61311233043671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59472942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57175064086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55336737632751</t>
+    <t xml:space="preserve">1.61311221122742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59472930431366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57175052165985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5533674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255888938904</t>
+    <t xml:space="preserve">1.56255900859833</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">1.3879200220108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36494123935699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706842422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3051962852478</t>
+    <t xml:space="preserve">1.36494112014771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706830501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30519640445709</t>
   </si>
   <si>
     <t xml:space="preserve">1.28221750259399</t>
@@ -1466,22 +1466,22 @@
     <t xml:space="preserve">1.24085569381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31438779830933</t>
+    <t xml:space="preserve">1.31438767910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655821323395</t>
+    <t xml:space="preserve">1.34655833244324</t>
   </si>
   <si>
     <t xml:space="preserve">1.34196245670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4108989238739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40630316734314</t>
+    <t xml:space="preserve">1.41089880466461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40630304813385</t>
   </si>
   <si>
     <t xml:space="preserve">1.39711153507233</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685660839081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42468595504761</t>
+    <t xml:space="preserve">1.45685648918152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4246860742569</t>
   </si>
   <si>
     <t xml:space="preserve">1.42928183078766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872838973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39251565933228</t>
+    <t xml:space="preserve">1.37872850894928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39251577854156</t>
   </si>
   <si>
     <t xml:space="preserve">1.33277094364166</t>
@@ -1547,43 +1547,43 @@
     <t xml:space="preserve">1.41549468040466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35115396976471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36034560203552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31898355484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45226073265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43847346305847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50281405448914</t>
+    <t xml:space="preserve">1.351154088974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36034548282623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3189834356308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45226061344147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43847358226776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50281393527985</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46604800224304</t>
+    <t xml:space="preserve">1.46604812145233</t>
   </si>
   <si>
     <t xml:space="preserve">1.3281751871109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30979192256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30060052871704</t>
+    <t xml:space="preserve">1.30979204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30060064792633</t>
   </si>
   <si>
     <t xml:space="preserve">1.28681325912476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51200544834137</t>
+    <t xml:space="preserve">1.51200556755066</t>
   </si>
   <si>
     <t xml:space="preserve">1.48443102836609</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">1.53958010673523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54877173900604</t>
+    <t xml:space="preserve">1.54877161979675</t>
   </si>
   <si>
     <t xml:space="preserve">1.5763463973999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54417598247528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796313285828</t>
+    <t xml:space="preserve">1.54417586326599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796325206757</t>
   </si>
   <si>
     <t xml:space="preserve">1.53038859367371</t>
@@ -1613,10 +1613,10 @@
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396380901337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81992161273956</t>
+    <t xml:space="preserve">1.77396392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81992173194885</t>
   </si>
   <si>
     <t xml:space="preserve">1.79234707355499</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">1.87507081031799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93021988868713</t>
+    <t xml:space="preserve">1.93021976947784</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89345383644104</t>
+    <t xml:space="preserve">1.89345371723175</t>
   </si>
   <si>
     <t xml:space="preserve">1.83830463886261</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153858661652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84749627113342</t>
+    <t xml:space="preserve">1.80153846740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84749615192413</t>
   </si>
   <si>
     <t xml:space="preserve">1.76936829090118</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587917804718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90264523029327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92102813720703</t>
+    <t xml:space="preserve">1.86587929725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90264534950256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92102825641632</t>
   </si>
   <si>
     <t xml:space="preserve">1.85668766498566</t>
@@ -1682,19 +1682,19 @@
     <t xml:space="preserve">1.81073021888733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09566736221313</t>
+    <t xml:space="preserve">2.09566760063171</t>
   </si>
   <si>
     <t xml:space="preserve">2.08647584915161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02213525772095</t>
+    <t xml:space="preserve">2.02213501930237</t>
   </si>
   <si>
     <t xml:space="preserve">1.98536920547485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04051828384399</t>
+    <t xml:space="preserve">2.04051804542542</t>
   </si>
   <si>
     <t xml:space="preserve">2.14162492752075</t>
@@ -1703,25 +1703,25 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405062675476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12324190139771</t>
+    <t xml:space="preserve">2.11405038833618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12324166297913</t>
   </si>
   <si>
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928568840027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53686046600342</t>
+    <t xml:space="preserve">2.50928592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53686022758484</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63796710968018</t>
+    <t xml:space="preserve">2.6379668712616</t>
   </si>
   <si>
     <t xml:space="preserve">2.68392491340637</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">2.69321203231812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72107267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322883605957</t>
+    <t xml:space="preserve">2.72107243537903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322907447815</t>
   </si>
   <si>
     <t xml:space="preserve">2.86966347694397</t>
@@ -1745,28 +1745,28 @@
     <t xml:space="preserve">2.81394195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99039387702942</t>
+    <t xml:space="preserve">2.990394115448</t>
   </si>
   <si>
     <t xml:space="preserve">3.19470643997192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08326292037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825451850891</t>
+    <t xml:space="preserve">3.08326315879822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825475692749</t>
   </si>
   <si>
     <t xml:space="preserve">2.93467235565186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85108947753906</t>
+    <t xml:space="preserve">2.85108971595764</t>
   </si>
   <si>
     <t xml:space="preserve">2.92538547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96253323554993</t>
+    <t xml:space="preserve">2.96253299713135</t>
   </si>
   <si>
     <t xml:space="preserve">2.90681147575378</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">2.70249891281128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6560640335083</t>
+    <t xml:space="preserve">2.65606427192688</t>
   </si>
   <si>
     <t xml:space="preserve">2.67463803291321</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">2.78608131408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83251595497131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8882372379303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95324611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09255027770996</t>
+    <t xml:space="preserve">2.83251571655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88823747634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95324635505676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09255003929138</t>
   </si>
   <si>
     <t xml:space="preserve">3.18541955947876</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752459526062</t>
+    <t xml:space="preserve">2.89752435684204</t>
   </si>
   <si>
     <t xml:space="preserve">2.61891627311707</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">3.11112380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07397627830505</t>
+    <t xml:space="preserve">3.07397603988647</t>
   </si>
   <si>
     <t xml:space="preserve">2.97182011604309</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">3.03682851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00896787643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395923614502</t>
+    <t xml:space="preserve">3.00896763801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395899772644</t>
   </si>
   <si>
     <t xml:space="preserve">2.84180283546448</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">2.76750755310059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30316042900085</t>
+    <t xml:space="preserve">2.30316066741943</t>
   </si>
   <si>
     <t xml:space="preserve">2.25672578811646</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.358882188797</t>
+    <t xml:space="preserve">2.35888195037842</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">2.39602994918823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36816883087158</t>
+    <t xml:space="preserve">2.36816906929016</t>
   </si>
   <si>
     <t xml:space="preserve">2.41460371017456</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.30374097824097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28478002548218</t>
+    <t xml:space="preserve">2.28478026390076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31322145462036</t>
@@ -1967,9 +1967,6 @@
     <t xml:space="preserve">2.24685835838318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27529978752136</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.22789740562439</t>
   </si>
   <si>
@@ -1982,16 +1979,16 @@
     <t xml:space="preserve">2.18049550056458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15205407142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13309359550476</t>
+    <t xml:space="preserve">2.15205430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13309335708618</t>
   </si>
   <si>
     <t xml:space="preserve">2.07621097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12361288070679</t>
+    <t xml:space="preserve">2.12361311912537</t>
   </si>
   <si>
     <t xml:space="preserve">2.10465216636658</t>
@@ -2006,7 +2003,7 @@
     <t xml:space="preserve">2.04776978492737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14257383346558</t>
+    <t xml:space="preserve">2.142573595047</t>
   </si>
   <si>
     <t xml:space="preserve">2.16153454780579</t>
@@ -2021,13 +2018,13 @@
     <t xml:space="preserve">2.25633883476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20893669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18997573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05725002288818</t>
+    <t xml:space="preserve">2.2089364528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18997597694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05725026130676</t>
   </si>
   <si>
     <t xml:space="preserve">2.02880883216858</t>
@@ -2036,10 +2033,10 @@
     <t xml:space="preserve">2.00984787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06673073768616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99088704586029</t>
+    <t xml:space="preserve">2.06673049926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99088716506958</t>
   </si>
   <si>
     <t xml:space="preserve">1.97192621231079</t>
@@ -2048,10 +2045,10 @@
     <t xml:space="preserve">1.96244585514069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98140668869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00036764144897</t>
+    <t xml:space="preserve">1.98140680789948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0003674030304</t>
   </si>
   <si>
     <t xml:space="preserve">1.94348502159119</t>
@@ -2072,10 +2069,10 @@
     <t xml:space="preserve">1.93400454521179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88660264015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86764168739319</t>
+    <t xml:space="preserve">1.88660252094269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86764180660248</t>
   </si>
   <si>
     <t xml:space="preserve">1.85816144943237</t>
@@ -2096,7 +2093,7 @@
     <t xml:space="preserve">1.87712216377258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08569121360779</t>
+    <t xml:space="preserve">2.08569145202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.38906455039978</t>
@@ -2108,7 +2105,7 @@
     <t xml:space="preserve">2.46490788459778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41750574111938</t>
+    <t xml:space="preserve">2.41750597953796</t>
   </si>
   <si>
     <t xml:space="preserve">2.36062335968018</t>
@@ -2123,7 +2120,7 @@
     <t xml:space="preserve">2.37958431243896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35114288330078</t>
+    <t xml:space="preserve">2.35114312171936</t>
   </si>
   <si>
     <t xml:space="preserve">2.33218216896057</t>
@@ -2132,13 +2129,13 @@
     <t xml:space="preserve">2.37010359764099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34166264533997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802550315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.218416929245</t>
+    <t xml:space="preserve">2.34166240692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802526473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21841716766357</t>
   </si>
   <si>
     <t xml:space="preserve">2.30447006225586</t>
@@ -2385,6 +2382,9 @@
   </si>
   <si>
     <t xml:space="preserve">2.11999988555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08999991416931</t>
   </si>
 </sst>
 </file>
@@ -45098,7 +45098,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45124,7 +45124,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45176,7 +45176,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45228,7 +45228,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45254,7 +45254,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45280,7 +45280,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45306,7 +45306,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45332,7 +45332,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45358,7 +45358,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45384,7 +45384,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45410,7 +45410,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45436,7 +45436,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45462,7 +45462,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45488,7 +45488,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45514,7 +45514,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45540,7 +45540,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45566,7 +45566,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45592,7 +45592,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45618,7 +45618,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45644,7 +45644,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45670,7 +45670,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45696,7 +45696,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45722,7 +45722,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45748,7 +45748,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45774,7 +45774,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45800,7 +45800,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45826,7 +45826,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45852,7 +45852,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45878,7 +45878,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45904,7 +45904,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45956,7 +45956,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45982,7 +45982,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46008,7 +46008,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46034,7 +46034,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46060,7 +46060,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46086,7 +46086,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46112,7 +46112,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46138,7 +46138,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46164,7 +46164,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46190,7 +46190,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46216,7 +46216,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46242,7 +46242,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46268,7 +46268,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46294,7 +46294,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46320,7 +46320,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46346,7 +46346,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46372,7 +46372,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46398,7 +46398,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46424,7 +46424,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46450,7 +46450,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46476,7 +46476,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46502,7 +46502,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46528,7 +46528,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46554,7 +46554,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46580,7 +46580,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46606,7 +46606,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46632,7 +46632,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46658,7 +46658,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46684,7 +46684,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46710,7 +46710,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46736,7 +46736,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46762,7 +46762,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46788,7 +46788,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46814,7 +46814,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46840,7 +46840,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46866,7 +46866,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46892,7 +46892,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46918,7 +46918,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46944,7 +46944,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46970,7 +46970,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46996,7 +46996,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47022,7 +47022,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47048,7 +47048,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47074,7 +47074,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47100,7 +47100,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47126,7 +47126,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47152,7 +47152,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47178,7 +47178,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47204,7 +47204,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47230,7 +47230,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47256,7 +47256,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47282,7 +47282,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47308,7 +47308,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47334,7 +47334,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47360,7 +47360,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47386,7 +47386,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47412,7 +47412,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47438,7 +47438,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47464,7 +47464,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47490,7 +47490,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47516,7 +47516,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47542,7 +47542,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47568,7 +47568,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47594,7 +47594,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47620,7 +47620,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47646,7 +47646,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47672,7 +47672,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47698,7 +47698,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47724,7 +47724,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47750,7 +47750,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47776,7 +47776,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47802,7 +47802,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47828,7 +47828,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47854,7 +47854,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47880,7 +47880,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47906,7 +47906,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47932,7 +47932,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47958,7 +47958,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47984,7 +47984,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48010,7 +48010,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48036,7 +48036,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48062,7 +48062,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48088,7 +48088,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48114,7 +48114,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48140,7 +48140,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48166,7 +48166,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48192,7 +48192,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48218,7 +48218,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48244,7 +48244,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48270,7 +48270,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48296,7 +48296,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48322,7 +48322,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48348,7 +48348,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48374,7 +48374,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48400,7 +48400,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48426,7 +48426,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48452,7 +48452,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48478,7 +48478,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48504,7 +48504,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48530,7 +48530,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48556,7 +48556,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48582,7 +48582,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48608,7 +48608,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48634,7 +48634,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48660,7 +48660,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48686,7 +48686,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48712,7 +48712,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48738,7 +48738,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48764,7 +48764,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48790,7 +48790,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48816,7 +48816,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48842,7 +48842,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48868,7 +48868,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48894,7 +48894,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48920,7 +48920,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48946,7 +48946,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48972,7 +48972,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48998,7 +48998,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49024,7 +49024,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49050,7 +49050,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49076,7 +49076,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49102,7 +49102,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49128,7 +49128,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49154,7 +49154,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49180,7 +49180,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49206,7 +49206,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49232,7 +49232,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49258,7 +49258,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49284,7 +49284,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49310,7 +49310,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49336,7 +49336,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49362,7 +49362,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49388,7 +49388,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49414,7 +49414,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49440,7 +49440,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49466,7 +49466,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49492,7 +49492,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49518,7 +49518,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49544,7 +49544,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49570,7 +49570,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49596,7 +49596,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49674,7 +49674,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49700,7 +49700,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49726,7 +49726,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49752,7 +49752,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49778,7 +49778,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49804,7 +49804,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49830,7 +49830,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49856,7 +49856,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49908,7 +49908,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49934,7 +49934,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49960,7 +49960,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49986,7 +49986,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50012,7 +50012,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50038,7 +50038,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50064,7 +50064,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50116,7 +50116,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50142,7 +50142,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50168,7 +50168,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50194,7 +50194,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50220,7 +50220,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50246,7 +50246,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50272,7 +50272,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50298,7 +50298,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50324,7 +50324,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50376,7 +50376,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50402,7 +50402,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50428,7 +50428,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50454,7 +50454,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50480,7 +50480,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50506,7 +50506,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50532,7 +50532,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50558,7 +50558,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50584,7 +50584,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50610,7 +50610,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50662,7 +50662,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50688,7 +50688,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50766,7 +50766,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50792,7 +50792,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50818,7 +50818,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50844,7 +50844,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50870,7 +50870,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50896,7 +50896,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50922,7 +50922,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50948,7 +50948,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50974,7 +50974,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51000,7 +51000,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51026,7 +51026,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51078,7 +51078,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51182,7 +51182,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51234,7 +51234,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51260,7 +51260,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51312,7 +51312,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51338,7 +51338,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51364,7 +51364,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51390,7 +51390,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51416,7 +51416,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51442,7 +51442,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51468,7 +51468,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51494,7 +51494,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51520,7 +51520,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51546,7 +51546,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51572,7 +51572,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51598,7 +51598,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51624,7 +51624,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51650,7 +51650,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51754,7 +51754,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51806,7 +51806,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51832,7 +51832,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51858,7 +51858,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51884,7 +51884,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51910,7 +51910,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51936,7 +51936,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51962,7 +51962,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51988,7 +51988,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52014,7 +52014,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52040,7 +52040,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52066,7 +52066,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52092,7 +52092,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52118,7 +52118,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52144,7 +52144,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52170,7 +52170,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52196,7 +52196,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52222,7 +52222,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52248,7 +52248,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52274,7 +52274,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52300,7 +52300,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52326,7 +52326,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52352,7 +52352,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52378,7 +52378,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52404,7 +52404,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52430,7 +52430,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52456,7 +52456,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52482,7 +52482,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52508,7 +52508,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52534,7 +52534,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52560,7 +52560,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52586,7 +52586,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52612,7 +52612,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52638,7 +52638,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52664,7 +52664,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52690,7 +52690,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52716,7 +52716,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52742,7 +52742,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52768,7 +52768,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52794,7 +52794,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52820,7 +52820,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52846,7 +52846,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52872,7 +52872,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52898,7 +52898,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52924,7 +52924,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52950,7 +52950,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52976,7 +52976,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53002,7 +53002,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53028,7 +53028,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53054,7 +53054,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53080,7 +53080,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53106,7 +53106,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53132,7 +53132,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53158,7 +53158,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53184,7 +53184,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53236,7 +53236,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53262,7 +53262,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53288,7 +53288,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53314,7 +53314,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53340,7 +53340,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53366,7 +53366,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53392,7 +53392,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53418,7 +53418,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53444,7 +53444,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53470,7 +53470,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53522,7 +53522,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53548,7 +53548,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53574,7 +53574,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53600,7 +53600,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53626,7 +53626,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53652,7 +53652,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53678,7 +53678,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53704,7 +53704,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53730,7 +53730,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53756,7 +53756,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53782,7 +53782,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53808,7 +53808,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53834,7 +53834,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53860,7 +53860,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53886,7 +53886,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53912,7 +53912,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53938,7 +53938,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53964,7 +53964,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53990,7 +53990,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54016,7 +54016,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54042,7 +54042,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54068,7 +54068,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54094,7 +54094,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54120,7 +54120,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54146,7 +54146,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54172,7 +54172,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54198,7 +54198,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54224,7 +54224,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54250,7 +54250,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54276,7 +54276,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54302,7 +54302,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54328,7 +54328,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54354,7 +54354,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54380,7 +54380,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54406,7 +54406,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54432,7 +54432,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54458,7 +54458,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54484,7 +54484,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54510,7 +54510,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54536,7 +54536,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54562,7 +54562,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54588,7 +54588,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54614,7 +54614,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54640,7 +54640,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54666,7 +54666,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54692,7 +54692,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54718,7 +54718,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54744,7 +54744,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54770,7 +54770,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54796,7 +54796,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54822,7 +54822,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54848,7 +54848,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54874,7 +54874,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54900,7 +54900,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54926,7 +54926,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54952,7 +54952,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54978,7 +54978,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55004,7 +55004,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55030,7 +55030,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55056,7 +55056,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55082,7 +55082,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55108,7 +55108,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55134,7 +55134,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55160,7 +55160,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55186,7 +55186,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55212,7 +55212,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55238,7 +55238,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55264,7 +55264,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55290,7 +55290,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55316,7 +55316,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55342,7 +55342,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55368,7 +55368,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55394,7 +55394,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55420,7 +55420,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55446,7 +55446,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55472,7 +55472,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55498,7 +55498,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55524,7 +55524,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55550,7 +55550,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55576,7 +55576,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55602,7 +55602,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55628,7 +55628,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55654,7 +55654,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55680,7 +55680,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55706,7 +55706,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55732,7 +55732,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55758,7 +55758,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55784,7 +55784,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55810,7 +55810,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55836,7 +55836,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55862,7 +55862,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55888,7 +55888,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55914,7 +55914,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55940,7 +55940,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55966,7 +55966,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55992,7 +55992,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56018,7 +56018,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56044,7 +56044,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56070,7 +56070,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56096,7 +56096,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56122,7 +56122,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56148,7 +56148,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56174,7 +56174,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56200,7 +56200,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56226,7 +56226,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56252,7 +56252,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56278,7 +56278,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56304,7 +56304,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56330,7 +56330,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56356,7 +56356,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56382,7 +56382,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56408,7 +56408,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56434,7 +56434,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56460,7 +56460,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56486,7 +56486,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56512,7 +56512,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56538,7 +56538,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56564,7 +56564,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56590,7 +56590,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56616,7 +56616,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56642,7 +56642,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56668,7 +56668,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56694,7 +56694,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56720,7 +56720,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56746,7 +56746,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56772,7 +56772,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56798,7 +56798,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56824,7 +56824,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56850,7 +56850,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56876,7 +56876,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56902,7 +56902,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56928,7 +56928,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56954,7 +56954,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56980,7 +56980,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57006,7 +57006,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57032,7 +57032,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57058,7 +57058,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57084,7 +57084,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57110,7 +57110,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57136,7 +57136,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57162,7 +57162,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57188,7 +57188,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57214,7 +57214,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57240,7 +57240,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57266,7 +57266,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57292,7 +57292,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57318,7 +57318,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57344,7 +57344,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57370,7 +57370,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57396,7 +57396,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57422,7 +57422,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57448,7 +57448,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57474,7 +57474,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57500,7 +57500,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57526,7 +57526,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57552,7 +57552,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57578,7 +57578,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57604,7 +57604,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57630,7 +57630,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57656,7 +57656,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57682,7 +57682,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57708,7 +57708,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57734,7 +57734,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57760,7 +57760,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57786,7 +57786,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57812,7 +57812,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57838,7 +57838,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57864,7 +57864,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57890,7 +57890,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57916,7 +57916,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57942,7 +57942,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57968,7 +57968,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57994,7 +57994,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58020,7 +58020,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58046,7 +58046,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58072,7 +58072,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58098,7 +58098,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58124,7 +58124,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58150,7 +58150,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58176,7 +58176,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58202,7 +58202,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58228,7 +58228,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58254,7 +58254,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58280,7 +58280,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58306,7 +58306,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58332,7 +58332,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58358,7 +58358,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58384,7 +58384,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58410,7 +58410,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58436,7 +58436,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58462,7 +58462,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58488,7 +58488,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58514,7 +58514,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58540,7 +58540,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58566,7 +58566,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58592,7 +58592,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58618,7 +58618,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58644,7 +58644,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58670,7 +58670,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58696,7 +58696,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2153" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58722,7 +58722,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58748,7 +58748,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2155" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58774,7 +58774,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58782,7 +58782,7 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n">
-        <v>45464.6494675926</v>
+        <v>45464.2916666667</v>
       </c>
       <c r="B2157" t="n">
         <v>245</v>
@@ -58791,7 +58791,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="D2157" t="n">
-        <v>2.11999988555908</v>
+        <v>2.04999995231628</v>
       </c>
       <c r="E2157" t="n">
         <v>2.11999988555908</v>
@@ -58800,9 +58800,35 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2157" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" s="1" t="n">
+        <v>45467.5364583333</v>
+      </c>
+      <c r="B2158" t="n">
+        <v>7867</v>
+      </c>
+      <c r="C2158" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="D2158" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E2158" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F2158" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2158" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="792">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338215827942</t>
+    <t xml:space="preserve">1.80338227748871</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">1.79827868938446</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74383676052094</t>
+    <t xml:space="preserve">1.74383664131165</t>
   </si>
   <si>
     <t xml:space="preserve">1.75404453277588</t>
@@ -71,28 +71,28 @@
     <t xml:space="preserve">1.64175844192505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53117382526398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64090776443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005696773529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410246372223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6502650976181</t>
+    <t xml:space="preserve">1.53117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6409078836441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005708694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410258293152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65026497840881</t>
   </si>
   <si>
     <t xml:space="preserve">1.63325202465057</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773253440857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839455127716</t>
+    <t xml:space="preserve">1.60773241519928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839443206787</t>
   </si>
   <si>
     <t xml:space="preserve">1.58646619319916</t>
@@ -101,88 +101,88 @@
     <t xml:space="preserve">1.6128363609314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5822126865387</t>
+    <t xml:space="preserve">1.58221280574799</t>
   </si>
   <si>
     <t xml:space="preserve">1.49714767932892</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55158936977386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50565421581268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608911037445</t>
+    <t xml:space="preserve">1.55158925056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50565409660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608899116516</t>
   </si>
   <si>
     <t xml:space="preserve">1.56434905529022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70130407810211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68429100513458</t>
+    <t xml:space="preserve">1.7013041973114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68429112434387</t>
   </si>
   <si>
     <t xml:space="preserve">1.70640814304352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69279766082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68684315681458</t>
+    <t xml:space="preserve">1.69279754161835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68684303760529</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194686412811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939471244812</t>
+    <t xml:space="preserve">1.68939507007599</t>
   </si>
   <si>
     <t xml:space="preserve">1.71831703186035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65366756916046</t>
+    <t xml:space="preserve">1.65366768836975</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686238765717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61623883247375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69024562835693</t>
+    <t xml:space="preserve">1.61623895168304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69024574756622</t>
   </si>
   <si>
     <t xml:space="preserve">1.68173921108246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65111565589905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62049210071564</t>
+    <t xml:space="preserve">1.65111553668976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62049221992493</t>
   </si>
   <si>
     <t xml:space="preserve">1.63750517368317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63240134716034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61538851261139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60432982444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5805116891861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986866474152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177791118622</t>
+    <t xml:space="preserve">1.63240122795105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6153883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60432994365692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58051180839539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986854553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177767276764</t>
   </si>
   <si>
     <t xml:space="preserve">1.60688173770905</t>
@@ -203,13 +203,13 @@
     <t xml:space="preserve">1.53372550010681</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57881009578705</t>
+    <t xml:space="preserve">1.57881021499634</t>
   </si>
   <si>
     <t xml:space="preserve">1.53542685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56094646453857</t>
+    <t xml:space="preserve">1.56094670295715</t>
   </si>
   <si>
     <t xml:space="preserve">1.53287506103516</t>
@@ -218,25 +218,25 @@
     <t xml:space="preserve">1.52096581459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55329060554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54648554325104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53968024253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52862167358398</t>
+    <t xml:space="preserve">1.55329048633575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54648542404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53968012332916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52862179279327</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703013896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654888153076</t>
+    <t xml:space="preserve">1.49703025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654876232147</t>
   </si>
   <si>
     <t xml:space="preserve">1.47626221179962</t>
@@ -245,37 +245,37 @@
     <t xml:space="preserve">1.47885823249817</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47539687156677</t>
+    <t xml:space="preserve">1.47539675235748</t>
   </si>
   <si>
     <t xml:space="preserve">1.46933937072754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45376336574554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405027389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47972345352173</t>
+    <t xml:space="preserve">1.45376324653625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405015468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47972333431244</t>
   </si>
   <si>
     <t xml:space="preserve">1.48664617538452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49270331859589</t>
+    <t xml:space="preserve">1.49270355701447</t>
   </si>
   <si>
     <t xml:space="preserve">1.52299022674561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48837673664093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46674346923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4736659526825</t>
+    <t xml:space="preserve">1.48837661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46674335002899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47366583347321</t>
   </si>
   <si>
     <t xml:space="preserve">1.50568354129791</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">1.451167345047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42001521587372</t>
+    <t xml:space="preserve">1.42001533508301</t>
   </si>
   <si>
     <t xml:space="preserve">1.46760869026184</t>
@@ -311,31 +311,31 @@
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212488651276</t>
+    <t xml:space="preserve">1.52212476730347</t>
   </si>
   <si>
     <t xml:space="preserve">1.47712743282318</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50222218036652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616456031799</t>
+    <t xml:space="preserve">1.50222206115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616491794586</t>
   </si>
   <si>
     <t xml:space="preserve">1.52991282939911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50827944278717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51087546348572</t>
+    <t xml:space="preserve">1.50827956199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
     <t xml:space="preserve">1.51347148418427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53077816963196</t>
+    <t xml:space="preserve">1.53077828884125</t>
   </si>
   <si>
     <t xml:space="preserve">1.50308740139008</t>
@@ -344,22 +344,22 @@
     <t xml:space="preserve">1.50049138069153</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50135660171509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53337407112122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318469524384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51866328716278</t>
+    <t xml:space="preserve">1.50135672092438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53337419033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51866352558136</t>
   </si>
   <si>
     <t xml:space="preserve">1.51174080371857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54375839233398</t>
+    <t xml:space="preserve">1.54375827312469</t>
   </si>
   <si>
     <t xml:space="preserve">1.55500757694244</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5402969121933</t>
+    <t xml:space="preserve">1.54029703140259</t>
   </si>
   <si>
     <t xml:space="preserve">1.53250885009766</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">1.55760371685028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49443411827087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010741710663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231947422028</t>
+    <t xml:space="preserve">1.49443399906158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231935501099</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454888343811</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">1.52645146846771</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55673825740814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54116225242615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55327677726746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54202747344971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693284511566</t>
+    <t xml:space="preserve">1.55673837661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54116213321686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55327689647675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54202735424042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693308353424</t>
   </si>
   <si>
     <t xml:space="preserve">1.5385662317276</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">1.54635405540466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57404482364655</t>
+    <t xml:space="preserve">1.57404494285583</t>
   </si>
   <si>
     <t xml:space="preserve">1.57837176322937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57317972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56971824169159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54981565475464</t>
+    <t xml:space="preserve">1.57317960262299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56971836090088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54981553554535</t>
   </si>
   <si>
     <t xml:space="preserve">1.55846893787384</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">1.59221708774567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60000491142273</t>
+    <t xml:space="preserve">1.60000503063202</t>
   </si>
   <si>
     <t xml:space="preserve">1.56625699996948</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">1.58096766471863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60779321193695</t>
+    <t xml:space="preserve">1.60779297351837</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664096355438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57750618457794</t>
+    <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
     <t xml:space="preserve">1.59827435016632</t>
@@ -479,73 +479,73 @@
     <t xml:space="preserve">1.59913980960846</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60087049007416</t>
+    <t xml:space="preserve">1.60087037086487</t>
   </si>
   <si>
     <t xml:space="preserve">1.63461852073669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60952365398407</t>
+    <t xml:space="preserve">1.60952377319336</t>
   </si>
   <si>
     <t xml:space="preserve">1.61731171607971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61817693710327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65192532539368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59654366970062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60519695281982</t>
+    <t xml:space="preserve">1.61817717552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65192520618439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5965439081192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6051971912384</t>
   </si>
   <si>
     <t xml:space="preserve">1.61904239654541</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61211967468262</t>
+    <t xml:space="preserve">1.61211979389191</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971302986145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66057860851288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65279042720795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67442381381989</t>
+    <t xml:space="preserve">1.66057848930359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65279054641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6744236946106</t>
   </si>
   <si>
     <t xml:space="preserve">1.67009723186493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66144394874573</t>
+    <t xml:space="preserve">1.66144382953644</t>
   </si>
   <si>
     <t xml:space="preserve">1.64154100418091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6363490819931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625178813934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68048119544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317439079285</t>
+    <t xml:space="preserve">1.63634920120239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68048107624054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317451000214</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701486110687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82585740089417</t>
+    <t xml:space="preserve">1.82585728168488</t>
   </si>
   <si>
     <t xml:space="preserve">1.81893467903137</t>
@@ -554,40 +554,40 @@
     <t xml:space="preserve">1.80682027339935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77739858627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79816710948944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77393746376038</t>
+    <t xml:space="preserve">1.77739870548248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79816699028015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393734455109</t>
   </si>
   <si>
     <t xml:space="preserve">1.75836157798767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79124402999878</t>
+    <t xml:space="preserve">1.79124414920807</t>
   </si>
   <si>
     <t xml:space="preserve">1.75143873691559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72980546951294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74797737598419</t>
+    <t xml:space="preserve">1.72980523109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7479772567749</t>
   </si>
   <si>
     <t xml:space="preserve">1.7445160150528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75663065910339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758843898773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201255321503</t>
+    <t xml:space="preserve">1.75663077831268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758820056915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201231479645</t>
   </si>
   <si>
     <t xml:space="preserve">1.7410546541214</t>
@@ -596,103 +596,103 @@
     <t xml:space="preserve">1.7427853345871</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71855580806732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7393239736557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76528406143188</t>
+    <t xml:space="preserve">1.7185560464859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73932409286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7652839422226</t>
   </si>
   <si>
     <t xml:space="preserve">1.78432130813599</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80855071544647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76182270050049</t>
+    <t xml:space="preserve">1.80855059623718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7618225812912</t>
   </si>
   <si>
     <t xml:space="preserve">1.76874530315399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78259074687958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79989743232727</t>
+    <t xml:space="preserve">1.78259086608887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79989731311798</t>
   </si>
   <si>
     <t xml:space="preserve">1.82412695884705</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81720423698425</t>
+    <t xml:space="preserve">1.81720411777496</t>
   </si>
   <si>
     <t xml:space="preserve">1.80335891246796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84316432476044</t>
+    <t xml:space="preserve">1.84316444396973</t>
   </si>
   <si>
     <t xml:space="preserve">1.79297482967377</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81547355651855</t>
+    <t xml:space="preserve">1.81547343730927</t>
   </si>
   <si>
     <t xml:space="preserve">1.78605198860168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354828834534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83451080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87777745723724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623651027679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92104423046112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90373766422272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83797216415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.962531208992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04503464698792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41366767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42244458198547</t>
+    <t xml:space="preserve">1.85354816913605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83451092243195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87777769565582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9210444688797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90373778343201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83797228336334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96253097057343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04503440856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41366744041443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42244482040405</t>
   </si>
   <si>
     <t xml:space="preserve">2.30834412574768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24690508842468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648767471313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39260292053223</t>
+    <t xml:space="preserve">2.2469048500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648791313171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39260315895081</t>
   </si>
   <si>
     <t xml:space="preserve">2.4171781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40489077568054</t>
+    <t xml:space="preserve">2.40489053726196</t>
   </si>
   <si>
     <t xml:space="preserve">2.31712079048157</t>
@@ -704,7 +704,7 @@
     <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13280463218689</t>
+    <t xml:space="preserve">2.13280439376831</t>
   </si>
   <si>
     <t xml:space="preserve">2.08014225959778</t>
@@ -713,10 +713,10 @@
     <t xml:space="preserve">2.01870369911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07136535644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12753796577454</t>
+    <t xml:space="preserve">2.07136559486389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12753820419312</t>
   </si>
   <si>
     <t xml:space="preserve">2.06258845329285</t>
@@ -728,13 +728,13 @@
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104891777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1152503490448</t>
+    <t xml:space="preserve">2.10647368431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104867935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11525082588196</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296249389648</t>
@@ -746,19 +746,19 @@
     <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03625726699829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03099131584167</t>
+    <t xml:space="preserve">2.03625750541687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03099155426025</t>
   </si>
   <si>
     <t xml:space="preserve">2.0345025062561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00992679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763882160187</t>
+    <t xml:space="preserve">2.00992655754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763870239258</t>
   </si>
   <si>
     <t xml:space="preserve">1.9835958480835</t>
@@ -770,10 +770,10 @@
     <t xml:space="preserve">2.00114965438843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01694846153259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99588346481323</t>
+    <t xml:space="preserve">2.01694822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99588370323181</t>
   </si>
   <si>
     <t xml:space="preserve">1.98710680007935</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">2.06785464286804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07663178443909</t>
+    <t xml:space="preserve">2.07663154602051</t>
   </si>
   <si>
     <t xml:space="preserve">2.04854536056519</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">1.97481894493103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97130811214447</t>
+    <t xml:space="preserve">1.97130787372589</t>
   </si>
   <si>
     <t xml:space="preserve">1.9660416841507</t>
@@ -806,19 +806,19 @@
     <t xml:space="preserve">1.99237298965454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99939477443695</t>
+    <t xml:space="preserve">1.99939453601837</t>
   </si>
   <si>
     <t xml:space="preserve">2.20301985740662</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32414221763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29078960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122124671936</t>
+    <t xml:space="preserve">2.32414197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078984260559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122148513794</t>
   </si>
   <si>
     <t xml:space="preserve">2.34345173835754</t>
@@ -833,13 +833,13 @@
     <t xml:space="preserve">2.43999838829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37855935096741</t>
+    <t xml:space="preserve">2.37855958938599</t>
   </si>
   <si>
     <t xml:space="preserve">2.38207030296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38558101654053</t>
+    <t xml:space="preserve">2.38558125495911</t>
   </si>
   <si>
     <t xml:space="preserve">2.35925030708313</t>
@@ -848,22 +848,22 @@
     <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48739433288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44175386428833</t>
+    <t xml:space="preserve">2.48739409446716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44175362586975</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984004974365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42946600914001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37504887580872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3908474445343</t>
+    <t xml:space="preserve">2.42946577072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37504911422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084768295288</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
@@ -872,10 +872,10 @@
     <t xml:space="preserve">2.3890917301178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41893339157104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43473219871521</t>
+    <t xml:space="preserve">2.41893362998962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43473243713379</t>
   </si>
   <si>
     <t xml:space="preserve">2.41542291641235</t>
@@ -887,25 +887,25 @@
     <t xml:space="preserve">2.41015696525574</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43824338912964</t>
+    <t xml:space="preserve">2.43824315071106</t>
   </si>
   <si>
     <t xml:space="preserve">2.44877529144287</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45579719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33994054794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238721847534</t>
+    <t xml:space="preserve">2.45579695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33994078636169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
     <t xml:space="preserve">2.15737962722778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22232961654663</t>
+    <t xml:space="preserve">2.22232937812805</t>
   </si>
   <si>
     <t xml:space="preserve">2.1696674823761</t>
@@ -917,25 +917,25 @@
     <t xml:space="preserve">2.1924877166748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38733649253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222840309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37329339981079</t>
+    <t xml:space="preserve">2.38733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37329363822937</t>
   </si>
   <si>
     <t xml:space="preserve">2.36627197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35749483108521</t>
+    <t xml:space="preserve">2.35749506950378</t>
   </si>
   <si>
     <t xml:space="preserve">2.28376817703247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3065881729126</t>
+    <t xml:space="preserve">2.30658841133118</t>
   </si>
   <si>
     <t xml:space="preserve">2.28201270103455</t>
@@ -944,10 +944,10 @@
     <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3136100769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956674575806</t>
+    <t xml:space="preserve">2.31361031532288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956650733948</t>
   </si>
   <si>
     <t xml:space="preserve">2.25568222999573</t>
@@ -956,13 +956,13 @@
     <t xml:space="preserve">2.33116388320923</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29254531860352</t>
+    <t xml:space="preserve">2.29254508018494</t>
   </si>
   <si>
     <t xml:space="preserve">2.30132222175598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29781150817871</t>
+    <t xml:space="preserve">2.29781126976013</t>
   </si>
   <si>
     <t xml:space="preserve">2.27323603630066</t>
@@ -974,19 +974,19 @@
     <t xml:space="preserve">2.4663290977478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49266004562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60676097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65064573287964</t>
+    <t xml:space="preserve">2.49266028404236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60676074028015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65064549446106</t>
   </si>
   <si>
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65942287445068</t>
+    <t xml:space="preserve">2.6594226360321</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043003082275</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">2.54532217979431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53654503822327</t>
+    <t xml:space="preserve">2.53654479980469</t>
   </si>
   <si>
     <t xml:space="preserve">2.45755243301392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48388314247131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36978244781494</t>
+    <t xml:space="preserve">2.48388290405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36978220939636</t>
   </si>
   <si>
     <t xml:space="preserve">2.5277681350708</t>
@@ -1019,34 +1019,34 @@
     <t xml:space="preserve">2.72963833808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73841571807861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51021385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59798383712769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61553812026978</t>
+    <t xml:space="preserve">2.73841547966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51021409034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59798407554626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6155378818512</t>
   </si>
   <si>
     <t xml:space="preserve">2.63309168815613</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56287622451782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51899075508118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33467483520508</t>
+    <t xml:space="preserve">2.56287598609924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51899099349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3346745967865</t>
   </si>
   <si>
     <t xml:space="preserve">2.21179699897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26327729225159</t>
+    <t xml:space="preserve">2.26327753067017</t>
   </si>
   <si>
     <t xml:space="preserve">2.1827654838562</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32589745521545</t>
+    <t xml:space="preserve">2.32589769363403</t>
   </si>
   <si>
     <t xml:space="preserve">2.31695199012756</t>
@@ -1070,25 +1070,25 @@
     <t xml:space="preserve">2.34378910064697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41535520553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42430090904236</t>
+    <t xml:space="preserve">2.41535544395447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42430114746094</t>
   </si>
   <si>
     <t xml:space="preserve">2.37062692642212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37957239151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746379852295</t>
+    <t xml:space="preserve">2.37957215309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746403694153</t>
   </si>
   <si>
     <t xml:space="preserve">2.3527352809906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28116917610168</t>
+    <t xml:space="preserve">2.28116893768311</t>
   </si>
   <si>
     <t xml:space="preserve">2.24538564682007</t>
@@ -1106,19 +1106,19 @@
     <t xml:space="preserve">2.17382001876831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25433158874512</t>
+    <t xml:space="preserve">2.2543318271637</t>
   </si>
   <si>
     <t xml:space="preserve">2.15592813491821</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29011464118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13803696632385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1469829082489</t>
+    <t xml:space="preserve">2.290114402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13803672790527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14698266983032</t>
   </si>
   <si>
     <t xml:space="preserve">2.16487407684326</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541608810425</t>
+    <t xml:space="preserve">2.07541632652283</t>
   </si>
   <si>
     <t xml:space="preserve">2.12014508247375</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">1.99490463733673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93228423595428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9501758813858</t>
+    <t xml:space="preserve">1.93228435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017576217651</t>
   </si>
   <si>
     <t xml:space="preserve">1.8786096572876</t>
@@ -1172,10 +1172,10 @@
     <t xml:space="preserve">1.86966383457184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83388090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77126049995422</t>
+    <t xml:space="preserve">1.83388078212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77126061916351</t>
   </si>
   <si>
     <t xml:space="preserve">1.74442338943481</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68180298805237</t>
+    <t xml:space="preserve">1.68180286884308</t>
   </si>
   <si>
     <t xml:space="preserve">1.7265317440033</t>
@@ -1193,25 +1193,25 @@
     <t xml:space="preserve">1.73547756671906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76231491565704</t>
+    <t xml:space="preserve">1.76231479644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.73995041847229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76678764820099</t>
+    <t xml:space="preserve">1.76678776741028</t>
   </si>
   <si>
     <t xml:space="preserve">1.74889612197876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69522154331207</t>
+    <t xml:space="preserve">1.69522166252136</t>
   </si>
   <si>
     <t xml:space="preserve">1.64601993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65496575832367</t>
+    <t xml:space="preserve">1.65496563911438</t>
   </si>
   <si>
     <t xml:space="preserve">1.66838443279266</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">1.6862758398056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69969439506531</t>
+    <t xml:space="preserve">1.6996945142746</t>
   </si>
   <si>
     <t xml:space="preserve">1.73100447654724</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.70864033699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75336921215057</t>
+    <t xml:space="preserve">1.75336909294128</t>
   </si>
   <si>
     <t xml:space="preserve">1.72205901145935</t>
@@ -1247,7 +1247,7 @@
     <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55656242370605</t>
+    <t xml:space="preserve">1.55656230449677</t>
   </si>
   <si>
     <t xml:space="preserve">1.59234535694122</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.81598925590515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80704343318939</t>
+    <t xml:space="preserve">1.80704355239868</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">1.7980979681015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755536079407</t>
+    <t xml:space="preserve">1.88755548000336</t>
   </si>
   <si>
     <t xml:space="preserve">1.85177230834961</t>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">1.89650118350983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92333841323853</t>
+    <t xml:space="preserve">1.92333853244781</t>
   </si>
   <si>
     <t xml:space="preserve">1.96806728839874</t>
@@ -1313,16 +1313,16 @@
     <t xml:space="preserve">1.9770131111145</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98595893383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439270973206</t>
+    <t xml:space="preserve">1.98595869541168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439294815063</t>
   </si>
   <si>
     <t xml:space="preserve">1.90544712543488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94123005867004</t>
+    <t xml:space="preserve">1.94122993946075</t>
   </si>
   <si>
     <t xml:space="preserve">1.67285716533661</t>
@@ -1334,10 +1334,10 @@
     <t xml:space="preserve">1.66826152801514</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64987850189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65906989574432</t>
+    <t xml:space="preserve">1.6498783826828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65907001495361</t>
   </si>
   <si>
     <t xml:space="preserve">1.68664455413818</t>
@@ -1349,19 +1349,19 @@
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.695836186409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69124042987823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70962333679199</t>
+    <t xml:space="preserve">1.69583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69124031066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70962345600128</t>
   </si>
   <si>
     <t xml:space="preserve">1.71881484985352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73719799518585</t>
+    <t xml:space="preserve">1.73719787597656</t>
   </si>
   <si>
     <t xml:space="preserve">1.7326021194458</t>
@@ -1385,10 +1385,10 @@
     <t xml:space="preserve">1.62689960002899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59932518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5901335477829</t>
+    <t xml:space="preserve">1.59932506084442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59013366699219</t>
   </si>
   <si>
     <t xml:space="preserve">1.64068686962128</t>
@@ -1400,19 +1400,19 @@
     <t xml:space="preserve">1.58553779125214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60392093658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61770796775818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63609111309052</t>
+    <t xml:space="preserve">1.60392081737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61770808696747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6360912322998</t>
   </si>
   <si>
     <t xml:space="preserve">1.62230384349823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64528274536133</t>
+    <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
     <t xml:space="preserve">1.58094203472137</t>
@@ -1421,22 +1421,22 @@
     <t xml:space="preserve">1.71421921253204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61311221122742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59472930431366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57175052165985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5533674955368</t>
+    <t xml:space="preserve">1.61311233043671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59472942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57175064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55336737632751</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255900859833</t>
+    <t xml:space="preserve">1.56255888938904</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">1.3879200220108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36494112014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706830501556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30519640445709</t>
+    <t xml:space="preserve">1.36494123935699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706842422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3051962852478</t>
   </si>
   <si>
     <t xml:space="preserve">1.28221750259399</t>
@@ -1466,22 +1466,22 @@
     <t xml:space="preserve">1.24085569381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31438767910004</t>
+    <t xml:space="preserve">1.31438779830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655833244324</t>
+    <t xml:space="preserve">1.34655821323395</t>
   </si>
   <si>
     <t xml:space="preserve">1.34196245670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41089880466461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40630304813385</t>
+    <t xml:space="preserve">1.4108989238739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40630316734314</t>
   </si>
   <si>
     <t xml:space="preserve">1.39711153507233</t>
@@ -1517,19 +1517,19 @@
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685648918152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4246860742569</t>
+    <t xml:space="preserve">1.45685660839081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42468595504761</t>
   </si>
   <si>
     <t xml:space="preserve">1.42928183078766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872850894928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39251577854156</t>
+    <t xml:space="preserve">1.37872838973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39251565933228</t>
   </si>
   <si>
     <t xml:space="preserve">1.33277094364166</t>
@@ -1547,43 +1547,43 @@
     <t xml:space="preserve">1.41549468040466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.351154088974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36034548282623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3189834356308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45226061344147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43847358226776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50281393527985</t>
+    <t xml:space="preserve">1.35115396976471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36034560203552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31898355484009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45226073265076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43847346305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46604812145233</t>
+    <t xml:space="preserve">1.46604800224304</t>
   </si>
   <si>
     <t xml:space="preserve">1.3281751871109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30979204177856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30060064792633</t>
+    <t xml:space="preserve">1.30979192256927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30060052871704</t>
   </si>
   <si>
     <t xml:space="preserve">1.28681325912476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51200556755066</t>
+    <t xml:space="preserve">1.51200544834137</t>
   </si>
   <si>
     <t xml:space="preserve">1.48443102836609</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">1.53958010673523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54877161979675</t>
+    <t xml:space="preserve">1.54877173900604</t>
   </si>
   <si>
     <t xml:space="preserve">1.5763463973999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54417586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796325206757</t>
+    <t xml:space="preserve">1.54417598247528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796313285828</t>
   </si>
   <si>
     <t xml:space="preserve">1.53038859367371</t>
@@ -1613,10 +1613,10 @@
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81992173194885</t>
+    <t xml:space="preserve">1.77396380901337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81992161273956</t>
   </si>
   <si>
     <t xml:space="preserve">1.79234707355499</t>
@@ -1625,13 +1625,13 @@
     <t xml:space="preserve">1.87507081031799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93021976947784</t>
+    <t xml:space="preserve">1.93021988868713</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89345371723175</t>
+    <t xml:space="preserve">1.89345383644104</t>
   </si>
   <si>
     <t xml:space="preserve">1.83830463886261</t>
@@ -1652,10 +1652,10 @@
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153846740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84749615192413</t>
+    <t xml:space="preserve">1.80153858661652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84749627113342</t>
   </si>
   <si>
     <t xml:space="preserve">1.76936829090118</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587929725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90264534950256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92102825641632</t>
+    <t xml:space="preserve">1.86587917804718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90264523029327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92102813720703</t>
   </si>
   <si>
     <t xml:space="preserve">1.85668766498566</t>
@@ -1682,19 +1682,19 @@
     <t xml:space="preserve">1.81073021888733</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09566760063171</t>
+    <t xml:space="preserve">2.09566736221313</t>
   </si>
   <si>
     <t xml:space="preserve">2.08647584915161</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02213501930237</t>
+    <t xml:space="preserve">2.02213525772095</t>
   </si>
   <si>
     <t xml:space="preserve">1.98536920547485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04051804542542</t>
+    <t xml:space="preserve">2.04051828384399</t>
   </si>
   <si>
     <t xml:space="preserve">2.14162492752075</t>
@@ -1703,25 +1703,25 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405038833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12324166297913</t>
+    <t xml:space="preserve">2.11405062675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12324190139771</t>
   </si>
   <si>
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928592681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53686022758484</t>
+    <t xml:space="preserve">2.50928568840027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6379668712616</t>
+    <t xml:space="preserve">2.63796710968018</t>
   </si>
   <si>
     <t xml:space="preserve">2.68392491340637</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">2.69321203231812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72107243537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322907447815</t>
+    <t xml:space="preserve">2.72107267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322883605957</t>
   </si>
   <si>
     <t xml:space="preserve">2.86966347694397</t>
@@ -1745,28 +1745,28 @@
     <t xml:space="preserve">2.81394195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.990394115448</t>
+    <t xml:space="preserve">2.99039387702942</t>
   </si>
   <si>
     <t xml:space="preserve">3.19470643997192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08326315879822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825475692749</t>
+    <t xml:space="preserve">3.08326292037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825451850891</t>
   </si>
   <si>
     <t xml:space="preserve">2.93467235565186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85108971595764</t>
+    <t xml:space="preserve">2.85108947753906</t>
   </si>
   <si>
     <t xml:space="preserve">2.92538547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96253299713135</t>
+    <t xml:space="preserve">2.96253323554993</t>
   </si>
   <si>
     <t xml:space="preserve">2.90681147575378</t>
@@ -1799,7 +1799,7 @@
     <t xml:space="preserve">2.70249891281128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65606427192688</t>
+    <t xml:space="preserve">2.6560640335083</t>
   </si>
   <si>
     <t xml:space="preserve">2.67463803291321</t>
@@ -1826,16 +1826,16 @@
     <t xml:space="preserve">2.78608131408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83251571655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88823747634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95324635505676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09255003929138</t>
+    <t xml:space="preserve">2.83251595497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8882372379303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95324611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09255027770996</t>
   </si>
   <si>
     <t xml:space="preserve">3.18541955947876</t>
@@ -1847,7 +1847,7 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752435684204</t>
+    <t xml:space="preserve">2.89752459526062</t>
   </si>
   <si>
     <t xml:space="preserve">2.61891627311707</t>
@@ -1874,7 +1874,7 @@
     <t xml:space="preserve">3.11112380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07397603988647</t>
+    <t xml:space="preserve">3.07397627830505</t>
   </si>
   <si>
     <t xml:space="preserve">2.97182011604309</t>
@@ -1883,10 +1883,10 @@
     <t xml:space="preserve">3.03682851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00896763801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395899772644</t>
+    <t xml:space="preserve">3.00896787643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395923614502</t>
   </si>
   <si>
     <t xml:space="preserve">2.84180283546448</t>
@@ -1895,7 +1895,7 @@
     <t xml:space="preserve">2.76750755310059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30316066741943</t>
+    <t xml:space="preserve">2.30316042900085</t>
   </si>
   <si>
     <t xml:space="preserve">2.25672578811646</t>
@@ -1934,7 +1934,7 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35888195037842</t>
+    <t xml:space="preserve">2.358882188797</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">2.39602994918823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36816906929016</t>
+    <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
     <t xml:space="preserve">2.41460371017456</t>
@@ -1958,7 +1958,7 @@
     <t xml:space="preserve">2.30374097824097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28478026390076</t>
+    <t xml:space="preserve">2.28478002548218</t>
   </si>
   <si>
     <t xml:space="preserve">2.31322145462036</t>
@@ -1967,6 +1967,9 @@
     <t xml:space="preserve">2.24685835838318</t>
   </si>
   <si>
+    <t xml:space="preserve">2.27529978752136</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.22789740562439</t>
   </si>
   <si>
@@ -1979,16 +1982,16 @@
     <t xml:space="preserve">2.18049550056458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15205430984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13309335708618</t>
+    <t xml:space="preserve">2.15205407142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13309359550476</t>
   </si>
   <si>
     <t xml:space="preserve">2.07621097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12361311912537</t>
+    <t xml:space="preserve">2.12361288070679</t>
   </si>
   <si>
     <t xml:space="preserve">2.10465216636658</t>
@@ -2003,7 +2006,7 @@
     <t xml:space="preserve">2.04776978492737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.142573595047</t>
+    <t xml:space="preserve">2.14257383346558</t>
   </si>
   <si>
     <t xml:space="preserve">2.16153454780579</t>
@@ -2018,13 +2021,13 @@
     <t xml:space="preserve">2.25633883476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2089364528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18997597694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05725026130676</t>
+    <t xml:space="preserve">2.20893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18997573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05725002288818</t>
   </si>
   <si>
     <t xml:space="preserve">2.02880883216858</t>
@@ -2033,10 +2036,10 @@
     <t xml:space="preserve">2.00984787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06673049926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99088716506958</t>
+    <t xml:space="preserve">2.06673073768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99088704586029</t>
   </si>
   <si>
     <t xml:space="preserve">1.97192621231079</t>
@@ -2045,10 +2048,10 @@
     <t xml:space="preserve">1.96244585514069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98140680789948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0003674030304</t>
+    <t xml:space="preserve">1.98140668869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00036764144897</t>
   </si>
   <si>
     <t xml:space="preserve">1.94348502159119</t>
@@ -2069,10 +2072,10 @@
     <t xml:space="preserve">1.93400454521179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88660252094269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86764180660248</t>
+    <t xml:space="preserve">1.88660264015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86764168739319</t>
   </si>
   <si>
     <t xml:space="preserve">1.85816144943237</t>
@@ -2093,7 +2096,7 @@
     <t xml:space="preserve">1.87712216377258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08569145202637</t>
+    <t xml:space="preserve">2.08569121360779</t>
   </si>
   <si>
     <t xml:space="preserve">2.38906455039978</t>
@@ -2105,7 +2108,7 @@
     <t xml:space="preserve">2.46490788459778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41750597953796</t>
+    <t xml:space="preserve">2.41750574111938</t>
   </si>
   <si>
     <t xml:space="preserve">2.36062335968018</t>
@@ -2120,7 +2123,7 @@
     <t xml:space="preserve">2.37958431243896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35114312171936</t>
+    <t xml:space="preserve">2.35114288330078</t>
   </si>
   <si>
     <t xml:space="preserve">2.33218216896057</t>
@@ -2129,13 +2132,13 @@
     <t xml:space="preserve">2.37010359764099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34166240692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802526473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21841716766357</t>
+    <t xml:space="preserve">2.34166264533997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802550315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.218416929245</t>
   </si>
   <si>
     <t xml:space="preserve">2.30447006225586</t>
@@ -45098,7 +45101,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45124,7 +45127,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45176,7 +45179,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45228,7 +45231,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45254,7 +45257,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45280,7 +45283,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45306,7 +45309,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45332,7 +45335,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45358,7 +45361,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45384,7 +45387,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45410,7 +45413,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45436,7 +45439,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45462,7 +45465,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45488,7 +45491,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45514,7 +45517,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45540,7 +45543,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45566,7 +45569,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45592,7 +45595,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45618,7 +45621,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45644,7 +45647,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45670,7 +45673,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45696,7 +45699,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45722,7 +45725,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45748,7 +45751,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45774,7 +45777,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45800,7 +45803,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45826,7 +45829,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45852,7 +45855,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45878,7 +45881,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45904,7 +45907,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45956,7 +45959,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45982,7 +45985,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46008,7 +46011,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46034,7 +46037,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46060,7 +46063,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46086,7 +46089,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46112,7 +46115,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46138,7 +46141,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46164,7 +46167,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46190,7 +46193,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46216,7 +46219,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46242,7 +46245,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46268,7 +46271,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46294,7 +46297,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46320,7 +46323,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46346,7 +46349,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46372,7 +46375,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46398,7 +46401,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46424,7 +46427,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46450,7 +46453,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46476,7 +46479,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46502,7 +46505,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46528,7 +46531,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46554,7 +46557,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46580,7 +46583,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46606,7 +46609,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46632,7 +46635,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46658,7 +46661,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46684,7 +46687,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46710,7 +46713,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46736,7 +46739,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46762,7 +46765,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46788,7 +46791,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46814,7 +46817,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46840,7 +46843,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46866,7 +46869,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46892,7 +46895,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46918,7 +46921,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46944,7 +46947,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46970,7 +46973,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -46996,7 +46999,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47022,7 +47025,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47048,7 +47051,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47074,7 +47077,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47100,7 +47103,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47126,7 +47129,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47152,7 +47155,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47178,7 +47181,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47204,7 +47207,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47230,7 +47233,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47256,7 +47259,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47282,7 +47285,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47308,7 +47311,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47334,7 +47337,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47360,7 +47363,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47386,7 +47389,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47412,7 +47415,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47438,7 +47441,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47464,7 +47467,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47490,7 +47493,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47516,7 +47519,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47542,7 +47545,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47568,7 +47571,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47594,7 +47597,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47620,7 +47623,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47646,7 +47649,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47672,7 +47675,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47698,7 +47701,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47724,7 +47727,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47750,7 +47753,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47776,7 +47779,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47802,7 +47805,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47828,7 +47831,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47854,7 +47857,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47880,7 +47883,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47906,7 +47909,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47932,7 +47935,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47958,7 +47961,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47984,7 +47987,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48010,7 +48013,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48036,7 +48039,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48062,7 +48065,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48088,7 +48091,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48114,7 +48117,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48140,7 +48143,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48166,7 +48169,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48192,7 +48195,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48218,7 +48221,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48244,7 +48247,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48270,7 +48273,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48296,7 +48299,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48322,7 +48325,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48348,7 +48351,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48374,7 +48377,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48400,7 +48403,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48426,7 +48429,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48452,7 +48455,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48478,7 +48481,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48504,7 +48507,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48530,7 +48533,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48556,7 +48559,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48582,7 +48585,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48608,7 +48611,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48634,7 +48637,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48660,7 +48663,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48686,7 +48689,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48712,7 +48715,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48738,7 +48741,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48764,7 +48767,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48790,7 +48793,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48816,7 +48819,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48842,7 +48845,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48868,7 +48871,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48894,7 +48897,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48920,7 +48923,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48946,7 +48949,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48972,7 +48975,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -48998,7 +49001,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49024,7 +49027,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49050,7 +49053,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49076,7 +49079,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49102,7 +49105,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49128,7 +49131,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49154,7 +49157,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49180,7 +49183,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49206,7 +49209,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49232,7 +49235,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49258,7 +49261,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49284,7 +49287,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49310,7 +49313,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49336,7 +49339,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49362,7 +49365,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49388,7 +49391,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49414,7 +49417,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49440,7 +49443,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49466,7 +49469,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49492,7 +49495,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49518,7 +49521,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49544,7 +49547,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49570,7 +49573,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49596,7 +49599,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49674,7 +49677,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49700,7 +49703,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49726,7 +49729,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49752,7 +49755,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49778,7 +49781,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49804,7 +49807,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49830,7 +49833,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49856,7 +49859,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49908,7 +49911,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49934,7 +49937,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49960,7 +49963,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49986,7 +49989,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50012,7 +50015,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50038,7 +50041,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50064,7 +50067,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50116,7 +50119,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50142,7 +50145,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50168,7 +50171,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50194,7 +50197,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50220,7 +50223,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50246,7 +50249,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50272,7 +50275,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50298,7 +50301,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50324,7 +50327,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50376,7 +50379,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50402,7 +50405,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50428,7 +50431,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50454,7 +50457,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50480,7 +50483,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50506,7 +50509,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50532,7 +50535,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50558,7 +50561,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50584,7 +50587,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50610,7 +50613,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50662,7 +50665,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50688,7 +50691,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50766,7 +50769,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50792,7 +50795,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50818,7 +50821,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50844,7 +50847,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50870,7 +50873,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50896,7 +50899,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50922,7 +50925,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50948,7 +50951,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50974,7 +50977,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51000,7 +51003,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51026,7 +51029,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51078,7 +51081,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51182,7 +51185,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51234,7 +51237,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51260,7 +51263,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51312,7 +51315,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51338,7 +51341,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51364,7 +51367,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51390,7 +51393,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51416,7 +51419,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51442,7 +51445,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51468,7 +51471,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51494,7 +51497,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51520,7 +51523,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51546,7 +51549,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51572,7 +51575,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51598,7 +51601,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51624,7 +51627,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51650,7 +51653,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51754,7 +51757,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51806,7 +51809,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51832,7 +51835,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51858,7 +51861,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51884,7 +51887,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51910,7 +51913,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51936,7 +51939,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51962,7 +51965,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -51988,7 +51991,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52014,7 +52017,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52040,7 +52043,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52066,7 +52069,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52092,7 +52095,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52118,7 +52121,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52144,7 +52147,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52170,7 +52173,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52196,7 +52199,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52222,7 +52225,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52248,7 +52251,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52274,7 +52277,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52300,7 +52303,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52326,7 +52329,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52352,7 +52355,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52378,7 +52381,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52404,7 +52407,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52430,7 +52433,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52456,7 +52459,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52482,7 +52485,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52508,7 +52511,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52534,7 +52537,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52560,7 +52563,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52586,7 +52589,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52612,7 +52615,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52638,7 +52641,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52664,7 +52667,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52690,7 +52693,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52716,7 +52719,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52742,7 +52745,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52768,7 +52771,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52794,7 +52797,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52820,7 +52823,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52846,7 +52849,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52872,7 +52875,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52898,7 +52901,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52924,7 +52927,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52950,7 +52953,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52976,7 +52979,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53002,7 +53005,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53028,7 +53031,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53054,7 +53057,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53080,7 +53083,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53106,7 +53109,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53132,7 +53135,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53158,7 +53161,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53184,7 +53187,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53236,7 +53239,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53262,7 +53265,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53288,7 +53291,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53314,7 +53317,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53340,7 +53343,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53366,7 +53369,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53392,7 +53395,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53418,7 +53421,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53444,7 +53447,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53470,7 +53473,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53522,7 +53525,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53548,7 +53551,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53574,7 +53577,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53600,7 +53603,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53626,7 +53629,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53652,7 +53655,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53678,7 +53681,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53704,7 +53707,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53730,7 +53733,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53756,7 +53759,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53782,7 +53785,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53808,7 +53811,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53834,7 +53837,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53860,7 +53863,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53886,7 +53889,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53912,7 +53915,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53938,7 +53941,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53964,7 +53967,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -53990,7 +53993,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54016,7 +54019,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54042,7 +54045,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54068,7 +54071,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54094,7 +54097,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54120,7 +54123,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54146,7 +54149,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54172,7 +54175,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54198,7 +54201,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54224,7 +54227,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54250,7 +54253,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54276,7 +54279,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54302,7 +54305,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54328,7 +54331,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54354,7 +54357,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54380,7 +54383,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54406,7 +54409,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54432,7 +54435,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54458,7 +54461,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54484,7 +54487,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54510,7 +54513,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54536,7 +54539,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54562,7 +54565,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54588,7 +54591,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54614,7 +54617,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54640,7 +54643,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54666,7 +54669,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54692,7 +54695,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54718,7 +54721,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54744,7 +54747,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54770,7 +54773,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54796,7 +54799,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54822,7 +54825,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54848,7 +54851,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54874,7 +54877,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54900,7 +54903,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54926,7 +54929,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54952,7 +54955,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54978,7 +54981,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55004,7 +55007,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55030,7 +55033,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55056,7 +55059,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55082,7 +55085,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55108,7 +55111,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55134,7 +55137,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55160,7 +55163,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55186,7 +55189,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55212,7 +55215,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55238,7 +55241,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55264,7 +55267,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55290,7 +55293,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55316,7 +55319,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55342,7 +55345,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55368,7 +55371,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55394,7 +55397,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55420,7 +55423,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55446,7 +55449,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55472,7 +55475,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55498,7 +55501,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55524,7 +55527,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55550,7 +55553,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55576,7 +55579,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55602,7 +55605,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55628,7 +55631,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55654,7 +55657,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55680,7 +55683,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55706,7 +55709,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55732,7 +55735,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55758,7 +55761,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55784,7 +55787,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55810,7 +55813,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55836,7 +55839,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55862,7 +55865,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55888,7 +55891,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55914,7 +55917,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55940,7 +55943,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55966,7 +55969,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -55992,7 +55995,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56018,7 +56021,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56044,7 +56047,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56070,7 +56073,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56096,7 +56099,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56122,7 +56125,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56148,7 +56151,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56174,7 +56177,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56200,7 +56203,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56226,7 +56229,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56252,7 +56255,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56278,7 +56281,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56304,7 +56307,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56330,7 +56333,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56356,7 +56359,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56382,7 +56385,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56408,7 +56411,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56434,7 +56437,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56460,7 +56463,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56486,7 +56489,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56512,7 +56515,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56538,7 +56541,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56564,7 +56567,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56590,7 +56593,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56616,7 +56619,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56642,7 +56645,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56668,7 +56671,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56694,7 +56697,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56720,7 +56723,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56746,7 +56749,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56772,7 +56775,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56798,7 +56801,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56824,7 +56827,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56850,7 +56853,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56876,7 +56879,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56902,7 +56905,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56928,7 +56931,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56954,7 +56957,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56980,7 +56983,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57006,7 +57009,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57032,7 +57035,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57058,7 +57061,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57084,7 +57087,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57110,7 +57113,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57136,7 +57139,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57162,7 +57165,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57188,7 +57191,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57214,7 +57217,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57240,7 +57243,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57266,7 +57269,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57292,7 +57295,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57318,7 +57321,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57344,7 +57347,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57370,7 +57373,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57396,7 +57399,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57422,7 +57425,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57448,7 +57451,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57474,7 +57477,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57500,7 +57503,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57526,7 +57529,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57552,7 +57555,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57578,7 +57581,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57604,7 +57607,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57630,7 +57633,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57656,7 +57659,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57682,7 +57685,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57708,7 +57711,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57734,7 +57737,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57760,7 +57763,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57786,7 +57789,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57812,7 +57815,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57838,7 +57841,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57864,7 +57867,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57890,7 +57893,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57916,7 +57919,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57942,7 +57945,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57968,7 +57971,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -57994,7 +57997,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58020,7 +58023,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58046,7 +58049,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58072,7 +58075,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58098,7 +58101,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58124,7 +58127,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58150,7 +58153,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58176,7 +58179,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58202,7 +58205,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58228,7 +58231,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58254,7 +58257,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58280,7 +58283,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58306,7 +58309,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58332,7 +58335,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58358,7 +58361,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58384,7 +58387,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58410,7 +58413,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58436,7 +58439,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58462,7 +58465,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58488,7 +58491,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58514,7 +58517,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58540,7 +58543,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58566,7 +58569,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58592,7 +58595,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58618,7 +58621,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58644,7 +58647,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58670,7 +58673,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58696,7 +58699,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2153" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58722,7 +58725,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58748,7 +58751,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2155" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58774,7 +58777,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58800,7 +58803,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2157" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58808,7 +58811,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.5364583333</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>7867</v>
@@ -58826,9 +58829,35 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2158" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.5039236111</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>2.0699999332428</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>787</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -59,28 +59,28 @@
     <t xml:space="preserve">1.72682356834412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71661579608917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854439258575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66047275066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175832271576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53117346763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6409078836441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005708694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410270214081</t>
+    <t xml:space="preserve">1.71661591529846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66047286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175856113434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117382526398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64090776443481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005696773529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410258293152</t>
   </si>
   <si>
     <t xml:space="preserve">1.6502650976181</t>
@@ -89,52 +89,52 @@
     <t xml:space="preserve">1.63325190544128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839455127716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58646619319916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6128363609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58221292495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49714767932892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55158925056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50565409660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608911037445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56434917449951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7013041973114</t>
+    <t xml:space="preserve">1.60773241519928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839443206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58646607398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283648014069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822126865387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49714756011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55158936977386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50565421581268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56434893608093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70130407810211</t>
   </si>
   <si>
     <t xml:space="preserve">1.68429100513458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70640790462494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69279754161835</t>
+    <t xml:space="preserve">1.70640802383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69279766082764</t>
   </si>
   <si>
     <t xml:space="preserve">1.686842918396</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6919469833374</t>
+    <t xml:space="preserve">1.69194686412811</t>
   </si>
   <si>
     <t xml:space="preserve">1.68939507007599</t>
@@ -143,13 +143,13 @@
     <t xml:space="preserve">1.71831715106964</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65366768836975</t>
+    <t xml:space="preserve">1.65366756916046</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686238765717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61623871326447</t>
+    <t xml:space="preserve">1.61623895168304</t>
   </si>
   <si>
     <t xml:space="preserve">1.69024562835693</t>
@@ -158,34 +158,34 @@
     <t xml:space="preserve">1.68173921108246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65111577510834</t>
+    <t xml:space="preserve">1.65111553668976</t>
   </si>
   <si>
     <t xml:space="preserve">1.62049221992493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63750505447388</t>
+    <t xml:space="preserve">1.63750493526459</t>
   </si>
   <si>
     <t xml:space="preserve">1.63240134716034</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6153883934021</t>
+    <t xml:space="preserve">1.61538827419281</t>
   </si>
   <si>
     <t xml:space="preserve">1.60432982444763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5805116891861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986878395081</t>
+    <t xml:space="preserve">1.58051156997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986866474152</t>
   </si>
   <si>
     <t xml:space="preserve">1.60177779197693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60688173770905</t>
+    <t xml:space="preserve">1.60688197612762</t>
   </si>
   <si>
     <t xml:space="preserve">1.59922575950623</t>
@@ -197,16 +197,16 @@
     <t xml:space="preserve">1.54818677902222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53202438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5337256193161</t>
+    <t xml:space="preserve">1.53202450275421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53372573852539</t>
   </si>
   <si>
     <t xml:space="preserve">1.57881021499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53542697429657</t>
+    <t xml:space="preserve">1.53542685508728</t>
   </si>
   <si>
     <t xml:space="preserve">1.56094658374786</t>
@@ -215,94 +215,94 @@
     <t xml:space="preserve">1.53287506103516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52096581459045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55329060554504</t>
+    <t xml:space="preserve">1.52096593379974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55329072475433</t>
   </si>
   <si>
     <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53968012332916</t>
+    <t xml:space="preserve">1.53968024253845</t>
   </si>
   <si>
     <t xml:space="preserve">1.52862179279327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50395286083221</t>
+    <t xml:space="preserve">1.50395262241364</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654876232147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626197338104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47885811328888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47539663314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46933925151825</t>
+    <t xml:space="preserve">1.49703013896942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654888153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626209259033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47885799407959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47539687156677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46933937072754</t>
   </si>
   <si>
     <t xml:space="preserve">1.45376348495483</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48405015468597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47972345352173</t>
+    <t xml:space="preserve">1.48405003547668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47972333431244</t>
   </si>
   <si>
     <t xml:space="preserve">1.48664605617523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49270355701447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299022674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837685585022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46674335002899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47366607189178</t>
+    <t xml:space="preserve">1.49270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299010753632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46674346923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4736659526825</t>
   </si>
   <si>
     <t xml:space="preserve">1.50568342208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44510984420776</t>
+    <t xml:space="preserve">1.44510996341705</t>
   </si>
   <si>
     <t xml:space="preserve">1.45116746425629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42001521587372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760869026184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45895528793335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51433670520782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47107005119324</t>
+    <t xml:space="preserve">1.42001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760880947113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45895516872406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51433706283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47106993198395</t>
   </si>
   <si>
     <t xml:space="preserve">1.465012550354</t>
@@ -314,100 +314,100 @@
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212476730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47712731361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50222206115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616456031799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5299129486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827932357788</t>
+    <t xml:space="preserve">1.52212488651276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47712743282318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50222218036652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991271018982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827944278717</t>
   </si>
   <si>
     <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51347160339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53077828884125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50308775901794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049138069153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135695934296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53337419033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318481445312</t>
+    <t xml:space="preserve">1.51347148418427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53077816963196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50308740139008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049126148224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135672092438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53337407112122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318493366241</t>
   </si>
   <si>
     <t xml:space="preserve">1.51866340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51174092292786</t>
+    <t xml:space="preserve">1.51174068450928</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375827312469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55500757694244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5489501953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54029703140259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53250896930695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.555872797966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54462361335754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55760335922241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443399906158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010741710663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231959342957</t>
+    <t xml:space="preserve">1.55500745773315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54895031452179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5402969121933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53250885009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55587303638458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54462349414825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55760359764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443411827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231935501099</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454888343811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52558624744415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52645146846771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55673837661743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54116213321686</t>
+    <t xml:space="preserve">1.52558612823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52645170688629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55673825740814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54116225242615</t>
   </si>
   <si>
     <t xml:space="preserve">1.55327689647675</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">1.542027592659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51693284511566</t>
+    <t xml:space="preserve">1.51693296432495</t>
   </si>
   <si>
     <t xml:space="preserve">1.5385662317276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51606738567352</t>
+    <t xml:space="preserve">1.51606726646423</t>
   </si>
   <si>
     <t xml:space="preserve">1.54635429382324</t>
@@ -431,28 +431,28 @@
     <t xml:space="preserve">1.57404494285583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837152481079</t>
+    <t xml:space="preserve">1.57837164402008</t>
   </si>
   <si>
     <t xml:space="preserve">1.57317972183228</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5697181224823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54981553554535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55846905708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59135174751282</t>
+    <t xml:space="preserve">1.56971824169159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54981565475464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55846893787384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59135150909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221708774567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60000503063202</t>
+    <t xml:space="preserve">1.60000491142273</t>
   </si>
   <si>
     <t xml:space="preserve">1.56625688076019</t>
@@ -461,70 +461,70 @@
     <t xml:space="preserve">1.55414235591888</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64413702487946</t>
+    <t xml:space="preserve">1.64413714408875</t>
   </si>
   <si>
     <t xml:space="preserve">1.58096778392792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60779321193695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57664108276367</t>
+    <t xml:space="preserve">1.60779309272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57664084434509</t>
   </si>
   <si>
     <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59827423095703</t>
+    <t xml:space="preserve">1.59827446937561</t>
   </si>
   <si>
     <t xml:space="preserve">1.59913969039917</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60087037086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6346184015274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60952377319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61731171607971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61817717552185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6519250869751</t>
+    <t xml:space="preserve">1.60087049007416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461863994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60952365398407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.617311835289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61817705631256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65192532539368</t>
   </si>
   <si>
     <t xml:space="preserve">1.59654366970062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60519695281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61904227733612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61211979389191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65971302986145</t>
+    <t xml:space="preserve">1.60519707202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6190425157547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61211967468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65971326828003</t>
   </si>
   <si>
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279066562653</t>
+    <t xml:space="preserve">1.65279054641724</t>
   </si>
   <si>
     <t xml:space="preserve">1.6744236946106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67009699344635</t>
+    <t xml:space="preserve">1.67009711265564</t>
   </si>
   <si>
     <t xml:space="preserve">1.66144382953644</t>
@@ -536,25 +536,25 @@
     <t xml:space="preserve">1.63634920120239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65625178813934</t>
+    <t xml:space="preserve">1.65625190734863</t>
   </si>
   <si>
     <t xml:space="preserve">1.68048119544983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317462921143</t>
+    <t xml:space="preserve">1.66317451000214</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701486110687</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82585728168488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81893491744995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682015419006</t>
+    <t xml:space="preserve">1.82585740089417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81893479824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682039260864</t>
   </si>
   <si>
     <t xml:space="preserve">1.77739870548248</t>
@@ -563,28 +563,28 @@
     <t xml:space="preserve">1.79816687107086</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77393746376038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75836145877838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79124402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75143873691559</t>
+    <t xml:space="preserve">1.7739372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75836133956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79124414920807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7514386177063</t>
   </si>
   <si>
     <t xml:space="preserve">1.72980523109436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7479772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74451589584351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75663065910339</t>
+    <t xml:space="preserve">1.74797749519348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7445160150528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7566305398941</t>
   </si>
   <si>
     <t xml:space="preserve">1.82758820056915</t>
@@ -593,19 +593,19 @@
     <t xml:space="preserve">1.81201231479645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74105489253998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278521537781</t>
+    <t xml:space="preserve">1.7410546541214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7427853345871</t>
   </si>
   <si>
     <t xml:space="preserve">1.7185560464859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73932409286499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7652839422226</t>
+    <t xml:space="preserve">1.73932385444641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76528406143188</t>
   </si>
   <si>
     <t xml:space="preserve">1.78432142734528</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">1.80855071544647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76182281970978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7687451839447</t>
+    <t xml:space="preserve">1.76182270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76874530315399</t>
   </si>
   <si>
     <t xml:space="preserve">1.78259086608887</t>
@@ -626,91 +626,91 @@
     <t xml:space="preserve">1.79989731311798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82412683963776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720411777496</t>
+    <t xml:space="preserve">1.82412707805634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720423698425</t>
   </si>
   <si>
     <t xml:space="preserve">1.80335891246796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84316444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79297494888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81547331809998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78605210781097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354840755463</t>
+    <t xml:space="preserve">1.84316408634186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79297471046448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81547355651855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78605198860168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354864597321</t>
   </si>
   <si>
     <t xml:space="preserve">1.83451068401337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8777779340744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623627185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9210444688797</t>
+    <t xml:space="preserve">1.87777781486511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92104434967041</t>
   </si>
   <si>
     <t xml:space="preserve">1.90373778343201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83797216415405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96253108978271</t>
+    <t xml:space="preserve">1.83797228336334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96253097057343</t>
   </si>
   <si>
     <t xml:space="preserve">2.04503440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41366720199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42244434356689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3083438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24690508842468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648743629456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39260292053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4171781539917</t>
+    <t xml:space="preserve">2.41366744041443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42244458198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30834436416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2469048500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648719787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39260315895081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41717791557312</t>
   </si>
   <si>
     <t xml:space="preserve">2.40489077568054</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31712055206299</t>
+    <t xml:space="preserve">2.31712079048157</t>
   </si>
   <si>
     <t xml:space="preserve">2.26972508430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20653080940247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13280463218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08014225959778</t>
+    <t xml:space="preserve">2.20653104782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13280439376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08014249801636</t>
   </si>
   <si>
     <t xml:space="preserve">2.01870369911194</t>
@@ -719,22 +719,22 @@
     <t xml:space="preserve">2.07136559486389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12753820419312</t>
+    <t xml:space="preserve">2.12753796577454</t>
   </si>
   <si>
     <t xml:space="preserve">2.06258869171143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08540868759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12402749061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647368431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104915618896</t>
+    <t xml:space="preserve">2.08540844917297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12402772903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647344589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104891777039</t>
   </si>
   <si>
     <t xml:space="preserve">2.11525082588196</t>
@@ -743,19 +743,19 @@
     <t xml:space="preserve">2.10296273231506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03976845741272</t>
+    <t xml:space="preserve">2.03976821899414</t>
   </si>
   <si>
     <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03625774383545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03099155426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03450226783752</t>
+    <t xml:space="preserve">2.03625726699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03099131584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0345025062561</t>
   </si>
   <si>
     <t xml:space="preserve">2.00992703437805</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">1.99763906002045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98359608650208</t>
+    <t xml:space="preserve">1.98359560966492</t>
   </si>
   <si>
     <t xml:space="preserve">1.98535120487213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00114965438843</t>
+    <t xml:space="preserve">2.00114989280701</t>
   </si>
   <si>
     <t xml:space="preserve">2.01694846153259</t>
@@ -782,34 +782,34 @@
     <t xml:space="preserve">1.98710656166077</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03274655342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06785488128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07663154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04854559898376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061739444733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97481870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97130811214447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96604192256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99237287044525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99939453601837</t>
+    <t xml:space="preserve">2.0327467918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06785440444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07663178443909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04854536056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061763286591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97481894493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97130799293518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96604180335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99237275123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99939441680908</t>
   </si>
   <si>
     <t xml:space="preserve">2.2030200958252</t>
@@ -818,13 +818,13 @@
     <t xml:space="preserve">2.32414245605469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29078960418701</t>
+    <t xml:space="preserve">2.29079008102417</t>
   </si>
   <si>
     <t xml:space="preserve">2.43122148513794</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34345197677612</t>
+    <t xml:space="preserve">2.34345173835754</t>
   </si>
   <si>
     <t xml:space="preserve">2.48914933204651</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">2.38207054138184</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38558125495911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35925054550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49792623519897</t>
+    <t xml:space="preserve">2.38558101654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35925030708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
     <t xml:space="preserve">2.48739433288574</t>
@@ -866,43 +866,43 @@
     <t xml:space="preserve">2.37504887580872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39084720611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39962458610535</t>
+    <t xml:space="preserve">2.3908474445343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39962410926819</t>
   </si>
   <si>
     <t xml:space="preserve">2.3890917301178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41893410682678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43473219871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41542291641235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39611339569092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41015672683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43824338912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44877552986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45579695701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33994102478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238698005676</t>
+    <t xml:space="preserve">2.4189338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43473243713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41542315483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3961136341095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41015696525574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43824315071106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44877529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45579719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33994078636169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
     <t xml:space="preserve">2.15737986564636</t>
@@ -917,13 +917,13 @@
     <t xml:space="preserve">2.16791224479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19248795509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733649253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222887992859</t>
+    <t xml:space="preserve">2.19248747825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222864151001</t>
   </si>
   <si>
     <t xml:space="preserve">2.37329363822937</t>
@@ -932,34 +932,34 @@
     <t xml:space="preserve">2.36627197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35749483108521</t>
+    <t xml:space="preserve">2.35749506950378</t>
   </si>
   <si>
     <t xml:space="preserve">2.28376817703247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30658864974976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2820131778717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589793205261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3136100769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956698417664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25568199157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33116364479065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29254531860352</t>
+    <t xml:space="preserve">2.30658841133118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28201270103455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589769363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31360983848572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956674575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25568222999573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33116412162781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29254508018494</t>
   </si>
   <si>
     <t xml:space="preserve">2.30132222175598</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">2.46632933616638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49266004562378</t>
+    <t xml:space="preserve">2.49266028404236</t>
   </si>
   <si>
     <t xml:space="preserve">2.60676097869873</t>
@@ -989,88 +989,88 @@
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65942239761353</t>
+    <t xml:space="preserve">2.65942287445068</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043003082275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54532194137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53654503822327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45755243301392</t>
+    <t xml:space="preserve">2.54532217979431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53654527664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45755219459534</t>
   </si>
   <si>
     <t xml:space="preserve">2.48388338088989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36978244781494</t>
+    <t xml:space="preserve">2.36978268623352</t>
   </si>
   <si>
     <t xml:space="preserve">2.5277681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68575358390808</t>
+    <t xml:space="preserve">2.6857533454895</t>
   </si>
   <si>
     <t xml:space="preserve">2.69453072547913</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72963857650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73841524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51021432876587</t>
+    <t xml:space="preserve">2.72963833808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73841547966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51021385192871</t>
   </si>
   <si>
     <t xml:space="preserve">2.59798407554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61553812026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63309168815613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56287622451782</t>
+    <t xml:space="preserve">2.61553764343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63309144973755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56287598609924</t>
   </si>
   <si>
     <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33467507362366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179723739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26327753067017</t>
+    <t xml:space="preserve">2.3346745967865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179699897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26327729225159</t>
   </si>
   <si>
     <t xml:space="preserve">2.18276572227478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2364399433136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36168074607849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589769363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31695175170898</t>
+    <t xml:space="preserve">2.23644018173218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36168050765991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589745521545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31695199012756</t>
   </si>
   <si>
     <t xml:space="preserve">2.3348433971405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34378886222839</t>
+    <t xml:space="preserve">2.34378910064697</t>
   </si>
   <si>
     <t xml:space="preserve">2.41535520553589</t>
@@ -1079,25 +1079,25 @@
     <t xml:space="preserve">2.42430114746094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37062644958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37957239151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746379852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35273504257202</t>
+    <t xml:space="preserve">2.37062668800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37957215309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746356010437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3527352809906</t>
   </si>
   <si>
     <t xml:space="preserve">2.28116893768311</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24538564682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27222299575806</t>
+    <t xml:space="preserve">2.24538588523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27222275733948</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854877471924</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">2.20065712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17382001876831</t>
+    <t xml:space="preserve">2.17381978034973</t>
   </si>
   <si>
     <t xml:space="preserve">2.25433158874512</t>
@@ -1115,13 +1115,13 @@
     <t xml:space="preserve">2.15592861175537</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29011464118958</t>
+    <t xml:space="preserve">2.290114402771</t>
   </si>
   <si>
     <t xml:space="preserve">2.13803696632385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1469829082489</t>
+    <t xml:space="preserve">2.14698266983032</t>
   </si>
   <si>
     <t xml:space="preserve">2.16487431526184</t>
@@ -1130,46 +1130,46 @@
     <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541632652283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12014508247375</t>
+    <t xml:space="preserve">2.07541608810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12014532089233</t>
   </si>
   <si>
     <t xml:space="preserve">2.12909126281738</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05752515792847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06647062301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963351249695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02174210548401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08436226844788</t>
+    <t xml:space="preserve">2.05752468109131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06647086143494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963327407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02174162864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0843620300293</t>
   </si>
   <si>
     <t xml:space="preserve">2.11119937896729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09330797195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99490463733673</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93228459358215</t>
+    <t xml:space="preserve">2.09330773353577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99490439891815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93228423595428</t>
   </si>
   <si>
     <t xml:space="preserve">1.9501758813858</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87860953807831</t>
+    <t xml:space="preserve">1.8786096572876</t>
   </si>
   <si>
     <t xml:space="preserve">1.86966383457184</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">1.83388090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7712607383728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74442327022552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67733001708984</t>
+    <t xml:space="preserve">1.77126049995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74442338943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
     <t xml:space="preserve">1.68180298805237</t>
@@ -1193,67 +1193,67 @@
     <t xml:space="preserve">1.7265317440033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73547768592834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76231491565704</t>
+    <t xml:space="preserve">1.73547756671906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76231479644775</t>
   </si>
   <si>
     <t xml:space="preserve">1.73995041847229</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76678776741028</t>
+    <t xml:space="preserve">1.76678764820099</t>
   </si>
   <si>
     <t xml:space="preserve">1.74889624118805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69522154331207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6460200548172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65496563911438</t>
+    <t xml:space="preserve">1.69522178173065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64601993560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65496575832367</t>
   </si>
   <si>
     <t xml:space="preserve">1.66838443279266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66391158103943</t>
+    <t xml:space="preserve">1.66391146183014</t>
   </si>
   <si>
     <t xml:space="preserve">1.68627595901489</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69969439506531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73100471496582</t>
+    <t xml:space="preserve">1.6996945142746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73100459575653</t>
   </si>
   <si>
     <t xml:space="preserve">1.70864033699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75336921215057</t>
+    <t xml:space="preserve">1.75336909294128</t>
   </si>
   <si>
     <t xml:space="preserve">1.72205877304077</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71758604049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61918270587921</t>
+    <t xml:space="preserve">1.71758592128754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61918258666992</t>
   </si>
   <si>
     <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55656230449677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59234547615051</t>
+    <t xml:space="preserve">1.55656254291534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59234535694122</t>
   </si>
   <si>
     <t xml:space="preserve">1.61023688316345</t>
@@ -1265,13 +1265,13 @@
     <t xml:space="preserve">1.71311318874359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78020644187927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81598949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80704355239868</t>
+    <t xml:space="preserve">1.78020632266998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81598925590515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80704367160797</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
@@ -1280,13 +1280,13 @@
     <t xml:space="preserve">1.86071813106537</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8249351978302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7980979681015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88755536079407</t>
+    <t xml:space="preserve">1.82493507862091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79809784889221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88755512237549</t>
   </si>
   <si>
     <t xml:space="preserve">1.8517724275589</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">1.89650106430054</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92333877086639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96806740760803</t>
+    <t xml:space="preserve">1.92333841323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96806752681732</t>
   </si>
   <si>
     <t xml:space="preserve">2.01279616355896</t>
@@ -1313,19 +1313,19 @@
     <t xml:space="preserve">2.03068780899048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97701323032379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595893383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439294815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90544724464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94123017787933</t>
+    <t xml:space="preserve">1.9770131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439282894135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9054468870163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94123005867004</t>
   </si>
   <si>
     <t xml:space="preserve">1.67285716533661</t>
@@ -1334,7 +1334,7 @@
     <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66826152801514</t>
+    <t xml:space="preserve">1.66826140880585</t>
   </si>
   <si>
     <t xml:space="preserve">1.6498783826828</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.695836186409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69124042987823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70962345600128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71881484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73719787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73260223865509</t>
+    <t xml:space="preserve">1.69583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69124019145966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70962333679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71881473064423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73719799518585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7326021194458</t>
   </si>
   <si>
     <t xml:space="preserve">1.68204879760742</t>
@@ -1379,10 +1379,10 @@
     <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66366577148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63149535655975</t>
+    <t xml:space="preserve">1.6636655330658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63149547576904</t>
   </si>
   <si>
     <t xml:space="preserve">1.62689960002899</t>
@@ -1391,13 +1391,13 @@
     <t xml:space="preserve">1.59932506084442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59013366699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64068698883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60851657390594</t>
+    <t xml:space="preserve">1.5901335477829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64068675041199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60851669311523</t>
   </si>
   <si>
     <t xml:space="preserve">1.58553779125214</t>
@@ -1415,37 +1415,37 @@
     <t xml:space="preserve">1.62230384349823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64528274536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58094203472137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71421921253204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.613112449646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59472942352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57175064086914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5533674955368</t>
+    <t xml:space="preserve">1.64528262615204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58094215393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71421909332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61311233043671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59472930431366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57175052165985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55336761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255888938904</t>
+    <t xml:space="preserve">1.56255900859833</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38332426548004</t>
+    <t xml:space="preserve">1.38332414627075</t>
   </si>
   <si>
     <t xml:space="preserve">1.3879200220108</t>
@@ -1454,28 +1454,28 @@
     <t xml:space="preserve">1.36494123935699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22706842422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30519616603851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221750259399</t>
+    <t xml:space="preserve">1.22706830501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3051962852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221762180328</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24085557460785</t>
+    <t xml:space="preserve">1.24085569381714</t>
   </si>
   <si>
     <t xml:space="preserve">1.31438779830933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32357931137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34655821323395</t>
+    <t xml:space="preserve">1.32357943058014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34655833244324</t>
   </si>
   <si>
     <t xml:space="preserve">1.34196245670319</t>
@@ -1484,19 +1484,19 @@
     <t xml:space="preserve">1.41089880466461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630316734314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39711153507233</t>
+    <t xml:space="preserve">1.40630292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39711165428162</t>
   </si>
   <si>
     <t xml:space="preserve">1.40170729160309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44766485691071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49362242221832</t>
+    <t xml:space="preserve">1.44766497612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49362254142761</t>
   </si>
   <si>
     <t xml:space="preserve">1.49821829795837</t>
@@ -1505,7 +1505,7 @@
     <t xml:space="preserve">1.48902678489685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983527183533</t>
+    <t xml:space="preserve">1.47983515262604</t>
   </si>
   <si>
     <t xml:space="preserve">1.46145224571228</t>
@@ -1514,34 +1514,34 @@
     <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43387758731842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44306910037994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45685660839081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42468595504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42928183078766</t>
+    <t xml:space="preserve">1.43387746810913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44306921958923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45685636997223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42468619346619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42928171157837</t>
   </si>
   <si>
     <t xml:space="preserve">1.37872838973999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39251565933228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33277082443237</t>
+    <t xml:space="preserve">1.39251577854156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33277094364166</t>
   </si>
   <si>
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413263320923</t>
+    <t xml:space="preserve">1.37413287162781</t>
   </si>
   <si>
     <t xml:space="preserve">1.35574960708618</t>
@@ -1556,7 +1556,7 @@
     <t xml:space="preserve">1.36034548282623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31898355484009</t>
+    <t xml:space="preserve">1.31898367404938</t>
   </si>
   <si>
     <t xml:space="preserve">1.45226073265076</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">1.43847346305847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50281405448914</t>
+    <t xml:space="preserve">1.50281417369843</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
@@ -1574,91 +1574,91 @@
     <t xml:space="preserve">1.46604800224304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.32817506790161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30979192256927</t>
+    <t xml:space="preserve">1.3281751871109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30979204177856</t>
   </si>
   <si>
     <t xml:space="preserve">1.30060052871704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28681313991547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51200544834137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48443102836609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52579295635223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53958010673523</t>
+    <t xml:space="preserve">1.28681325912476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51200556755066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4844309091568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52579283714294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53958022594452</t>
   </si>
   <si>
     <t xml:space="preserve">1.54877161979675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5763463973999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54417598247528</t>
+    <t xml:space="preserve">1.57634627819061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54417586326599</t>
   </si>
   <si>
     <t xml:space="preserve">1.55796325206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53038859367371</t>
+    <t xml:space="preserve">1.530388712883</t>
   </si>
   <si>
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396392822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81992173194885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79234707355499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87507081031799</t>
+    <t xml:space="preserve">1.77396404743195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81992161273956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79234719276428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87507057189941</t>
   </si>
   <si>
     <t xml:space="preserve">1.93021976947784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88426232337952</t>
+    <t xml:space="preserve">1.88426220417023</t>
   </si>
   <si>
     <t xml:space="preserve">1.89345383644104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83830463886261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82911324501038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78775131702423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451748847961</t>
+    <t xml:space="preserve">1.8383047580719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82911312580109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78775143623352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451736927032</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855980396271</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78315567970276</t>
+    <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
     <t xml:space="preserve">1.80153870582581</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84749627113342</t>
+    <t xml:space="preserve">1.84749615192413</t>
   </si>
   <si>
     <t xml:space="preserve">1.76936817169189</t>
@@ -1667,13 +1667,13 @@
     <t xml:space="preserve">1.79694283008575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83370900154114</t>
+    <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
     <t xml:space="preserve">1.86587929725647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90264534950256</t>
+    <t xml:space="preserve">1.90264523029327</t>
   </si>
   <si>
     <t xml:space="preserve">1.92102825641632</t>
@@ -1682,19 +1682,19 @@
     <t xml:space="preserve">1.85668766498566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81073021888733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09566736221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647608757019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02213525772095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98536932468414</t>
+    <t xml:space="preserve">1.81073009967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09566760063171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08647584915161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02213501930237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98536896705627</t>
   </si>
   <si>
     <t xml:space="preserve">2.04051828384399</t>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405062675476</t>
+    <t xml:space="preserve">2.11405038833618</t>
   </si>
   <si>
     <t xml:space="preserve">2.12324190139771</t>
@@ -1715,16 +1715,16 @@
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928568840027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53686046600342</t>
+    <t xml:space="preserve">2.50928592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.536860704422</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63796710968018</t>
+    <t xml:space="preserve">2.63796734809875</t>
   </si>
   <si>
     <t xml:space="preserve">2.68392491340637</t>
@@ -1748,13 +1748,13 @@
     <t xml:space="preserve">2.81394195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99039387702942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19470643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08326292037964</t>
+    <t xml:space="preserve">2.99039363861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1947066783905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08326315879822</t>
   </si>
   <si>
     <t xml:space="preserve">3.01825451850891</t>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">2.92538523674011</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96253323554993</t>
+    <t xml:space="preserve">2.96253299713135</t>
   </si>
   <si>
     <t xml:space="preserve">2.90681147575378</t>
@@ -1784,10 +1784,10 @@
     <t xml:space="preserve">2.63749003410339</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60962915420532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66535091400146</t>
+    <t xml:space="preserve">2.6096293926239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66535115242004</t>
   </si>
   <si>
     <t xml:space="preserve">2.73964643478394</t>
@@ -1796,7 +1796,7 @@
     <t xml:space="preserve">2.75822043418884</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60034227371216</t>
+    <t xml:space="preserve">2.60034251213074</t>
   </si>
   <si>
     <t xml:space="preserve">2.70249891281128</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">2.7953679561615</t>
   </si>
   <si>
-    <t xml:space="preserve">2.78608131408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83251595497131</t>
+    <t xml:space="preserve">2.78608107566833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83251571655273</t>
   </si>
   <si>
     <t xml:space="preserve">2.8882372379303</t>
@@ -1850,22 +1850,22 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752435684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61891627311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55390763282776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.71178555488586</t>
+    <t xml:space="preserve">2.89752411842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61891651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55390787124634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.71178579330444</t>
   </si>
   <si>
     <t xml:space="preserve">2.999680519104</t>
   </si>
   <si>
-    <t xml:space="preserve">3.06468915939331</t>
+    <t xml:space="preserve">3.06468939781189</t>
   </si>
   <si>
     <t xml:space="preserve">3.04611539840698</t>
@@ -1883,13 +1883,13 @@
     <t xml:space="preserve">2.97181987762451</t>
   </si>
   <si>
-    <t xml:space="preserve">3.03682851791382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00896787643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395923614502</t>
+    <t xml:space="preserve">3.0368287563324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00896763801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395899772644</t>
   </si>
   <si>
     <t xml:space="preserve">2.8418025970459</t>
@@ -1919,10 +1919,10 @@
     <t xml:space="preserve">2.58176851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5631947517395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5167601108551</t>
+    <t xml:space="preserve">2.56319499015808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51675987243652</t>
   </si>
   <si>
     <t xml:space="preserve">2.4517514705658</t>
@@ -1937,7 +1937,7 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.358882188797</t>
+    <t xml:space="preserve">2.35888195037842</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41460371017456</t>
+    <t xml:space="preserve">2.41460347175598</t>
   </si>
   <si>
     <t xml:space="preserve">2.28458666801453</t>
@@ -58924,7 +58924,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6493287037</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>15600</v>
@@ -58945,6 +58945,32 @@
         <v>794</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6494791667</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>4098</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>2.02999997138977</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>2.02999997138977</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>2.07999992370605</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="796">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,85 +38,85 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338215827942</t>
+    <t xml:space="preserve">1.80338227748871</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74383676052094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75404441356659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73533010482788</t>
+    <t xml:space="preserve">1.79827845096588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74383664131165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75404453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73533022403717</t>
   </si>
   <si>
     <t xml:space="preserve">1.72682356834412</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71661591529846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854427337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66047286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175856113434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53117382526398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64090776443481</t>
+    <t xml:space="preserve">1.71661567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854451179504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66047263145447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175844192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64090764522552</t>
   </si>
   <si>
     <t xml:space="preserve">1.64005696773529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410258293152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6502650976181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325190544128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60773241519928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839443206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58646607398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61283648014069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5822126865387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49714756011963</t>
+    <t xml:space="preserve">1.63410246372223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65026497840881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325178623199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60773253440857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839455127716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58646619319916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283624172211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58221292495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49714779853821</t>
   </si>
   <si>
     <t xml:space="preserve">1.55158936977386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50565421581268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56434893608093</t>
+    <t xml:space="preserve">1.50565409660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608911037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56434917449951</t>
   </si>
   <si>
     <t xml:space="preserve">1.70130407810211</t>
@@ -137,43 +137,43 @@
     <t xml:space="preserve">1.69194686412811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939507007599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71831715106964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65366756916046</t>
+    <t xml:space="preserve">1.6893949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71831727027893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65366768836975</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686238765717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61623895168304</t>
+    <t xml:space="preserve">1.61623883247375</t>
   </si>
   <si>
     <t xml:space="preserve">1.69024562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68173921108246</t>
+    <t xml:space="preserve">1.68173897266388</t>
   </si>
   <si>
     <t xml:space="preserve">1.65111553668976</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62049221992493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63750493526459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63240134716034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61538827419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60432982444763</t>
+    <t xml:space="preserve">1.62049210071564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63750517368317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63240146636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61538815498352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60432994365692</t>
   </si>
   <si>
     <t xml:space="preserve">1.58051156997681</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">1.58986866474152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60177779197693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688197612762</t>
+    <t xml:space="preserve">1.60177791118622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688173770905</t>
   </si>
   <si>
     <t xml:space="preserve">1.59922575950623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59752464294434</t>
+    <t xml:space="preserve">1.59752452373505</t>
   </si>
   <si>
     <t xml:space="preserve">1.54818677902222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53202450275421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53372573852539</t>
+    <t xml:space="preserve">1.53202438354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5337256193161</t>
   </si>
   <si>
     <t xml:space="preserve">1.57881021499634</t>
@@ -215,22 +215,22 @@
     <t xml:space="preserve">1.53287506103516</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52096593379974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55329072475433</t>
+    <t xml:space="preserve">1.52096605300903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55329036712646</t>
   </si>
   <si>
     <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53968024253845</t>
+    <t xml:space="preserve">1.53968012332916</t>
   </si>
   <si>
     <t xml:space="preserve">1.52862179279327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50395262241364</t>
+    <t xml:space="preserve">1.5039529800415</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395274162292</t>
@@ -239,40 +239,40 @@
     <t xml:space="preserve">1.49703013896942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50654888153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626209259033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47885799407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47539687156677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46933937072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45376348495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405003547668</t>
+    <t xml:space="preserve">1.50654876232147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626197338104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47885811328888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47539675235748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46933925151825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45376336574554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405015468597</t>
   </si>
   <si>
     <t xml:space="preserve">1.47972333431244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48664605617523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299010753632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837661743164</t>
+    <t xml:space="preserve">1.48664617538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49270355701447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299022674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837673664093</t>
   </si>
   <si>
     <t xml:space="preserve">1.46674346923828</t>
@@ -281,31 +281,31 @@
     <t xml:space="preserve">1.4736659526825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50568342208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44510996341705</t>
+    <t xml:space="preserve">1.50568354129791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44511008262634</t>
   </si>
   <si>
     <t xml:space="preserve">1.45116746425629</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42001533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760880947113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45895516872406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51433706283569</t>
+    <t xml:space="preserve">1.42001521587372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760869026184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45895528793335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51433670520782</t>
   </si>
   <si>
     <t xml:space="preserve">1.47106993198395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.465012550354</t>
+    <t xml:space="preserve">1.46501266956329</t>
   </si>
   <si>
     <t xml:space="preserve">1.52039408683777</t>
@@ -314,22 +314,22 @@
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212488651276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47712743282318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50222218036652</t>
+    <t xml:space="preserve">1.52212500572205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47712731361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50222194194794</t>
   </si>
   <si>
     <t xml:space="preserve">1.49616479873657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52991271018982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827944278717</t>
+    <t xml:space="preserve">1.5299129486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827956199646</t>
   </si>
   <si>
     <t xml:space="preserve">1.51087558269501</t>
@@ -338,70 +338,70 @@
     <t xml:space="preserve">1.51347148418427</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53077816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50308740139008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049126148224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135672092438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53337407112122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318493366241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51866340637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51174068450928</t>
+    <t xml:space="preserve">1.53077828884125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50308752059937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049138069153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135684013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53337419033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51866352558136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51174080371857</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375827312469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55500745773315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54895031452179</t>
+    <t xml:space="preserve">1.55500757694244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
     <t xml:space="preserve">1.5402969121933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53250885009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55587303638458</t>
+    <t xml:space="preserve">1.53250896930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55587291717529</t>
   </si>
   <si>
     <t xml:space="preserve">1.54462349414825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55760359764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443411827087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010753631592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231935501099</t>
+    <t xml:space="preserve">1.5576034784317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443423748016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010741710663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231947422028</t>
   </si>
   <si>
     <t xml:space="preserve">1.5454888343811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52558612823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52645170688629</t>
+    <t xml:space="preserve">1.52558624744415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.526451587677</t>
   </si>
   <si>
     <t xml:space="preserve">1.55673825740814</t>
@@ -413,19 +413,19 @@
     <t xml:space="preserve">1.55327689647675</t>
   </si>
   <si>
-    <t xml:space="preserve">1.542027592659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693296432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5385662317276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606726646423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54635429382324</t>
+    <t xml:space="preserve">1.54202747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693284511566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53856611251831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606738567352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54635417461395</t>
   </si>
   <si>
     <t xml:space="preserve">1.57404494285583</t>
@@ -440,34 +440,34 @@
     <t xml:space="preserve">1.56971824169159</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54981565475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55846893787384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59135150909424</t>
+    <t xml:space="preserve">1.54981541633606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55846881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59135162830353</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221708774567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60000491142273</t>
+    <t xml:space="preserve">1.60000503063202</t>
   </si>
   <si>
     <t xml:space="preserve">1.56625688076019</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55414235591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64413714408875</t>
+    <t xml:space="preserve">1.55414223670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64413726329803</t>
   </si>
   <si>
     <t xml:space="preserve">1.58096778392792</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60779309272766</t>
+    <t xml:space="preserve">1.60779333114624</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664084434509</t>
@@ -476,73 +476,73 @@
     <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59827446937561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59913969039917</t>
+    <t xml:space="preserve">1.59827435016632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59913980960846</t>
   </si>
   <si>
     <t xml:space="preserve">1.60087049007416</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63461863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60952365398407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.617311835289</t>
+    <t xml:space="preserve">1.63461852073669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60952377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61731171607971</t>
   </si>
   <si>
     <t xml:space="preserve">1.61817705631256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65192532539368</t>
+    <t xml:space="preserve">1.6519250869751</t>
   </si>
   <si>
     <t xml:space="preserve">1.59654366970062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60519707202911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6190425157547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61211967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65971326828003</t>
+    <t xml:space="preserve">1.6051971912384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61904239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61211979389191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65971314907074</t>
   </si>
   <si>
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279054641724</t>
+    <t xml:space="preserve">1.65279030799866</t>
   </si>
   <si>
     <t xml:space="preserve">1.6744236946106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67009711265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66144382953644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64154100418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63634920120239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65625190734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68048119544983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317451000214</t>
+    <t xml:space="preserve">1.67009699344635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66144371032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64154124259949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6363490819931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65625166893005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68048107624054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317462921143</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701486110687</t>
@@ -551,49 +551,49 @@
     <t xml:space="preserve">1.82585740089417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81893479824066</t>
+    <t xml:space="preserve">1.81893491744995</t>
   </si>
   <si>
     <t xml:space="preserve">1.80682039260864</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77739870548248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79816687107086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7739372253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75836133956909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79124414920807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7514386177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72980523109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74797749519348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7445160150528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7566305398941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758820056915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201231479645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7410546541214</t>
+    <t xml:space="preserve">1.77739882469177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79816675186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393734455109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75836145877838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79124402999878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75143873691559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72980535030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74797737598419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74451613426208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75663077831268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758831977844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201195716858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74105477333069</t>
   </si>
   <si>
     <t xml:space="preserve">1.7427853345871</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">1.7185560464859</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73932385444641</t>
+    <t xml:space="preserve">1.73932409286499</t>
   </si>
   <si>
     <t xml:space="preserve">1.76528406143188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78432142734528</t>
+    <t xml:space="preserve">1.78432166576385</t>
   </si>
   <si>
     <t xml:space="preserve">1.80855071544647</t>
@@ -623,22 +623,22 @@
     <t xml:space="preserve">1.78259086608887</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79989731311798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82412707805634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720423698425</t>
+    <t xml:space="preserve">1.79989743232727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82412672042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720387935638</t>
   </si>
   <si>
     <t xml:space="preserve">1.80335891246796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84316408634186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79297471046448</t>
+    <t xml:space="preserve">1.84316444396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79297482967377</t>
   </si>
   <si>
     <t xml:space="preserve">1.81547355651855</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">1.78605198860168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354864597321</t>
+    <t xml:space="preserve">1.85354816913605</t>
   </si>
   <si>
     <t xml:space="preserve">1.83451068401337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87777781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623662948608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92104434967041</t>
+    <t xml:space="preserve">1.87777769565582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9262363910675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92104423046112</t>
   </si>
   <si>
     <t xml:space="preserve">1.90373778343201</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">1.83797228336334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96253097057343</t>
+    <t xml:space="preserve">1.96253108978271</t>
   </si>
   <si>
     <t xml:space="preserve">2.04503440856934</t>
@@ -677,79 +677,79 @@
     <t xml:space="preserve">2.41366744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42244458198547</t>
+    <t xml:space="preserve">2.42244434356689</t>
   </si>
   <si>
     <t xml:space="preserve">2.30834436416626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2469048500061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39260315895081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41717791557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40489077568054</t>
+    <t xml:space="preserve">2.24690508842468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648791313171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39260292053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4171781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40489053726196</t>
   </si>
   <si>
     <t xml:space="preserve">2.31712079048157</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26972508430481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20653104782104</t>
+    <t xml:space="preserve">2.26972532272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
     <t xml:space="preserve">2.13280439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08014249801636</t>
+    <t xml:space="preserve">2.08014225959778</t>
   </si>
   <si>
     <t xml:space="preserve">2.01870369911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07136559486389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12753796577454</t>
+    <t xml:space="preserve">2.07136535644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12753820419312</t>
   </si>
   <si>
     <t xml:space="preserve">2.06258869171143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08540844917297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12402772903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647344589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104891777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11525082588196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10296273231506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03976821899414</t>
+    <t xml:space="preserve">2.08540868759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12402725219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647368431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104867935181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11525011062622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10296249389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03976845741272</t>
   </si>
   <si>
     <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03625726699829</t>
+    <t xml:space="preserve">2.03625750541687</t>
   </si>
   <si>
     <t xml:space="preserve">2.03099131584167</t>
@@ -758,25 +758,25 @@
     <t xml:space="preserve">2.0345025062561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00992703437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763906002045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98359560966492</t>
+    <t xml:space="preserve">2.00992655754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763882160187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9835958480835</t>
   </si>
   <si>
     <t xml:space="preserve">1.98535120487213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00114989280701</t>
+    <t xml:space="preserve">2.00114965438843</t>
   </si>
   <si>
     <t xml:space="preserve">2.01694846153259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99588346481323</t>
+    <t xml:space="preserve">1.99588370323181</t>
   </si>
   <si>
     <t xml:space="preserve">1.98710656166077</t>
@@ -785,40 +785,40 @@
     <t xml:space="preserve">2.0327467918396</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06785440444946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07663178443909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04854536056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061763286591</t>
+    <t xml:space="preserve">2.06785488128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07663154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04854559898376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061739444733</t>
   </si>
   <si>
     <t xml:space="preserve">1.97481894493103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97130799293518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96604180335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99237275123596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99939441680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2030200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32414245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29079008102417</t>
+    <t xml:space="preserve">1.97130787372589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9660416841507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99237263202667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99939477443695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20302033424377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32414221763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078984260559</t>
   </si>
   <si>
     <t xml:space="preserve">2.43122148513794</t>
@@ -830,13 +830,13 @@
     <t xml:space="preserve">2.48914933204651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48563861846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43999838829041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37855982780457</t>
+    <t xml:space="preserve">2.48563885688782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43999814987183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37855958938599</t>
   </si>
   <si>
     <t xml:space="preserve">2.38207054138184</t>
@@ -857,34 +857,34 @@
     <t xml:space="preserve">2.44175386428833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46984004974365</t>
+    <t xml:space="preserve">2.46984028816223</t>
   </si>
   <si>
     <t xml:space="preserve">2.42946577072144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37504887580872</t>
+    <t xml:space="preserve">2.37504911422729</t>
   </si>
   <si>
     <t xml:space="preserve">2.3908474445343</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39962410926819</t>
+    <t xml:space="preserve">2.39962434768677</t>
   </si>
   <si>
     <t xml:space="preserve">2.3890917301178</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4189338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43473243713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41542315483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3961136341095</t>
+    <t xml:space="preserve">2.41893410682678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43473219871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41542291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39611339569092</t>
   </si>
   <si>
     <t xml:space="preserve">2.41015696525574</t>
@@ -893,19 +893,19 @@
     <t xml:space="preserve">2.43824315071106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44877529144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45579719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33994078636169</t>
+    <t xml:space="preserve">2.44877552986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45579695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33994102478027</t>
   </si>
   <si>
     <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15737986564636</t>
+    <t xml:space="preserve">2.15737962722778</t>
   </si>
   <si>
     <t xml:space="preserve">2.22232961654663</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">2.16791224479675</t>
   </si>
   <si>
-    <t xml:space="preserve">2.19248747825623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733625411987</t>
+    <t xml:space="preserve">2.1924877166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733673095703</t>
   </si>
   <si>
     <t xml:space="preserve">2.35222864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37329363822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627197265625</t>
+    <t xml:space="preserve">2.37329339981079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627221107483</t>
   </si>
   <si>
     <t xml:space="preserve">2.35749506950378</t>
@@ -938,28 +938,28 @@
     <t xml:space="preserve">2.28376817703247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30658841133118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28201270103455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589769363403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31360983848572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956674575806</t>
+    <t xml:space="preserve">2.3065881729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2820131778717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589817047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3136100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956698417664</t>
   </si>
   <si>
     <t xml:space="preserve">2.25568222999573</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33116412162781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29254508018494</t>
+    <t xml:space="preserve">2.33116388320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29254531860352</t>
   </si>
   <si>
     <t xml:space="preserve">2.30132222175598</t>
@@ -971,10 +971,10 @@
     <t xml:space="preserve">2.27323579788208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46632933616638</t>
+    <t xml:space="preserve">2.36100554466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4663290977478</t>
   </si>
   <si>
     <t xml:space="preserve">2.49266028404236</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">2.65064573287964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62431478500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65942287445068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58043003082275</t>
+    <t xml:space="preserve">2.62431502342224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6594226360321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58043026924133</t>
   </si>
   <si>
     <t xml:space="preserve">2.54532217979431</t>
@@ -1001,10 +1001,10 @@
     <t xml:space="preserve">2.53654527664185</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45755219459534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48388338088989</t>
+    <t xml:space="preserve">2.45755243301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48388314247131</t>
   </si>
   <si>
     <t xml:space="preserve">2.36978268623352</t>
@@ -1013,28 +1013,28 @@
     <t xml:space="preserve">2.5277681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6857533454895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69453072547913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72963833808899</t>
+    <t xml:space="preserve">2.68575358390808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69453048706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72963857650757</t>
   </si>
   <si>
     <t xml:space="preserve">2.73841547966003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51021385192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59798407554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61553764343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63309144973755</t>
+    <t xml:space="preserve">2.51021409034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59798383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6155378818512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63309192657471</t>
   </si>
   <si>
     <t xml:space="preserve">2.56287598609924</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3346745967865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179699897766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26327729225159</t>
+    <t xml:space="preserve">2.33467507362366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179747581482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26327753067017</t>
   </si>
   <si>
     <t xml:space="preserve">2.18276572227478</t>
@@ -1058,10 +1058,10 @@
     <t xml:space="preserve">2.23644018173218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36168050765991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589745521545</t>
+    <t xml:space="preserve">2.36168098449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
     <t xml:space="preserve">2.31695199012756</t>
@@ -1070,10 +1070,10 @@
     <t xml:space="preserve">2.3348433971405</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34378910064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41535520553589</t>
+    <t xml:space="preserve">2.34378886222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41535568237305</t>
   </si>
   <si>
     <t xml:space="preserve">2.42430114746094</t>
@@ -1082,22 +1082,22 @@
     <t xml:space="preserve">2.37062668800354</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37957215309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746356010437</t>
+    <t xml:space="preserve">2.37957239151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746379852295</t>
   </si>
   <si>
     <t xml:space="preserve">2.3527352809906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28116893768311</t>
+    <t xml:space="preserve">2.28116869926453</t>
   </si>
   <si>
     <t xml:space="preserve">2.24538588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27222275733948</t>
+    <t xml:space="preserve">2.27222323417664</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854877471924</t>
@@ -1112,10 +1112,10 @@
     <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15592861175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.290114402771</t>
+    <t xml:space="preserve">2.15592837333679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29011464118958</t>
   </si>
   <si>
     <t xml:space="preserve">2.13803696632385</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541608810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12014532089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12909126281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05752468109131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06647086143494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963327407837</t>
+    <t xml:space="preserve">2.07541632652283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12014508247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1290910243988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05752515792847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06647038459778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963351249695</t>
   </si>
   <si>
     <t xml:space="preserve">2.02174162864685</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0843620300293</t>
+    <t xml:space="preserve">2.08436226844788</t>
   </si>
   <si>
     <t xml:space="preserve">2.11119937896729</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">2.09330773353577</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99490439891815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93228423595428</t>
+    <t xml:space="preserve">1.99490487575531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93228447437286</t>
   </si>
   <si>
     <t xml:space="preserve">1.9501758813858</t>
@@ -1172,25 +1172,25 @@
     <t xml:space="preserve">1.8786096572876</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86966383457184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83388090133667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77126049995422</t>
+    <t xml:space="preserve">1.86966395378113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83388078212738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77126061916351</t>
   </si>
   <si>
     <t xml:space="preserve">1.74442338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67733013629913</t>
+    <t xml:space="preserve">1.67733001708984</t>
   </si>
   <si>
     <t xml:space="preserve">1.68180298805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7265317440033</t>
+    <t xml:space="preserve">1.72653162479401</t>
   </si>
   <si>
     <t xml:space="preserve">1.73547756671906</t>
@@ -1205,16 +1205,16 @@
     <t xml:space="preserve">1.76678764820099</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74889624118805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69522178173065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64601993560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65496575832367</t>
+    <t xml:space="preserve">1.74889636039734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69522154331207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64601981639862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65496563911438</t>
   </si>
   <si>
     <t xml:space="preserve">1.66838443279266</t>
@@ -1223,25 +1223,25 @@
     <t xml:space="preserve">1.66391146183014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68627595901489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6996945142746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73100459575653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70864033699036</t>
+    <t xml:space="preserve">1.6862758398056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69969439506531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73100447654724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70864021778107</t>
   </si>
   <si>
     <t xml:space="preserve">1.75336909294128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72205877304077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71758592128754</t>
+    <t xml:space="preserve">1.72205889225006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71758604049683</t>
   </si>
   <si>
     <t xml:space="preserve">1.61918258666992</t>
@@ -1250,7 +1250,7 @@
     <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55656254291534</t>
+    <t xml:space="preserve">1.55656230449677</t>
   </si>
   <si>
     <t xml:space="preserve">1.59234535694122</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">1.61023688316345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70416748523712</t>
+    <t xml:space="preserve">1.70416736602783</t>
   </si>
   <si>
     <t xml:space="preserve">1.71311318874359</t>
@@ -1268,7 +1268,7 @@
     <t xml:space="preserve">1.78020632266998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81598925590515</t>
+    <t xml:space="preserve">1.81598937511444</t>
   </si>
   <si>
     <t xml:space="preserve">1.80704367160797</t>
@@ -1277,52 +1277,52 @@
     <t xml:space="preserve">1.84282672405243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86071813106537</t>
+    <t xml:space="preserve">1.86071801185608</t>
   </si>
   <si>
     <t xml:space="preserve">1.82493507862091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79809784889221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88755512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8517724275589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650106430054</t>
+    <t xml:space="preserve">1.7980979681015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88755536079407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85177230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650094509125</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333841323853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96806752681732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01279616355896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00385022163391</t>
+    <t xml:space="preserve">1.96806716918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01279592514038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00385046005249</t>
   </si>
   <si>
     <t xml:space="preserve">2.04857921600342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03068780899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9770131111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439282894135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9054468870163</t>
+    <t xml:space="preserve">2.03068733215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97701323032379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595893383026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439270973206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90544712543488</t>
   </si>
   <si>
     <t xml:space="preserve">1.94123005867004</t>
@@ -1334,22 +1334,22 @@
     <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66826140880585</t>
+    <t xml:space="preserve">1.66826152801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.6498783826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65907001495361</t>
+    <t xml:space="preserve">1.65906989574432</t>
   </si>
   <si>
     <t xml:space="preserve">1.68664455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70502758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6728572845459</t>
+    <t xml:space="preserve">1.70502769947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67285740375519</t>
   </si>
   <si>
     <t xml:space="preserve">1.69583606719971</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">1.70962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71881473064423</t>
+    <t xml:space="preserve">1.71881484985352</t>
   </si>
   <si>
     <t xml:space="preserve">1.73719799518585</t>
@@ -1370,7 +1370,7 @@
     <t xml:space="preserve">1.7326021194458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68204879760742</t>
+    <t xml:space="preserve">1.68204891681671</t>
   </si>
   <si>
     <t xml:space="preserve">1.65447413921356</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6636655330658</t>
+    <t xml:space="preserve">1.66366565227509</t>
   </si>
   <si>
     <t xml:space="preserve">1.63149547576904</t>
@@ -1394,10 +1394,10 @@
     <t xml:space="preserve">1.5901335477829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64068675041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60851669311523</t>
+    <t xml:space="preserve">1.64068686962128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60851657390594</t>
   </si>
   <si>
     <t xml:space="preserve">1.58553779125214</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">1.61770808696747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6360912322998</t>
+    <t xml:space="preserve">1.63609111309052</t>
   </si>
   <si>
     <t xml:space="preserve">1.62230384349823</t>
@@ -1418,10 +1418,10 @@
     <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58094215393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71421909332275</t>
+    <t xml:space="preserve">1.58094203472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71421921253204</t>
   </si>
   <si>
     <t xml:space="preserve">1.61311233043671</t>
@@ -1433,19 +1433,19 @@
     <t xml:space="preserve">1.57175052165985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55336761474609</t>
+    <t xml:space="preserve">1.55336737632751</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255900859833</t>
+    <t xml:space="preserve">1.56255888938904</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38332414627075</t>
+    <t xml:space="preserve">1.38332426548004</t>
   </si>
   <si>
     <t xml:space="preserve">1.3879200220108</t>
@@ -1457,16 +1457,16 @@
     <t xml:space="preserve">1.22706830501556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3051962852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221762180328</t>
+    <t xml:space="preserve">1.30519640445709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221750259399</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24085569381714</t>
+    <t xml:space="preserve">1.24085581302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.31438779830933</t>
@@ -1475,19 +1475,19 @@
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655833244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34196245670319</t>
+    <t xml:space="preserve">1.34655821323395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3419623374939</t>
   </si>
   <si>
     <t xml:space="preserve">1.41089880466461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630292892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39711165428162</t>
+    <t xml:space="preserve">1.40630304813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39711153507233</t>
   </si>
   <si>
     <t xml:space="preserve">1.40170729160309</t>
@@ -1502,10 +1502,10 @@
     <t xml:space="preserve">1.49821829795837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48902678489685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47983515262604</t>
+    <t xml:space="preserve">1.48902690410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47983527183533</t>
   </si>
   <si>
     <t xml:space="preserve">1.46145224571228</t>
@@ -1514,22 +1514,22 @@
     <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43387746810913</t>
+    <t xml:space="preserve">1.43387758731842</t>
   </si>
   <si>
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685636997223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42468619346619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42928171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37872838973999</t>
+    <t xml:space="preserve">1.45685660839081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4246860742569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42928183078766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37872850894928</t>
   </si>
   <si>
     <t xml:space="preserve">1.39251577854156</t>
@@ -1541,22 +1541,22 @@
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413287162781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35574960708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41549456119537</t>
+    <t xml:space="preserve">1.37413275241852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35574972629547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41549468040466</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36034548282623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31898367404938</t>
+    <t xml:space="preserve">1.36034560203552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31898355484009</t>
   </si>
   <si>
     <t xml:space="preserve">1.45226073265076</t>
@@ -1565,7 +1565,7 @@
     <t xml:space="preserve">1.43847346305847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50281417369843</t>
+    <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
@@ -1574,10 +1574,10 @@
     <t xml:space="preserve">1.46604800224304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3281751871109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30979204177856</t>
+    <t xml:space="preserve">1.32817530632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30979192256927</t>
   </si>
   <si>
     <t xml:space="preserve">1.30060052871704</t>
@@ -1589,34 +1589,34 @@
     <t xml:space="preserve">1.51200556755066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4844309091568</t>
+    <t xml:space="preserve">1.48443102836609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52579283714294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53958022594452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54877161979675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57634627819061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54417586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796325206757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.530388712883</t>
+    <t xml:space="preserve">1.53958010673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54877173900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5763463973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54417598247528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796313285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53038859367371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396404743195</t>
+    <t xml:space="preserve">1.77396380901337</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">1.79234719276428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87507057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021976947784</t>
+    <t xml:space="preserve">1.8750706911087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021988868713</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
@@ -1637,64 +1637,64 @@
     <t xml:space="preserve">1.89345383644104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8383047580719</t>
+    <t xml:space="preserve">1.83830463886261</t>
   </si>
   <si>
     <t xml:space="preserve">1.82911312580109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78775143623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451736927032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77855980396271</t>
+    <t xml:space="preserve">1.78775131702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451748847961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77855956554413</t>
   </si>
   <si>
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153870582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84749615192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76936817169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79694283008575</t>
+    <t xml:space="preserve">1.80153858661652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84749627113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76936829090118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79694294929504</t>
   </si>
   <si>
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587929725647</t>
+    <t xml:space="preserve">1.86587917804718</t>
   </si>
   <si>
     <t xml:space="preserve">1.90264523029327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92102825641632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85668766498566</t>
+    <t xml:space="preserve">1.92102837562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85668778419495</t>
   </si>
   <si>
     <t xml:space="preserve">1.81073009967804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09566760063171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647584915161</t>
+    <t xml:space="preserve">2.09566736221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08647561073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.02213501930237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98536896705627</t>
+    <t xml:space="preserve">1.98536920547485</t>
   </si>
   <si>
     <t xml:space="preserve">2.04051828384399</t>
@@ -1706,88 +1706,91 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405038833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12324190139771</t>
+    <t xml:space="preserve">2.11405062675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12324166297913</t>
   </si>
   <si>
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928592681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.536860704422</t>
+    <t xml:space="preserve">2.50928568840027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63796734809875</t>
+    <t xml:space="preserve">2.63796710968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68392467498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73035979270935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69321203231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72107267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86966347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99039387702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19470643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08326292037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825451850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93467235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85108947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92538547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96253323554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90681147575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86037683486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80465507507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63749027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60962915420532</t>
   </si>
   <si>
     <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73035955429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69321203231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72107291221619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322907447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86966347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81394195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99039363861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1947066783905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08326315879822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825451850891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93467235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85108971595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92538523674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96253299713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90681147575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86037659645081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80465507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63749003410339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6096293926239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66535115242004</t>
+    <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
     <t xml:space="preserve">2.73964643478394</t>
@@ -1814,7 +1817,7 @@
     <t xml:space="preserve">2.59105563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64677715301514</t>
+    <t xml:space="preserve">2.64677691459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.87895059585571</t>
@@ -1823,13 +1826,13 @@
     <t xml:space="preserve">2.91609835624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7953679561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78608107566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83251571655273</t>
+    <t xml:space="preserve">2.79536819458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78608131408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83251595497131</t>
   </si>
   <si>
     <t xml:space="preserve">2.8882372379303</t>
@@ -1850,22 +1853,22 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752411842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61891651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55390787124634</t>
+    <t xml:space="preserve">2.89752459526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61891627311707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55390763282776</t>
   </si>
   <si>
     <t xml:space="preserve">2.71178579330444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.999680519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06468939781189</t>
+    <t xml:space="preserve">2.99968075752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06468915939331</t>
   </si>
   <si>
     <t xml:space="preserve">3.04611539840698</t>
@@ -1874,28 +1877,28 @@
     <t xml:space="preserve">3.10183691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11112403869629</t>
+    <t xml:space="preserve">3.11112380027771</t>
   </si>
   <si>
     <t xml:space="preserve">3.07397627830505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97181987762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0368287563324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00896763801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395899772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8418025970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76750731468201</t>
+    <t xml:space="preserve">2.97182011604309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03682851791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00896787643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84180283546448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76750755310059</t>
   </si>
   <si>
     <t xml:space="preserve">2.30316042900085</t>
@@ -1904,13 +1907,13 @@
     <t xml:space="preserve">2.25672578811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34959530830383</t>
+    <t xml:space="preserve">2.34959506988525</t>
   </si>
   <si>
     <t xml:space="preserve">2.48889923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38674283027649</t>
+    <t xml:space="preserve">2.38674259185791</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
@@ -1919,7 +1922,7 @@
     <t xml:space="preserve">2.58176851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56319499015808</t>
+    <t xml:space="preserve">2.5631947517395</t>
   </si>
   <si>
     <t xml:space="preserve">2.51675987243652</t>
@@ -1937,39 +1940,42 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35888195037842</t>
+    <t xml:space="preserve">2.358882188797</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602971076965</t>
+    <t xml:space="preserve">2.39602994918823</t>
   </si>
   <si>
     <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41460347175598</t>
+    <t xml:space="preserve">2.41460371017456</t>
   </si>
   <si>
     <t xml:space="preserve">2.28458666801453</t>
   </si>
   <si>
+    <t xml:space="preserve">2.27529954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30374097824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28478002548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31322145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24685835838318</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.27529978752136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30374097824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28478002548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31322145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24685835838318</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.22789740562439</t>
   </si>
   <si>
@@ -2148,9 +2154,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.24612903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27529954910278</t>
   </si>
   <si>
     <t xml:space="preserve">2.17806458473206</t>
@@ -38870,7 +38873,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1390" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38896,7 +38899,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1391" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38922,7 +38925,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1392" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38948,7 +38951,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1393" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39026,7 +39029,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39052,7 +39055,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1397" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39156,7 +39159,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39182,7 +39185,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1402" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39208,7 +39211,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1403" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39234,7 +39237,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39260,7 +39263,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1405" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39286,7 +39289,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39312,7 +39315,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39338,7 +39341,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39364,7 +39367,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1409" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39390,7 +39393,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1410" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39416,7 +39419,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1411" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39442,7 +39445,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1412" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39468,7 +39471,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1413" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39494,7 +39497,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1414" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39520,7 +39523,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1415" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39546,7 +39549,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1416" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39572,7 +39575,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1417" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39624,7 +39627,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1419" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39650,7 +39653,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1420" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39728,7 +39731,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1423" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39806,7 +39809,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1426" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39884,7 +39887,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1429" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39910,7 +39913,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1430" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39962,7 +39965,7 @@
         <v>3</v>
       </c>
       <c r="G1432" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40040,7 +40043,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1435" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40066,7 +40069,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1436" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40144,7 +40147,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1439" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40352,7 +40355,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1447" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40378,7 +40381,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1448" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40404,7 +40407,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1449" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40430,7 +40433,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40456,7 +40459,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1451" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40482,7 +40485,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1452" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40508,7 +40511,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40560,7 +40563,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1455" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40586,7 +40589,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40690,7 +40693,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1460" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40716,7 +40719,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1461" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40742,7 +40745,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1462" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40768,7 +40771,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1463" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40794,7 +40797,7 @@
         <v>2.75</v>
       </c>
       <c r="G1464" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40820,7 +40823,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1465" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40846,7 +40849,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1466" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40872,7 +40875,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1467" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40898,7 +40901,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1468" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40924,7 +40927,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1469" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40950,7 +40953,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1470" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40976,7 +40979,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41054,7 +41057,7 @@
         <v>3</v>
       </c>
       <c r="G1474" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41106,7 +41109,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1476" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41158,7 +41161,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1478" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41210,7 +41213,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41236,7 +41239,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1481" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41262,7 +41265,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1482" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41288,7 +41291,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1483" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41314,7 +41317,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41340,7 +41343,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1485" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41366,7 +41369,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1486" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41392,7 +41395,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1487" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41418,7 +41421,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1488" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41496,7 +41499,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1491" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41522,7 +41525,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1492" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41548,7 +41551,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1493" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41574,7 +41577,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1494" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41600,7 +41603,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41626,7 +41629,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1496" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41652,7 +41655,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1497" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41704,7 +41707,7 @@
         <v>3</v>
       </c>
       <c r="G1499" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41730,7 +41733,7 @@
         <v>3</v>
       </c>
       <c r="G1500" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41782,7 +41785,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1502" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41808,7 +41811,7 @@
         <v>3</v>
       </c>
       <c r="G1503" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41834,7 +41837,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1504" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41912,7 +41915,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1507" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41938,7 +41941,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1508" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42146,7 +42149,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1516" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42198,7 +42201,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1518" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42224,7 +42227,7 @@
         <v>3</v>
       </c>
       <c r="G1519" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42302,7 +42305,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1522" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42406,7 +42409,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1526" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42458,7 +42461,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1528" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42484,7 +42487,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1529" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42510,7 +42513,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1530" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42562,7 +42565,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42588,7 +42591,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1533" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42614,7 +42617,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1534" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42666,7 +42669,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1536" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42692,7 +42695,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1537" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42796,7 +42799,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42848,7 +42851,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1543" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42874,7 +42877,7 @@
         <v>3</v>
       </c>
       <c r="G1544" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42952,7 +42955,7 @@
         <v>3</v>
       </c>
       <c r="G1547" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42978,7 +42981,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1548" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43004,7 +43007,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1549" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43030,7 +43033,7 @@
         <v>3</v>
       </c>
       <c r="G1550" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43056,7 +43059,7 @@
         <v>3</v>
       </c>
       <c r="G1551" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43082,7 +43085,7 @@
         <v>3</v>
       </c>
       <c r="G1552" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43108,7 +43111,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1553" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43134,7 +43137,7 @@
         <v>3</v>
       </c>
       <c r="G1554" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43212,7 +43215,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1557" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43290,7 +43293,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1560" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43316,7 +43319,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1561" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43368,7 +43371,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1563" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43394,7 +43397,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1564" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43420,7 +43423,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1565" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43446,7 +43449,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1566" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43524,7 +43527,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1569" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43550,7 +43553,7 @@
         <v>2.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43576,7 +43579,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43602,7 +43605,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43628,7 +43631,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1573" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43654,7 +43657,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1574" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43680,7 +43683,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1575" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43706,7 +43709,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1576" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43732,7 +43735,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1577" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43758,7 +43761,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1578" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43810,7 +43813,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1580" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43836,7 +43839,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1581" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43862,7 +43865,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1582" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43888,7 +43891,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43914,7 +43917,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1584" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43940,7 +43943,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1585" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43966,7 +43969,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1586" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43992,7 +43995,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44018,7 +44021,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44044,7 +44047,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1589" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44096,7 +44099,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1591" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44148,7 +44151,7 @@
         <v>2.75</v>
       </c>
       <c r="G1593" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44174,7 +44177,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1594" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44200,7 +44203,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1595" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44226,7 +44229,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1596" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44252,7 +44255,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44278,7 +44281,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1598" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44304,7 +44307,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44330,7 +44333,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1600" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44356,7 +44359,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1601" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44382,7 +44385,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1602" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44408,7 +44411,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1603" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44434,7 +44437,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1604" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44460,7 +44463,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1605" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44486,7 +44489,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44512,7 +44515,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44538,7 +44541,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1608" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44564,7 +44567,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44590,7 +44593,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1610" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44616,7 +44619,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1611" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44642,7 +44645,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44668,7 +44671,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1613" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44694,7 +44697,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44720,7 +44723,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44746,7 +44749,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1616" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44772,7 +44775,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1617" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44798,7 +44801,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1618" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44824,7 +44827,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44850,7 +44853,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44876,7 +44879,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44902,7 +44905,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1622" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44928,7 +44931,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44954,7 +44957,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1624" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44980,7 +44983,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45006,7 +45009,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1626" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45032,7 +45035,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1627" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45058,7 +45061,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45084,7 +45087,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1629" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45110,7 +45113,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45136,7 +45139,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45162,7 +45165,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1632" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45188,7 +45191,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45214,7 +45217,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1634" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45240,7 +45243,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45266,7 +45269,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45292,7 +45295,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45318,7 +45321,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45344,7 +45347,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45370,7 +45373,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45396,7 +45399,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45422,7 +45425,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45448,7 +45451,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45474,7 +45477,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45500,7 +45503,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45526,7 +45529,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45552,7 +45555,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45578,7 +45581,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45604,7 +45607,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45630,7 +45633,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45656,7 +45659,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45682,7 +45685,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45708,7 +45711,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45734,7 +45737,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45760,7 +45763,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45786,7 +45789,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45812,7 +45815,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45838,7 +45841,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45864,7 +45867,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45890,7 +45893,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45916,7 +45919,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45942,7 +45945,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45968,7 +45971,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45994,7 +45997,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46020,7 +46023,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46046,7 +46049,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46072,7 +46075,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46098,7 +46101,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46124,7 +46127,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46150,7 +46153,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46176,7 +46179,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46202,7 +46205,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46228,7 +46231,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46254,7 +46257,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46280,7 +46283,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46306,7 +46309,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46332,7 +46335,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46358,7 +46361,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46384,7 +46387,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46410,7 +46413,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46436,7 +46439,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46462,7 +46465,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46488,7 +46491,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46514,7 +46517,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46540,7 +46543,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46566,7 +46569,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46592,7 +46595,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46618,7 +46621,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46644,7 +46647,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46670,7 +46673,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46696,7 +46699,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46722,7 +46725,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46748,7 +46751,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46774,7 +46777,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46800,7 +46803,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46826,7 +46829,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46852,7 +46855,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46878,7 +46881,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46904,7 +46907,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46930,7 +46933,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46956,7 +46959,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46982,7 +46985,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47008,7 +47011,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47034,7 +47037,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47060,7 +47063,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47086,7 +47089,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47112,7 +47115,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47138,7 +47141,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47164,7 +47167,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47190,7 +47193,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47216,7 +47219,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47242,7 +47245,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47268,7 +47271,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47294,7 +47297,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47320,7 +47323,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47346,7 +47349,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47372,7 +47375,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47398,7 +47401,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47424,7 +47427,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47450,7 +47453,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47476,7 +47479,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47502,7 +47505,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47528,7 +47531,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47554,7 +47557,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47580,7 +47583,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47606,7 +47609,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47632,7 +47635,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47658,7 +47661,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47684,7 +47687,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47710,7 +47713,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47736,7 +47739,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47762,7 +47765,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47788,7 +47791,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47814,7 +47817,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47840,7 +47843,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47866,7 +47869,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47892,7 +47895,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47918,7 +47921,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47944,7 +47947,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47970,7 +47973,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47996,7 +47999,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48022,7 +48025,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48048,7 +48051,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48074,7 +48077,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48100,7 +48103,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48126,7 +48129,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48152,7 +48155,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48178,7 +48181,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48204,7 +48207,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48230,7 +48233,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48256,7 +48259,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48282,7 +48285,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48308,7 +48311,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48334,7 +48337,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48360,7 +48363,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48386,7 +48389,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48412,7 +48415,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48438,7 +48441,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48464,7 +48467,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48490,7 +48493,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48516,7 +48519,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48542,7 +48545,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48568,7 +48571,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48594,7 +48597,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48620,7 +48623,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48646,7 +48649,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48672,7 +48675,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48698,7 +48701,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48724,7 +48727,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48750,7 +48753,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48776,7 +48779,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48802,7 +48805,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48828,7 +48831,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48854,7 +48857,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48880,7 +48883,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48906,7 +48909,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48932,7 +48935,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48958,7 +48961,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48984,7 +48987,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49010,7 +49013,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49036,7 +49039,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49062,7 +49065,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49088,7 +49091,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49114,7 +49117,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49140,7 +49143,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49166,7 +49169,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49192,7 +49195,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49218,7 +49221,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49244,7 +49247,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49270,7 +49273,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49296,7 +49299,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49322,7 +49325,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49348,7 +49351,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49374,7 +49377,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49400,7 +49403,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49426,7 +49429,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49452,7 +49455,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49478,7 +49481,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49504,7 +49507,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49530,7 +49533,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49556,7 +49559,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49582,7 +49585,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49608,7 +49611,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49634,7 +49637,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49660,7 +49663,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1805" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49686,7 +49689,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49712,7 +49715,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49738,7 +49741,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49764,7 +49767,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49790,7 +49793,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49816,7 +49819,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49842,7 +49845,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49868,7 +49871,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49894,7 +49897,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1814" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49920,7 +49923,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49946,7 +49949,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49972,7 +49975,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -49998,7 +50001,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50024,7 +50027,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50050,7 +50053,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50076,7 +50079,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50102,7 +50105,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1822" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50128,7 +50131,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50154,7 +50157,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50180,7 +50183,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50206,7 +50209,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50232,7 +50235,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50258,7 +50261,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50284,7 +50287,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50310,7 +50313,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50336,7 +50339,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50362,7 +50365,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50388,7 +50391,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50414,7 +50417,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50440,7 +50443,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50466,7 +50469,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50492,7 +50495,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50518,7 +50521,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50544,7 +50547,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50570,7 +50573,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50596,7 +50599,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50622,7 +50625,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50648,7 +50651,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1843" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50674,7 +50677,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50700,7 +50703,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50726,7 +50729,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1846" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50752,7 +50755,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1847" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50778,7 +50781,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50804,7 +50807,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50830,7 +50833,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50856,7 +50859,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50882,7 +50885,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50908,7 +50911,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50934,7 +50937,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50960,7 +50963,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50986,7 +50989,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51012,7 +51015,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51038,7 +51041,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51064,7 +51067,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1859" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51090,7 +51093,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51116,7 +51119,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1861" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51142,7 +51145,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1862" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51168,7 +51171,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1863" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51194,7 +51197,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51220,7 +51223,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1865" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51246,7 +51249,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51272,7 +51275,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51298,7 +51301,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1868" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51324,7 +51327,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51350,7 +51353,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51376,7 +51379,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51402,7 +51405,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51428,7 +51431,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51454,7 +51457,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51480,7 +51483,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51506,7 +51509,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51532,7 +51535,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51558,7 +51561,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51584,7 +51587,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51610,7 +51613,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51636,7 +51639,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51662,7 +51665,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51688,7 +51691,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1883" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51714,7 +51717,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1884" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51740,7 +51743,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1885" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51766,7 +51769,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51792,7 +51795,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1887" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51818,7 +51821,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51844,7 +51847,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51870,7 +51873,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51896,7 +51899,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51922,7 +51925,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51948,7 +51951,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51974,7 +51977,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52000,7 +52003,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52026,7 +52029,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52052,7 +52055,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52078,7 +52081,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52104,7 +52107,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52130,7 +52133,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52156,7 +52159,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52182,7 +52185,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52208,7 +52211,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52234,7 +52237,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52260,7 +52263,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52286,7 +52289,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52312,7 +52315,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52338,7 +52341,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52364,7 +52367,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52390,7 +52393,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52416,7 +52419,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52442,7 +52445,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52468,7 +52471,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52494,7 +52497,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52520,7 +52523,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52546,7 +52549,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52572,7 +52575,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52598,7 +52601,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52624,7 +52627,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52650,7 +52653,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52676,7 +52679,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52702,7 +52705,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52728,7 +52731,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52754,7 +52757,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52780,7 +52783,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52806,7 +52809,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52832,7 +52835,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52858,7 +52861,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52884,7 +52887,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52910,7 +52913,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52936,7 +52939,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52962,7 +52965,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52988,7 +52991,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53014,7 +53017,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53040,7 +53043,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53066,7 +53069,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53092,7 +53095,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53118,7 +53121,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53144,7 +53147,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53170,7 +53173,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53196,7 +53199,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53222,7 +53225,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1942" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53248,7 +53251,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53274,7 +53277,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53300,7 +53303,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53326,7 +53329,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53352,7 +53355,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53378,7 +53381,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53404,7 +53407,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53430,7 +53433,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53456,7 +53459,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53482,7 +53485,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53508,7 +53511,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1953" t="s">
-        <v>712</v>
+        <v>648</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53534,7 +53537,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53560,7 +53563,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53586,7 +53589,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53612,7 +53615,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53638,7 +53641,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53664,7 +53667,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53690,7 +53693,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53716,7 +53719,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53742,7 +53745,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53768,7 +53771,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53794,7 +53797,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53820,7 +53823,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53846,7 +53849,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53872,7 +53875,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53898,7 +53901,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53924,7 +53927,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53950,7 +53953,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53976,7 +53979,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54002,7 +54005,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54028,7 +54031,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54054,7 +54057,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54080,7 +54083,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54106,7 +54109,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54132,7 +54135,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54158,7 +54161,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54184,7 +54187,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54210,7 +54213,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54236,7 +54239,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54262,7 +54265,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54288,7 +54291,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54314,7 +54317,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54340,7 +54343,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54366,7 +54369,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54392,7 +54395,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54418,7 +54421,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54444,7 +54447,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54470,7 +54473,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54496,7 +54499,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54522,7 +54525,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54548,7 +54551,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54574,7 +54577,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54600,7 +54603,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54626,7 +54629,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54652,7 +54655,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54678,7 +54681,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54704,7 +54707,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54730,7 +54733,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54756,7 +54759,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54782,7 +54785,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54808,7 +54811,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54834,7 +54837,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54860,7 +54863,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54886,7 +54889,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54912,7 +54915,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54938,7 +54941,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54964,7 +54967,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54990,7 +54993,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55016,7 +55019,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55042,7 +55045,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55068,7 +55071,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55094,7 +55097,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55120,7 +55123,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55146,7 +55149,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55172,7 +55175,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55198,7 +55201,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55224,7 +55227,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55250,7 +55253,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55276,7 +55279,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55302,7 +55305,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55328,7 +55331,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55354,7 +55357,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55380,7 +55383,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55406,7 +55409,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55432,7 +55435,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55458,7 +55461,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55484,7 +55487,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55510,7 +55513,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55536,7 +55539,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55562,7 +55565,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55588,7 +55591,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55614,7 +55617,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55640,7 +55643,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55666,7 +55669,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55692,7 +55695,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55718,7 +55721,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55744,7 +55747,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55770,7 +55773,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55796,7 +55799,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55822,7 +55825,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55848,7 +55851,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55874,7 +55877,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55900,7 +55903,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55926,7 +55929,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55952,7 +55955,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55978,7 +55981,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56004,7 +56007,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56030,7 +56033,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56056,7 +56059,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56082,7 +56085,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56108,7 +56111,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56134,7 +56137,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56160,7 +56163,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56186,7 +56189,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56212,7 +56215,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56238,7 +56241,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56264,7 +56267,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56290,7 +56293,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56316,7 +56319,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56342,7 +56345,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56368,7 +56371,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56394,7 +56397,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56420,7 +56423,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56446,7 +56449,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56472,7 +56475,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56498,7 +56501,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56524,7 +56527,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56550,7 +56553,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56576,7 +56579,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56602,7 +56605,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56628,7 +56631,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56654,7 +56657,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56680,7 +56683,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56706,7 +56709,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56732,7 +56735,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56758,7 +56761,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56784,7 +56787,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56810,7 +56813,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56836,7 +56839,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56862,7 +56865,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56888,7 +56891,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56914,7 +56917,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56940,7 +56943,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56966,7 +56969,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56992,7 +56995,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57018,7 +57021,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57044,7 +57047,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57070,7 +57073,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57096,7 +57099,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57122,7 +57125,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57148,7 +57151,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57174,7 +57177,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57200,7 +57203,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57226,7 +57229,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57252,7 +57255,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57278,7 +57281,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57304,7 +57307,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57330,7 +57333,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57356,7 +57359,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57382,7 +57385,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57408,7 +57411,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57434,7 +57437,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57460,7 +57463,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57486,7 +57489,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57512,7 +57515,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57538,7 +57541,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57564,7 +57567,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57590,7 +57593,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57616,7 +57619,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57642,7 +57645,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57668,7 +57671,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57694,7 +57697,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57720,7 +57723,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57746,7 +57749,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57772,7 +57775,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57798,7 +57801,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57824,7 +57827,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57850,7 +57853,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57876,7 +57879,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57902,7 +57905,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57928,7 +57931,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57954,7 +57957,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57980,7 +57983,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58006,7 +58009,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58032,7 +58035,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58058,7 +58061,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58084,7 +58087,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58110,7 +58113,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58136,7 +58139,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58162,7 +58165,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58188,7 +58191,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58214,7 +58217,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58240,7 +58243,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58266,7 +58269,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58292,7 +58295,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58318,7 +58321,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58344,7 +58347,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58370,7 +58373,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58396,7 +58399,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58422,7 +58425,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58448,7 +58451,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58474,7 +58477,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58500,7 +58503,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58526,7 +58529,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58552,7 +58555,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58578,7 +58581,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58604,7 +58607,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58630,7 +58633,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58656,7 +58659,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58682,7 +58685,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58708,7 +58711,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2153" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58734,7 +58737,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58760,7 +58763,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2155" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58786,7 +58789,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58812,7 +58815,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2157" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58838,7 +58841,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2158" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58864,7 +58867,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2159" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58890,7 +58893,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2160" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58916,7 +58919,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58942,7 +58945,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2162" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58950,7 +58953,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6494791667</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>4098</v>
@@ -58968,9 +58971,35 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6369907407</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>2770</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>793</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="797">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,112 +38,112 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338227748871</t>
+    <t xml:space="preserve">1.803382396698</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827845096588</t>
+    <t xml:space="preserve">1.79827868938446</t>
   </si>
   <si>
     <t xml:space="preserve">1.74383664131165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75404453277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73533010482788</t>
+    <t xml:space="preserve">1.75404477119446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73533022403717</t>
   </si>
   <si>
     <t xml:space="preserve">1.72682368755341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71661555767059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854427337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66047275066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175844192505</t>
+    <t xml:space="preserve">1.71661567687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854439258575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66047286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175856113434</t>
   </si>
   <si>
     <t xml:space="preserve">1.5311735868454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64090776443481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005696773529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410246372223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6502650976181</t>
+    <t xml:space="preserve">1.6409078836441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005708694458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410270214081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65026497840881</t>
   </si>
   <si>
     <t xml:space="preserve">1.63325190544128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773241519928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839467048645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58646595478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6128363609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58221292495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49714767932892</t>
+    <t xml:space="preserve">1.60773229598999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839443206787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58646619319916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283612251282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58221280574799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49714779853821</t>
   </si>
   <si>
     <t xml:space="preserve">1.55158936977386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50565409660339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608911037445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56434941291809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70130407810211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68429112434387</t>
+    <t xml:space="preserve">1.5056539773941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608922958374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56434905529022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70130395889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68429100513458</t>
   </si>
   <si>
     <t xml:space="preserve">1.70640814304352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69279778003693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68684303760529</t>
+    <t xml:space="preserve">1.69279754161835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.686842918396</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194686412811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939483165741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71831703186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65366768836975</t>
+    <t xml:space="preserve">1.6893949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71831715106964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65366756916046</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686238765717</t>
@@ -155,61 +155,61 @@
     <t xml:space="preserve">1.69024562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68173921108246</t>
+    <t xml:space="preserve">1.68173909187317</t>
   </si>
   <si>
     <t xml:space="preserve">1.65111565589905</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62049221992493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63750529289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63240134716034</t>
+    <t xml:space="preserve">1.62049210071564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63750517368317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63240122795105</t>
   </si>
   <si>
     <t xml:space="preserve">1.6153883934021</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60432970523834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5805116891861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986854553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177803039551</t>
+    <t xml:space="preserve">1.60432982444763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58051145076752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986866474152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177779197693</t>
   </si>
   <si>
     <t xml:space="preserve">1.60688185691833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59922587871552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59752476215363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54818654060364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53202438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53372573852539</t>
+    <t xml:space="preserve">1.59922575950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59752452373505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54818689823151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53202426433563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5337256193161</t>
   </si>
   <si>
     <t xml:space="preserve">1.57881021499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53542685508728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56094634532928</t>
+    <t xml:space="preserve">1.53542697429657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56094658374786</t>
   </si>
   <si>
     <t xml:space="preserve">1.53287506103516</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">1.52096593379974</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55329060554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54648554325104</t>
+    <t xml:space="preserve">1.55329048633575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.53968024253845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52862179279327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50395274162292</t>
+    <t xml:space="preserve">1.52862167358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50395286083221</t>
   </si>
   <si>
     <t xml:space="preserve">1.49703013896942</t>
@@ -248,16 +248,16 @@
     <t xml:space="preserve">1.47539675235748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46933937072754</t>
+    <t xml:space="preserve">1.46933925151825</t>
   </si>
   <si>
     <t xml:space="preserve">1.45376336574554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48405003547668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47972333431244</t>
+    <t xml:space="preserve">1.48405015468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47972345352173</t>
   </si>
   <si>
     <t xml:space="preserve">1.48664617538452</t>
@@ -266,40 +266,40 @@
     <t xml:space="preserve">1.49270355701447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52299010753632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837697505951</t>
+    <t xml:space="preserve">1.5229903459549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837661743164</t>
   </si>
   <si>
     <t xml:space="preserve">1.46674346923828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47366607189178</t>
+    <t xml:space="preserve">1.4736659526825</t>
   </si>
   <si>
     <t xml:space="preserve">1.50568342208862</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44511008262634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.451167345047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42001533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760880947113</t>
+    <t xml:space="preserve">1.44510984420776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45116746425629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42001521587372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760869026184</t>
   </si>
   <si>
     <t xml:space="preserve">1.45895540714264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5143369436264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47107005119324</t>
+    <t xml:space="preserve">1.51433670520782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47107017040253</t>
   </si>
   <si>
     <t xml:space="preserve">1.46501266956329</t>
@@ -308,46 +308,46 @@
     <t xml:space="preserve">1.52039420604706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49183809757233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52212488651276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47712743282318</t>
+    <t xml:space="preserve">1.49183797836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52212476730347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47712731361389</t>
   </si>
   <si>
     <t xml:space="preserve">1.50222218036652</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49616491794586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52991282939911</t>
+    <t xml:space="preserve">1.49616479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5299129486084</t>
   </si>
   <si>
     <t xml:space="preserve">1.50827944278717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5108757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51347136497498</t>
+    <t xml:space="preserve">1.51087558269501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51347124576569</t>
   </si>
   <si>
     <t xml:space="preserve">1.53077828884125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50308763980865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049138069153</t>
+    <t xml:space="preserve">1.50308740139008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049149990082</t>
   </si>
   <si>
     <t xml:space="preserve">1.50135672092438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53337419033051</t>
+    <t xml:space="preserve">1.53337395191193</t>
   </si>
   <si>
     <t xml:space="preserve">1.48318469524384</t>
@@ -356,61 +356,61 @@
     <t xml:space="preserve">1.51866340637207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51174080371857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54375815391541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55500769615173</t>
+    <t xml:space="preserve">1.51174092292786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54375827312469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55500757694244</t>
   </si>
   <si>
     <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54029679298401</t>
+    <t xml:space="preserve">1.54029667377472</t>
   </si>
   <si>
     <t xml:space="preserve">1.53250885009766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.555872797966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54462349414825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55760359764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443423748016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010729789734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231935501099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54548907279968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52558624744415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.526451587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55673813819885</t>
+    <t xml:space="preserve">1.55587291717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54462337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5576034784317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443411827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010741710663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231947422028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54548895359039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52558612823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52645170688629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55673825740814</t>
   </si>
   <si>
     <t xml:space="preserve">1.54116225242615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55327689647675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54202747344971</t>
+    <t xml:space="preserve">1.55327701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54202771186829</t>
   </si>
   <si>
     <t xml:space="preserve">1.51693284511566</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">1.54635417461395</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57404482364655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57837152481079</t>
+    <t xml:space="preserve">1.57404494285583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57837164402008</t>
   </si>
   <si>
     <t xml:space="preserve">1.57317960262299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56971836090088</t>
+    <t xml:space="preserve">1.56971824169159</t>
   </si>
   <si>
     <t xml:space="preserve">1.54981553554535</t>
@@ -443,22 +443,22 @@
     <t xml:space="preserve">1.55846881866455</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59135186672211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221696853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60000503063202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5662567615509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55414223670959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64413726329803</t>
+    <t xml:space="preserve">1.59135162830353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221708774567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60000491142273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56625699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55414235591888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64413714408875</t>
   </si>
   <si>
     <t xml:space="preserve">1.58096766471863</t>
@@ -467,19 +467,19 @@
     <t xml:space="preserve">1.60779297351837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664108276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57750630378723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59827435016632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59913969039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60087037086487</t>
+    <t xml:space="preserve">1.57664084434509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57750618457794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59827446937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59913980960846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60087049007416</t>
   </si>
   <si>
     <t xml:space="preserve">1.63461852073669</t>
@@ -488,49 +488,49 @@
     <t xml:space="preserve">1.60952365398407</t>
   </si>
   <si>
-    <t xml:space="preserve">1.617311835289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61817705631256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65192520618439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59654355049133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60519695281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61904227733612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6121199131012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65971314907074</t>
+    <t xml:space="preserve">1.61731171607971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61817717552185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6519250869751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59654366970062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60519707202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61904239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61211979389191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65971302986145</t>
   </si>
   <si>
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279042720795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67442381381989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67009711265564</t>
+    <t xml:space="preserve">1.65279030799866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6744236946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67009723186493</t>
   </si>
   <si>
     <t xml:space="preserve">1.66144382953644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6415411233902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63634920120239</t>
+    <t xml:space="preserve">1.64154100418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6363490819931</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625178813934</t>
@@ -542,22 +542,22 @@
     <t xml:space="preserve">1.66317462921143</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76701486110687</t>
+    <t xml:space="preserve">1.76701474189758</t>
   </si>
   <si>
     <t xml:space="preserve">1.82585752010345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81893479824066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682027339935</t>
+    <t xml:space="preserve">1.81893503665924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682039260864</t>
   </si>
   <si>
     <t xml:space="preserve">1.77739882469177</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79816663265228</t>
+    <t xml:space="preserve">1.79816675186157</t>
   </si>
   <si>
     <t xml:space="preserve">1.77393734455109</t>
@@ -566,46 +566,46 @@
     <t xml:space="preserve">1.75836157798767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79124402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75143849849701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72980535030365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7479772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7445160150528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75663065910339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758820056915</t>
+    <t xml:space="preserve">1.79124414920807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7514386177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72980523109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74797737598419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74451613426208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75663077831268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758808135986</t>
   </si>
   <si>
     <t xml:space="preserve">1.81201219558716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74105489253998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7427853345871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7185560464859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7393239736557</t>
+    <t xml:space="preserve">1.74105453491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278521537781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71855592727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73932421207428</t>
   </si>
   <si>
     <t xml:space="preserve">1.76528406143188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78432142734528</t>
+    <t xml:space="preserve">1.78432166576385</t>
   </si>
   <si>
     <t xml:space="preserve">1.80855083465576</t>
@@ -614,7 +614,7 @@
     <t xml:space="preserve">1.76182281970978</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76874530315399</t>
+    <t xml:space="preserve">1.7687451839447</t>
   </si>
   <si>
     <t xml:space="preserve">1.78259086608887</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">1.82412672042847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81720387935638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80335903167725</t>
+    <t xml:space="preserve">1.81720399856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80335891246796</t>
   </si>
   <si>
     <t xml:space="preserve">1.84316432476044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79297494888306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81547331809998</t>
+    <t xml:space="preserve">1.79297471046448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81547355651855</t>
   </si>
   <si>
     <t xml:space="preserve">1.78605198860168</t>
@@ -647,43 +647,43 @@
     <t xml:space="preserve">1.85354816913605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83451080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8777779340744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623651027679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92104458808899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90373766422272</t>
+    <t xml:space="preserve">1.83451092243195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87777745723724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623627185822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92104434967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90373778343201</t>
   </si>
   <si>
     <t xml:space="preserve">1.83797240257263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96253097057343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04503464698792</t>
+    <t xml:space="preserve">1.96253132820129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04503440856934</t>
   </si>
   <si>
     <t xml:space="preserve">2.41366744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42244482040405</t>
+    <t xml:space="preserve">2.42244458198547</t>
   </si>
   <si>
     <t xml:space="preserve">2.3083438873291</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24690508842468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648743629456</t>
+    <t xml:space="preserve">2.2469048500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648767471313</t>
   </si>
   <si>
     <t xml:space="preserve">2.39260292053223</t>
@@ -695,10 +695,10 @@
     <t xml:space="preserve">2.40489029884338</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31712102890015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26972484588623</t>
+    <t xml:space="preserve">2.31712079048157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26972508430481</t>
   </si>
   <si>
     <t xml:space="preserve">2.20653104782104</t>
@@ -719,19 +719,19 @@
     <t xml:space="preserve">2.12753820419312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06258869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08540868759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12402772903442</t>
+    <t xml:space="preserve">2.06258845329285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08540892601013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
     <t xml:space="preserve">2.10647344589233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13104891777039</t>
+    <t xml:space="preserve">2.13104867935181</t>
   </si>
   <si>
     <t xml:space="preserve">2.1152503490448</t>
@@ -740,10 +740,10 @@
     <t xml:space="preserve">2.10296273231506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03976798057556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05381178855896</t>
+    <t xml:space="preserve">2.03976845741272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
     <t xml:space="preserve">2.03625774383545</t>
@@ -752,52 +752,52 @@
     <t xml:space="preserve">2.03099131584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0345025062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00992679595947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763906002045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9835958480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98535144329071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00114989280701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01694869995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99588322639465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710656166077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0327467918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06785464286804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07663154602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04854536056519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061739444733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97481870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97130799293518</t>
+    <t xml:space="preserve">2.03450226783752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00992655754089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763894081116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98359608650208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98535120487213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00114965438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01694822311401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99588370323181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710668087006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03274655342102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0678551197052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07663178443909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04854559898376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061715602875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97481894493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97130823135376</t>
   </si>
   <si>
     <t xml:space="preserve">1.96604180335999</t>
@@ -806,37 +806,37 @@
     <t xml:space="preserve">1.99237275123596</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9993941783905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20301985740662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32414245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29078984260559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122172355652</t>
+    <t xml:space="preserve">1.99939453601837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2030200958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32414221763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122124671936</t>
   </si>
   <si>
     <t xml:space="preserve">2.34345173835754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48914933204651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48563838005066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43999862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37855982780457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207030296326</t>
+    <t xml:space="preserve">2.48914957046509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48563885688782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43999838829041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37855958938599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207054138184</t>
   </si>
   <si>
     <t xml:space="preserve">2.38558101654053</t>
@@ -845,13 +845,13 @@
     <t xml:space="preserve">2.35925030708313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49792623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48739433288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44175386428833</t>
+    <t xml:space="preserve">2.49792647361755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48739409446716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44175362586975</t>
   </si>
   <si>
     <t xml:space="preserve">2.46984004974365</t>
@@ -860,16 +860,16 @@
     <t xml:space="preserve">2.42946577072144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37504887580872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3908474445343</t>
+    <t xml:space="preserve">2.37504863739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084720611572</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3890917301178</t>
+    <t xml:space="preserve">2.38909196853638</t>
   </si>
   <si>
     <t xml:space="preserve">2.4189338684082</t>
@@ -878,22 +878,22 @@
     <t xml:space="preserve">2.43473219871521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41542315483093</t>
+    <t xml:space="preserve">2.41542267799377</t>
   </si>
   <si>
     <t xml:space="preserve">2.39611339569092</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41015696525574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43824338912964</t>
+    <t xml:space="preserve">2.41015672683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43824315071106</t>
   </si>
   <si>
     <t xml:space="preserve">2.44877552986145</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45579695701599</t>
+    <t xml:space="preserve">2.45579719543457</t>
   </si>
   <si>
     <t xml:space="preserve">2.33994078636169</t>
@@ -902,46 +902,46 @@
     <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15737986564636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22232961654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16966772079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16791248321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19248747825623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37329363822937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35749506950378</t>
+    <t xml:space="preserve">2.15738010406494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22232985496521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1696674823761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16791224479675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1924877166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733649253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222887992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37329316139221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627173423767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35749483108521</t>
   </si>
   <si>
     <t xml:space="preserve">2.28376841545105</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30658841133118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28201270103455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589769363403</t>
+    <t xml:space="preserve">2.3065881729126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2820131778717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589817047119</t>
   </si>
   <si>
     <t xml:space="preserve">2.31360983848572</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">2.29956674575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.25568222999573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33116412162781</t>
+    <t xml:space="preserve">2.25568199157715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33116364479065</t>
   </si>
   <si>
     <t xml:space="preserve">2.29254531860352</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">2.29781150817871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2732355594635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36100554466248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46632933616638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49266028404236</t>
+    <t xml:space="preserve">2.27323603630066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36100578308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46632957458496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49266004562378</t>
   </si>
   <si>
     <t xml:space="preserve">2.60676097869873</t>
@@ -986,40 +986,40 @@
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6594226360321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58042979240417</t>
+    <t xml:space="preserve">2.65942287445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58043003082275</t>
   </si>
   <si>
     <t xml:space="preserve">2.54532217979431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53654527664185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45755219459534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48388338088989</t>
+    <t xml:space="preserve">2.53654503822327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45755243301392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48388314247131</t>
   </si>
   <si>
     <t xml:space="preserve">2.36978268623352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52776837348938</t>
+    <t xml:space="preserve">2.5277681350708</t>
   </si>
   <si>
     <t xml:space="preserve">2.68575358390808</t>
   </si>
   <si>
-    <t xml:space="preserve">2.69453024864197</t>
+    <t xml:space="preserve">2.69453048706055</t>
   </si>
   <si>
     <t xml:space="preserve">2.72963833808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73841547966003</t>
+    <t xml:space="preserve">2.73841524124146</t>
   </si>
   <si>
     <t xml:space="preserve">2.51021409034729</t>
@@ -1028,79 +1028,79 @@
     <t xml:space="preserve">2.59798407554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6155378818512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63309192657471</t>
+    <t xml:space="preserve">2.61553812026978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63309168815613</t>
   </si>
   <si>
     <t xml:space="preserve">2.56287622451782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51899123191833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33467483520508</t>
+    <t xml:space="preserve">2.51899099349976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3346745967865</t>
   </si>
   <si>
     <t xml:space="preserve">2.21179699897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26327729225159</t>
+    <t xml:space="preserve">2.26327753067017</t>
   </si>
   <si>
     <t xml:space="preserve">2.18276572227478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.23644018173218</t>
+    <t xml:space="preserve">2.2364399433136</t>
   </si>
   <si>
     <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32589745521545</t>
+    <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
     <t xml:space="preserve">2.31695199012756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3348433971405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34378886222839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41535520553589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42430090904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37062644958496</t>
+    <t xml:space="preserve">2.33484315872192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34378910064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41535544395447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42430114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37062692642212</t>
   </si>
   <si>
     <t xml:space="preserve">2.37957215309143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39746379852295</t>
+    <t xml:space="preserve">2.39746403694153</t>
   </si>
   <si>
     <t xml:space="preserve">2.35273504257202</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28116869926453</t>
+    <t xml:space="preserve">2.28116893768311</t>
   </si>
   <si>
     <t xml:space="preserve">2.24538588523865</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27222275733948</t>
+    <t xml:space="preserve">2.27222299575806</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854853630066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20065712928772</t>
+    <t xml:space="preserve">2.2006573677063</t>
   </si>
   <si>
     <t xml:space="preserve">2.17382001876831</t>
@@ -1109,28 +1109,28 @@
     <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15592861175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.290114402771</t>
+    <t xml:space="preserve">2.15592813491821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29011464118958</t>
   </si>
   <si>
     <t xml:space="preserve">2.13803696632385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14698266983032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16487431526184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10225391387939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07541632652283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12014508247375</t>
+    <t xml:space="preserve">2.14698243141174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16487407684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10225367546082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07541656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12014532089233</t>
   </si>
   <si>
     <t xml:space="preserve">2.1290910243988</t>
@@ -1145,34 +1145,34 @@
     <t xml:space="preserve">2.03963327407837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02174186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08436226844788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11119961738586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09330797195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99490439891815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93228423595428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9501758813858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87860941886902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86966383457184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83388090133667</t>
+    <t xml:space="preserve">2.02174210548401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0843620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11119937896729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09330773353577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99490463733673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93228435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017576217651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87860953807831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86966395378113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83388078212738</t>
   </si>
   <si>
     <t xml:space="preserve">1.77126049995422</t>
@@ -1181,19 +1181,19 @@
     <t xml:space="preserve">1.74442338943481</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67733025550842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68180310726166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72653162479401</t>
+    <t xml:space="preserve">1.67733013629913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68180298805237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72653186321259</t>
   </si>
   <si>
     <t xml:space="preserve">1.73547756671906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76231479644775</t>
+    <t xml:space="preserve">1.76231467723846</t>
   </si>
   <si>
     <t xml:space="preserve">1.73995053768158</t>
@@ -1220,49 +1220,49 @@
     <t xml:space="preserve">1.66391146183014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68627595901489</t>
+    <t xml:space="preserve">1.6862758398056</t>
   </si>
   <si>
     <t xml:space="preserve">1.6996945142746</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73100459575653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70864033699036</t>
+    <t xml:space="preserve">1.73100447654724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70864021778107</t>
   </si>
   <si>
     <t xml:space="preserve">1.75336909294128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72205889225006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71758604049683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61918246746063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57445383071899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55656242370605</t>
+    <t xml:space="preserve">1.72205901145935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71758592128754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61918258666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57445394992828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55656230449677</t>
   </si>
   <si>
     <t xml:space="preserve">1.59234535694122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61023688316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70416748523712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71311330795288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78020632266998</t>
+    <t xml:space="preserve">1.61023676395416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70416724681854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7131130695343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78020644187927</t>
   </si>
   <si>
     <t xml:space="preserve">1.81598937511444</t>
@@ -1271,31 +1271,31 @@
     <t xml:space="preserve">1.80704355239868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84282660484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86071813106537</t>
+    <t xml:space="preserve">1.84282672405243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86071801185608</t>
   </si>
   <si>
     <t xml:space="preserve">1.82493507862091</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79809772968292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88755524158478</t>
+    <t xml:space="preserve">1.7980979681015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88755548000336</t>
   </si>
   <si>
     <t xml:space="preserve">1.85177230834961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89650106430054</t>
+    <t xml:space="preserve">1.89650130271912</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333841323853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96806704998016</t>
+    <t xml:space="preserve">1.96806728839874</t>
   </si>
   <si>
     <t xml:space="preserve">2.01279616355896</t>
@@ -1304,49 +1304,49 @@
     <t xml:space="preserve">2.00385022163391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04857921600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03068780899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97701287269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595857620239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439259052277</t>
+    <t xml:space="preserve">2.04857897758484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0306875705719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97701334953308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595869541168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439294815063</t>
   </si>
   <si>
     <t xml:space="preserve">1.90544712543488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94123005867004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67285716533661</t>
+    <t xml:space="preserve">1.94122993946075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
     <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66826140880585</t>
+    <t xml:space="preserve">1.66826152801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.6498783826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65907001495361</t>
+    <t xml:space="preserve">1.65906989574432</t>
   </si>
   <si>
     <t xml:space="preserve">1.68664455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70502758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6728572845459</t>
+    <t xml:space="preserve">1.70502769947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67285740375519</t>
   </si>
   <si>
     <t xml:space="preserve">1.69583606719971</t>
@@ -1358,7 +1358,7 @@
     <t xml:space="preserve">1.70962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71881473064423</t>
+    <t xml:space="preserve">1.71881484985352</t>
   </si>
   <si>
     <t xml:space="preserve">1.73719799518585</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">1.7326021194458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68204879760742</t>
+    <t xml:space="preserve">1.68204891681671</t>
   </si>
   <si>
     <t xml:space="preserve">1.65447413921356</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6636655330658</t>
+    <t xml:space="preserve">1.66366565227509</t>
   </si>
   <si>
     <t xml:space="preserve">1.63149547576904</t>
@@ -1391,10 +1391,10 @@
     <t xml:space="preserve">1.5901335477829</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64068675041199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60851669311523</t>
+    <t xml:space="preserve">1.64068686962128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60851657390594</t>
   </si>
   <si>
     <t xml:space="preserve">1.58553779125214</t>
@@ -1406,7 +1406,7 @@
     <t xml:space="preserve">1.61770808696747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6360912322998</t>
+    <t xml:space="preserve">1.63609111309052</t>
   </si>
   <si>
     <t xml:space="preserve">1.62230384349823</t>
@@ -1415,10 +1415,10 @@
     <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58094215393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71421909332275</t>
+    <t xml:space="preserve">1.58094203472137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71421921253204</t>
   </si>
   <si>
     <t xml:space="preserve">1.61311233043671</t>
@@ -1430,19 +1430,19 @@
     <t xml:space="preserve">1.57175052165985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55336761474609</t>
+    <t xml:space="preserve">1.55336737632751</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255900859833</t>
+    <t xml:space="preserve">1.56255888938904</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38332414627075</t>
+    <t xml:space="preserve">1.38332426548004</t>
   </si>
   <si>
     <t xml:space="preserve">1.3879200220108</t>
@@ -1454,16 +1454,16 @@
     <t xml:space="preserve">1.22706830501556</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3051962852478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221762180328</t>
+    <t xml:space="preserve">1.30519640445709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221750259399</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24085569381714</t>
+    <t xml:space="preserve">1.24085581302643</t>
   </si>
   <si>
     <t xml:space="preserve">1.31438779830933</t>
@@ -1472,19 +1472,19 @@
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655833244324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34196245670319</t>
+    <t xml:space="preserve">1.34655821323395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3419623374939</t>
   </si>
   <si>
     <t xml:space="preserve">1.41089880466461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630292892456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39711165428162</t>
+    <t xml:space="preserve">1.40630304813385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39711153507233</t>
   </si>
   <si>
     <t xml:space="preserve">1.40170729160309</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">1.49821829795837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48902678489685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47983515262604</t>
+    <t xml:space="preserve">1.48902690410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47983527183533</t>
   </si>
   <si>
     <t xml:space="preserve">1.46145224571228</t>
@@ -1511,22 +1511,22 @@
     <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43387746810913</t>
+    <t xml:space="preserve">1.43387758731842</t>
   </si>
   <si>
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685636997223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42468619346619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42928171157837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.37872838973999</t>
+    <t xml:space="preserve">1.45685660839081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4246860742569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42928183078766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.37872850894928</t>
   </si>
   <si>
     <t xml:space="preserve">1.39251577854156</t>
@@ -1538,22 +1538,22 @@
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413287162781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.35574960708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41549456119537</t>
+    <t xml:space="preserve">1.37413275241852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35574972629547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41549468040466</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36034548282623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31898367404938</t>
+    <t xml:space="preserve">1.36034560203552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31898355484009</t>
   </si>
   <si>
     <t xml:space="preserve">1.45226073265076</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">1.43847346305847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50281417369843</t>
+    <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
@@ -1571,10 +1571,10 @@
     <t xml:space="preserve">1.46604800224304</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3281751871109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30979204177856</t>
+    <t xml:space="preserve">1.32817530632019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30979192256927</t>
   </si>
   <si>
     <t xml:space="preserve">1.30060052871704</t>
@@ -1586,34 +1586,34 @@
     <t xml:space="preserve">1.51200556755066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4844309091568</t>
+    <t xml:space="preserve">1.48443102836609</t>
   </si>
   <si>
     <t xml:space="preserve">1.52579283714294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53958022594452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54877161979675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57634627819061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54417586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796325206757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.530388712883</t>
+    <t xml:space="preserve">1.53958010673523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54877173900604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5763463973999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54417598247528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796313285828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53038859367371</t>
   </si>
   <si>
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396404743195</t>
+    <t xml:space="preserve">1.77396380901337</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
@@ -1622,10 +1622,10 @@
     <t xml:space="preserve">1.79234719276428</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87507057189941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021976947784</t>
+    <t xml:space="preserve">1.8750706911087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021988868713</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
@@ -1634,64 +1634,64 @@
     <t xml:space="preserve">1.89345383644104</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8383047580719</t>
+    <t xml:space="preserve">1.83830463886261</t>
   </si>
   <si>
     <t xml:space="preserve">1.82911312580109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78775143623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451736927032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77855980396271</t>
+    <t xml:space="preserve">1.78775131702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451748847961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77855956554413</t>
   </si>
   <si>
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153870582581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84749615192413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76936817169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79694283008575</t>
+    <t xml:space="preserve">1.80153858661652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84749627113342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76936829090118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79694294929504</t>
   </si>
   <si>
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587929725647</t>
+    <t xml:space="preserve">1.86587917804718</t>
   </si>
   <si>
     <t xml:space="preserve">1.90264523029327</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92102825641632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85668766498566</t>
+    <t xml:space="preserve">1.92102837562561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85668778419495</t>
   </si>
   <si>
     <t xml:space="preserve">1.81073009967804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09566760063171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647584915161</t>
+    <t xml:space="preserve">2.09566736221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08647561073303</t>
   </si>
   <si>
     <t xml:space="preserve">2.02213501930237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98536896705627</t>
+    <t xml:space="preserve">1.98536920547485</t>
   </si>
   <si>
     <t xml:space="preserve">2.04051828384399</t>
@@ -1703,88 +1703,91 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405038833618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12324190139771</t>
+    <t xml:space="preserve">2.11405062675476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12324166297913</t>
   </si>
   <si>
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928592681885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.536860704422</t>
+    <t xml:space="preserve">2.50928568840027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63796734809875</t>
+    <t xml:space="preserve">2.63796710968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68392467498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73035979270935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69321203231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72107267379761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322883605957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86966347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99039387702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19470643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08326292037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825451850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93467235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85108947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92538547515869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96253323554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90681147575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86037683486938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80465507507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63749027252197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60962915420532</t>
   </si>
   <si>
     <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73035955429077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69321203231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72107291221619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322907447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86966347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81394195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99039363861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1947066783905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08326315879822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825451850891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93467235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85108971595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92538523674011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96253299713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90681147575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86037659645081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80465507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63749003410339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6096293926239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66535115242004</t>
+    <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
     <t xml:space="preserve">2.73964643478394</t>
@@ -1811,7 +1814,7 @@
     <t xml:space="preserve">2.59105563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64677715301514</t>
+    <t xml:space="preserve">2.64677691459656</t>
   </si>
   <si>
     <t xml:space="preserve">2.87895059585571</t>
@@ -1820,13 +1823,13 @@
     <t xml:space="preserve">2.91609835624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7953679561615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78608107566833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.83251571655273</t>
+    <t xml:space="preserve">2.79536819458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78608131408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.83251595497131</t>
   </si>
   <si>
     <t xml:space="preserve">2.8882372379303</t>
@@ -1847,22 +1850,22 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752411842346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61891651153564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55390787124634</t>
+    <t xml:space="preserve">2.89752459526062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61891627311707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55390763282776</t>
   </si>
   <si>
     <t xml:space="preserve">2.71178579330444</t>
   </si>
   <si>
-    <t xml:space="preserve">2.999680519104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.06468939781189</t>
+    <t xml:space="preserve">2.99968075752258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.06468915939331</t>
   </si>
   <si>
     <t xml:space="preserve">3.04611539840698</t>
@@ -1871,28 +1874,28 @@
     <t xml:space="preserve">3.10183691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11112403869629</t>
+    <t xml:space="preserve">3.11112380027771</t>
   </si>
   <si>
     <t xml:space="preserve">3.07397627830505</t>
   </si>
   <si>
-    <t xml:space="preserve">2.97181987762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0368287563324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.00896763801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395899772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8418025970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76750731468201</t>
+    <t xml:space="preserve">2.97182011604309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.03682851791382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00896787643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84180283546448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76750755310059</t>
   </si>
   <si>
     <t xml:space="preserve">2.30316042900085</t>
@@ -1901,13 +1904,13 @@
     <t xml:space="preserve">2.25672578811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34959530830383</t>
+    <t xml:space="preserve">2.34959506988525</t>
   </si>
   <si>
     <t xml:space="preserve">2.48889923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38674283027649</t>
+    <t xml:space="preserve">2.38674259185791</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
@@ -1916,7 +1919,7 @@
     <t xml:space="preserve">2.58176851272583</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56319499015808</t>
+    <t xml:space="preserve">2.5631947517395</t>
   </si>
   <si>
     <t xml:space="preserve">2.51675987243652</t>
@@ -1934,39 +1937,42 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35888195037842</t>
+    <t xml:space="preserve">2.358882188797</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602971076965</t>
+    <t xml:space="preserve">2.39602994918823</t>
   </si>
   <si>
     <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41460347175598</t>
+    <t xml:space="preserve">2.41460371017456</t>
   </si>
   <si>
     <t xml:space="preserve">2.28458666801453</t>
   </si>
   <si>
+    <t xml:space="preserve">2.27529954910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30374097824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28478002548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31322145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24685835838318</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.27529978752136</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30374097824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28478002548218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31322145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24685835838318</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.22789740562439</t>
   </si>
   <si>
@@ -2145,9 +2151,6 @@
   </si>
   <si>
     <t xml:space="preserve">2.24612903594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27529954910278</t>
   </si>
   <si>
     <t xml:space="preserve">2.17806458473206</t>
@@ -38873,7 +38876,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1390" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38899,7 +38902,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1391" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38925,7 +38928,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1392" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38951,7 +38954,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1393" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39029,7 +39032,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39055,7 +39058,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1397" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39159,7 +39162,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39185,7 +39188,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1402" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39211,7 +39214,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1403" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39237,7 +39240,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39263,7 +39266,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1405" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39289,7 +39292,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39315,7 +39318,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39341,7 +39344,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39367,7 +39370,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1409" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39393,7 +39396,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1410" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39419,7 +39422,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1411" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39445,7 +39448,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1412" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39471,7 +39474,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1413" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39497,7 +39500,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1414" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39523,7 +39526,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1415" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39549,7 +39552,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1416" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39575,7 +39578,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1417" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39627,7 +39630,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1419" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39653,7 +39656,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1420" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39731,7 +39734,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1423" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39809,7 +39812,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1426" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39887,7 +39890,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1429" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39913,7 +39916,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1430" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39965,7 +39968,7 @@
         <v>3</v>
       </c>
       <c r="G1432" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40043,7 +40046,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1435" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40069,7 +40072,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1436" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40147,7 +40150,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1439" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40355,7 +40358,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1447" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40381,7 +40384,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1448" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40407,7 +40410,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1449" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40433,7 +40436,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40459,7 +40462,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1451" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40485,7 +40488,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1452" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40511,7 +40514,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40563,7 +40566,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1455" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40589,7 +40592,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40693,7 +40696,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1460" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40719,7 +40722,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1461" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40745,7 +40748,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1462" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40771,7 +40774,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1463" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40797,7 +40800,7 @@
         <v>2.75</v>
       </c>
       <c r="G1464" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40823,7 +40826,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1465" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40849,7 +40852,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1466" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40875,7 +40878,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1467" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40901,7 +40904,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1468" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40927,7 +40930,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1469" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40953,7 +40956,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1470" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40979,7 +40982,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41057,7 +41060,7 @@
         <v>3</v>
       </c>
       <c r="G1474" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41109,7 +41112,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1476" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41161,7 +41164,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1478" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41213,7 +41216,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41239,7 +41242,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1481" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41265,7 +41268,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1482" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41291,7 +41294,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1483" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41317,7 +41320,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41343,7 +41346,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1485" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41369,7 +41372,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1486" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41395,7 +41398,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1487" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41421,7 +41424,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1488" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41499,7 +41502,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1491" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41525,7 +41528,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1492" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41551,7 +41554,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1493" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41577,7 +41580,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1494" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41603,7 +41606,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41629,7 +41632,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1496" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41655,7 +41658,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1497" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41707,7 +41710,7 @@
         <v>3</v>
       </c>
       <c r="G1499" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41733,7 +41736,7 @@
         <v>3</v>
       </c>
       <c r="G1500" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41785,7 +41788,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1502" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41811,7 +41814,7 @@
         <v>3</v>
       </c>
       <c r="G1503" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41837,7 +41840,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1504" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41915,7 +41918,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1507" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41941,7 +41944,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1508" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42149,7 +42152,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1516" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42201,7 +42204,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1518" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42227,7 +42230,7 @@
         <v>3</v>
       </c>
       <c r="G1519" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42305,7 +42308,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1522" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42409,7 +42412,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1526" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42461,7 +42464,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1528" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42487,7 +42490,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1529" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42513,7 +42516,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1530" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42565,7 +42568,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42591,7 +42594,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1533" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42617,7 +42620,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1534" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42669,7 +42672,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1536" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42695,7 +42698,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1537" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42799,7 +42802,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42851,7 +42854,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1543" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42877,7 +42880,7 @@
         <v>3</v>
       </c>
       <c r="G1544" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42955,7 +42958,7 @@
         <v>3</v>
       </c>
       <c r="G1547" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42981,7 +42984,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1548" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43007,7 +43010,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1549" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43033,7 +43036,7 @@
         <v>3</v>
       </c>
       <c r="G1550" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43059,7 +43062,7 @@
         <v>3</v>
       </c>
       <c r="G1551" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43085,7 +43088,7 @@
         <v>3</v>
       </c>
       <c r="G1552" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43111,7 +43114,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1553" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43137,7 +43140,7 @@
         <v>3</v>
       </c>
       <c r="G1554" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43215,7 +43218,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1557" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43293,7 +43296,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1560" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43319,7 +43322,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1561" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43371,7 +43374,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1563" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43397,7 +43400,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1564" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43423,7 +43426,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1565" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43449,7 +43452,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1566" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43527,7 +43530,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1569" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43553,7 +43556,7 @@
         <v>2.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43579,7 +43582,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43605,7 +43608,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43631,7 +43634,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1573" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43657,7 +43660,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1574" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43683,7 +43686,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1575" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43709,7 +43712,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1576" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43735,7 +43738,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1577" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43761,7 +43764,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1578" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43813,7 +43816,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1580" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43839,7 +43842,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1581" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43865,7 +43868,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1582" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43891,7 +43894,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43917,7 +43920,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1584" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43943,7 +43946,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1585" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43969,7 +43972,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1586" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43995,7 +43998,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44021,7 +44024,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44047,7 +44050,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1589" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44099,7 +44102,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1591" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44151,7 +44154,7 @@
         <v>2.75</v>
       </c>
       <c r="G1593" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44177,7 +44180,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1594" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44203,7 +44206,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1595" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44229,7 +44232,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1596" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44255,7 +44258,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44281,7 +44284,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1598" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44307,7 +44310,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44333,7 +44336,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1600" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44359,7 +44362,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1601" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44385,7 +44388,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1602" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44411,7 +44414,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1603" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44437,7 +44440,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1604" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44463,7 +44466,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1605" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44489,7 +44492,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44515,7 +44518,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44541,7 +44544,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1608" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44567,7 +44570,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44593,7 +44596,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1610" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44619,7 +44622,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1611" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44645,7 +44648,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44671,7 +44674,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1613" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44697,7 +44700,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44723,7 +44726,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44749,7 +44752,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1616" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44775,7 +44778,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1617" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44801,7 +44804,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1618" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44827,7 +44830,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44853,7 +44856,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44879,7 +44882,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44905,7 +44908,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1622" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44931,7 +44934,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44957,7 +44960,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1624" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44983,7 +44986,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45009,7 +45012,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1626" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45035,7 +45038,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1627" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45061,7 +45064,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45087,7 +45090,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1629" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45113,7 +45116,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45139,7 +45142,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45165,7 +45168,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1632" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45191,7 +45194,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45217,7 +45220,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1634" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45243,7 +45246,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45269,7 +45272,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45295,7 +45298,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45321,7 +45324,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45347,7 +45350,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45373,7 +45376,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45399,7 +45402,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45425,7 +45428,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45451,7 +45454,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45477,7 +45480,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45503,7 +45506,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45529,7 +45532,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45555,7 +45558,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45581,7 +45584,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45607,7 +45610,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45633,7 +45636,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45659,7 +45662,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45685,7 +45688,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45711,7 +45714,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45737,7 +45740,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45763,7 +45766,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45789,7 +45792,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45815,7 +45818,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45841,7 +45844,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45867,7 +45870,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45893,7 +45896,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45919,7 +45922,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45945,7 +45948,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45971,7 +45974,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45997,7 +46000,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46023,7 +46026,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46049,7 +46052,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46075,7 +46078,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46101,7 +46104,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46127,7 +46130,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46153,7 +46156,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46179,7 +46182,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46205,7 +46208,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46231,7 +46234,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46257,7 +46260,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46283,7 +46286,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46309,7 +46312,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46335,7 +46338,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46361,7 +46364,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46387,7 +46390,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46413,7 +46416,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46439,7 +46442,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46465,7 +46468,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46491,7 +46494,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46517,7 +46520,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46543,7 +46546,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46569,7 +46572,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46595,7 +46598,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46621,7 +46624,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46647,7 +46650,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46673,7 +46676,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46699,7 +46702,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46725,7 +46728,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46751,7 +46754,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46777,7 +46780,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46803,7 +46806,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46829,7 +46832,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46855,7 +46858,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46881,7 +46884,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46907,7 +46910,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46933,7 +46936,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46959,7 +46962,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46985,7 +46988,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47011,7 +47014,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47037,7 +47040,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47063,7 +47066,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47089,7 +47092,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47115,7 +47118,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47141,7 +47144,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47167,7 +47170,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47193,7 +47196,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47219,7 +47222,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47245,7 +47248,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47271,7 +47274,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47297,7 +47300,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47323,7 +47326,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47349,7 +47352,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47375,7 +47378,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47401,7 +47404,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47427,7 +47430,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47453,7 +47456,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47479,7 +47482,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47505,7 +47508,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47531,7 +47534,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47557,7 +47560,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47583,7 +47586,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47609,7 +47612,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47635,7 +47638,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47661,7 +47664,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47687,7 +47690,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47713,7 +47716,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47739,7 +47742,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47765,7 +47768,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47791,7 +47794,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47817,7 +47820,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47843,7 +47846,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47869,7 +47872,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47895,7 +47898,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47921,7 +47924,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47947,7 +47950,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47973,7 +47976,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47999,7 +48002,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48025,7 +48028,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48051,7 +48054,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48077,7 +48080,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48103,7 +48106,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48129,7 +48132,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48155,7 +48158,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48181,7 +48184,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48207,7 +48210,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48233,7 +48236,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48259,7 +48262,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48285,7 +48288,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48311,7 +48314,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48337,7 +48340,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48363,7 +48366,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48389,7 +48392,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48415,7 +48418,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48441,7 +48444,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48467,7 +48470,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48493,7 +48496,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48519,7 +48522,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48545,7 +48548,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48571,7 +48574,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48597,7 +48600,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48623,7 +48626,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48649,7 +48652,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48675,7 +48678,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48701,7 +48704,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48727,7 +48730,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48753,7 +48756,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48779,7 +48782,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48805,7 +48808,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48831,7 +48834,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48857,7 +48860,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48883,7 +48886,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48909,7 +48912,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48935,7 +48938,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48961,7 +48964,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48987,7 +48990,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49013,7 +49016,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49039,7 +49042,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49065,7 +49068,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49091,7 +49094,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49117,7 +49120,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49143,7 +49146,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49169,7 +49172,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49195,7 +49198,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49221,7 +49224,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49247,7 +49250,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49273,7 +49276,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49299,7 +49302,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49325,7 +49328,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49351,7 +49354,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49377,7 +49380,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49403,7 +49406,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49429,7 +49432,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49455,7 +49458,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49481,7 +49484,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49507,7 +49510,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49533,7 +49536,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49559,7 +49562,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49585,7 +49588,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49611,7 +49614,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49637,7 +49640,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49663,7 +49666,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1805" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49689,7 +49692,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49715,7 +49718,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49741,7 +49744,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49767,7 +49770,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49793,7 +49796,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49819,7 +49822,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49845,7 +49848,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49871,7 +49874,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49897,7 +49900,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1814" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49923,7 +49926,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49949,7 +49952,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49975,7 +49978,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50001,7 +50004,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50027,7 +50030,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50053,7 +50056,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50079,7 +50082,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50105,7 +50108,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1822" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50131,7 +50134,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50157,7 +50160,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50183,7 +50186,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50209,7 +50212,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50235,7 +50238,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50261,7 +50264,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50287,7 +50290,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50313,7 +50316,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50339,7 +50342,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50365,7 +50368,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50391,7 +50394,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50417,7 +50420,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50443,7 +50446,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50469,7 +50472,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50495,7 +50498,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50521,7 +50524,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50547,7 +50550,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50573,7 +50576,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50599,7 +50602,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50625,7 +50628,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50651,7 +50654,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1843" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50677,7 +50680,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50703,7 +50706,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50729,7 +50732,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1846" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50755,7 +50758,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1847" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50781,7 +50784,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50807,7 +50810,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50833,7 +50836,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50859,7 +50862,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50885,7 +50888,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50911,7 +50914,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50937,7 +50940,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50963,7 +50966,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50989,7 +50992,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51015,7 +51018,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51041,7 +51044,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51067,7 +51070,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1859" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51093,7 +51096,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51119,7 +51122,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1861" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51145,7 +51148,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1862" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51171,7 +51174,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1863" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51197,7 +51200,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51223,7 +51226,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1865" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51249,7 +51252,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51275,7 +51278,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51301,7 +51304,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1868" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51327,7 +51330,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51353,7 +51356,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51379,7 +51382,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51405,7 +51408,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51431,7 +51434,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51457,7 +51460,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51483,7 +51486,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51509,7 +51512,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51535,7 +51538,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51561,7 +51564,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51587,7 +51590,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51613,7 +51616,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51639,7 +51642,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51665,7 +51668,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51691,7 +51694,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1883" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51717,7 +51720,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1884" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51743,7 +51746,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1885" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51769,7 +51772,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51795,7 +51798,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1887" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51821,7 +51824,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51847,7 +51850,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51873,7 +51876,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51899,7 +51902,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51925,7 +51928,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51951,7 +51954,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51977,7 +51980,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52003,7 +52006,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52029,7 +52032,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52055,7 +52058,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52081,7 +52084,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52107,7 +52110,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52133,7 +52136,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52159,7 +52162,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52185,7 +52188,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52211,7 +52214,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52237,7 +52240,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52263,7 +52266,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52289,7 +52292,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52315,7 +52318,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52341,7 +52344,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52367,7 +52370,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52393,7 +52396,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52419,7 +52422,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52445,7 +52448,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52471,7 +52474,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52497,7 +52500,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52523,7 +52526,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52549,7 +52552,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52575,7 +52578,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52601,7 +52604,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52627,7 +52630,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52653,7 +52656,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52679,7 +52682,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52705,7 +52708,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52731,7 +52734,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52757,7 +52760,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52783,7 +52786,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52809,7 +52812,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52835,7 +52838,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52861,7 +52864,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52887,7 +52890,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52913,7 +52916,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52939,7 +52942,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52965,7 +52968,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52991,7 +52994,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53017,7 +53020,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53043,7 +53046,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53069,7 +53072,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53095,7 +53098,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53121,7 +53124,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53147,7 +53150,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53173,7 +53176,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53199,7 +53202,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53225,7 +53228,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1942" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53251,7 +53254,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53277,7 +53280,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53303,7 +53306,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53329,7 +53332,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53355,7 +53358,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53381,7 +53384,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53407,7 +53410,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53433,7 +53436,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53459,7 +53462,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53485,7 +53488,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53511,7 +53514,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1953" t="s">
-        <v>711</v>
+        <v>647</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53537,7 +53540,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53563,7 +53566,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53589,7 +53592,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53615,7 +53618,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53641,7 +53644,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53667,7 +53670,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53693,7 +53696,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53719,7 +53722,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53745,7 +53748,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53771,7 +53774,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53797,7 +53800,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53823,7 +53826,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53849,7 +53852,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53875,7 +53878,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53901,7 +53904,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53927,7 +53930,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53953,7 +53956,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53979,7 +53982,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54005,7 +54008,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54031,7 +54034,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54057,7 +54060,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54083,7 +54086,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54109,7 +54112,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54135,7 +54138,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54161,7 +54164,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54187,7 +54190,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54213,7 +54216,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54239,7 +54242,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54265,7 +54268,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54291,7 +54294,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54317,7 +54320,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54343,7 +54346,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54369,7 +54372,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54395,7 +54398,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54421,7 +54424,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54447,7 +54450,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54473,7 +54476,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54499,7 +54502,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54525,7 +54528,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54551,7 +54554,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54577,7 +54580,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54603,7 +54606,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54629,7 +54632,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54655,7 +54658,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54681,7 +54684,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54707,7 +54710,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54733,7 +54736,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54759,7 +54762,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54785,7 +54788,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54811,7 +54814,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54837,7 +54840,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54863,7 +54866,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54889,7 +54892,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54915,7 +54918,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54941,7 +54944,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54967,7 +54970,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54993,7 +54996,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55019,7 +55022,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55045,7 +55048,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55071,7 +55074,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55097,7 +55100,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55123,7 +55126,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55149,7 +55152,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55175,7 +55178,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55201,7 +55204,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55227,7 +55230,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55253,7 +55256,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55279,7 +55282,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55305,7 +55308,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55331,7 +55334,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55357,7 +55360,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55383,7 +55386,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55409,7 +55412,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55435,7 +55438,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55461,7 +55464,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55487,7 +55490,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55513,7 +55516,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55539,7 +55542,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55565,7 +55568,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55591,7 +55594,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55617,7 +55620,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55643,7 +55646,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55669,7 +55672,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55695,7 +55698,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55721,7 +55724,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55747,7 +55750,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55773,7 +55776,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55799,7 +55802,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55825,7 +55828,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55851,7 +55854,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55877,7 +55880,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55903,7 +55906,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55929,7 +55932,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55955,7 +55958,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55981,7 +55984,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56007,7 +56010,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56033,7 +56036,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56059,7 +56062,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56085,7 +56088,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56111,7 +56114,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56137,7 +56140,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56163,7 +56166,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56189,7 +56192,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56215,7 +56218,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56241,7 +56244,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56267,7 +56270,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56293,7 +56296,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56319,7 +56322,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56345,7 +56348,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56371,7 +56374,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56397,7 +56400,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56423,7 +56426,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56449,7 +56452,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56475,7 +56478,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56501,7 +56504,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56527,7 +56530,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56553,7 +56556,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56579,7 +56582,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56605,7 +56608,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56631,7 +56634,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56657,7 +56660,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56683,7 +56686,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56709,7 +56712,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56735,7 +56738,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56761,7 +56764,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56787,7 +56790,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56813,7 +56816,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56839,7 +56842,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56865,7 +56868,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56891,7 +56894,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56917,7 +56920,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56943,7 +56946,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56969,7 +56972,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56995,7 +56998,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57021,7 +57024,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57047,7 +57050,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57073,7 +57076,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57099,7 +57102,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57125,7 +57128,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57151,7 +57154,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57177,7 +57180,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57203,7 +57206,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57229,7 +57232,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57255,7 +57258,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57281,7 +57284,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57307,7 +57310,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57333,7 +57336,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57359,7 +57362,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57385,7 +57388,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57411,7 +57414,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57437,7 +57440,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57463,7 +57466,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57489,7 +57492,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57515,7 +57518,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57541,7 +57544,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57567,7 +57570,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57593,7 +57596,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57619,7 +57622,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57645,7 +57648,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57671,7 +57674,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57697,7 +57700,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57723,7 +57726,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57749,7 +57752,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57775,7 +57778,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57801,7 +57804,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57827,7 +57830,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57853,7 +57856,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57879,7 +57882,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57905,7 +57908,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57931,7 +57934,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57957,7 +57960,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57983,7 +57986,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58009,7 +58012,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58035,7 +58038,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58061,7 +58064,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58087,7 +58090,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58113,7 +58116,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58139,7 +58142,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58165,7 +58168,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58191,7 +58194,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58217,7 +58220,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58243,7 +58246,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58269,7 +58272,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58295,7 +58298,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58321,7 +58324,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58347,7 +58350,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58373,7 +58376,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58399,7 +58402,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58425,7 +58428,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58451,7 +58454,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58477,7 +58480,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58503,7 +58506,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58529,7 +58532,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58555,7 +58558,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58581,7 +58584,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58607,7 +58610,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58633,7 +58636,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58659,7 +58662,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58685,7 +58688,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58711,7 +58714,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2153" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58737,7 +58740,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58763,7 +58766,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2155" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58789,7 +58792,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58815,7 +58818,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2157" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58841,7 +58844,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2158" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58867,7 +58870,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2159" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58893,7 +58896,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2160" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58919,7 +58922,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58945,7 +58948,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2162" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58971,7 +58974,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58997,7 +59000,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2164" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59023,7 +59026,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2165" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59049,7 +59052,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2166" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59075,7 +59078,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2167" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59083,7 +59086,7 @@
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n">
-        <v>45481.6495138889</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B2168" t="n">
         <v>8785</v>
@@ -59092,7 +59095,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="D2168" t="n">
-        <v>2.0699999332428</v>
+        <v>2.05999994277954</v>
       </c>
       <c r="E2168" t="n">
         <v>2.0699999332428</v>
@@ -59101,9 +59104,35 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2168" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2168" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" s="1" t="n">
+        <v>45482.6162268519</v>
+      </c>
+      <c r="B2169" t="n">
+        <v>201</v>
+      </c>
+      <c r="C2169" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="D2169" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F2169" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>796</v>
+      </c>
+      <c r="H2169" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="795">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.803382396698</t>
+    <t xml:space="preserve">1.80338227748871</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827868938446</t>
+    <t xml:space="preserve">1.79827857017517</t>
   </si>
   <si>
     <t xml:space="preserve">1.74383664131165</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75404477119446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73533022403717</t>
+    <t xml:space="preserve">1.75404441356659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73533010482788</t>
   </si>
   <si>
     <t xml:space="preserve">1.72682368755341</t>
@@ -62,13 +62,13 @@
     <t xml:space="preserve">1.71661567687988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68854439258575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66047286987305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175856113434</t>
+    <t xml:space="preserve">1.68854427337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66047275066376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175844192505</t>
   </si>
   <si>
     <t xml:space="preserve">1.5311735868454</t>
@@ -77,88 +77,88 @@
     <t xml:space="preserve">1.6409078836441</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64005708694458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63410270214081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65026497840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325190544128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60773229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839443206787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58646619319916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61283612251282</t>
+    <t xml:space="preserve">1.64005720615387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63410258293152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6502650976181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325178623199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60773253440857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839455127716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58646607398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6128363609314</t>
   </si>
   <si>
     <t xml:space="preserve">1.58221280574799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49714779853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55158936977386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5056539773941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56434905529022</t>
+    <t xml:space="preserve">1.49714756011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55158948898315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50565409660339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608911037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56434917449951</t>
   </si>
   <si>
     <t xml:space="preserve">1.70130395889282</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68429100513458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70640814304352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69279754161835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.686842918396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69194686412811</t>
+    <t xml:space="preserve">1.68429112434387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70640802383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69279766082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68684303760529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69194674491882</t>
   </si>
   <si>
     <t xml:space="preserve">1.6893949508667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71831715106964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65366756916046</t>
+    <t xml:space="preserve">1.71831703186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65366744995117</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686238765717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61623895168304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69024562835693</t>
+    <t xml:space="preserve">1.61623883247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69024550914764</t>
   </si>
   <si>
     <t xml:space="preserve">1.68173909187317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65111565589905</t>
+    <t xml:space="preserve">1.65111577510834</t>
   </si>
   <si>
     <t xml:space="preserve">1.62049210071564</t>
@@ -170,13 +170,13 @@
     <t xml:space="preserve">1.63240122795105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6153883934021</t>
+    <t xml:space="preserve">1.61538827419281</t>
   </si>
   <si>
     <t xml:space="preserve">1.60432982444763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58051145076752</t>
+    <t xml:space="preserve">1.58051156997681</t>
   </si>
   <si>
     <t xml:space="preserve">1.58986866474152</t>
@@ -188,58 +188,58 @@
     <t xml:space="preserve">1.60688185691833</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59922575950623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59752452373505</t>
+    <t xml:space="preserve">1.59922587871552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59752440452576</t>
   </si>
   <si>
     <t xml:space="preserve">1.54818689823151</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53202426433563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5337256193161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57881021499634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53542697429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56094658374786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53287506103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52096593379974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55329048633575</t>
+    <t xml:space="preserve">1.53202450275421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53372573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57881009578705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53542685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56094646453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53287494182587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52096569538116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55329072475433</t>
   </si>
   <si>
     <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53968024253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52862167358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50395286083221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49703013896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654888153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626209259033</t>
+    <t xml:space="preserve">1.53968036174774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52862179279327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50395274162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49703025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654864311218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626221179962</t>
   </si>
   <si>
     <t xml:space="preserve">1.47885823249817</t>
@@ -251,169 +251,169 @@
     <t xml:space="preserve">1.46933925151825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45376336574554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405015468597</t>
+    <t xml:space="preserve">1.45376324653625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405003547668</t>
   </si>
   <si>
     <t xml:space="preserve">1.47972345352173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48664617538452</t>
+    <t xml:space="preserve">1.48664605617523</t>
   </si>
   <si>
     <t xml:space="preserve">1.49270355701447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5229903459549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837661743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46674346923828</t>
+    <t xml:space="preserve">1.52299022674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837673664093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46674335002899</t>
   </si>
   <si>
     <t xml:space="preserve">1.4736659526825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50568342208862</t>
+    <t xml:space="preserve">1.50568354129791</t>
   </si>
   <si>
     <t xml:space="preserve">1.44510984420776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45116746425629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42001521587372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760869026184</t>
+    <t xml:space="preserve">1.451167345047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760892868042</t>
   </si>
   <si>
     <t xml:space="preserve">1.45895540714264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51433670520782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47107017040253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46501266956329</t>
+    <t xml:space="preserve">1.5143369436264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47107005119324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.465012550354</t>
   </si>
   <si>
     <t xml:space="preserve">1.52039420604706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49183797836304</t>
+    <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
     <t xml:space="preserve">1.52212476730347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47712731361389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50222218036652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5299129486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827944278717</t>
+    <t xml:space="preserve">1.47712743282318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50222206115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616491794586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991282939911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827968120575</t>
   </si>
   <si>
     <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51347124576569</t>
+    <t xml:space="preserve">1.51347160339355</t>
   </si>
   <si>
     <t xml:space="preserve">1.53077828884125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50308740139008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049149990082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135672092438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53337395191193</t>
+    <t xml:space="preserve">1.50308728218079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049138069153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135684013367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53337419033051</t>
   </si>
   <si>
     <t xml:space="preserve">1.48318469524384</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51866340637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51174092292786</t>
+    <t xml:space="preserve">1.51866352558136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51174080371857</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375827312469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55500757694244</t>
+    <t xml:space="preserve">1.55500769615173</t>
   </si>
   <si>
     <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54029667377472</t>
+    <t xml:space="preserve">1.5402969121933</t>
   </si>
   <si>
     <t xml:space="preserve">1.53250885009766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55587291717529</t>
+    <t xml:space="preserve">1.555872797966</t>
   </si>
   <si>
     <t xml:space="preserve">1.54462337493896</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5576034784317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443411827087</t>
+    <t xml:space="preserve">1.55760359764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443399906158</t>
   </si>
   <si>
     <t xml:space="preserve">1.49010741710663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48231947422028</t>
+    <t xml:space="preserve">1.48231935501099</t>
   </si>
   <si>
     <t xml:space="preserve">1.54548895359039</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52558612823486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52645170688629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55673825740814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54116225242615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55327701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54202771186829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693284511566</t>
+    <t xml:space="preserve">1.52558624744415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52645146846771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55673837661743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54116213321686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55327665805817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54202747344971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693308353424</t>
   </si>
   <si>
     <t xml:space="preserve">1.5385662317276</t>
@@ -440,7 +440,7 @@
     <t xml:space="preserve">1.54981553554535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55846881866455</t>
+    <t xml:space="preserve">1.55846893787384</t>
   </si>
   <si>
     <t xml:space="preserve">1.59135162830353</t>
@@ -449,7 +449,7 @@
     <t xml:space="preserve">1.59221708774567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60000491142273</t>
+    <t xml:space="preserve">1.60000503063202</t>
   </si>
   <si>
     <t xml:space="preserve">1.56625699996948</t>
@@ -467,61 +467,61 @@
     <t xml:space="preserve">1.60779297351837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57664084434509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57750618457794</t>
+    <t xml:space="preserve">1.57664108276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
     <t xml:space="preserve">1.59827446937561</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59913980960846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60087049007416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461852073669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60952365398407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61731171607971</t>
+    <t xml:space="preserve">1.59913969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60087037086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461863994598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60952377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.617311835289</t>
   </si>
   <si>
     <t xml:space="preserve">1.61817717552185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6519250869751</t>
+    <t xml:space="preserve">1.65192520618439</t>
   </si>
   <si>
     <t xml:space="preserve">1.59654366970062</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60519707202911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61904239654541</t>
+    <t xml:space="preserve">1.60519695281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6190425157547</t>
   </si>
   <si>
     <t xml:space="preserve">1.61211979389191</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65971302986145</t>
+    <t xml:space="preserve">1.65971314907074</t>
   </si>
   <si>
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279030799866</t>
+    <t xml:space="preserve">1.65279054641724</t>
   </si>
   <si>
     <t xml:space="preserve">1.6744236946106</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67009723186493</t>
+    <t xml:space="preserve">1.67009711265564</t>
   </si>
   <si>
     <t xml:space="preserve">1.66144382953644</t>
@@ -533,31 +533,31 @@
     <t xml:space="preserve">1.6363490819931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65625178813934</t>
+    <t xml:space="preserve">1.65625190734863</t>
   </si>
   <si>
     <t xml:space="preserve">1.68048119544983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317462921143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76701474189758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82585752010345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81893503665924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682039260864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77739882469177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79816675186157</t>
+    <t xml:space="preserve">1.66317451000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76701486110687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82585728168488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81893479824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682027339935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77739870548248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79816687107086</t>
   </si>
   <si>
     <t xml:space="preserve">1.77393734455109</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">1.75836157798767</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79124414920807</t>
+    <t xml:space="preserve">1.79124402999878</t>
   </si>
   <si>
     <t xml:space="preserve">1.7514386177063</t>
@@ -578,19 +578,19 @@
     <t xml:space="preserve">1.74797737598419</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74451613426208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75663077831268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758808135986</t>
+    <t xml:space="preserve">1.7445160150528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75663065910339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758831977844</t>
   </si>
   <si>
     <t xml:space="preserve">1.81201219558716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74105453491211</t>
+    <t xml:space="preserve">1.7410546541214</t>
   </si>
   <si>
     <t xml:space="preserve">1.74278521537781</t>
@@ -599,31 +599,31 @@
     <t xml:space="preserve">1.71855592727661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73932421207428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76528406143188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78432166576385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80855083465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76182281970978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7687451839447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78259086608887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79989731311798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82412672042847</t>
+    <t xml:space="preserve">1.73932409286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7652839422226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78432154655457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80855059623718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76182270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76874530315399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78259074687958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79989743232727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82412695884705</t>
   </si>
   <si>
     <t xml:space="preserve">1.81720399856567</t>
@@ -635,7 +635,7 @@
     <t xml:space="preserve">1.84316432476044</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79297471046448</t>
+    <t xml:space="preserve">1.79297494888306</t>
   </si>
   <si>
     <t xml:space="preserve">1.81547355651855</t>
@@ -644,43 +644,43 @@
     <t xml:space="preserve">1.78605198860168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354816913605</t>
+    <t xml:space="preserve">1.85354828834534</t>
   </si>
   <si>
     <t xml:space="preserve">1.83451092243195</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87777745723724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623627185822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92104434967041</t>
+    <t xml:space="preserve">1.87777769565582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623662948608</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92104458808899</t>
   </si>
   <si>
     <t xml:space="preserve">1.90373778343201</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83797240257263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96253132820129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04503440856934</t>
+    <t xml:space="preserve">1.83797228336334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96253097057343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04503417015076</t>
   </si>
   <si>
     <t xml:space="preserve">2.41366744041443</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42244458198547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3083438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2469048500061</t>
+    <t xml:space="preserve">2.42244482040405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30834412574768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24690508842468</t>
   </si>
   <si>
     <t xml:space="preserve">2.43648767471313</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">2.4171781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40489029884338</t>
+    <t xml:space="preserve">2.40489053726196</t>
   </si>
   <si>
     <t xml:space="preserve">2.31712079048157</t>
@@ -701,109 +701,109 @@
     <t xml:space="preserve">2.26972508430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20653104782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13280463218689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08014249801636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01870369911194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07136535644531</t>
+    <t xml:space="preserve">2.20653080940247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13280439376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08014225959778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01870346069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07136559486389</t>
   </si>
   <si>
     <t xml:space="preserve">2.12753820419312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06258845329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08540892601013</t>
+    <t xml:space="preserve">2.06258821487427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08540868759155</t>
   </si>
   <si>
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647344589233</t>
+    <t xml:space="preserve">2.10647368431091</t>
   </si>
   <si>
     <t xml:space="preserve">2.13104867935181</t>
   </si>
   <si>
-    <t xml:space="preserve">2.1152503490448</t>
+    <t xml:space="preserve">2.11525082588196</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296273231506</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03976845741272</t>
+    <t xml:space="preserve">2.03976821899414</t>
   </si>
   <si>
     <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03625774383545</t>
+    <t xml:space="preserve">2.03625750541687</t>
   </si>
   <si>
     <t xml:space="preserve">2.03099131584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03450226783752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00992655754089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763894081116</t>
+    <t xml:space="preserve">2.03450274467468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00992679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763882160187</t>
   </si>
   <si>
     <t xml:space="preserve">1.98359608650208</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98535120487213</t>
+    <t xml:space="preserve">1.98535144329071</t>
   </si>
   <si>
     <t xml:space="preserve">2.00114965438843</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01694822311401</t>
+    <t xml:space="preserve">2.01694846153259</t>
   </si>
   <si>
     <t xml:space="preserve">1.99588370323181</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98710668087006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03274655342102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0678551197052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07663178443909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04854559898376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061715602875</t>
+    <t xml:space="preserve">1.98710656166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03274703025818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06785488128662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07663154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04854536056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061763286591</t>
   </si>
   <si>
     <t xml:space="preserve">1.97481894493103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97130823135376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96604180335999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99237275123596</t>
+    <t xml:space="preserve">1.97130811214447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96604192256927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99237298965454</t>
   </si>
   <si>
     <t xml:space="preserve">1.99939453601837</t>
@@ -815,31 +815,31 @@
     <t xml:space="preserve">2.32414221763611</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29078960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122124671936</t>
+    <t xml:space="preserve">2.29078984260559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122148513794</t>
   </si>
   <si>
     <t xml:space="preserve">2.34345173835754</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48914957046509</t>
+    <t xml:space="preserve">2.48914933204651</t>
   </si>
   <si>
     <t xml:space="preserve">2.48563885688782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43999838829041</t>
+    <t xml:space="preserve">2.43999862670898</t>
   </si>
   <si>
     <t xml:space="preserve">2.37855958938599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38558101654053</t>
+    <t xml:space="preserve">2.38207030296326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38558125495911</t>
   </si>
   <si>
     <t xml:space="preserve">2.35925030708313</t>
@@ -848,22 +848,22 @@
     <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48739409446716</t>
+    <t xml:space="preserve">2.48739385604858</t>
   </si>
   <si>
     <t xml:space="preserve">2.44175362586975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46984004974365</t>
+    <t xml:space="preserve">2.46983981132507</t>
   </si>
   <si>
     <t xml:space="preserve">2.42946577072144</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37504863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084720611572</t>
+    <t xml:space="preserve">2.37504911422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084768295288</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
@@ -872,16 +872,16 @@
     <t xml:space="preserve">2.38909196853638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4189338684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43473219871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41542267799377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39611339569092</t>
+    <t xml:space="preserve">2.41893339157104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43473243713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41542315483093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3961136341095</t>
   </si>
   <si>
     <t xml:space="preserve">2.41015672683716</t>
@@ -890,10 +890,10 @@
     <t xml:space="preserve">2.43824315071106</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44877552986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45579719543457</t>
+    <t xml:space="preserve">2.44877529144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45579695701599</t>
   </si>
   <si>
     <t xml:space="preserve">2.33994078636169</t>
@@ -902,10 +902,10 @@
     <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15738010406494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22232985496521</t>
+    <t xml:space="preserve">2.15737962722778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22232961654663</t>
   </si>
   <si>
     <t xml:space="preserve">2.1696674823761</t>
@@ -917,82 +917,82 @@
     <t xml:space="preserve">2.1924877166748</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38733649253845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222887992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37329316139221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627173423767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35749483108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28376841545105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3065881729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2820131778717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32589817047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31360983848572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25568199157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33116364479065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29254531860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3013219833374</t>
+    <t xml:space="preserve">2.38733625411987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37329363822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35749506950378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28376817703247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30658841133118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28201270103455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32589769363403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3136100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956650733948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25568222999573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33116388320923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29254508018494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30132222175598</t>
   </si>
   <si>
     <t xml:space="preserve">2.29781150817871</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27323603630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46632957458496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49266004562378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60676097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65064573287964</t>
+    <t xml:space="preserve">2.27323627471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36100554466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46632933616638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49266028404236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60676074028015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.65064549446106</t>
   </si>
   <si>
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65942287445068</t>
+    <t xml:space="preserve">2.6594226360321</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043003082275</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54532217979431</t>
+    <t xml:space="preserve">2.54532194137573</t>
   </si>
   <si>
     <t xml:space="preserve">2.53654503822327</t>
@@ -1004,37 +1004,37 @@
     <t xml:space="preserve">2.48388314247131</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36978268623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5277681350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68575358390808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69453048706055</t>
+    <t xml:space="preserve">2.36978220939636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52776837348938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6857533454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69453024864197</t>
   </si>
   <si>
     <t xml:space="preserve">2.72963833808899</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73841524124146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51021409034729</t>
+    <t xml:space="preserve">2.73841547966003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51021432876587</t>
   </si>
   <si>
     <t xml:space="preserve">2.59798407554626</t>
   </si>
   <si>
-    <t xml:space="preserve">2.61553812026978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63309168815613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.56287622451782</t>
+    <t xml:space="preserve">2.6155378818512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63309192657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.56287598609924</t>
   </si>
   <si>
     <t xml:space="preserve">2.51899099349976</t>
@@ -1046,19 +1046,19 @@
     <t xml:space="preserve">2.21179699897766</t>
   </si>
   <si>
-    <t xml:space="preserve">2.26327753067017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18276572227478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2364399433136</t>
+    <t xml:space="preserve">2.26327729225159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1827654838562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23644018173218</t>
   </si>
   <si>
     <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32589793205261</t>
+    <t xml:space="preserve">2.32589745521545</t>
   </si>
   <si>
     <t xml:space="preserve">2.31695199012756</t>
@@ -1070,37 +1070,37 @@
     <t xml:space="preserve">2.34378910064697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41535544395447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42430114746094</t>
+    <t xml:space="preserve">2.41535520553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42430090904236</t>
   </si>
   <si>
     <t xml:space="preserve">2.37062692642212</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37957215309143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746403694153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35273504257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28116893768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24538588523865</t>
+    <t xml:space="preserve">2.37957239151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3527352809906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28116917610168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24538564682007</t>
   </si>
   <si>
     <t xml:space="preserve">2.27222299575806</t>
   </si>
   <si>
-    <t xml:space="preserve">2.21854853630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2006573677063</t>
+    <t xml:space="preserve">2.21854877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20065712928772</t>
   </si>
   <si>
     <t xml:space="preserve">2.17382001876831</t>
@@ -1118,7 +1118,7 @@
     <t xml:space="preserve">2.13803696632385</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14698243141174</t>
+    <t xml:space="preserve">2.1469829082489</t>
   </si>
   <si>
     <t xml:space="preserve">2.16487407684326</t>
@@ -1127,13 +1127,13 @@
     <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12014532089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1290910243988</t>
+    <t xml:space="preserve">2.07541608810425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12014508247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12909126281738</t>
   </si>
   <si>
     <t xml:space="preserve">2.05752491950989</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">2.03963327407837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02174210548401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0843620300293</t>
+    <t xml:space="preserve">2.02174186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08436226844788</t>
   </si>
   <si>
     <t xml:space="preserve">2.11119937896729</t>
@@ -1160,19 +1160,19 @@
     <t xml:space="preserve">1.99490463733673</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93228435516357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017576217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87860953807831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86966395378113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83388078212738</t>
+    <t xml:space="preserve">1.93228423595428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9501758813858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8786096572876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86966383457184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83388090133667</t>
   </si>
   <si>
     <t xml:space="preserve">1.77126049995422</t>
@@ -1187,31 +1187,31 @@
     <t xml:space="preserve">1.68180298805237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72653186321259</t>
+    <t xml:space="preserve">1.7265317440033</t>
   </si>
   <si>
     <t xml:space="preserve">1.73547756671906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76231467723846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73995053768158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76678776741028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74889624118805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69522166252136</t>
+    <t xml:space="preserve">1.76231491565704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73995041847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76678764820099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74889612197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69522154331207</t>
   </si>
   <si>
     <t xml:space="preserve">1.64601993560791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65496563911438</t>
+    <t xml:space="preserve">1.65496575832367</t>
   </si>
   <si>
     <t xml:space="preserve">1.66838443279266</t>
@@ -1223,73 +1223,73 @@
     <t xml:space="preserve">1.6862758398056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6996945142746</t>
+    <t xml:space="preserve">1.69969439506531</t>
   </si>
   <si>
     <t xml:space="preserve">1.73100447654724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70864021778107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75336909294128</t>
+    <t xml:space="preserve">1.70864033699036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75336921215057</t>
   </si>
   <si>
     <t xml:space="preserve">1.72205901145935</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71758592128754</t>
+    <t xml:space="preserve">1.71758604049683</t>
   </si>
   <si>
     <t xml:space="preserve">1.61918258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57445394992828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55656230449677</t>
+    <t xml:space="preserve">1.57445383071899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55656242370605</t>
   </si>
   <si>
     <t xml:space="preserve">1.59234535694122</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61023676395416</t>
+    <t xml:space="preserve">1.61023688316345</t>
   </si>
   <si>
     <t xml:space="preserve">1.70416724681854</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7131130695343</t>
+    <t xml:space="preserve">1.71311318874359</t>
   </si>
   <si>
     <t xml:space="preserve">1.78020644187927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81598937511444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80704355239868</t>
+    <t xml:space="preserve">1.81598925590515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80704343318939</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86071801185608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82493507862091</t>
+    <t xml:space="preserve">1.86071825027466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8249351978302</t>
   </si>
   <si>
     <t xml:space="preserve">1.7980979681015</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755548000336</t>
+    <t xml:space="preserve">1.88755536079407</t>
   </si>
   <si>
     <t xml:space="preserve">1.85177230834961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89650130271912</t>
+    <t xml:space="preserve">1.89650118350983</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333841323853</t>
@@ -1304,55 +1304,55 @@
     <t xml:space="preserve">2.00385022163391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04857897758484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0306875705719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97701334953308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595869541168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439294815063</t>
+    <t xml:space="preserve">2.04857921600342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03068780899048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9770131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595893383026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439270973206</t>
   </si>
   <si>
     <t xml:space="preserve">1.90544712543488</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94122993946075</t>
+    <t xml:space="preserve">1.94123005867004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67285716533661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70043182373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66826152801514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64987850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65906989574432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68664455413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70502758026123</t>
   </si>
   <si>
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70043182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66826152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6498783826828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65906989574432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68664455413818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70502769947052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67285740375519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69124019145966</t>
+    <t xml:space="preserve">1.695836186409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69124042987823</t>
   </si>
   <si>
     <t xml:space="preserve">1.70962333679199</t>
@@ -1367,7 +1367,7 @@
     <t xml:space="preserve">1.7326021194458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68204891681671</t>
+    <t xml:space="preserve">1.68204879760742</t>
   </si>
   <si>
     <t xml:space="preserve">1.65447413921356</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">1.62689960002899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59932506084442</t>
+    <t xml:space="preserve">1.59932518005371</t>
   </si>
   <si>
     <t xml:space="preserve">1.5901335477829</t>
@@ -1400,10 +1400,10 @@
     <t xml:space="preserve">1.58553779125214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60392081737518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61770808696747</t>
+    <t xml:space="preserve">1.60392093658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61770796775818</t>
   </si>
   <si>
     <t xml:space="preserve">1.63609111309052</t>
@@ -1412,7 +1412,7 @@
     <t xml:space="preserve">1.62230384349823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64528262615204</t>
+    <t xml:space="preserve">1.64528274536133</t>
   </si>
   <si>
     <t xml:space="preserve">1.58094203472137</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">1.71421921253204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61311233043671</t>
+    <t xml:space="preserve">1.61311221122742</t>
   </si>
   <si>
     <t xml:space="preserve">1.59472930431366</t>
@@ -1430,13 +1430,13 @@
     <t xml:space="preserve">1.57175052165985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55336737632751</t>
+    <t xml:space="preserve">1.5533674955368</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255888938904</t>
+    <t xml:space="preserve">1.56255900859833</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
@@ -1448,7 +1448,7 @@
     <t xml:space="preserve">1.3879200220108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36494123935699</t>
+    <t xml:space="preserve">1.36494112014771</t>
   </si>
   <si>
     <t xml:space="preserve">1.22706830501556</t>
@@ -1463,19 +1463,19 @@
     <t xml:space="preserve">1.33736670017242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24085581302643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31438779830933</t>
+    <t xml:space="preserve">1.24085569381714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31438767910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655821323395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3419623374939</t>
+    <t xml:space="preserve">1.34655833244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34196245670319</t>
   </si>
   <si>
     <t xml:space="preserve">1.41089880466461</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">1.40170729160309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44766497612</t>
+    <t xml:space="preserve">1.44766485691071</t>
   </si>
   <si>
     <t xml:space="preserve">1.49362254142761</t>
@@ -1499,13 +1499,13 @@
     <t xml:space="preserve">1.49821829795837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48902690410614</t>
+    <t xml:space="preserve">1.48902678489685</t>
   </si>
   <si>
     <t xml:space="preserve">1.47983527183533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46145224571228</t>
+    <t xml:space="preserve">1.46145236492157</t>
   </si>
   <si>
     <t xml:space="preserve">1.5074098110199</t>
@@ -1517,7 +1517,7 @@
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685660839081</t>
+    <t xml:space="preserve">1.45685648918152</t>
   </si>
   <si>
     <t xml:space="preserve">1.4246860742569</t>
@@ -1547,37 +1547,37 @@
     <t xml:space="preserve">1.41549468040466</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35115396976471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36034560203552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31898355484009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45226073265076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43847346305847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50281405448914</t>
+    <t xml:space="preserve">1.351154088974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36034548282623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3189834356308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45226061344147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.43847358226776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50281393527985</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46604800224304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32817530632019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30979192256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30060052871704</t>
+    <t xml:space="preserve">1.46604812145233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3281751871109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30979204177856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30060064792633</t>
   </si>
   <si>
     <t xml:space="preserve">1.28681325912476</t>
@@ -1595,16 +1595,16 @@
     <t xml:space="preserve">1.53958010673523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54877173900604</t>
+    <t xml:space="preserve">1.54877161979675</t>
   </si>
   <si>
     <t xml:space="preserve">1.5763463973999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54417598247528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796313285828</t>
+    <t xml:space="preserve">1.54417586326599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796325206757</t>
   </si>
   <si>
     <t xml:space="preserve">1.53038859367371</t>
@@ -1613,25 +1613,25 @@
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396380901337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81992161273956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79234719276428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8750706911087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021988868713</t>
+    <t xml:space="preserve">1.77396392822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81992173194885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79234707355499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87507081031799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021976947784</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89345383644104</t>
+    <t xml:space="preserve">1.89345371723175</t>
   </si>
   <si>
     <t xml:space="preserve">1.83830463886261</t>
@@ -1646,46 +1646,46 @@
     <t xml:space="preserve">1.82451748847961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77855956554413</t>
+    <t xml:space="preserve">1.77855968475342</t>
   </si>
   <si>
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153858661652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84749627113342</t>
+    <t xml:space="preserve">1.80153846740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84749615192413</t>
   </si>
   <si>
     <t xml:space="preserve">1.76936829090118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79694294929504</t>
+    <t xml:space="preserve">1.79694283008575</t>
   </si>
   <si>
     <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86587917804718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90264523029327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92102837562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85668778419495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81073009967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09566736221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647561073303</t>
+    <t xml:space="preserve">1.86587929725647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90264534950256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92102825641632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85668766498566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81073021888733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09566760063171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08647584915161</t>
   </si>
   <si>
     <t xml:space="preserve">2.02213501930237</t>
@@ -1694,7 +1694,7 @@
     <t xml:space="preserve">1.98536920547485</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04051828384399</t>
+    <t xml:space="preserve">2.04051804542542</t>
   </si>
   <si>
     <t xml:space="preserve">2.14162492752075</t>
@@ -1703,7 +1703,7 @@
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405062675476</t>
+    <t xml:space="preserve">2.11405038833618</t>
   </si>
   <si>
     <t xml:space="preserve">2.12324166297913</t>
@@ -1712,19 +1712,19 @@
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928568840027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53686046600342</t>
+    <t xml:space="preserve">2.50928592681885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53686022758484</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
-    <t xml:space="preserve">2.63796710968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68392467498779</t>
+    <t xml:space="preserve">2.6379668712616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
     <t xml:space="preserve">2.73035979270935</t>
@@ -1733,10 +1733,10 @@
     <t xml:space="preserve">2.69321203231812</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72107267379761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322883605957</t>
+    <t xml:space="preserve">2.72107243537903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322907447815</t>
   </si>
   <si>
     <t xml:space="preserve">2.86966347694397</t>
@@ -1745,28 +1745,28 @@
     <t xml:space="preserve">2.81394195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.99039387702942</t>
+    <t xml:space="preserve">2.990394115448</t>
   </si>
   <si>
     <t xml:space="preserve">3.19470643997192</t>
   </si>
   <si>
-    <t xml:space="preserve">3.08326292037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825451850891</t>
+    <t xml:space="preserve">3.08326315879822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825475692749</t>
   </si>
   <si>
     <t xml:space="preserve">2.93467235565186</t>
   </si>
   <si>
-    <t xml:space="preserve">2.85108947753906</t>
+    <t xml:space="preserve">2.85108971595764</t>
   </si>
   <si>
     <t xml:space="preserve">2.92538547515869</t>
   </si>
   <si>
-    <t xml:space="preserve">2.96253323554993</t>
+    <t xml:space="preserve">2.96253299713135</t>
   </si>
   <si>
     <t xml:space="preserve">2.90681147575378</t>
@@ -1784,9 +1784,6 @@
     <t xml:space="preserve">2.60962915420532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68392491340637</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
@@ -1802,7 +1799,7 @@
     <t xml:space="preserve">2.70249891281128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6560640335083</t>
+    <t xml:space="preserve">2.65606427192688</t>
   </si>
   <si>
     <t xml:space="preserve">2.67463803291321</t>
@@ -1829,16 +1826,16 @@
     <t xml:space="preserve">2.78608131408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83251595497131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.8882372379303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95324611663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09255027770996</t>
+    <t xml:space="preserve">2.83251571655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.88823747634888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95324635505676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09255003929138</t>
   </si>
   <si>
     <t xml:space="preserve">3.18541955947876</t>
@@ -1850,7 +1847,7 @@
     <t xml:space="preserve">3.02754163742065</t>
   </si>
   <si>
-    <t xml:space="preserve">2.89752459526062</t>
+    <t xml:space="preserve">2.89752435684204</t>
   </si>
   <si>
     <t xml:space="preserve">2.61891627311707</t>
@@ -1877,7 +1874,7 @@
     <t xml:space="preserve">3.11112380027771</t>
   </si>
   <si>
-    <t xml:space="preserve">3.07397627830505</t>
+    <t xml:space="preserve">3.07397603988647</t>
   </si>
   <si>
     <t xml:space="preserve">2.97182011604309</t>
@@ -1886,10 +1883,10 @@
     <t xml:space="preserve">3.03682851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00896787643433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395923614502</t>
+    <t xml:space="preserve">3.00896763801575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395899772644</t>
   </si>
   <si>
     <t xml:space="preserve">2.84180283546448</t>
@@ -1898,7 +1895,7 @@
     <t xml:space="preserve">2.76750755310059</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30316042900085</t>
+    <t xml:space="preserve">2.30316066741943</t>
   </si>
   <si>
     <t xml:space="preserve">2.25672578811646</t>
@@ -1937,7 +1934,7 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.358882188797</t>
+    <t xml:space="preserve">2.35888195037842</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
@@ -1946,7 +1943,7 @@
     <t xml:space="preserve">2.39602994918823</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36816883087158</t>
+    <t xml:space="preserve">2.36816906929016</t>
   </si>
   <si>
     <t xml:space="preserve">2.41460371017456</t>
@@ -1961,7 +1958,7 @@
     <t xml:space="preserve">2.30374097824097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28478002548218</t>
+    <t xml:space="preserve">2.28478026390076</t>
   </si>
   <si>
     <t xml:space="preserve">2.31322145462036</t>
@@ -1970,9 +1967,6 @@
     <t xml:space="preserve">2.24685835838318</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27529978752136</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.22789740562439</t>
   </si>
   <si>
@@ -1985,16 +1979,16 @@
     <t xml:space="preserve">2.18049550056458</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15205407142639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13309359550476</t>
+    <t xml:space="preserve">2.15205430984497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13309335708618</t>
   </si>
   <si>
     <t xml:space="preserve">2.07621097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12361288070679</t>
+    <t xml:space="preserve">2.12361311912537</t>
   </si>
   <si>
     <t xml:space="preserve">2.10465216636658</t>
@@ -2009,7 +2003,7 @@
     <t xml:space="preserve">2.04776978492737</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14257383346558</t>
+    <t xml:space="preserve">2.142573595047</t>
   </si>
   <si>
     <t xml:space="preserve">2.16153454780579</t>
@@ -2024,13 +2018,13 @@
     <t xml:space="preserve">2.25633883476257</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20893669128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18997573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05725002288818</t>
+    <t xml:space="preserve">2.2089364528656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18997597694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05725026130676</t>
   </si>
   <si>
     <t xml:space="preserve">2.02880883216858</t>
@@ -2039,10 +2033,10 @@
     <t xml:space="preserve">2.00984787940979</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06673073768616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99088704586029</t>
+    <t xml:space="preserve">2.06673049926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99088716506958</t>
   </si>
   <si>
     <t xml:space="preserve">1.97192621231079</t>
@@ -2051,10 +2045,10 @@
     <t xml:space="preserve">1.96244585514069</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98140668869019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00036764144897</t>
+    <t xml:space="preserve">1.98140680789948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0003674030304</t>
   </si>
   <si>
     <t xml:space="preserve">1.94348502159119</t>
@@ -2075,10 +2069,10 @@
     <t xml:space="preserve">1.93400454521179</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88660264015198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86764168739319</t>
+    <t xml:space="preserve">1.88660252094269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86764180660248</t>
   </si>
   <si>
     <t xml:space="preserve">1.85816144943237</t>
@@ -2099,7 +2093,7 @@
     <t xml:space="preserve">1.87712216377258</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08569121360779</t>
+    <t xml:space="preserve">2.08569145202637</t>
   </si>
   <si>
     <t xml:space="preserve">2.38906455039978</t>
@@ -2111,7 +2105,7 @@
     <t xml:space="preserve">2.46490788459778</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41750574111938</t>
+    <t xml:space="preserve">2.41750597953796</t>
   </si>
   <si>
     <t xml:space="preserve">2.36062335968018</t>
@@ -2126,7 +2120,7 @@
     <t xml:space="preserve">2.37958431243896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35114288330078</t>
+    <t xml:space="preserve">2.35114312171936</t>
   </si>
   <si>
     <t xml:space="preserve">2.33218216896057</t>
@@ -2135,13 +2129,13 @@
     <t xml:space="preserve">2.37010359764099</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34166264533997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802550315857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.218416929245</t>
+    <t xml:space="preserve">2.34166240692139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802526473999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21841716766357</t>
   </si>
   <si>
     <t xml:space="preserve">2.30447006225586</t>
@@ -38876,7 +38870,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1390" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38902,7 +38896,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1391" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38928,7 +38922,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1392" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38954,7 +38948,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1393" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39032,7 +39026,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39058,7 +39052,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1397" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39162,7 +39156,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39188,7 +39182,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1402" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39214,7 +39208,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1403" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39240,7 +39234,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39266,7 +39260,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1405" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39292,7 +39286,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39318,7 +39312,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39344,7 +39338,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39370,7 +39364,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1409" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39396,7 +39390,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1410" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39422,7 +39416,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1411" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39448,7 +39442,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1412" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39474,7 +39468,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1413" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39500,7 +39494,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1414" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39526,7 +39520,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1415" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39552,7 +39546,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1416" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39578,7 +39572,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1417" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39630,7 +39624,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1419" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39656,7 +39650,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1420" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39734,7 +39728,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1423" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39812,7 +39806,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1426" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39890,7 +39884,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1429" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39916,7 +39910,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1430" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39968,7 +39962,7 @@
         <v>3</v>
       </c>
       <c r="G1432" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40046,7 +40040,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1435" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40072,7 +40066,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1436" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40150,7 +40144,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1439" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40358,7 +40352,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1447" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40384,7 +40378,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1448" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40410,7 +40404,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1449" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40436,7 +40430,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40462,7 +40456,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1451" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40488,7 +40482,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1452" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40514,7 +40508,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40566,7 +40560,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1455" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40592,7 +40586,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40696,7 +40690,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1460" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40722,7 +40716,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1461" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40748,7 +40742,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1462" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40774,7 +40768,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1463" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40800,7 +40794,7 @@
         <v>2.75</v>
       </c>
       <c r="G1464" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40826,7 +40820,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1465" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40852,7 +40846,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1466" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40878,7 +40872,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1467" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40904,7 +40898,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1468" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40930,7 +40924,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1469" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40956,7 +40950,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1470" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40982,7 +40976,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41060,7 +41054,7 @@
         <v>3</v>
       </c>
       <c r="G1474" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41112,7 +41106,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1476" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41164,7 +41158,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1478" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41216,7 +41210,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41242,7 +41236,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1481" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41268,7 +41262,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1482" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41294,7 +41288,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1483" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41320,7 +41314,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41346,7 +41340,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1485" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41372,7 +41366,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1486" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41398,7 +41392,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1487" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41424,7 +41418,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1488" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41502,7 +41496,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1491" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41528,7 +41522,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1492" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41554,7 +41548,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1493" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41580,7 +41574,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1494" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41606,7 +41600,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41632,7 +41626,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1496" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41658,7 +41652,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1497" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41710,7 +41704,7 @@
         <v>3</v>
       </c>
       <c r="G1499" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41736,7 +41730,7 @@
         <v>3</v>
       </c>
       <c r="G1500" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41788,7 +41782,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1502" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41814,7 +41808,7 @@
         <v>3</v>
       </c>
       <c r="G1503" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41840,7 +41834,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1504" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41918,7 +41912,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1507" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41944,7 +41938,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1508" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42152,7 +42146,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1516" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42204,7 +42198,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1518" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42230,7 +42224,7 @@
         <v>3</v>
       </c>
       <c r="G1519" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42308,7 +42302,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1522" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42412,7 +42406,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1526" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42464,7 +42458,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1528" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42490,7 +42484,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1529" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42516,7 +42510,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1530" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42568,7 +42562,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42594,7 +42588,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1533" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42620,7 +42614,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1534" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42672,7 +42666,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1536" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42698,7 +42692,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1537" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42802,7 +42796,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42854,7 +42848,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1543" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42880,7 +42874,7 @@
         <v>3</v>
       </c>
       <c r="G1544" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42958,7 +42952,7 @@
         <v>3</v>
       </c>
       <c r="G1547" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42984,7 +42978,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1548" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43010,7 +43004,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1549" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43036,7 +43030,7 @@
         <v>3</v>
       </c>
       <c r="G1550" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43062,7 +43056,7 @@
         <v>3</v>
       </c>
       <c r="G1551" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43088,7 +43082,7 @@
         <v>3</v>
       </c>
       <c r="G1552" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43114,7 +43108,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1553" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43140,7 +43134,7 @@
         <v>3</v>
       </c>
       <c r="G1554" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43218,7 +43212,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1557" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43296,7 +43290,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1560" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43322,7 +43316,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1561" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43374,7 +43368,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1563" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43400,7 +43394,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1564" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43426,7 +43420,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1565" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43452,7 +43446,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1566" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43530,7 +43524,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1569" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43556,7 +43550,7 @@
         <v>2.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43582,7 +43576,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43608,7 +43602,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43634,7 +43628,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1573" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43660,7 +43654,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1574" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43686,7 +43680,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1575" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43712,7 +43706,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1576" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43738,7 +43732,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1577" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43764,7 +43758,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1578" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43816,7 +43810,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1580" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43842,7 +43836,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1581" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43868,7 +43862,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1582" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43894,7 +43888,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43920,7 +43914,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1584" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43946,7 +43940,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1585" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43972,7 +43966,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1586" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43998,7 +43992,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44024,7 +44018,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44050,7 +44044,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1589" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44102,7 +44096,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1591" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44154,7 +44148,7 @@
         <v>2.75</v>
       </c>
       <c r="G1593" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44180,7 +44174,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1594" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44206,7 +44200,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1595" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44232,7 +44226,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1596" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44258,7 +44252,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44284,7 +44278,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1598" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44310,7 +44304,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44336,7 +44330,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1600" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44362,7 +44356,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1601" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44388,7 +44382,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1602" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44414,7 +44408,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1603" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44440,7 +44434,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1604" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44466,7 +44460,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1605" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44492,7 +44486,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44518,7 +44512,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44544,7 +44538,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1608" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44570,7 +44564,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44596,7 +44590,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1610" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44622,7 +44616,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1611" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44648,7 +44642,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44674,7 +44668,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1613" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44700,7 +44694,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44726,7 +44720,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44752,7 +44746,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1616" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44778,7 +44772,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1617" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44804,7 +44798,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1618" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44830,7 +44824,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44856,7 +44850,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44882,7 +44876,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44908,7 +44902,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1622" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44934,7 +44928,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44960,7 +44954,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1624" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44986,7 +44980,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45012,7 +45006,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1626" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45038,7 +45032,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1627" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45064,7 +45058,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45090,7 +45084,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1629" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45116,7 +45110,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45142,7 +45136,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45168,7 +45162,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1632" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45194,7 +45188,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45220,7 +45214,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1634" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45246,7 +45240,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45272,7 +45266,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45298,7 +45292,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45324,7 +45318,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45350,7 +45344,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45376,7 +45370,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45402,7 +45396,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45428,7 +45422,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45454,7 +45448,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45480,7 +45474,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45506,7 +45500,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45532,7 +45526,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45558,7 +45552,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45584,7 +45578,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45610,7 +45604,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45636,7 +45630,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45662,7 +45656,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45688,7 +45682,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45714,7 +45708,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45740,7 +45734,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45766,7 +45760,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45792,7 +45786,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45818,7 +45812,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45844,7 +45838,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45870,7 +45864,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45896,7 +45890,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45922,7 +45916,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45948,7 +45942,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45974,7 +45968,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46000,7 +45994,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46026,7 +46020,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46052,7 +46046,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46078,7 +46072,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46104,7 +46098,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46130,7 +46124,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46156,7 +46150,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46182,7 +46176,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46208,7 +46202,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46234,7 +46228,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46260,7 +46254,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46286,7 +46280,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46312,7 +46306,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46338,7 +46332,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46364,7 +46358,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46390,7 +46384,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46416,7 +46410,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46442,7 +46436,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46468,7 +46462,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46494,7 +46488,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46520,7 +46514,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46546,7 +46540,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46572,7 +46566,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46598,7 +46592,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46624,7 +46618,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46650,7 +46644,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46676,7 +46670,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46702,7 +46696,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46728,7 +46722,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46754,7 +46748,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46780,7 +46774,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46806,7 +46800,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46832,7 +46826,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46858,7 +46852,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46884,7 +46878,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46910,7 +46904,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46936,7 +46930,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46962,7 +46956,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46988,7 +46982,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47014,7 +47008,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47040,7 +47034,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47066,7 +47060,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47092,7 +47086,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47118,7 +47112,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47144,7 +47138,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47170,7 +47164,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47196,7 +47190,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47222,7 +47216,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47248,7 +47242,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47274,7 +47268,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47300,7 +47294,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47326,7 +47320,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47352,7 +47346,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47378,7 +47372,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47404,7 +47398,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47430,7 +47424,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47456,7 +47450,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47482,7 +47476,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47508,7 +47502,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47534,7 +47528,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47560,7 +47554,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47586,7 +47580,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47612,7 +47606,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47638,7 +47632,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47664,7 +47658,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47690,7 +47684,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47716,7 +47710,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47742,7 +47736,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47768,7 +47762,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47794,7 +47788,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47820,7 +47814,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47846,7 +47840,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47872,7 +47866,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47898,7 +47892,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47924,7 +47918,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47950,7 +47944,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47976,7 +47970,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48002,7 +47996,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48028,7 +48022,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48054,7 +48048,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48080,7 +48074,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48106,7 +48100,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48132,7 +48126,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48158,7 +48152,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48184,7 +48178,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48210,7 +48204,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48236,7 +48230,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48262,7 +48256,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48288,7 +48282,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48314,7 +48308,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48340,7 +48334,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48366,7 +48360,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48392,7 +48386,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48418,7 +48412,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48444,7 +48438,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48470,7 +48464,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48496,7 +48490,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48522,7 +48516,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48548,7 +48542,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48574,7 +48568,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48600,7 +48594,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48626,7 +48620,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48652,7 +48646,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48678,7 +48672,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48704,7 +48698,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48730,7 +48724,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48756,7 +48750,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48782,7 +48776,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48808,7 +48802,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48834,7 +48828,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48860,7 +48854,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48886,7 +48880,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48912,7 +48906,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48938,7 +48932,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48964,7 +48958,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48990,7 +48984,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49016,7 +49010,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49042,7 +49036,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49068,7 +49062,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49094,7 +49088,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49120,7 +49114,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49146,7 +49140,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49172,7 +49166,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49198,7 +49192,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49224,7 +49218,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49250,7 +49244,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49276,7 +49270,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49302,7 +49296,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49328,7 +49322,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49354,7 +49348,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49380,7 +49374,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49406,7 +49400,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49432,7 +49426,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49458,7 +49452,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49484,7 +49478,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49510,7 +49504,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49536,7 +49530,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49562,7 +49556,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49588,7 +49582,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49614,7 +49608,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49640,7 +49634,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49666,7 +49660,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1805" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49692,7 +49686,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49718,7 +49712,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49744,7 +49738,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49770,7 +49764,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49796,7 +49790,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49822,7 +49816,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49848,7 +49842,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49874,7 +49868,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49900,7 +49894,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1814" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49926,7 +49920,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49952,7 +49946,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49978,7 +49972,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50004,7 +49998,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50030,7 +50024,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50056,7 +50050,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50082,7 +50076,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50108,7 +50102,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1822" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50134,7 +50128,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50160,7 +50154,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50186,7 +50180,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50212,7 +50206,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50238,7 +50232,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50264,7 +50258,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50290,7 +50284,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50316,7 +50310,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50342,7 +50336,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50368,7 +50362,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50394,7 +50388,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50420,7 +50414,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50446,7 +50440,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50472,7 +50466,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50498,7 +50492,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50524,7 +50518,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50550,7 +50544,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50576,7 +50570,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50602,7 +50596,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50628,7 +50622,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50654,7 +50648,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1843" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50680,7 +50674,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50706,7 +50700,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50732,7 +50726,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1846" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50758,7 +50752,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1847" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50784,7 +50778,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50810,7 +50804,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50836,7 +50830,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50862,7 +50856,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50888,7 +50882,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50914,7 +50908,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50940,7 +50934,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50966,7 +50960,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50992,7 +50986,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51018,7 +51012,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51044,7 +51038,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51070,7 +51064,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1859" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51096,7 +51090,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51122,7 +51116,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1861" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51148,7 +51142,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1862" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51174,7 +51168,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1863" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51200,7 +51194,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51226,7 +51220,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1865" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51252,7 +51246,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51278,7 +51272,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51304,7 +51298,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1868" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51330,7 +51324,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51356,7 +51350,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51382,7 +51376,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51408,7 +51402,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51434,7 +51428,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51460,7 +51454,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51486,7 +51480,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51512,7 +51506,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51538,7 +51532,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51564,7 +51558,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51590,7 +51584,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51616,7 +51610,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51642,7 +51636,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51668,7 +51662,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51694,7 +51688,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1883" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51720,7 +51714,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1884" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51746,7 +51740,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1885" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51772,7 +51766,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51798,7 +51792,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1887" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51824,7 +51818,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51850,7 +51844,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51876,7 +51870,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51902,7 +51896,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51928,7 +51922,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51954,7 +51948,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51980,7 +51974,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52006,7 +52000,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52032,7 +52026,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52058,7 +52052,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52084,7 +52078,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52110,7 +52104,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52136,7 +52130,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52162,7 +52156,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52188,7 +52182,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52214,7 +52208,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52240,7 +52234,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52266,7 +52260,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52292,7 +52286,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52318,7 +52312,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52344,7 +52338,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52370,7 +52364,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52396,7 +52390,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52422,7 +52416,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52448,7 +52442,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52474,7 +52468,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52500,7 +52494,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52526,7 +52520,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52552,7 +52546,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52578,7 +52572,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52604,7 +52598,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52630,7 +52624,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52656,7 +52650,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52682,7 +52676,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52708,7 +52702,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52734,7 +52728,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52760,7 +52754,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52786,7 +52780,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52812,7 +52806,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52838,7 +52832,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52864,7 +52858,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52890,7 +52884,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52916,7 +52910,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52942,7 +52936,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52968,7 +52962,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52994,7 +52988,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53020,7 +53014,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53046,7 +53040,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53072,7 +53066,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53098,7 +53092,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53124,7 +53118,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53150,7 +53144,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53176,7 +53170,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53202,7 +53196,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53228,7 +53222,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1942" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53254,7 +53248,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53280,7 +53274,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53306,7 +53300,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53332,7 +53326,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53358,7 +53352,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53384,7 +53378,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53410,7 +53404,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53436,7 +53430,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53462,7 +53456,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53488,7 +53482,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53514,7 +53508,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1953" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53540,7 +53534,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53566,7 +53560,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53592,7 +53586,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53618,7 +53612,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53644,7 +53638,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53670,7 +53664,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53696,7 +53690,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53722,7 +53716,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53748,7 +53742,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53774,7 +53768,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53800,7 +53794,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53826,7 +53820,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53852,7 +53846,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53878,7 +53872,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53904,7 +53898,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53930,7 +53924,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53956,7 +53950,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53982,7 +53976,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54008,7 +54002,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54034,7 +54028,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54060,7 +54054,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54086,7 +54080,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54112,7 +54106,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54138,7 +54132,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54164,7 +54158,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54190,7 +54184,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54216,7 +54210,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54242,7 +54236,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54268,7 +54262,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54294,7 +54288,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54320,7 +54314,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54346,7 +54340,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54372,7 +54366,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54398,7 +54392,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54424,7 +54418,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54450,7 +54444,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54476,7 +54470,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54502,7 +54496,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54528,7 +54522,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54554,7 +54548,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54580,7 +54574,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54606,7 +54600,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54632,7 +54626,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54658,7 +54652,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54684,7 +54678,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54710,7 +54704,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54736,7 +54730,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54762,7 +54756,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54788,7 +54782,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54814,7 +54808,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54840,7 +54834,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54866,7 +54860,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54892,7 +54886,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54918,7 +54912,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54944,7 +54938,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54970,7 +54964,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54996,7 +54990,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55022,7 +55016,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55048,7 +55042,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55074,7 +55068,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55100,7 +55094,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55126,7 +55120,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55152,7 +55146,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55178,7 +55172,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55204,7 +55198,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55230,7 +55224,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55256,7 +55250,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55282,7 +55276,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55308,7 +55302,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55334,7 +55328,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55360,7 +55354,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55386,7 +55380,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55412,7 +55406,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55438,7 +55432,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55464,7 +55458,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55490,7 +55484,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55516,7 +55510,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55542,7 +55536,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55568,7 +55562,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55594,7 +55588,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55620,7 +55614,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55646,7 +55640,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55672,7 +55666,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55698,7 +55692,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55724,7 +55718,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55750,7 +55744,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55776,7 +55770,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55802,7 +55796,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55828,7 +55822,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55854,7 +55848,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55880,7 +55874,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55906,7 +55900,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55932,7 +55926,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55958,7 +55952,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55984,7 +55978,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56010,7 +56004,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56036,7 +56030,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56062,7 +56056,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56088,7 +56082,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56114,7 +56108,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56140,7 +56134,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56166,7 +56160,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56192,7 +56186,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56218,7 +56212,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56244,7 +56238,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56270,7 +56264,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56296,7 +56290,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56322,7 +56316,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56348,7 +56342,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56374,7 +56368,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56400,7 +56394,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56426,7 +56420,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56452,7 +56446,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56478,7 +56472,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56504,7 +56498,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56530,7 +56524,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56556,7 +56550,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56582,7 +56576,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56608,7 +56602,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56634,7 +56628,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56660,7 +56654,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56686,7 +56680,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56712,7 +56706,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56738,7 +56732,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56764,7 +56758,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56790,7 +56784,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56816,7 +56810,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56842,7 +56836,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56868,7 +56862,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56894,7 +56888,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56920,7 +56914,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56946,7 +56940,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56972,7 +56966,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56998,7 +56992,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57024,7 +57018,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57050,7 +57044,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57076,7 +57070,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57102,7 +57096,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57128,7 +57122,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57154,7 +57148,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57180,7 +57174,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57206,7 +57200,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57232,7 +57226,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57258,7 +57252,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57284,7 +57278,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57310,7 +57304,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57336,7 +57330,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57362,7 +57356,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57388,7 +57382,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57414,7 +57408,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57440,7 +57434,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57466,7 +57460,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57492,7 +57486,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57518,7 +57512,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57544,7 +57538,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57570,7 +57564,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57596,7 +57590,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57622,7 +57616,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57648,7 +57642,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57674,7 +57668,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57700,7 +57694,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57726,7 +57720,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57752,7 +57746,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57778,7 +57772,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57804,7 +57798,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57830,7 +57824,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57856,7 +57850,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57882,7 +57876,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57908,7 +57902,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57934,7 +57928,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57960,7 +57954,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57986,7 +57980,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58012,7 +58006,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58038,7 +58032,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58064,7 +58058,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58090,7 +58084,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58116,7 +58110,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58142,7 +58136,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58168,7 +58162,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58194,7 +58188,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58220,7 +58214,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58246,7 +58240,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58272,7 +58266,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58298,7 +58292,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58324,7 +58318,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58350,7 +58344,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58376,7 +58370,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58402,7 +58396,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58428,7 +58422,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58454,7 +58448,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58480,7 +58474,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58506,7 +58500,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58532,7 +58526,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58558,7 +58552,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58584,7 +58578,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58610,7 +58604,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58636,7 +58630,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58662,7 +58656,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58688,7 +58682,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58714,7 +58708,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2153" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58740,7 +58734,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58766,7 +58760,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2155" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58792,7 +58786,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58818,7 +58812,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2157" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58844,7 +58838,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2158" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58870,7 +58864,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2159" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58896,7 +58890,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2160" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58922,7 +58916,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58948,7 +58942,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2162" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58974,7 +58968,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59000,7 +58994,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2164" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59026,7 +59020,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2165" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59052,7 +59046,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2166" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59078,7 +59072,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2167" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59104,7 +59098,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2168" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -59112,7 +59106,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.6162268519</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>201</v>
@@ -59130,9 +59124,35 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2169" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.5994907407</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>2.05999994277954</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -44,10 +44,10 @@
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827868938446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74383664131165</t>
+    <t xml:space="preserve">1.79827857017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74383676052094</t>
   </si>
   <si>
     <t xml:space="preserve">1.75404465198517</t>
@@ -56,10 +56,10 @@
     <t xml:space="preserve">1.73533010482788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7268238067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661567687988</t>
+    <t xml:space="preserve">1.72682368755341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661555767059</t>
   </si>
   <si>
     <t xml:space="preserve">1.68854439258575</t>
@@ -68,97 +68,97 @@
     <t xml:space="preserve">1.66047275066376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64175844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5311735868454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6409078836441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005720615387</t>
+    <t xml:space="preserve">1.64175856113434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117382526398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64090800285339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005708694458</t>
   </si>
   <si>
     <t xml:space="preserve">1.63410258293152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65026497840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325202465057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60773253440857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55839467048645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58646595478058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61283624172211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58221280574799</t>
+    <t xml:space="preserve">1.65026521682739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325190544128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60773241519928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55839455127716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58646607398987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283612251282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58221292495728</t>
   </si>
   <si>
     <t xml:space="preserve">1.49714756011963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55158948898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5056539773941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5643492937088</t>
+    <t xml:space="preserve">1.55158936977386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50565421581268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48608911037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56434893608093</t>
   </si>
   <si>
     <t xml:space="preserve">1.70130407810211</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68429112434387</t>
+    <t xml:space="preserve">1.68429100513458</t>
   </si>
   <si>
     <t xml:space="preserve">1.70640802383423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69279754161835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68684315681458</t>
+    <t xml:space="preserve">1.69279742240906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68684303760529</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194686412811</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68939471244812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71831715106964</t>
+    <t xml:space="preserve">1.6893949508667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71831703186035</t>
   </si>
   <si>
     <t xml:space="preserve">1.65366756916046</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64686238765717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61623871326447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69024538993835</t>
+    <t xml:space="preserve">1.64686226844788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61623883247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69024574756622</t>
   </si>
   <si>
     <t xml:space="preserve">1.68173921108246</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65111565589905</t>
+    <t xml:space="preserve">1.65111577510834</t>
   </si>
   <si>
     <t xml:space="preserve">1.62049221992493</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">1.63240122795105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61538827419281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60432982444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58051156997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986854553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177779197693</t>
+    <t xml:space="preserve">1.6153883934021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60432970523834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5805116891861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986878395081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177767276764</t>
   </si>
   <si>
     <t xml:space="preserve">1.60688185691833</t>
@@ -191,13 +191,13 @@
     <t xml:space="preserve">1.59922587871552</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59752464294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54818665981293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53202426433563</t>
+    <t xml:space="preserve">1.59752452373505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54818677902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53202438354492</t>
   </si>
   <si>
     <t xml:space="preserve">1.5337256193161</t>
@@ -209,10 +209,10 @@
     <t xml:space="preserve">1.53542685508728</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56094670295715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53287506103516</t>
+    <t xml:space="preserve">1.56094658374786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53287529945374</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096593379974</t>
@@ -221,21 +221,21 @@
     <t xml:space="preserve">1.55329060554504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54648530483246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53968012332916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52862179279327</t>
+    <t xml:space="preserve">1.54648542404175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53968024253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52862167358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395286083221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50395274162292</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.49703013896942</t>
   </si>
   <si>
@@ -248,25 +248,25 @@
     <t xml:space="preserve">1.47885799407959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47539663314819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46933937072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45376324653625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405003547668</t>
+    <t xml:space="preserve">1.47539687156677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46933925151825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45376336574554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405027389526</t>
   </si>
   <si>
     <t xml:space="preserve">1.47972333431244</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48664605617523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49270343780518</t>
+    <t xml:space="preserve">1.48664629459381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49270331859589</t>
   </si>
   <si>
     <t xml:space="preserve">1.52299010753632</t>
@@ -278,31 +278,31 @@
     <t xml:space="preserve">1.46674346923828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47366619110107</t>
+    <t xml:space="preserve">1.47366607189178</t>
   </si>
   <si>
     <t xml:space="preserve">1.50568354129791</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44510984420776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.451167345047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42001521587372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760892868042</t>
+    <t xml:space="preserve">1.44510996341705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45116746425629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42001533508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760880947113</t>
   </si>
   <si>
     <t xml:space="preserve">1.45895540714264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5143369436264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47107017040253</t>
+    <t xml:space="preserve">1.51433706283569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47107005119324</t>
   </si>
   <si>
     <t xml:space="preserve">1.46501278877258</t>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212464809418</t>
+    <t xml:space="preserve">1.52212476730347</t>
   </si>
   <si>
     <t xml:space="preserve">1.47712743282318</t>
@@ -329,19 +329,19 @@
     <t xml:space="preserve">1.52991282939911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50827968120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5108757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51347160339355</t>
+    <t xml:space="preserve">1.50827944278717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51087558269501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51347148418427</t>
   </si>
   <si>
     <t xml:space="preserve">1.53077816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50308740139008</t>
+    <t xml:space="preserve">1.50308752059937</t>
   </si>
   <si>
     <t xml:space="preserve">1.50049138069153</t>
@@ -350,40 +350,40 @@
     <t xml:space="preserve">1.50135684013367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53337419033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318481445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51866340637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51174092292786</t>
+    <t xml:space="preserve">1.53337430953979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318469524384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51866328716278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51174080371857</t>
   </si>
   <si>
     <t xml:space="preserve">1.54375827312469</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55500769615173</t>
+    <t xml:space="preserve">1.55500757694244</t>
   </si>
   <si>
     <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54029667377472</t>
+    <t xml:space="preserve">1.5402969121933</t>
   </si>
   <si>
     <t xml:space="preserve">1.53250885009766</t>
   </si>
   <si>
-    <t xml:space="preserve">1.555872797966</t>
+    <t xml:space="preserve">1.55587303638458</t>
   </si>
   <si>
     <t xml:space="preserve">1.54462361335754</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5576034784317</t>
+    <t xml:space="preserve">1.55760371685028</t>
   </si>
   <si>
     <t xml:space="preserve">1.49443399906158</t>
@@ -392,19 +392,19 @@
     <t xml:space="preserve">1.49010741710663</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48231947422028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54548907279968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52558624744415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.526451587677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55673837661743</t>
+    <t xml:space="preserve">1.48231959342957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5454888343811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52558612823486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52645146846771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55673825740814</t>
   </si>
   <si>
     <t xml:space="preserve">1.54116225242615</t>
@@ -416,13 +416,13 @@
     <t xml:space="preserve">1.542027592659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51693296432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53856611251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606738567352</t>
+    <t xml:space="preserve">1.51693272590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5385662317276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606750488281</t>
   </si>
   <si>
     <t xml:space="preserve">1.54635417461395</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">1.57837164402008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5731794834137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56971824169159</t>
+    <t xml:space="preserve">1.57317960262299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56971836090088</t>
   </si>
   <si>
     <t xml:space="preserve">1.54981553554535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55846881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59135174751282</t>
+    <t xml:space="preserve">1.55846893787384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59135150909424</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221708774567</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">1.60000491142273</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56625688076019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55414235591888</t>
+    <t xml:space="preserve">1.56625699996948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55414211750031</t>
   </si>
   <si>
     <t xml:space="preserve">1.64413702487946</t>
@@ -467,49 +467,49 @@
     <t xml:space="preserve">1.58096754550934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60779297351837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57664108276367</t>
+    <t xml:space="preserve">1.60779321193695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57664096355438</t>
   </si>
   <si>
     <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59827423095703</t>
+    <t xml:space="preserve">1.59827435016632</t>
   </si>
   <si>
     <t xml:space="preserve">1.59913957118988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60087025165558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461863994598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60952365398407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61731171607971</t>
+    <t xml:space="preserve">1.60087037086487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63461852073669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60952377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.617311835289</t>
   </si>
   <si>
     <t xml:space="preserve">1.61817705631256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6519250869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59654366970062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60519695281982</t>
+    <t xml:space="preserve">1.65192520618439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59654378890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6051971912384</t>
   </si>
   <si>
     <t xml:space="preserve">1.6190425157547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61211979389191</t>
+    <t xml:space="preserve">1.61211967468262</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971302986145</t>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279042720795</t>
+    <t xml:space="preserve">1.65279054641724</t>
   </si>
   <si>
     <t xml:space="preserve">1.67442381381989</t>
@@ -527,22 +527,22 @@
     <t xml:space="preserve">1.67009723186493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66144394874573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64154100418091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63634920120239</t>
+    <t xml:space="preserve">1.66144382953644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6415411233902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63634896278381</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625178813934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68048131465912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317474842072</t>
+    <t xml:space="preserve">1.68048143386841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317462921143</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701474189758</t>
@@ -551,19 +551,19 @@
     <t xml:space="preserve">1.82585740089417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81893503665924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682015419006</t>
+    <t xml:space="preserve">1.81893479824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682027339935</t>
   </si>
   <si>
     <t xml:space="preserve">1.77739870548248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79816675186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77393734455109</t>
+    <t xml:space="preserve">1.79816687107086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393746376038</t>
   </si>
   <si>
     <t xml:space="preserve">1.75836145877838</t>
@@ -575,10 +575,10 @@
     <t xml:space="preserve">1.7514386177063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72980523109436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74797749519348</t>
+    <t xml:space="preserve">1.72980535030365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7479772567749</t>
   </si>
   <si>
     <t xml:space="preserve">1.7445160150528</t>
@@ -587,28 +587,28 @@
     <t xml:space="preserve">1.75663077831268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82758808135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201219558716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74105489253998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7427853345871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71855580806732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73932409286499</t>
+    <t xml:space="preserve">1.82758820056915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201243400574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74105477333069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74278521537781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71855592727661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73932385444641</t>
   </si>
   <si>
     <t xml:space="preserve">1.7652839422226</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78432166576385</t>
+    <t xml:space="preserve">1.78432154655457</t>
   </si>
   <si>
     <t xml:space="preserve">1.80855083465576</t>
@@ -626,19 +626,19 @@
     <t xml:space="preserve">1.79989731311798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82412683963776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720423698425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80335879325867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84316420555115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79297494888306</t>
+    <t xml:space="preserve">1.82412695884705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720411777496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80335891246796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84316444396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79297471046448</t>
   </si>
   <si>
     <t xml:space="preserve">1.81547355651855</t>
@@ -653,13 +653,13 @@
     <t xml:space="preserve">1.83451080322266</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87777781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9262363910675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92104434967041</t>
+    <t xml:space="preserve">1.87777757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92623651027679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9210444688797</t>
   </si>
   <si>
     <t xml:space="preserve">1.90373778343201</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">1.83797240257263</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96253144741058</t>
+    <t xml:space="preserve">1.962531208992</t>
   </si>
   <si>
     <t xml:space="preserve">2.04503440856934</t>
@@ -677,7 +677,7 @@
     <t xml:space="preserve">2.41366767883301</t>
   </si>
   <si>
-    <t xml:space="preserve">2.42244458198547</t>
+    <t xml:space="preserve">2.42244482040405</t>
   </si>
   <si>
     <t xml:space="preserve">2.30834412574768</t>
@@ -686,31 +686,31 @@
     <t xml:space="preserve">2.24690508842468</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43648767471313</t>
+    <t xml:space="preserve">2.43648791313171</t>
   </si>
   <si>
     <t xml:space="preserve">2.39260268211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41717839241028</t>
+    <t xml:space="preserve">2.41717791557312</t>
   </si>
   <si>
     <t xml:space="preserve">2.40489053726196</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31712079048157</t>
+    <t xml:space="preserve">2.31712055206299</t>
   </si>
   <si>
     <t xml:space="preserve">2.26972508430481</t>
   </si>
   <si>
-    <t xml:space="preserve">2.20653104782104</t>
+    <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
     <t xml:space="preserve">2.13280439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08014225959778</t>
+    <t xml:space="preserve">2.08014249801636</t>
   </si>
   <si>
     <t xml:space="preserve">2.01870369911194</t>
@@ -746,22 +746,22 @@
     <t xml:space="preserve">2.03976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05381155014038</t>
+    <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
     <t xml:space="preserve">2.03625750541687</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03099155426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0345025062561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00992655754089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763906002045</t>
+    <t xml:space="preserve">2.03099131584167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03450226783752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00992703437805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763882160187</t>
   </si>
   <si>
     <t xml:space="preserve">1.9835958480835</t>
@@ -770,19 +770,19 @@
     <t xml:space="preserve">1.98535120487213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00114989280701</t>
+    <t xml:space="preserve">2.00114965438843</t>
   </si>
   <si>
     <t xml:space="preserve">2.01694798469543</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99588370323181</t>
+    <t xml:space="preserve">1.99588346481323</t>
   </si>
   <si>
     <t xml:space="preserve">1.98710680007935</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03274703025818</t>
+    <t xml:space="preserve">2.03274726867676</t>
   </si>
   <si>
     <t xml:space="preserve">2.06785464286804</t>
@@ -806,28 +806,28 @@
     <t xml:space="preserve">1.96604192256927</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99237275123596</t>
+    <t xml:space="preserve">1.99237298965454</t>
   </si>
   <si>
     <t xml:space="preserve">1.99939453601837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2030200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32414197921753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29078984260559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122148513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34345173835754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48914957046509</t>
+    <t xml:space="preserve">2.20302033424377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32414221763611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078960418701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122124671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34345149993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48914933204651</t>
   </si>
   <si>
     <t xml:space="preserve">2.48563885688782</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">2.43999838829041</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37855958938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207054138184</t>
+    <t xml:space="preserve">2.37855935096741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207030296326</t>
   </si>
   <si>
     <t xml:space="preserve">2.38558101654053</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">2.44175362586975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46984004974365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42946577072144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37504887580872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3908474445343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39962434768677</t>
+    <t xml:space="preserve">2.46983981132507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42946624755859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37504863739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084768295288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39962458610535</t>
   </si>
   <si>
     <t xml:space="preserve">2.38909196853638</t>
@@ -878,55 +878,55 @@
     <t xml:space="preserve">2.41893362998962</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43473219871521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41542291641235</t>
+    <t xml:space="preserve">2.43473196029663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41542267799377</t>
   </si>
   <si>
     <t xml:space="preserve">2.3961136341095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41015648841858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43824315071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44877552986145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45579695701599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33994078636169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238674163818</t>
+    <t xml:space="preserve">2.41015696525574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43824291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44877576828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45579719543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33994054794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238698005676</t>
   </si>
   <si>
     <t xml:space="preserve">2.15737986564636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22232961654663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16966772079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16791200637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1924877166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733649253845</t>
+    <t xml:space="preserve">2.22232913970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1696674823761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16791224479675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19248747825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733673095703</t>
   </si>
   <si>
     <t xml:space="preserve">2.35222864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37329339981079</t>
+    <t xml:space="preserve">2.37329363822937</t>
   </si>
   <si>
     <t xml:space="preserve">2.36627197265625</t>
@@ -935,19 +935,19 @@
     <t xml:space="preserve">2.35749506950378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28376817703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30658841133118</t>
+    <t xml:space="preserve">2.28376793861389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3065881729126</t>
   </si>
   <si>
     <t xml:space="preserve">2.28201293945312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32589817047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3136100769043</t>
+    <t xml:space="preserve">2.32589793205261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31360983848572</t>
   </si>
   <si>
     <t xml:space="preserve">2.29956674575806</t>
@@ -956,16 +956,16 @@
     <t xml:space="preserve">2.25568199157715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33116388320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29254508018494</t>
+    <t xml:space="preserve">2.33116412162781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29254531860352</t>
   </si>
   <si>
     <t xml:space="preserve">2.30132222175598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29781150817871</t>
+    <t xml:space="preserve">2.29781126976013</t>
   </si>
   <si>
     <t xml:space="preserve">2.27323603630066</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">2.49266004562378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60676121711731</t>
+    <t xml:space="preserve">2.60676097869873</t>
   </si>
   <si>
     <t xml:space="preserve">2.65064573287964</t>
@@ -989,19 +989,19 @@
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65942287445068</t>
+    <t xml:space="preserve">2.65942239761353</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043026924133</t>
   </si>
   <si>
-    <t xml:space="preserve">2.54532217979431</t>
+    <t xml:space="preserve">2.54532194137573</t>
   </si>
   <si>
     <t xml:space="preserve">2.53654503822327</t>
   </si>
   <si>
-    <t xml:space="preserve">2.45755243301392</t>
+    <t xml:space="preserve">2.45755219459534</t>
   </si>
   <si>
     <t xml:space="preserve">2.48388338088989</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">2.5277681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6857533454895</t>
+    <t xml:space="preserve">2.68575358390808</t>
   </si>
   <si>
     <t xml:space="preserve">2.69453072547913</t>
@@ -1022,13 +1022,13 @@
     <t xml:space="preserve">2.72963857650757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73841571807861</t>
+    <t xml:space="preserve">2.73841547966003</t>
   </si>
   <si>
     <t xml:space="preserve">2.51021409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59798383712769</t>
+    <t xml:space="preserve">2.59798407554626</t>
   </si>
   <si>
     <t xml:space="preserve">2.6155378818512</t>
@@ -1037,16 +1037,16 @@
     <t xml:space="preserve">2.63309192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.56287622451782</t>
+    <t xml:space="preserve">2.56287598609924</t>
   </si>
   <si>
     <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33467483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179699897766</t>
+    <t xml:space="preserve">2.33467507362366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179723739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.26327753067017</t>
@@ -59239,13 +59239,13 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6495949074</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>4700</v>
       </c>
       <c r="C2174" t="n">
-        <v>2.11999988555908</v>
+        <v>2.16000008583069</v>
       </c>
       <c r="D2174" t="n">
         <v>2.10999989509583</v>
@@ -59260,6 +59260,32 @@
         <v>783</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.6232986111</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>23600</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>2.20000004768372</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>780</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="798">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,13 +44,13 @@
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827857017517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74383676052094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75404465198517</t>
+    <t xml:space="preserve">1.79827845096588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74383664131165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75404453277588</t>
   </si>
   <si>
     <t xml:space="preserve">1.73533010482788</t>
@@ -59,22 +59,22 @@
     <t xml:space="preserve">1.72682368755341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71661555767059</t>
+    <t xml:space="preserve">1.71661567687988</t>
   </si>
   <si>
     <t xml:space="preserve">1.68854439258575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66047275066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175856113434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53117382526398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64090800285339</t>
+    <t xml:space="preserve">1.66047286987305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175844192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64090776443481</t>
   </si>
   <si>
     <t xml:space="preserve">1.64005708694458</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">1.63410258293152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65026521682739</t>
+    <t xml:space="preserve">1.6502650976181</t>
   </si>
   <si>
     <t xml:space="preserve">1.63325190544128</t>
@@ -92,31 +92,31 @@
     <t xml:space="preserve">1.60773241519928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55839455127716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58646607398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61283612251282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58221292495728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49714756011963</t>
+    <t xml:space="preserve">1.55839467048645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58646595478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283624172211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5822126865387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49714767932892</t>
   </si>
   <si>
     <t xml:space="preserve">1.55158936977386</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50565421581268</t>
+    <t xml:space="preserve">1.5056539773941</t>
   </si>
   <si>
     <t xml:space="preserve">1.48608911037445</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56434893608093</t>
+    <t xml:space="preserve">1.56434917449951</t>
   </si>
   <si>
     <t xml:space="preserve">1.70130407810211</t>
@@ -128,76 +128,76 @@
     <t xml:space="preserve">1.70640802383423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69279742240906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68684303760529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69194686412811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6893949508667</t>
+    <t xml:space="preserve">1.69279754161835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.686842918396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6919469833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68939507007599</t>
   </si>
   <si>
     <t xml:space="preserve">1.71831703186035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65366756916046</t>
+    <t xml:space="preserve">1.65366768836975</t>
   </si>
   <si>
     <t xml:space="preserve">1.64686226844788</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61623883247375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69024574756622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68173921108246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65111577510834</t>
+    <t xml:space="preserve">1.61623871326447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69024562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68173909187317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65111553668976</t>
   </si>
   <si>
     <t xml:space="preserve">1.62049221992493</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63750529289246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63240122795105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6153883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60432970523834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5805116891861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986878395081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177767276764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688185691833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59922587871552</t>
+    <t xml:space="preserve">1.63750517368317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63240134716034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61538827419281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60432994365692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58051156997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986866474152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177779197693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688161849976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5992259979248</t>
   </si>
   <si>
     <t xml:space="preserve">1.59752452373505</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54818677902222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53202438354492</t>
+    <t xml:space="preserve">1.54818665981293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53202426433563</t>
   </si>
   <si>
     <t xml:space="preserve">1.5337256193161</t>
@@ -212,10 +212,10 @@
     <t xml:space="preserve">1.56094658374786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53287529945374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52096593379974</t>
+    <t xml:space="preserve">1.53287506103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52096581459045</t>
   </si>
   <si>
     <t xml:space="preserve">1.55329060554504</t>
@@ -227,22 +227,22 @@
     <t xml:space="preserve">1.53968024253845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52862167358398</t>
+    <t xml:space="preserve">1.52862179279327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50395286083221</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50395286083221</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.49703013896942</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50654876232147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626209259033</t>
+    <t xml:space="preserve">1.50654888153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626197338104</t>
   </si>
   <si>
     <t xml:space="preserve">1.47885799407959</t>
@@ -251,40 +251,40 @@
     <t xml:space="preserve">1.47539687156677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46933925151825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45376336574554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405027389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47972333431244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48664629459381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49270331859589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299010753632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837673664093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46674346923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47366607189178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50568354129791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44510996341705</t>
+    <t xml:space="preserve">1.46933937072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45376348495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405015468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47972345352173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48664605617523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299022674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837661743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46674335002899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4736659526825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50568342208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44510984420776</t>
   </si>
   <si>
     <t xml:space="preserve">1.45116746425629</t>
@@ -293,37 +293,37 @@
     <t xml:space="preserve">1.42001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46760880947113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45895540714264</t>
+    <t xml:space="preserve">1.46760869026184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45895528793335</t>
   </si>
   <si>
     <t xml:space="preserve">1.51433706283569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47107005119324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46501278877258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52039408683777</t>
+    <t xml:space="preserve">1.47106993198395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.465012550354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52039420604706</t>
   </si>
   <si>
     <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52212476730347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47712743282318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50222206115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616479873657</t>
+    <t xml:space="preserve">1.52212488651276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47712731361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50222218036652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616467952728</t>
   </si>
   <si>
     <t xml:space="preserve">1.52991282939911</t>
@@ -332,31 +332,31 @@
     <t xml:space="preserve">1.50827944278717</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51087558269501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51347148418427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53077816963196</t>
+    <t xml:space="preserve">1.51087546348572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51347136497498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53077828884125</t>
   </si>
   <si>
     <t xml:space="preserve">1.50308752059937</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50049138069153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135684013367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53337430953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318469524384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51866328716278</t>
+    <t xml:space="preserve">1.50049126148224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135672092438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53337419033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51866352558136</t>
   </si>
   <si>
     <t xml:space="preserve">1.51174080371857</t>
@@ -371,37 +371,37 @@
     <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5402969121933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53250885009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55587303638458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54462361335754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55760371685028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443399906158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010741710663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48231959342957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5454888343811</t>
+    <t xml:space="preserve">1.54029679298401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53250896930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55587291717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54462349414825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55760359764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443411827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010753631592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48231947422028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54548895359039</t>
   </si>
   <si>
     <t xml:space="preserve">1.52558612823486</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52645146846771</t>
+    <t xml:space="preserve">1.52645170688629</t>
   </si>
   <si>
     <t xml:space="preserve">1.55673825740814</t>
@@ -410,22 +410,22 @@
     <t xml:space="preserve">1.54116225242615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55327677726746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.542027592659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693272590637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5385662317276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606750488281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54635417461395</t>
+    <t xml:space="preserve">1.55327689647675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54202771186829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693284511566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53856635093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606726646423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54635429382324</t>
   </si>
   <si>
     <t xml:space="preserve">1.57404494285583</t>
@@ -434,7 +434,7 @@
     <t xml:space="preserve">1.57837164402008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57317960262299</t>
+    <t xml:space="preserve">1.57317972183228</t>
   </si>
   <si>
     <t xml:space="preserve">1.56971836090088</t>
@@ -443,28 +443,28 @@
     <t xml:space="preserve">1.54981553554535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55846893787384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59135150909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221708774567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60000491142273</t>
+    <t xml:space="preserve">1.55846881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59135162830353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221696853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60000503063202</t>
   </si>
   <si>
     <t xml:space="preserve">1.56625699996948</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55414211750031</t>
+    <t xml:space="preserve">1.55414247512817</t>
   </si>
   <si>
     <t xml:space="preserve">1.64413702487946</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58096754550934</t>
+    <t xml:space="preserve">1.58096778392792</t>
   </si>
   <si>
     <t xml:space="preserve">1.60779321193695</t>
@@ -476,25 +476,25 @@
     <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59827435016632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59913957118988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60087037086487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63461852073669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60952377319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.617311835289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61817705631256</t>
+    <t xml:space="preserve">1.59827423095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59913969039917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60087049007416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6346184015274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60952365398407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61731171607971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61817717552185</t>
   </si>
   <si>
     <t xml:space="preserve">1.65192520618439</t>
@@ -503,115 +503,115 @@
     <t xml:space="preserve">1.59654378890991</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6051971912384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6190425157547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61211967468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65971302986145</t>
+    <t xml:space="preserve">1.60519707202911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61904239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61211979389191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65971314907074</t>
   </si>
   <si>
     <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65279054641724</t>
+    <t xml:space="preserve">1.65279030799866</t>
   </si>
   <si>
     <t xml:space="preserve">1.67442381381989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67009723186493</t>
+    <t xml:space="preserve">1.67009711265564</t>
   </si>
   <si>
     <t xml:space="preserve">1.66144382953644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6415411233902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63634896278381</t>
+    <t xml:space="preserve">1.64154100418091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63634920120239</t>
   </si>
   <si>
     <t xml:space="preserve">1.65625178813934</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68048143386841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66317462921143</t>
+    <t xml:space="preserve">1.68048107624054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66317451000214</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701474189758</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82585740089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81893479824066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682027339935</t>
+    <t xml:space="preserve">1.82585763931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81893503665924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682051181793</t>
   </si>
   <si>
     <t xml:space="preserve">1.77739870548248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79816687107086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77393746376038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75836145877838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79124414920807</t>
+    <t xml:space="preserve">1.79816675186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393734455109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75836133956909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79124426841736</t>
   </si>
   <si>
     <t xml:space="preserve">1.7514386177063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72980535030365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7479772567749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7445160150528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75663077831268</t>
+    <t xml:space="preserve">1.72980523109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74797737598419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74451613426208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75663065910339</t>
   </si>
   <si>
     <t xml:space="preserve">1.82758820056915</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81201243400574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74105477333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278521537781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71855592727661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73932385444641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7652839422226</t>
+    <t xml:space="preserve">1.81201219558716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7410546541214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7427853345871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7185560464859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7393239736557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76528406143188</t>
   </si>
   <si>
     <t xml:space="preserve">1.78432154655457</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80855083465576</t>
+    <t xml:space="preserve">1.80855071544647</t>
   </si>
   <si>
     <t xml:space="preserve">1.76182270050049</t>
@@ -626,16 +626,16 @@
     <t xml:space="preserve">1.79989731311798</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82412695884705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720411777496</t>
+    <t xml:space="preserve">1.82412672042847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720399856567</t>
   </si>
   <si>
     <t xml:space="preserve">1.80335891246796</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84316444396973</t>
+    <t xml:space="preserve">1.84316432476044</t>
   </si>
   <si>
     <t xml:space="preserve">1.79297471046448</t>
@@ -644,10 +644,10 @@
     <t xml:space="preserve">1.81547355651855</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78605210781097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354828834534</t>
+    <t xml:space="preserve">1.78605198860168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354840755463</t>
   </si>
   <si>
     <t xml:space="preserve">1.83451080322266</t>
@@ -656,13 +656,13 @@
     <t xml:space="preserve">1.87777757644653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92623651027679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9210444688797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90373778343201</t>
+    <t xml:space="preserve">1.9262363910675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92104434967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90373766422272</t>
   </si>
   <si>
     <t xml:space="preserve">1.83797240257263</t>
@@ -671,37 +671,37 @@
     <t xml:space="preserve">1.962531208992</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04503440856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41366767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42244482040405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30834412574768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24690508842468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648791313171</t>
+    <t xml:space="preserve">2.04503464698792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41366744041443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42244458198547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3083438873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2469048500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648743629456</t>
   </si>
   <si>
     <t xml:space="preserve">2.39260268211365</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41717791557312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40489053726196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31712055206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26972508430481</t>
+    <t xml:space="preserve">2.4171781539917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40489029884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31712102890015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26972484588623</t>
   </si>
   <si>
     <t xml:space="preserve">2.20653080940247</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">2.13280439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08014249801636</t>
+    <t xml:space="preserve">2.08014225959778</t>
   </si>
   <si>
     <t xml:space="preserve">2.01870369911194</t>
@@ -722,43 +722,43 @@
     <t xml:space="preserve">2.12753820419312</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06258845329285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08540868759155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12402749061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647368431091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104891777039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11525058746338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10296249389648</t>
+    <t xml:space="preserve">2.06258869171143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08540892601013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12402772903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647344589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104915618896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1152503490448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10296273231506</t>
   </si>
   <si>
     <t xml:space="preserve">2.03976821899414</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0538113117218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03625750541687</t>
+    <t xml:space="preserve">2.05381155014038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03625774383545</t>
   </si>
   <si>
     <t xml:space="preserve">2.03099131584167</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03450226783752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00992703437805</t>
+    <t xml:space="preserve">2.0345025062561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00992655754089</t>
   </si>
   <si>
     <t xml:space="preserve">1.99763882160187</t>
@@ -767,22 +767,22 @@
     <t xml:space="preserve">1.9835958480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98535120487213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00114965438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01694798469543</t>
+    <t xml:space="preserve">1.98535144329071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00114989280701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01694846153259</t>
   </si>
   <si>
     <t xml:space="preserve">1.99588346481323</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98710680007935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03274726867676</t>
+    <t xml:space="preserve">1.98710656166077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0327467918396</t>
   </si>
   <si>
     <t xml:space="preserve">2.06785464286804</t>
@@ -791,55 +791,55 @@
     <t xml:space="preserve">2.07663154602051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04854559898376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061739444733</t>
+    <t xml:space="preserve">2.04854536056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061715602875</t>
   </si>
   <si>
     <t xml:space="preserve">1.97481894493103</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97130811214447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96604192256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99237298965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99939453601837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20302033424377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32414221763611</t>
+    <t xml:space="preserve">1.97130799293518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96604180335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99237251281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99939441680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2030200958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32414245605469</t>
   </si>
   <si>
     <t xml:space="preserve">2.29078960418701</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43122124671936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34345149993896</t>
+    <t xml:space="preserve">2.43122172355652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34345173835754</t>
   </si>
   <si>
     <t xml:space="preserve">2.48914933204651</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48563885688782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43999838829041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37855935096741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207030296326</t>
+    <t xml:space="preserve">2.48563861846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43999862670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37855982780457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207054138184</t>
   </si>
   <si>
     <t xml:space="preserve">2.38558101654053</t>
@@ -848,25 +848,25 @@
     <t xml:space="preserve">2.35925030708313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49792647361755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48739409446716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44175362586975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46983981132507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42946624755859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37504863739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39084768295288</t>
+    <t xml:space="preserve">2.49792623519897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48739433288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44175410270691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46984004974365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42946577072144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37504887580872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084720611572</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962458610535</t>
@@ -875,58 +875,58 @@
     <t xml:space="preserve">2.38909196853638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41893362998962</t>
+    <t xml:space="preserve">2.41893410682678</t>
   </si>
   <si>
     <t xml:space="preserve">2.43473196029663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41542267799377</t>
+    <t xml:space="preserve">2.41542291641235</t>
   </si>
   <si>
     <t xml:space="preserve">2.3961136341095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41015696525574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43824291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44877576828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45579719543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33994054794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238698005676</t>
+    <t xml:space="preserve">2.41015672683716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43824338912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44877552986145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45579695701599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33994078636169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238674163818</t>
   </si>
   <si>
     <t xml:space="preserve">2.15737986564636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22232913970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1696674823761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16791224479675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19248747825623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733673095703</t>
+    <t xml:space="preserve">2.22232961654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16966772079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16791248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1924877166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733649253845</t>
   </si>
   <si>
     <t xml:space="preserve">2.35222864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37329363822937</t>
+    <t xml:space="preserve">2.37329339981079</t>
   </si>
   <si>
     <t xml:space="preserve">2.36627197265625</t>
@@ -935,10 +935,10 @@
     <t xml:space="preserve">2.35749506950378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28376793861389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3065881729126</t>
+    <t xml:space="preserve">2.28376841545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30658841133118</t>
   </si>
   <si>
     <t xml:space="preserve">2.28201293945312</t>
@@ -947,16 +947,16 @@
     <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31360983848572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956674575806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25568199157715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33116412162781</t>
+    <t xml:space="preserve">2.3136100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956650733948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25568222999573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33116364479065</t>
   </si>
   <si>
     <t xml:space="preserve">2.29254531860352</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">2.30132222175598</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29781126976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27323603630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36100578308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46632933616638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49266004562378</t>
+    <t xml:space="preserve">2.29781150817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27323579788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36100554466248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4663290977478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49266028404236</t>
   </si>
   <si>
     <t xml:space="preserve">2.60676097869873</t>
@@ -989,16 +989,16 @@
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65942239761353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58043026924133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54532194137573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.53654503822327</t>
+    <t xml:space="preserve">2.65942287445068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58042979240417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.54532241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.53654527664185</t>
   </si>
   <si>
     <t xml:space="preserve">2.45755219459534</t>
@@ -1013,25 +1013,25 @@
     <t xml:space="preserve">2.5277681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.68575358390808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69453072547913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72963857650757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73841547966003</t>
+    <t xml:space="preserve">2.6857533454895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69453024864197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72963833808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73841571807861</t>
   </si>
   <si>
     <t xml:space="preserve">2.51021409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59798407554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6155378818512</t>
+    <t xml:space="preserve">2.59798383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61553812026978</t>
   </si>
   <si>
     <t xml:space="preserve">2.63309192657471</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33467507362366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179723739624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26327753067017</t>
+    <t xml:space="preserve">2.33467483520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179699897766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26327729225159</t>
   </si>
   <si>
     <t xml:space="preserve">2.18276572227478</t>
@@ -1058,7 +1058,7 @@
     <t xml:space="preserve">2.23644018173218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36168050765991</t>
+    <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
     <t xml:space="preserve">2.32589769363403</t>
@@ -1067,34 +1067,34 @@
     <t xml:space="preserve">2.31695199012756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33484315872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34378910064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41535544395447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42430090904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37062692642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37957262992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746403694153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3527352809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28116917610168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24538612365723</t>
+    <t xml:space="preserve">2.3348433971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34378886222839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41535520553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42430114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37062668800354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37957239151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35273504257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28116869926453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24538588523865</t>
   </si>
   <si>
     <t xml:space="preserve">2.27222299575806</t>
@@ -1106,40 +1106,40 @@
     <t xml:space="preserve">2.20065712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17381978034973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2543318271637</t>
+    <t xml:space="preserve">2.17382001876831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
     <t xml:space="preserve">2.15592837333679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29011464118958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13803672790527</t>
+    <t xml:space="preserve">2.290114402771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13803696632385</t>
   </si>
   <si>
     <t xml:space="preserve">2.14698266983032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16487407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10225367546082</t>
+    <t xml:space="preserve">2.16487431526184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10225391387939</t>
   </si>
   <si>
     <t xml:space="preserve">2.07541632652283</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12014532089233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12909126281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05752491950989</t>
+    <t xml:space="preserve">2.12014508247375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1290910243988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05752468109131</t>
   </si>
   <si>
     <t xml:space="preserve">2.06647062301636</t>
@@ -1151,7 +1151,7 @@
     <t xml:space="preserve">2.02174186706543</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0843620300293</t>
+    <t xml:space="preserve">2.08436226844788</t>
   </si>
   <si>
     <t xml:space="preserve">2.11119937896729</t>
@@ -1166,37 +1166,37 @@
     <t xml:space="preserve">1.93228447437286</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95017576217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87860953807831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86966395378113</t>
+    <t xml:space="preserve">1.9501758813858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87860941886902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86966383457184</t>
   </si>
   <si>
     <t xml:space="preserve">1.83388090133667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77126061916351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74442327022552</t>
+    <t xml:space="preserve">1.77126049995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74442338943481</t>
   </si>
   <si>
     <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68180298805237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7265317440033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73547768592834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76231479644775</t>
+    <t xml:space="preserve">1.68180310726166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72653162479401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73547756671906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76231467723846</t>
   </si>
   <si>
     <t xml:space="preserve">1.73995041847229</t>
@@ -1217,13 +1217,13 @@
     <t xml:space="preserve">1.65496563911438</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66838431358337</t>
+    <t xml:space="preserve">1.66838443279266</t>
   </si>
   <si>
     <t xml:space="preserve">1.66391146183014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68627572059631</t>
+    <t xml:space="preserve">1.68627595901489</t>
   </si>
   <si>
     <t xml:space="preserve">1.6996945142746</t>
@@ -1232,7 +1232,7 @@
     <t xml:space="preserve">1.73100447654724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70864033699036</t>
+    <t xml:space="preserve">1.70864021778107</t>
   </si>
   <si>
     <t xml:space="preserve">1.75336909294128</t>
@@ -1250,25 +1250,25 @@
     <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55656230449677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59234535694122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61023700237274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70416736602783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7131130695343</t>
+    <t xml:space="preserve">1.55656242370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59234523773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61023688316345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70416748523712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71311330795288</t>
   </si>
   <si>
     <t xml:space="preserve">1.78020632266998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81598949432373</t>
+    <t xml:space="preserve">1.81598937511444</t>
   </si>
   <si>
     <t xml:space="preserve">1.80704355239868</t>
@@ -1286,40 +1286,40 @@
     <t xml:space="preserve">1.79809784889221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755536079407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85177230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650118350983</t>
+    <t xml:space="preserve">1.88755548000336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8517724275589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650106430054</t>
   </si>
   <si>
     <t xml:space="preserve">1.92333841323853</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96806728839874</t>
+    <t xml:space="preserve">1.96806704998016</t>
   </si>
   <si>
     <t xml:space="preserve">2.01279616355896</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00385046005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04857921600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03068780899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97701287269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595893383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439294815063</t>
+    <t xml:space="preserve">2.00385022163391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04857897758484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0306875705719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9770131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595857620239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439282894135</t>
   </si>
   <si>
     <t xml:space="preserve">1.90544712543488</t>
@@ -1328,34 +1328,34 @@
     <t xml:space="preserve">1.94123005867004</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67285716533661</t>
+    <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
     <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66826152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6498783826828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65907001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68664467334747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70502758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6728572845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69583606719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69124031066895</t>
+    <t xml:space="preserve">1.66826140880585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64987850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65906989574432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68664455413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70502769947052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67285740375519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.695836186409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69124019145966</t>
   </si>
   <si>
     <t xml:space="preserve">1.70962333679199</t>
@@ -1367,46 +1367,46 @@
     <t xml:space="preserve">1.73719799518585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7326021194458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68204879760742</t>
+    <t xml:space="preserve">1.73260200023651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68204891681671</t>
   </si>
   <si>
     <t xml:space="preserve">1.65447413921356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67745316028595</t>
+    <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
     <t xml:space="preserve">1.66366565227509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63149535655975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62689971923828</t>
+    <t xml:space="preserve">1.63149547576904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62689960002899</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932506084442</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59013366699219</t>
+    <t xml:space="preserve">1.5901335477829</t>
   </si>
   <si>
     <t xml:space="preserve">1.64068686962128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60851657390594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58553767204285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60392081737518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61770808696747</t>
+    <t xml:space="preserve">1.60851669311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58553791046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60392069816589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61770820617676</t>
   </si>
   <si>
     <t xml:space="preserve">1.63609111309052</t>
@@ -1430,10 +1430,10 @@
     <t xml:space="preserve">1.59472930431366</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57175052165985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55336737632751</t>
+    <t xml:space="preserve">1.57175040245056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55336761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
@@ -1445,7 +1445,7 @@
     <t xml:space="preserve">1.53498435020447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.38332438468933</t>
+    <t xml:space="preserve">1.38332414627075</t>
   </si>
   <si>
     <t xml:space="preserve">1.3879200220108</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">1.36494123935699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22706842422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30519640445709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221750259399</t>
+    <t xml:space="preserve">1.22706830501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3051962852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221762180328</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
@@ -1469,49 +1469,49 @@
     <t xml:space="preserve">1.24085569381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31438791751862</t>
+    <t xml:space="preserve">1.31438779830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655809402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34196245670319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4108989238739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40630304813385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.39711153507233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40170729160309</t>
+    <t xml:space="preserve">1.34655833244324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3419623374939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41089880466461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40630292892456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.39711165428162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40170741081238</t>
   </si>
   <si>
     <t xml:space="preserve">1.44766497612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4936226606369</t>
+    <t xml:space="preserve">1.49362254142761</t>
   </si>
   <si>
     <t xml:space="preserve">1.49821829795837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48902678489685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47983539104462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46145236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50740969181061</t>
+    <t xml:space="preserve">1.48902690410614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47983527183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46145224571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
     <t xml:space="preserve">1.43387758731842</t>
@@ -1520,13 +1520,13 @@
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685636997223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4246860742569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42928183078766</t>
+    <t xml:space="preserve">1.45685648918152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42468619346619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42928171157837</t>
   </si>
   <si>
     <t xml:space="preserve">1.37872850894928</t>
@@ -1544,10 +1544,10 @@
     <t xml:space="preserve">1.37413275241852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35574972629547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41549468040466</t>
+    <t xml:space="preserve">1.35574960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41549456119537</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
@@ -1568,37 +1568,37 @@
     <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42009019851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46604800224304</t>
+    <t xml:space="preserve">1.42009031772614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46604812145233</t>
   </si>
   <si>
     <t xml:space="preserve">1.3281751871109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30979192256927</t>
+    <t xml:space="preserve">1.30979204177856</t>
   </si>
   <si>
     <t xml:space="preserve">1.30060052871704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.28681325912476</t>
+    <t xml:space="preserve">1.28681313991547</t>
   </si>
   <si>
     <t xml:space="preserve">1.51200556755066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48443102836609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52579283714294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53958010673523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54877173900604</t>
+    <t xml:space="preserve">1.4844309091568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52579271793365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53958022594452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54877150058746</t>
   </si>
   <si>
     <t xml:space="preserve">1.57634627819061</t>
@@ -1610,40 +1610,40 @@
     <t xml:space="preserve">1.55796325206757</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53038859367371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5671546459198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77396380901337</t>
+    <t xml:space="preserve">1.530388712883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56715476512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77396404743195</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79234707355499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8750706911087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021988868713</t>
+    <t xml:space="preserve">1.79234719276428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87507057189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021976947784</t>
   </si>
   <si>
     <t xml:space="preserve">1.88426220417023</t>
   </si>
   <si>
-    <t xml:space="preserve">1.89345383644104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83830463886261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8291130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78775143623352</t>
+    <t xml:space="preserve">1.89345395565033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8383047580719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82911312580109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78775131702423</t>
   </si>
   <si>
     <t xml:space="preserve">1.82451748847961</t>
@@ -1655,7 +1655,7 @@
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153858661652</t>
+    <t xml:space="preserve">1.80153870582581</t>
   </si>
   <si>
     <t xml:space="preserve">1.84749627113342</t>
@@ -1667,31 +1667,31 @@
     <t xml:space="preserve">1.79694283008575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83370900154114</t>
+    <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
     <t xml:space="preserve">1.86587929725647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90264534950256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92102837562561</t>
+    <t xml:space="preserve">1.90264523029327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92102825641632</t>
   </si>
   <si>
     <t xml:space="preserve">1.85668766498566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81073009967804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09566736221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647584915161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02213525772095</t>
+    <t xml:space="preserve">1.81072998046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09566760063171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08647561073303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02213501930237</t>
   </si>
   <si>
     <t xml:space="preserve">1.98536920547485</t>
@@ -1700,13 +1700,13 @@
     <t xml:space="preserve">2.04051828384399</t>
   </si>
   <si>
-    <t xml:space="preserve">2.14162468910217</t>
+    <t xml:space="preserve">2.14162492752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405062675476</t>
+    <t xml:space="preserve">2.1140501499176</t>
   </si>
   <si>
     <t xml:space="preserve">2.12324190139771</t>
@@ -1715,78 +1715,81 @@
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928592681885</t>
+    <t xml:space="preserve">2.50928616523743</t>
   </si>
   <si>
     <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46332812309265</t>
+    <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
     <t xml:space="preserve">2.63796710968018</t>
   </si>
   <si>
+    <t xml:space="preserve">2.68392467498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73035955429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69321203231812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72107291221619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82322907447815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86966347694397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81394195556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.99039387702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.19470643997192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.08326292037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.01825451850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93467235565186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85108971595764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92538523674011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.96253323554993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90681147575378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86037659645081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.80465507507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63749003410339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.60962915420532</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73035979270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69321203231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72107243537903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.82322907447815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86966347694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.81394195556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.990394115448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19470643997192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.08326315879822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.01825475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93467235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85108971595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92538547515869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.96253299713135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90681147575378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.86037683486938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.80465507507324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63749027252197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.60962915420532</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
@@ -1796,13 +1799,13 @@
     <t xml:space="preserve">2.75822043418884</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60034251213074</t>
+    <t xml:space="preserve">2.60034227371216</t>
   </si>
   <si>
     <t xml:space="preserve">2.70249891281128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65606427192688</t>
+    <t xml:space="preserve">2.6560640335083</t>
   </si>
   <si>
     <t xml:space="preserve">2.67463803291321</t>
@@ -1814,7 +1817,7 @@
     <t xml:space="preserve">2.59105563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64677691459656</t>
+    <t xml:space="preserve">2.64677715301514</t>
   </si>
   <si>
     <t xml:space="preserve">2.87895059585571</t>
@@ -1823,22 +1826,22 @@
     <t xml:space="preserve">2.91609835624695</t>
   </si>
   <si>
-    <t xml:space="preserve">2.79536819458008</t>
+    <t xml:space="preserve">2.7953679561615</t>
   </si>
   <si>
     <t xml:space="preserve">2.78608131408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83251571655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88823747634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95324635505676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.09255003929138</t>
+    <t xml:space="preserve">2.83251595497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8882372379303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95324611663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09255027770996</t>
   </si>
   <si>
     <t xml:space="preserve">3.18541955947876</t>
@@ -1859,10 +1862,10 @@
     <t xml:space="preserve">2.55390763282776</t>
   </si>
   <si>
-    <t xml:space="preserve">2.71178579330444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99968075752258</t>
+    <t xml:space="preserve">2.71178555488586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.999680519104</t>
   </si>
   <si>
     <t xml:space="preserve">3.06468915939331</t>
@@ -1874,43 +1877,43 @@
     <t xml:space="preserve">3.10183691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11112380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07397603988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97182011604309</t>
+    <t xml:space="preserve">3.11112403869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07397627830505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97181987762451</t>
   </si>
   <si>
     <t xml:space="preserve">3.03682851791382</t>
   </si>
   <si>
-    <t xml:space="preserve">3.00896763801575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.94395899772644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84180283546448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.76750755310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30316066741943</t>
+    <t xml:space="preserve">3.00896787643433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.94395923614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8418025970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.76750731468201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30316042900085</t>
   </si>
   <si>
     <t xml:space="preserve">2.25672578811646</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34959506988525</t>
+    <t xml:space="preserve">2.34959530830383</t>
   </si>
   <si>
     <t xml:space="preserve">2.48889923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38674259185791</t>
+    <t xml:space="preserve">2.38674283027649</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
@@ -1922,7 +1925,7 @@
     <t xml:space="preserve">2.5631947517395</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51675987243652</t>
+    <t xml:space="preserve">2.5167601108551</t>
   </si>
   <si>
     <t xml:space="preserve">2.4517514705658</t>
@@ -1937,16 +1940,16 @@
     <t xml:space="preserve">2.33102130889893</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35888195037842</t>
+    <t xml:space="preserve">2.358882188797</t>
   </si>
   <si>
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602994918823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36816906929016</t>
+    <t xml:space="preserve">2.39602971076965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36816883087158</t>
   </si>
   <si>
     <t xml:space="preserve">2.41460371017456</t>
@@ -1955,199 +1958,202 @@
     <t xml:space="preserve">2.28458666801453</t>
   </si>
   <si>
+    <t xml:space="preserve">2.27529978752136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30374097824097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28478002548218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31322145462036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24685835838318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22789740562439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26581931114197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.23737788200378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18049550056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15205407142639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13309359550476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07621097564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12361288070679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10465216636658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11413264274597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03828930854797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04776978492737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14257383346558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16153454780579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19945621490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.17101502418518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25633883476257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20893669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.18997573852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.05725002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02880883216858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00984787940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06673073768616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99088704586029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97192621231079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96244585514069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98140668869019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00036764144897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94348502159119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92452430725098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90556347370148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95296549797058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91504383087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93400454521179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88660264015198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86764168739319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85816144943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84868097305298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89134287834167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88186240196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89608299732208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87712216377258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08569121360779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38906455039978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44594717025757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46490788459778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41750574111938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36062335968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29426050186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32270169258118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37958431243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35114288330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33218216896057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37010359764099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34166264533997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40802550315857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.218416929245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30447006225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26557588577271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24612903594971</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.27529954910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30374097824097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28478026390076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31322145462036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24685835838318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22789740562439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26581931114197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.23737788200378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18049550056458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15205430984497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13309335708618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07621097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12361311912537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10465216636658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11413264274597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03828930854797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04776978492737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.142573595047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16153454780579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19945621490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.17101502418518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.25633883476257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2089364528656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.18997597694397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05725026130676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02880883216858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00984787940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06673049926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99088716506958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97192621231079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96244585514069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98140680789948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0003674030304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94348502159119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92452430725098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90556347370148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95296549797058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91504383087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93400454521179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88660252094269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86764180660248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85816144943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84868097305298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89134287834167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88186240196228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89608299732208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87712216377258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08569145202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38906455039978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44594717025757</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46490788459778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41750597953796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36062335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29426050186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32270169258118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37958431243896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35114312171936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33218216896057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37010359764099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34166240692139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40802526473999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21841716766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30447006225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26557588577271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24612903594971</t>
   </si>
   <si>
     <t xml:space="preserve">2.17806458473206</t>
@@ -38873,7 +38879,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1390" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -38899,7 +38905,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1391" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -38925,7 +38931,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1392" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -38951,7 +38957,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1393" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -39029,7 +39035,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1396" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -39055,7 +39061,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1397" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -39159,7 +39165,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1401" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -39185,7 +39191,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1402" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -39211,7 +39217,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1403" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -39237,7 +39243,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1404" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -39263,7 +39269,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1405" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -39289,7 +39295,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1406" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -39315,7 +39321,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1407" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -39341,7 +39347,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1408" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -39367,7 +39373,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1409" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -39393,7 +39399,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1410" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -39419,7 +39425,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1411" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -39445,7 +39451,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1412" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -39471,7 +39477,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1413" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -39497,7 +39503,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1414" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -39523,7 +39529,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1415" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -39549,7 +39555,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1416" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -39575,7 +39581,7 @@
         <v>2.89000010490417</v>
       </c>
       <c r="G1417" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -39627,7 +39633,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1419" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -39653,7 +39659,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1420" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1420" t="s">
         <v>9</v>
@@ -39731,7 +39737,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1423" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -39809,7 +39815,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1426" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -39887,7 +39893,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1429" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -39913,7 +39919,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1430" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -39965,7 +39971,7 @@
         <v>3</v>
       </c>
       <c r="G1432" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -40043,7 +40049,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1435" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -40069,7 +40075,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1436" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -40147,7 +40153,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1439" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -40355,7 +40361,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1447" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -40381,7 +40387,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1448" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -40407,7 +40413,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1449" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -40433,7 +40439,7 @@
         <v>3.32999992370605</v>
       </c>
       <c r="G1450" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -40459,7 +40465,7 @@
         <v>3.4300000667572</v>
       </c>
       <c r="G1451" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -40485,7 +40491,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1452" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -40511,7 +40517,7 @@
         <v>3.25999999046326</v>
       </c>
       <c r="G1453" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -40563,7 +40569,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1455" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -40589,7 +40595,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1456" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -40693,7 +40699,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1460" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -40719,7 +40725,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1461" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -40745,7 +40751,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1462" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -40771,7 +40777,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1463" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -40797,7 +40803,7 @@
         <v>2.75</v>
       </c>
       <c r="G1464" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1464" t="s">
         <v>9</v>
@@ -40823,7 +40829,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1465" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -40849,7 +40855,7 @@
         <v>2.85999989509583</v>
       </c>
       <c r="G1466" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -40875,7 +40881,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1467" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -40901,7 +40907,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1468" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -40927,7 +40933,7 @@
         <v>2.88000011444092</v>
       </c>
       <c r="G1469" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -40953,7 +40959,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1470" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -40979,7 +40985,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1471" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -41057,7 +41063,7 @@
         <v>3</v>
       </c>
       <c r="G1474" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -41109,7 +41115,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1476" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -41161,7 +41167,7 @@
         <v>3.23000001907349</v>
       </c>
       <c r="G1478" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -41213,7 +41219,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1480" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -41239,7 +41245,7 @@
         <v>3.29999995231628</v>
       </c>
       <c r="G1481" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -41265,7 +41271,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1482" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -41291,7 +41297,7 @@
         <v>3.27999997138977</v>
       </c>
       <c r="G1483" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -41317,7 +41323,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1484" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -41343,7 +41349,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1485" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -41369,7 +41375,7 @@
         <v>3.28999996185303</v>
       </c>
       <c r="G1486" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -41395,7 +41401,7 @@
         <v>3.34999990463257</v>
       </c>
       <c r="G1487" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -41421,7 +41427,7 @@
         <v>3.30999994277954</v>
       </c>
       <c r="G1488" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -41499,7 +41505,7 @@
         <v>3.20000004768372</v>
       </c>
       <c r="G1491" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -41525,7 +41531,7 @@
         <v>3.33999991416931</v>
       </c>
       <c r="G1492" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -41551,7 +41557,7 @@
         <v>3.26999998092651</v>
       </c>
       <c r="G1493" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -41577,7 +41583,7 @@
         <v>3.24000000953674</v>
       </c>
       <c r="G1494" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -41603,7 +41609,7 @@
         <v>3.17000007629395</v>
       </c>
       <c r="G1495" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -41629,7 +41635,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1496" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -41655,7 +41661,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1497" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -41707,7 +41713,7 @@
         <v>3</v>
       </c>
       <c r="G1499" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -41733,7 +41739,7 @@
         <v>3</v>
       </c>
       <c r="G1500" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -41785,7 +41791,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1502" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -41811,7 +41817,7 @@
         <v>3</v>
       </c>
       <c r="G1503" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -41837,7 +41843,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1504" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -41915,7 +41921,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1507" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -41941,7 +41947,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1508" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1508" t="s">
         <v>9</v>
@@ -42149,7 +42155,7 @@
         <v>3.09999990463257</v>
       </c>
       <c r="G1516" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42201,7 +42207,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1518" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42227,7 +42233,7 @@
         <v>3</v>
       </c>
       <c r="G1519" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42305,7 +42311,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1522" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42409,7 +42415,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1526" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42461,7 +42467,7 @@
         <v>3.1800000667572</v>
       </c>
       <c r="G1528" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42487,7 +42493,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1529" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42513,7 +42519,7 @@
         <v>3.10999989509583</v>
       </c>
       <c r="G1530" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42565,7 +42571,7 @@
         <v>3.00999999046326</v>
       </c>
       <c r="G1532" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42591,7 +42597,7 @@
         <v>3.14000010490417</v>
       </c>
       <c r="G1533" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42617,7 +42623,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1534" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42669,7 +42675,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1536" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42695,7 +42701,7 @@
         <v>3.11999988555908</v>
       </c>
       <c r="G1537" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42799,7 +42805,7 @@
         <v>3.05999994277954</v>
       </c>
       <c r="G1541" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42851,7 +42857,7 @@
         <v>2.95000004768372</v>
       </c>
       <c r="G1543" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42877,7 +42883,7 @@
         <v>3</v>
       </c>
       <c r="G1544" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42955,7 +42961,7 @@
         <v>3</v>
       </c>
       <c r="G1547" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -42981,7 +42987,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1548" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43007,7 +43013,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1549" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43033,7 +43039,7 @@
         <v>3</v>
       </c>
       <c r="G1550" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -43059,7 +43065,7 @@
         <v>3</v>
       </c>
       <c r="G1551" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43085,7 +43091,7 @@
         <v>3</v>
       </c>
       <c r="G1552" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43111,7 +43117,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1553" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -43137,7 +43143,7 @@
         <v>3</v>
       </c>
       <c r="G1554" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43215,7 +43221,7 @@
         <v>2.91000008583069</v>
       </c>
       <c r="G1557" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -43293,7 +43299,7 @@
         <v>2.98000001907349</v>
       </c>
       <c r="G1560" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43319,7 +43325,7 @@
         <v>3.04999995231628</v>
       </c>
       <c r="G1561" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -43371,7 +43377,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1563" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43397,7 +43403,7 @@
         <v>2.97000002861023</v>
       </c>
       <c r="G1564" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43423,7 +43429,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1565" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -43449,7 +43455,7 @@
         <v>2.92000007629395</v>
       </c>
       <c r="G1566" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43527,7 +43533,7 @@
         <v>2.86999988555908</v>
       </c>
       <c r="G1569" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -43553,7 +43559,7 @@
         <v>2.75</v>
       </c>
       <c r="G1570" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -43579,7 +43585,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43605,7 +43611,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1572" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43631,7 +43637,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1573" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43657,7 +43663,7 @@
         <v>2.6800000667572</v>
       </c>
       <c r="G1574" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -43683,7 +43689,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1575" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -43709,7 +43715,7 @@
         <v>2.61999988555908</v>
       </c>
       <c r="G1576" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -43735,7 +43741,7 @@
         <v>2.78999996185303</v>
       </c>
       <c r="G1577" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -43761,7 +43767,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1578" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -43813,7 +43819,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1580" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1580" t="s">
         <v>9</v>
@@ -43839,7 +43845,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1581" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1581" t="s">
         <v>9</v>
@@ -43865,7 +43871,7 @@
         <v>2.77999997138977</v>
       </c>
       <c r="G1582" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1582" t="s">
         <v>9</v>
@@ -43891,7 +43897,7 @@
         <v>2.82999992370605</v>
       </c>
       <c r="G1583" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1583" t="s">
         <v>9</v>
@@ -43917,7 +43923,7 @@
         <v>2.75999999046326</v>
       </c>
       <c r="G1584" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -43943,7 +43949,7 @@
         <v>2.71000003814697</v>
       </c>
       <c r="G1585" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1585" t="s">
         <v>9</v>
@@ -43969,7 +43975,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1586" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1586" t="s">
         <v>9</v>
@@ -43995,7 +44001,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1587" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1587" t="s">
         <v>9</v>
@@ -44021,7 +44027,7 @@
         <v>2.84999990463257</v>
       </c>
       <c r="G1588" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44047,7 +44053,7 @@
         <v>2.8199999332428</v>
       </c>
       <c r="G1589" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44099,7 +44105,7 @@
         <v>2.79999995231628</v>
       </c>
       <c r="G1591" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44151,7 +44157,7 @@
         <v>2.75</v>
       </c>
       <c r="G1593" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -44177,7 +44183,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1594" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44203,7 +44209,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1595" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -44229,7 +44235,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1596" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44255,7 +44261,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1597" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44281,7 +44287,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1598" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44307,7 +44313,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1599" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44333,7 +44339,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1600" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44359,7 +44365,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1601" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44385,7 +44391,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1602" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44411,7 +44417,7 @@
         <v>2.64000010490417</v>
       </c>
       <c r="G1603" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1603" t="s">
         <v>9</v>
@@ -44437,7 +44443,7 @@
         <v>2.5699999332428</v>
       </c>
       <c r="G1604" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44463,7 +44469,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1605" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44489,7 +44495,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1606" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44515,7 +44521,7 @@
         <v>2.52999997138977</v>
       </c>
       <c r="G1607" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -44541,7 +44547,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1608" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44567,7 +44573,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1609" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -44593,7 +44599,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1610" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -44619,7 +44625,7 @@
         <v>2.63000011444092</v>
       </c>
       <c r="G1611" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -44645,7 +44651,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1612" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44671,7 +44677,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1613" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44697,7 +44703,7 @@
         <v>2.55999994277954</v>
       </c>
       <c r="G1614" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -44723,7 +44729,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1615" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44749,7 +44755,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1616" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44775,7 +44781,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1617" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44801,7 +44807,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1618" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44827,7 +44833,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1619" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44853,7 +44859,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1620" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44879,7 +44885,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1621" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44905,7 +44911,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1622" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -44931,7 +44937,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1623" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -44957,7 +44963,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1624" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -44983,7 +44989,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1625" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45009,7 +45015,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1626" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45035,7 +45041,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1627" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45061,7 +45067,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1628" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45087,7 +45093,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1629" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45113,7 +45119,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1630" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45139,7 +45145,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1631" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45165,7 +45171,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1632" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45191,7 +45197,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1633" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45217,7 +45223,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1634" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45243,7 +45249,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1635" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45269,7 +45275,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1636" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45295,7 +45301,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1637" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45321,7 +45327,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1638" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45347,7 +45353,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1639" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45373,7 +45379,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1640" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45399,7 +45405,7 @@
         <v>2.25</v>
       </c>
       <c r="G1641" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45425,7 +45431,7 @@
         <v>2.25</v>
       </c>
       <c r="G1642" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45451,7 +45457,7 @@
         <v>2.25</v>
       </c>
       <c r="G1643" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45477,7 +45483,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1644" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45503,7 +45509,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1645" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45529,7 +45535,7 @@
         <v>2.25</v>
       </c>
       <c r="G1646" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45555,7 +45561,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1647" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45581,7 +45587,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1648" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45607,7 +45613,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1649" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45633,7 +45639,7 @@
         <v>2.25</v>
       </c>
       <c r="G1650" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45659,7 +45665,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1651" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45685,7 +45691,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1652" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45711,7 +45717,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1653" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45737,7 +45743,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1654" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45763,7 +45769,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1655" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45789,7 +45795,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1656" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45815,7 +45821,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1657" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45841,7 +45847,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1658" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45867,7 +45873,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1659" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45893,7 +45899,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1660" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45919,7 +45925,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1661" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -45945,7 +45951,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1662" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -45971,7 +45977,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1663" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -45997,7 +46003,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1664" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46023,7 +46029,7 @@
         <v>2.25</v>
       </c>
       <c r="G1665" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46049,7 +46055,7 @@
         <v>2.25</v>
       </c>
       <c r="G1666" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46075,7 +46081,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1667" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46101,7 +46107,7 @@
         <v>2.25</v>
       </c>
       <c r="G1668" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46127,7 +46133,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1669" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46153,7 +46159,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1670" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46179,7 +46185,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1671" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46205,7 +46211,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46231,7 +46237,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1673" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46257,7 +46263,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1674" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46283,7 +46289,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1675" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46309,7 +46315,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1676" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46335,7 +46341,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1677" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46361,7 +46367,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1678" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46387,7 +46393,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1679" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46413,7 +46419,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1680" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46439,7 +46445,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1681" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46465,7 +46471,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1682" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46491,7 +46497,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1683" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46517,7 +46523,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1684" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46543,7 +46549,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1685" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46569,7 +46575,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1686" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46595,7 +46601,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1687" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46621,7 +46627,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1688" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46647,7 +46653,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1689" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46673,7 +46679,7 @@
         <v>2.25</v>
       </c>
       <c r="G1690" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46699,7 +46705,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1691" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46725,7 +46731,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1692" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46751,7 +46757,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1693" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46777,7 +46783,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1694" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46803,7 +46809,7 @@
         <v>2.26999998092651</v>
       </c>
       <c r="G1695" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46829,7 +46835,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1696" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46855,7 +46861,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46881,7 +46887,7 @@
         <v>2.25</v>
       </c>
       <c r="G1698" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46907,7 +46913,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1699" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -46933,7 +46939,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G1700" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -46959,7 +46965,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1701" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -46985,7 +46991,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1702" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47011,7 +47017,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1703" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47037,7 +47043,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1704" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47063,7 +47069,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1705" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47089,7 +47095,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1706" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47115,7 +47121,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1707" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47141,7 +47147,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1708" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47167,7 +47173,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1709" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47193,7 +47199,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1710" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47219,7 +47225,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1711" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47245,7 +47251,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1712" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47271,7 +47277,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1713" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47297,7 +47303,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G1714" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47323,7 +47329,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1715" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47349,7 +47355,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1716" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47375,7 +47381,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1717" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47401,7 +47407,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1718" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47427,7 +47433,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1719" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47453,7 +47459,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1720" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47479,7 +47485,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1721" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47505,7 +47511,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1722" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47531,7 +47537,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1723" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47557,7 +47563,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1724" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47583,7 +47589,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1725" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47609,7 +47615,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1726" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47635,7 +47641,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1727" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47661,7 +47667,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1728" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47687,7 +47693,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1729" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47713,7 +47719,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1730" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47739,7 +47745,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1731" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47765,7 +47771,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1732" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47791,7 +47797,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1733" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47817,7 +47823,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1734" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47843,7 +47849,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1735" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47869,7 +47875,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1736" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47895,7 +47901,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1737" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47921,7 +47927,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1738" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -47947,7 +47953,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1739" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -47973,7 +47979,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -47999,7 +48005,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1741" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48025,7 +48031,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G1742" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48051,7 +48057,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1743" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48077,7 +48083,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1744" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48103,7 +48109,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1745" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48129,7 +48135,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1746" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48155,7 +48161,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1747" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48181,7 +48187,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1748" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48207,7 +48213,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1749" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48233,7 +48239,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1750" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48259,7 +48265,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1751" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48285,7 +48291,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1752" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48311,7 +48317,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1753" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48337,7 +48343,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1754" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48363,7 +48369,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1755" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48389,7 +48395,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1756" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48415,7 +48421,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1757" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48441,7 +48447,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1758" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48467,7 +48473,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1759" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48493,7 +48499,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1760" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48519,7 +48525,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1761" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48545,7 +48551,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1762" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48571,7 +48577,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1763" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48597,7 +48603,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1764" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48623,7 +48629,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1765" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48649,7 +48655,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1766" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48675,7 +48681,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1767" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48701,7 +48707,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1768" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48727,7 +48733,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1769" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48753,7 +48759,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G1770" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48779,7 +48785,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1771" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48805,7 +48811,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1772" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48831,7 +48837,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1773" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48857,7 +48863,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1774" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48883,7 +48889,7 @@
         <v>2</v>
       </c>
       <c r="G1775" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48909,7 +48915,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1776" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -48935,7 +48941,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1777" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -48961,7 +48967,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1778" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -48987,7 +48993,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1779" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49013,7 +49019,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1780" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49039,7 +49045,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1781" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49065,7 +49071,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G1782" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49091,7 +49097,7 @@
         <v>2.00999999046326</v>
       </c>
       <c r="G1783" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49117,7 +49123,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1784" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49143,7 +49149,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1785" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49169,7 +49175,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1786" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49195,7 +49201,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G1787" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49221,7 +49227,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G1788" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49247,7 +49253,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G1789" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49273,7 +49279,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1790" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49299,7 +49305,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1791" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49325,7 +49331,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1792" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49351,7 +49357,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1793" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49377,7 +49383,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1794" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49403,7 +49409,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1795" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49429,7 +49435,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1796" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49455,7 +49461,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1797" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49481,7 +49487,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1798" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49507,7 +49513,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1799" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49533,7 +49539,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1800" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49559,7 +49565,7 @@
         <v>2.57999992370605</v>
       </c>
       <c r="G1801" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49585,7 +49591,7 @@
         <v>2.59999990463257</v>
       </c>
       <c r="G1802" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49611,7 +49617,7 @@
         <v>2.54999995231628</v>
       </c>
       <c r="G1803" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49637,7 +49643,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1804" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49663,7 +49669,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1805" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49689,7 +49695,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1806" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49715,7 +49721,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1807" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49741,7 +49747,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1808" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49767,7 +49773,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1809" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49793,7 +49799,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1810" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49819,7 +49825,7 @@
         <v>2.51999998092651</v>
       </c>
       <c r="G1811" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49845,7 +49851,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49871,7 +49877,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1813" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49897,7 +49903,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1814" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49923,7 +49929,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -49949,7 +49955,7 @@
         <v>2.5</v>
       </c>
       <c r="G1816" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -49975,7 +49981,7 @@
         <v>2.5</v>
       </c>
       <c r="G1817" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50001,7 +50007,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1818" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50027,7 +50033,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1819" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50053,7 +50059,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1820" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50079,7 +50085,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1821" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50105,7 +50111,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1822" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50131,7 +50137,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1823" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50157,7 +50163,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1824" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50183,7 +50189,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1825" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50209,7 +50215,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1826" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50235,7 +50241,7 @@
         <v>2.53999996185303</v>
       </c>
       <c r="G1827" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50261,7 +50267,7 @@
         <v>2.5</v>
       </c>
       <c r="G1828" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50287,7 +50293,7 @@
         <v>2.5</v>
       </c>
       <c r="G1829" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50313,7 +50319,7 @@
         <v>2.48000001907349</v>
       </c>
       <c r="G1830" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50339,7 +50345,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1831" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50365,7 +50371,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1832" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50391,7 +50397,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1833" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50417,7 +50423,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1834" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50443,7 +50449,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1835" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50469,7 +50475,7 @@
         <v>2.27999997138977</v>
       </c>
       <c r="G1836" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50495,7 +50501,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1837" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50521,7 +50527,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1838" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50547,7 +50553,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1839" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50573,7 +50579,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1840" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50599,7 +50605,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1841" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50625,7 +50631,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1842" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50651,7 +50657,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1843" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50677,7 +50683,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1844" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50703,7 +50709,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1845" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50729,7 +50735,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1846" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50755,7 +50761,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1847" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50781,7 +50787,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1848" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50807,7 +50813,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1849" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50833,7 +50839,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1850" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50859,7 +50865,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1851" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50885,7 +50891,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1852" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50911,7 +50917,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1853" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -50937,7 +50943,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1854" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -50963,7 +50969,7 @@
         <v>2.39000010490417</v>
       </c>
       <c r="G1855" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -50989,7 +50995,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1856" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51015,7 +51021,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1857" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51041,7 +51047,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1858" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51067,7 +51073,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1859" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51093,7 +51099,7 @@
         <v>2.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51119,7 +51125,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1861" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51145,7 +51151,7 @@
         <v>2.41000008583069</v>
       </c>
       <c r="G1862" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51171,7 +51177,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1863" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51197,7 +51203,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1864" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51223,7 +51229,7 @@
         <v>2.4300000667572</v>
       </c>
       <c r="G1865" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51249,7 +51255,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1866" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51275,7 +51281,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1867" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51301,7 +51307,7 @@
         <v>2.44000005722046</v>
       </c>
       <c r="G1868" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51327,7 +51333,7 @@
         <v>2.46000003814697</v>
       </c>
       <c r="G1869" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51353,7 +51359,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1870" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51379,7 +51385,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1871" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51405,7 +51411,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1872" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51431,7 +51437,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1873" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51457,7 +51463,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1874" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51483,7 +51489,7 @@
         <v>2.42000007629395</v>
       </c>
       <c r="G1875" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51509,7 +51515,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1876" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51535,7 +51541,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1877" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51561,7 +51567,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1878" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51587,7 +51593,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1879" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51613,7 +51619,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1880" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51639,7 +51645,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1881" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51665,7 +51671,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1882" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51691,7 +51697,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1883" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51717,7 +51723,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1884" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51743,7 +51749,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1885" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51769,7 +51775,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1886" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51795,7 +51801,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1887" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51821,7 +51827,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1888" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51847,7 +51853,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1889" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51873,7 +51879,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1890" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51899,7 +51905,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1891" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -51925,7 +51931,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1892" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -51951,7 +51957,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1893" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -51977,7 +51983,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1894" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52003,7 +52009,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G1895" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52029,7 +52035,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1896" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52055,7 +52061,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1897" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52081,7 +52087,7 @@
         <v>2.25999999046326</v>
       </c>
       <c r="G1898" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52107,7 +52113,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1899" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52133,7 +52139,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1900" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52159,7 +52165,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1901" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52185,7 +52191,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1902" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52211,7 +52217,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G1903" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52237,7 +52243,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1904" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52263,7 +52269,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1905" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52289,7 +52295,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1906" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52315,7 +52321,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1907" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52341,7 +52347,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1908" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52367,7 +52373,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1909" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52393,7 +52399,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1910" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52419,7 +52425,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G1911" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52445,7 +52451,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1912" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52471,7 +52477,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G1913" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52497,7 +52503,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1914" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52523,7 +52529,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1915" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52549,7 +52555,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1916" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52575,7 +52581,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1917" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52601,7 +52607,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1918" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52627,7 +52633,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1919" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52653,7 +52659,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1920" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52679,7 +52685,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1921" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52705,7 +52711,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G1922" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52731,7 +52737,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G1923" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52757,7 +52763,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G1924" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52783,7 +52789,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G1925" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52809,7 +52815,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1926" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52835,7 +52841,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1927" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52861,7 +52867,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1928" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52887,7 +52893,7 @@
         <v>2.29999995231628</v>
       </c>
       <c r="G1929" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52913,7 +52919,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1930" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -52939,7 +52945,7 @@
         <v>2.38000011444092</v>
       </c>
       <c r="G1931" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -52965,7 +52971,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1932" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -52991,7 +52997,7 @@
         <v>2.40000009536743</v>
       </c>
       <c r="G1933" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53017,7 +53023,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1934" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53043,7 +53049,7 @@
         <v>2.50999999046326</v>
       </c>
       <c r="G1935" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53069,7 +53075,7 @@
         <v>2.49000000953674</v>
       </c>
       <c r="G1936" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53095,7 +53101,7 @@
         <v>2.47000002861023</v>
       </c>
       <c r="G1937" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53121,7 +53127,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1938" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53147,7 +53153,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1939" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53173,7 +53179,7 @@
         <v>2.45000004768372</v>
       </c>
       <c r="G1940" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53199,7 +53205,7 @@
         <v>2.36999988555908</v>
       </c>
       <c r="G1941" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53225,7 +53231,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1942" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53251,7 +53257,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1943" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53277,7 +53283,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1944" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53303,7 +53309,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1945" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53329,7 +53335,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1946" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53355,7 +53361,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1947" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53381,7 +53387,7 @@
         <v>2.28999996185303</v>
       </c>
       <c r="G1948" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53407,7 +53413,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1949" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53433,7 +53439,7 @@
         <v>2.35999989509583</v>
       </c>
       <c r="G1950" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53459,7 +53465,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1951" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53485,7 +53491,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1952" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53511,7 +53517,7 @@
         <v>2.33999991416931</v>
       </c>
       <c r="G1953" t="s">
-        <v>647</v>
+        <v>713</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53537,7 +53543,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1954" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53563,7 +53569,7 @@
         <v>2.32999992370605</v>
       </c>
       <c r="G1955" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53589,7 +53595,7 @@
         <v>2.34999990463257</v>
       </c>
       <c r="G1956" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53615,7 +53621,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1957" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53641,7 +53647,7 @@
         <v>2.3199999332428</v>
       </c>
       <c r="G1958" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53667,7 +53673,7 @@
         <v>2.30999994277954</v>
       </c>
       <c r="G1959" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53693,7 +53699,7 @@
         <v>2.22000002861023</v>
       </c>
       <c r="G1960" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53719,7 +53725,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G1961" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53745,7 +53751,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G1962" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53771,7 +53777,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G1963" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53797,7 +53803,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G1964" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53823,7 +53829,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1965" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53849,7 +53855,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G1966" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53875,7 +53881,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1967" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53901,7 +53907,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1968" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -53927,7 +53933,7 @@
         <v>2.01999998092651</v>
       </c>
       <c r="G1969" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -53953,7 +53959,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1970" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -53979,7 +53985,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G1971" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54005,7 +54011,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G1972" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54031,7 +54037,7 @@
         <v>2</v>
       </c>
       <c r="G1973" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54057,7 +54063,7 @@
         <v>2</v>
       </c>
       <c r="G1974" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54083,7 +54089,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1975" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54109,7 +54115,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G1976" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54135,7 +54141,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1977" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54161,7 +54167,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1978" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54187,7 +54193,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1979" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54213,7 +54219,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1980" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54239,7 +54245,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1981" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54265,7 +54271,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G1982" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54291,7 +54297,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G1983" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54317,7 +54323,7 @@
         <v>2</v>
       </c>
       <c r="G1984" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54343,7 +54349,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1985" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54369,7 +54375,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1986" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54395,7 +54401,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G1987" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54421,7 +54427,7 @@
         <v>2</v>
       </c>
       <c r="G1988" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54447,7 +54453,7 @@
         <v>2</v>
       </c>
       <c r="G1989" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54473,7 +54479,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G1990" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54499,7 +54505,7 @@
         <v>2</v>
       </c>
       <c r="G1991" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54525,7 +54531,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1992" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54551,7 +54557,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G1993" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54577,7 +54583,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G1994" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54603,7 +54609,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G1995" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54629,7 +54635,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1996" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54655,7 +54661,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G1997" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54681,7 +54687,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G1998" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54707,7 +54713,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G1999" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54733,7 +54739,7 @@
         <v>2</v>
       </c>
       <c r="G2000" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54759,7 +54765,7 @@
         <v>2</v>
       </c>
       <c r="G2001" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54785,7 +54791,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2002" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54811,7 +54817,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2003" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54837,7 +54843,7 @@
         <v>1.95500004291534</v>
       </c>
       <c r="G2004" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54863,7 +54869,7 @@
         <v>2</v>
       </c>
       <c r="G2005" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54889,7 +54895,7 @@
         <v>2</v>
       </c>
       <c r="G2006" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54915,7 +54921,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2007" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -54941,7 +54947,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2008" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -54967,7 +54973,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2009" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -54993,7 +54999,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2010" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55019,7 +55025,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2011" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55045,7 +55051,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2012" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55071,7 +55077,7 @@
         <v>1.99500000476837</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55097,7 +55103,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2014" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55123,7 +55129,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2015" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55149,7 +55155,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2016" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55175,7 +55181,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2017" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55201,7 +55207,7 @@
         <v>1.9099999666214</v>
       </c>
       <c r="G2018" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55227,7 +55233,7 @@
         <v>1.93499994277954</v>
       </c>
       <c r="G2019" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55253,7 +55259,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2020" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55279,7 +55285,7 @@
         <v>2</v>
       </c>
       <c r="G2021" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55305,7 +55311,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2022" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55331,7 +55337,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55357,7 +55363,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2024" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55383,7 +55389,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2025" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55409,7 +55415,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2026" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55435,7 +55441,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2027" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55461,7 +55467,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2028" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55487,7 +55493,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2029" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55513,7 +55519,7 @@
         <v>1.96000003814697</v>
       </c>
       <c r="G2030" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55539,7 +55545,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2031" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55565,7 +55571,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2032" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55591,7 +55597,7 @@
         <v>1.9650000333786</v>
       </c>
       <c r="G2033" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55617,7 +55623,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2034" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55643,7 +55649,7 @@
         <v>1.99000000953674</v>
       </c>
       <c r="G2035" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55669,7 +55675,7 @@
         <v>1.97000002861023</v>
       </c>
       <c r="G2036" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55695,7 +55701,7 @@
         <v>1.98500001430511</v>
       </c>
       <c r="G2037" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55721,7 +55727,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2038" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55747,7 +55753,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2039" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55773,7 +55779,7 @@
         <v>1.94000005722046</v>
       </c>
       <c r="G2040" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55799,7 +55805,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2041" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55825,7 +55831,7 @@
         <v>1.91999995708466</v>
       </c>
       <c r="G2042" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55851,7 +55857,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2043" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55877,7 +55883,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2044" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55903,7 +55909,7 @@
         <v>1.92999994754791</v>
       </c>
       <c r="G2045" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -55929,7 +55935,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2046" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -55955,7 +55961,7 @@
         <v>1.875</v>
       </c>
       <c r="G2047" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -55981,7 +55987,7 @@
         <v>1.875</v>
       </c>
       <c r="G2048" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56007,7 +56013,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2049" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56033,7 +56039,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56059,7 +56065,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56085,7 +56091,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2052" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56111,7 +56117,7 @@
         <v>1.875</v>
       </c>
       <c r="G2053" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56137,7 +56143,7 @@
         <v>1.875</v>
       </c>
       <c r="G2054" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56163,7 +56169,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2055" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56189,7 +56195,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2056" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56215,7 +56221,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2057" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56241,7 +56247,7 @@
         <v>1.81500005722046</v>
       </c>
       <c r="G2058" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56267,7 +56273,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2059" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56293,7 +56299,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2060" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56319,7 +56325,7 @@
         <v>1.77999997138977</v>
       </c>
       <c r="G2061" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56345,7 +56351,7 @@
         <v>1.79999995231628</v>
       </c>
       <c r="G2062" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56371,7 +56377,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2063" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56397,7 +56403,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2064" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56423,7 +56429,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2065" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56449,7 +56455,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2066" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56475,7 +56481,7 @@
         <v>1.85000002384186</v>
       </c>
       <c r="G2067" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56501,7 +56507,7 @@
         <v>1.83000004291534</v>
       </c>
       <c r="G2068" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56527,7 +56533,7 @@
         <v>1.80499994754791</v>
       </c>
       <c r="G2069" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56553,7 +56559,7 @@
         <v>1.82000005245209</v>
       </c>
       <c r="G2070" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56579,7 +56585,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2071" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56605,7 +56611,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2072" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56631,7 +56637,7 @@
         <v>1.89499998092651</v>
       </c>
       <c r="G2073" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56657,7 +56663,7 @@
         <v>1.86500000953674</v>
       </c>
       <c r="G2074" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56683,7 +56689,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2075" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56709,7 +56715,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2076" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56735,7 +56741,7 @@
         <v>1.88499999046326</v>
       </c>
       <c r="G2077" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56761,7 +56767,7 @@
         <v>1.87999999523163</v>
       </c>
       <c r="G2078" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56787,7 +56793,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2079" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56813,7 +56819,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2080" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56839,7 +56845,7 @@
         <v>1.86000001430511</v>
       </c>
       <c r="G2081" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56865,7 +56871,7 @@
         <v>1.83500003814697</v>
       </c>
       <c r="G2082" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56891,7 +56897,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2083" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -56917,7 +56923,7 @@
         <v>1.8400000333786</v>
       </c>
       <c r="G2084" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -56943,7 +56949,7 @@
         <v>1.87000000476837</v>
       </c>
       <c r="G2085" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -56969,7 +56975,7 @@
         <v>1.84500002861023</v>
       </c>
       <c r="G2086" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -56995,7 +57001,7 @@
         <v>1.90499997138977</v>
       </c>
       <c r="G2087" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57021,7 +57027,7 @@
         <v>1.98000001907349</v>
       </c>
       <c r="G2088" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57047,7 +57053,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2089" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57073,7 +57079,7 @@
         <v>1.92499995231628</v>
       </c>
       <c r="G2090" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57099,7 +57105,7 @@
         <v>1.94500005245209</v>
       </c>
       <c r="G2091" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57125,7 +57131,7 @@
         <v>1.89999997615814</v>
       </c>
       <c r="G2092" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57151,7 +57157,7 @@
         <v>1.95000004768372</v>
       </c>
       <c r="G2093" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57177,7 +57183,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2094" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57203,7 +57209,7 @@
         <v>2</v>
       </c>
       <c r="G2095" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57229,7 +57235,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2096" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57255,7 +57261,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2097" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57281,7 +57287,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2098" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57307,7 +57313,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2099" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57333,7 +57339,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2100" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57359,7 +57365,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2101" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57385,7 +57391,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2102" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57411,7 +57417,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2103" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57437,7 +57443,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2104" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57463,7 +57469,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2105" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57489,7 +57495,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2106" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57515,7 +57521,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2107" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57541,7 +57547,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2108" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57567,7 +57573,7 @@
         <v>2.13000011444092</v>
       </c>
       <c r="G2109" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57593,7 +57599,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2110" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57619,7 +57625,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2111" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57645,7 +57651,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2112" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57671,7 +57677,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2113" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57697,7 +57703,7 @@
         <v>2.14000010490417</v>
       </c>
       <c r="G2114" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57723,7 +57729,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2115" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57749,7 +57755,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2116" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57775,7 +57781,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2117" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57801,7 +57807,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2118" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57827,7 +57833,7 @@
         <v>2.24000000953674</v>
       </c>
       <c r="G2119" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57853,7 +57859,7 @@
         <v>2.23000001907349</v>
       </c>
       <c r="G2120" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57879,7 +57885,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2121" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57905,7 +57911,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2122" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -57931,7 +57937,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2123" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -57957,7 +57963,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2124" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -57983,7 +57989,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2125" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58009,7 +58015,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2126" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58035,7 +58041,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2127" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58061,7 +58067,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2128" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58087,7 +58093,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2129" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58113,7 +58119,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2130" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58139,7 +58145,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2131" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58165,7 +58171,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58191,7 +58197,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2133" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58217,7 +58223,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2134" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58243,7 +58249,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2135" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58269,7 +58275,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2136" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58295,7 +58301,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2137" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58321,7 +58327,7 @@
         <v>2.1800000667572</v>
       </c>
       <c r="G2138" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58347,7 +58353,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2139" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58373,7 +58379,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58399,7 +58405,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2141" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58425,7 +58431,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58451,7 +58457,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2143" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58477,7 +58483,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58503,7 +58509,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2145" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58529,7 +58535,7 @@
         <v>2.20000004768372</v>
       </c>
       <c r="G2146" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58555,7 +58561,7 @@
         <v>2.19000005722046</v>
       </c>
       <c r="G2147" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58581,7 +58587,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2148" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58607,7 +58613,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2149" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58633,7 +58639,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2150" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58659,7 +58665,7 @@
         <v>2.17000007629395</v>
       </c>
       <c r="G2151" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58685,7 +58691,7 @@
         <v>2.09999990463257</v>
       </c>
       <c r="G2152" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58711,7 +58717,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2153" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58737,7 +58743,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2154" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58763,7 +58769,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2155" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58789,7 +58795,7 @@
         <v>2.11999988555908</v>
       </c>
       <c r="G2156" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58815,7 +58821,7 @@
         <v>2.04999995231628</v>
       </c>
       <c r="G2157" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58841,7 +58847,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2158" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58867,7 +58873,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2159" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -58893,7 +58899,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2160" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -58919,7 +58925,7 @@
         <v>2.03999996185303</v>
       </c>
       <c r="G2161" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -58945,7 +58951,7 @@
         <v>2.02999997138977</v>
       </c>
       <c r="G2162" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -58971,7 +58977,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -58997,7 +59003,7 @@
         <v>2.08999991416931</v>
       </c>
       <c r="G2164" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59023,7 +59029,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2165" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59049,7 +59055,7 @@
         <v>2.10999989509583</v>
       </c>
       <c r="G2166" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59075,7 +59081,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2167" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59101,7 +59107,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2168" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -59127,7 +59133,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2169" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -59153,7 +59159,7 @@
         <v>2.05999994277954</v>
       </c>
       <c r="G2170" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -59179,7 +59185,7 @@
         <v>2.07999992370605</v>
       </c>
       <c r="G2171" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -59205,7 +59211,7 @@
         <v>2.0699999332428</v>
       </c>
       <c r="G2172" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -59231,7 +59237,7 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2173" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59257,7 +59263,7 @@
         <v>2.16000008583069</v>
       </c>
       <c r="G2174" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59265,7 +59271,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6232986111</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>23600</v>
@@ -59283,9 +59289,35 @@
         <v>2.15000009536743</v>
       </c>
       <c r="G2175" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6189699074</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>2376</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>2.15000009536743</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>792</v>
+      </c>
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -38,100 +38,100 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338227748871</t>
+    <t xml:space="preserve">1.80338215827942</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827845096588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74383676052094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75404453277588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73533010482788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72682356834412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71661567687988</t>
+    <t xml:space="preserve">1.79827857017517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74383652210236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75404441356659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73533022403717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72682368755341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71661555767059</t>
   </si>
   <si>
     <t xml:space="preserve">1.68854439258575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66047275066376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64175832271576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53117346763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64090800285339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64005708694458</t>
+    <t xml:space="preserve">1.66047263145447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64175844192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5311735868454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6409078836441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64005696773529</t>
   </si>
   <si>
     <t xml:space="preserve">1.63410258293152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65026521682739</t>
+    <t xml:space="preserve">1.65026497840881</t>
   </si>
   <si>
     <t xml:space="preserve">1.63325190544128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773229598999</t>
+    <t xml:space="preserve">1.60773241519928</t>
   </si>
   <si>
     <t xml:space="preserve">1.55839455127716</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58646619319916</t>
+    <t xml:space="preserve">1.58646583557129</t>
   </si>
   <si>
     <t xml:space="preserve">1.6128363609314</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58221280574799</t>
+    <t xml:space="preserve">1.5822126865387</t>
   </si>
   <si>
     <t xml:space="preserve">1.49714756011963</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55158936977386</t>
+    <t xml:space="preserve">1.55158948898315</t>
   </si>
   <si>
     <t xml:space="preserve">1.50565409660339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48608922958374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56434905529022</t>
+    <t xml:space="preserve">1.48608911037445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5643492937088</t>
   </si>
   <si>
     <t xml:space="preserve">1.7013041973114</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68429100513458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70640814304352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69279766082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68684315681458</t>
+    <t xml:space="preserve">1.68429112434387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70640802383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69279754161835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68684303760529</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194674491882</t>
@@ -143,10 +143,10 @@
     <t xml:space="preserve">1.71831703186035</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65366756916046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64686238765717</t>
+    <t xml:space="preserve">1.65366768836975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64686250686646</t>
   </si>
   <si>
     <t xml:space="preserve">1.61623883247375</t>
@@ -155,46 +155,46 @@
     <t xml:space="preserve">1.69024562835693</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68173909187317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65111553668976</t>
+    <t xml:space="preserve">1.68173921108246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65111577510834</t>
   </si>
   <si>
     <t xml:space="preserve">1.62049210071564</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63750505447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63240122795105</t>
+    <t xml:space="preserve">1.63750529289246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63240134716034</t>
   </si>
   <si>
     <t xml:space="preserve">1.61538827419281</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60432982444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58051145076752</t>
+    <t xml:space="preserve">1.60432994365692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58051133155823</t>
   </si>
   <si>
     <t xml:space="preserve">1.58986866474152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60177791118622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688173770905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59922587871552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59752464294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54818689823151</t>
+    <t xml:space="preserve">1.60177779197693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688185691833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5992259979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59752476215363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54818677902222</t>
   </si>
   <si>
     <t xml:space="preserve">1.53202438354492</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">1.56094646453857</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53287518024445</t>
+    <t xml:space="preserve">1.53287506103516</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096593379974</t>
@@ -221,37 +221,37 @@
     <t xml:space="preserve">1.55329060554504</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54648554325104</t>
+    <t xml:space="preserve">1.54648530483246</t>
   </si>
   <si>
     <t xml:space="preserve">1.53968012332916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52862191200256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50395286083221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49703001976013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654876232147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626185417175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47885799407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47539675235748</t>
+    <t xml:space="preserve">1.52862179279327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50395274162292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49703013896942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654888153076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626197338104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47885811328888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47539687156677</t>
   </si>
   <si>
     <t xml:space="preserve">1.46933925151825</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45376324653625</t>
+    <t xml:space="preserve">1.45376348495483</t>
   </si>
   <si>
     <t xml:space="preserve">1.48405003547668</t>
@@ -260,40 +260,40 @@
     <t xml:space="preserve">1.47972345352173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48664629459381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49270355701447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299010753632</t>
+    <t xml:space="preserve">1.48664617538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49270343780518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299022674561</t>
   </si>
   <si>
     <t xml:space="preserve">1.48837685585022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46674346923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4736659526825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50568342208862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44510996341705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45116746425629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42001533508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46760869026184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45895528793335</t>
+    <t xml:space="preserve">1.46674358844757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47366607189178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50568330287933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44511008262634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45116722583771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42001521587372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46760880947113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45895540714264</t>
   </si>
   <si>
     <t xml:space="preserve">1.51433682441711</t>
@@ -302,34 +302,34 @@
     <t xml:space="preserve">1.47107005119324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46501278877258</t>
+    <t xml:space="preserve">1.46501243114471</t>
   </si>
   <si>
     <t xml:space="preserve">1.52039420604706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49183809757233</t>
+    <t xml:space="preserve">1.49183797836304</t>
   </si>
   <si>
     <t xml:space="preserve">1.52212488651276</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47712755203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50222206115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616479873657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5299129486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827968120575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51087546348572</t>
+    <t xml:space="preserve">1.47712731361389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50222218036652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616467952728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991282939911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827956199646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
     <t xml:space="preserve">1.51347148418427</t>
@@ -338,43 +338,43 @@
     <t xml:space="preserve">1.53077816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50308740139008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049138069153</t>
+    <t xml:space="preserve">1.50308763980865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049149990082</t>
   </si>
   <si>
     <t xml:space="preserve">1.50135684013367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53337430953979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318481445312</t>
+    <t xml:space="preserve">1.53337419033051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318469524384</t>
   </si>
   <si>
     <t xml:space="preserve">1.51866352558136</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51174092292786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54375839233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55500769615173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54895043373108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5402969121933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53250873088837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55587291717529</t>
+    <t xml:space="preserve">1.51174080371857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54375827312469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55500757694244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5489501953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54029667377472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53250885009766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55587303638458</t>
   </si>
   <si>
     <t xml:space="preserve">1.54462337493896</t>
@@ -383,10 +383,10 @@
     <t xml:space="preserve">1.5576034784317</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49443411827087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010753631592</t>
+    <t xml:space="preserve">1.49443423748016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010729789734</t>
   </si>
   <si>
     <t xml:space="preserve">1.48231947422028</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">1.526451587677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55673825740814</t>
+    <t xml:space="preserve">1.55673837661743</t>
   </si>
   <si>
     <t xml:space="preserve">1.54116225242615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55327677726746</t>
+    <t xml:space="preserve">1.55327689647675</t>
   </si>
   <si>
     <t xml:space="preserve">1.542027592659</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51693284511566</t>
+    <t xml:space="preserve">1.51693272590637</t>
   </si>
   <si>
     <t xml:space="preserve">1.5385662317276</t>
@@ -422,10 +422,10 @@
     <t xml:space="preserve">1.5160676240921</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54635429382324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57404494285583</t>
+    <t xml:space="preserve">1.54635405540466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57404482364655</t>
   </si>
   <si>
     <t xml:space="preserve">1.57837164402008</t>
@@ -434,49 +434,49 @@
     <t xml:space="preserve">1.57317960262299</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56971836090088</t>
+    <t xml:space="preserve">1.56971824169159</t>
   </si>
   <si>
     <t xml:space="preserve">1.54981565475464</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55846881866455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59135162830353</t>
+    <t xml:space="preserve">1.55846893787384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59135174751282</t>
   </si>
   <si>
     <t xml:space="preserve">1.59221708774567</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60000514984131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5662567615509</t>
+    <t xml:space="preserve">1.60000503063202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56625688076019</t>
   </si>
   <si>
     <t xml:space="preserve">1.55414223670959</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64413726329803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58096766471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60779321193695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57664096355438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57750630378723</t>
+    <t xml:space="preserve">1.64413714408875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58096754550934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60779309272766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57664108276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57750642299652</t>
   </si>
   <si>
     <t xml:space="preserve">1.59827435016632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59913980960846</t>
+    <t xml:space="preserve">1.59913969039917</t>
   </si>
   <si>
     <t xml:space="preserve">1.60087037086487</t>
@@ -491,16 +491,16 @@
     <t xml:space="preserve">1.61731171607971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61817717552185</t>
+    <t xml:space="preserve">1.61817705631256</t>
   </si>
   <si>
     <t xml:space="preserve">1.65192520618439</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59654378890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60519707202911</t>
+    <t xml:space="preserve">1.59654366970062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60519695281982</t>
   </si>
   <si>
     <t xml:space="preserve">1.61904239654541</t>
@@ -512,58 +512,58 @@
     <t xml:space="preserve">1.65971314907074</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6605783700943</t>
+    <t xml:space="preserve">1.66057848930359</t>
   </si>
   <si>
     <t xml:space="preserve">1.65279042720795</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67442393302917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67009711265564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66144382953644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64154100418091</t>
+    <t xml:space="preserve">1.67442381381989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67009723186493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66144394874573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6415411233902</t>
   </si>
   <si>
     <t xml:space="preserve">1.6363490819931</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65625190734863</t>
+    <t xml:space="preserve">1.65625178813934</t>
   </si>
   <si>
     <t xml:space="preserve">1.68048119544983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317439079285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76701486110687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82585740089417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81893467903137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682015419006</t>
+    <t xml:space="preserve">1.66317451000214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76701474189758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82585752010345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81893479824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682027339935</t>
   </si>
   <si>
     <t xml:space="preserve">1.77739870548248</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79816699028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77393758296967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75836133956909</t>
+    <t xml:space="preserve">1.79816675186157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393734455109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75836145877838</t>
   </si>
   <si>
     <t xml:space="preserve">1.79124402999878</t>
@@ -572,10 +572,10 @@
     <t xml:space="preserve">1.75143873691559</t>
   </si>
   <si>
-    <t xml:space="preserve">1.72980535030365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74797737598419</t>
+    <t xml:space="preserve">1.72980523109436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7479772567749</t>
   </si>
   <si>
     <t xml:space="preserve">1.74451613426208</t>
@@ -584,28 +584,28 @@
     <t xml:space="preserve">1.75663077831268</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82758820056915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201219558716</t>
+    <t xml:space="preserve">1.82758831977844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201207637787</t>
   </si>
   <si>
     <t xml:space="preserve">1.74105489253998</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74278521537781</t>
+    <t xml:space="preserve">1.7427853345871</t>
   </si>
   <si>
     <t xml:space="preserve">1.71855592727661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73932409286499</t>
+    <t xml:space="preserve">1.7393239736557</t>
   </si>
   <si>
     <t xml:space="preserve">1.76528406143188</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78432142734528</t>
+    <t xml:space="preserve">1.78432130813599</t>
   </si>
   <si>
     <t xml:space="preserve">1.80855071544647</t>
@@ -617,7 +617,7 @@
     <t xml:space="preserve">1.76874530315399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78259062767029</t>
+    <t xml:space="preserve">1.782590508461</t>
   </si>
   <si>
     <t xml:space="preserve">1.79989731311798</t>
@@ -626,28 +626,28 @@
     <t xml:space="preserve">1.82412672042847</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81720411777496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80335879325867</t>
+    <t xml:space="preserve">1.81720387935638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80335867404938</t>
   </si>
   <si>
     <t xml:space="preserve">1.84316444396973</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79297506809235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81547355651855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78605210781097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85354816913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83451068401337</t>
+    <t xml:space="preserve">1.79297482967377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81547367572784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78605222702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85354828834534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83451080322266</t>
   </si>
   <si>
     <t xml:space="preserve">1.87777757644653</t>
@@ -656,25 +656,25 @@
     <t xml:space="preserve">1.92623662948608</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9210444688797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90373778343201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83797228336334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96253144741058</t>
+    <t xml:space="preserve">1.92104458808899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90373766422272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83797240257263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.962531208992</t>
   </si>
   <si>
     <t xml:space="preserve">2.04503440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41366720199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42244458198547</t>
+    <t xml:space="preserve">2.41366767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42244434356689</t>
   </si>
   <si>
     <t xml:space="preserve">2.3083438873291</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">2.43648767471313</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39260268211365</t>
+    <t xml:space="preserve">2.39260292053223</t>
   </si>
   <si>
     <t xml:space="preserve">2.41717839241028</t>
@@ -704,49 +704,49 @@
     <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13280439376831</t>
+    <t xml:space="preserve">2.13280463218689</t>
   </si>
   <si>
     <t xml:space="preserve">2.08014249801636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.01870346069336</t>
+    <t xml:space="preserve">2.01870393753052</t>
   </si>
   <si>
     <t xml:space="preserve">2.07136559486389</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12753796577454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06258869171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08540868759155</t>
+    <t xml:space="preserve">2.12753772735596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06258893013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08540844917297</t>
   </si>
   <si>
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647344589233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104915618896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11525058746338</t>
+    <t xml:space="preserve">2.10647368431091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104891777039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1152503490448</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296249389648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03976845741272</t>
+    <t xml:space="preserve">2.03976821899414</t>
   </si>
   <si>
     <t xml:space="preserve">2.05381155014038</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03625726699829</t>
+    <t xml:space="preserve">2.03625774383545</t>
   </si>
   <si>
     <t xml:space="preserve">2.03099155426025</t>
@@ -767,16 +767,16 @@
     <t xml:space="preserve">1.98535108566284</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00114941596985</t>
+    <t xml:space="preserve">2.00114965438843</t>
   </si>
   <si>
     <t xml:space="preserve">2.01694822311401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9958838224411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710668087006</t>
+    <t xml:space="preserve">1.99588358402252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710644245148</t>
   </si>
   <si>
     <t xml:space="preserve">2.0327467918396</t>
@@ -788,40 +788,40 @@
     <t xml:space="preserve">2.07663154602051</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04854559898376</t>
+    <t xml:space="preserve">2.04854536056519</t>
   </si>
   <si>
     <t xml:space="preserve">1.99061751365662</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97481870651245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97130835056305</t>
+    <t xml:space="preserve">1.97481894493103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.97130811214447</t>
   </si>
   <si>
     <t xml:space="preserve">1.96604180335999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99237251281738</t>
+    <t xml:space="preserve">1.99237298965454</t>
   </si>
   <si>
     <t xml:space="preserve">1.99939441680908</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2030200958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32414245605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29078960418701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43122148513794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34345197677612</t>
+    <t xml:space="preserve">2.20302033424377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32414197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078984260559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43122124671936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34345173835754</t>
   </si>
   <si>
     <t xml:space="preserve">2.48914933204651</t>
@@ -833,19 +833,19 @@
     <t xml:space="preserve">2.43999862670898</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37855958938599</t>
+    <t xml:space="preserve">2.37855935096741</t>
   </si>
   <si>
     <t xml:space="preserve">2.38207030296326</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38558125495911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35925054550171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49792623519897</t>
+    <t xml:space="preserve">2.38558149337769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35925030708313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49792647361755</t>
   </si>
   <si>
     <t xml:space="preserve">2.48739409446716</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">2.44175386428833</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46983981132507</t>
+    <t xml:space="preserve">2.46984004974365</t>
   </si>
   <si>
     <t xml:space="preserve">2.42946600914001</t>
@@ -863,13 +863,13 @@
     <t xml:space="preserve">2.37504887580872</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3908474445343</t>
+    <t xml:space="preserve">2.39084720611572</t>
   </si>
   <si>
     <t xml:space="preserve">2.39962434768677</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3890917301178</t>
+    <t xml:space="preserve">2.38909196853638</t>
   </si>
   <si>
     <t xml:space="preserve">2.41893362998962</t>
@@ -878,10 +878,10 @@
     <t xml:space="preserve">2.43473219871521</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41542315483093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3961136341095</t>
+    <t xml:space="preserve">2.41542291641235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39611339569092</t>
   </si>
   <si>
     <t xml:space="preserve">2.41015672683716</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">2.43824291229248</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44877576828003</t>
+    <t xml:space="preserve">2.44877529144287</t>
   </si>
   <si>
     <t xml:space="preserve">2.45579719543457</t>
@@ -899,40 +899,40 @@
     <t xml:space="preserve">2.33994078636169</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32238674163818</t>
+    <t xml:space="preserve">2.32238698005676</t>
   </si>
   <si>
     <t xml:space="preserve">2.15737986564636</t>
   </si>
   <si>
-    <t xml:space="preserve">2.22232937812805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1696674823761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16791224479675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19248795509338</t>
+    <t xml:space="preserve">2.22232961654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16966772079468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16791200637817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19248747825623</t>
   </si>
   <si>
     <t xml:space="preserve">2.38733649253845</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35222887992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37329339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35749483108521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28376841545105</t>
+    <t xml:space="preserve">2.35222864151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37329363822937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627173423767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35749506950378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28376817703247</t>
   </si>
   <si>
     <t xml:space="preserve">2.30658841133118</t>
@@ -944,31 +944,31 @@
     <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31360983848572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29956674575806</t>
+    <t xml:space="preserve">2.3136100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29956650733948</t>
   </si>
   <si>
     <t xml:space="preserve">2.25568175315857</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33116364479065</t>
+    <t xml:space="preserve">2.33116388320923</t>
   </si>
   <si>
     <t xml:space="preserve">2.29254531860352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.30132222175598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29781150817871</t>
+    <t xml:space="preserve">2.30132246017456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29781126976013</t>
   </si>
   <si>
     <t xml:space="preserve">2.27323579788208</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36100554466248</t>
+    <t xml:space="preserve">2.36100578308105</t>
   </si>
   <si>
     <t xml:space="preserve">2.46632933616638</t>
@@ -977,16 +977,16 @@
     <t xml:space="preserve">2.49266028404236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60676121711731</t>
+    <t xml:space="preserve">2.60676074028015</t>
   </si>
   <si>
     <t xml:space="preserve">2.65064573287964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62431478500366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.65942287445068</t>
+    <t xml:space="preserve">2.62431502342224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6594226360321</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043026924133</t>
@@ -995,22 +995,22 @@
     <t xml:space="preserve">2.54532217979431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53654527664185</t>
+    <t xml:space="preserve">2.53654503822327</t>
   </si>
   <si>
     <t xml:space="preserve">2.45755243301392</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48388338088989</t>
+    <t xml:space="preserve">2.48388361930847</t>
   </si>
   <si>
     <t xml:space="preserve">2.36978268623352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52776837348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.68575382232666</t>
+    <t xml:space="preserve">2.5277681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68575358390808</t>
   </si>
   <si>
     <t xml:space="preserve">2.69453072547913</t>
@@ -1022,22 +1022,22 @@
     <t xml:space="preserve">2.73841547966003</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51021432876587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.59798407554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61553812026978</t>
+    <t xml:space="preserve">2.51021409034729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.59798383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6155378818512</t>
   </si>
   <si>
     <t xml:space="preserve">2.63309192657471</t>
   </si>
   <si>
-    <t xml:space="preserve">2.5628764629364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.51899123191833</t>
+    <t xml:space="preserve">2.56287622451782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
     <t xml:space="preserve">2.33467483520508</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">2.42430090904236</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37062668800354</t>
+    <t xml:space="preserve">2.37062644958496</t>
   </si>
   <si>
     <t xml:space="preserve">2.37957239151001</t>
@@ -1085,16 +1085,16 @@
     <t xml:space="preserve">2.39746379852295</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35273504257202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28116893768311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24538564682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27222323417664</t>
+    <t xml:space="preserve">2.35273480415344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28116869926453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24538588523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27222299575806</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854877471924</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">2.20065712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17381978034973</t>
+    <t xml:space="preserve">2.17382001876831</t>
   </si>
   <si>
     <t xml:space="preserve">2.25433158874512</t>
   </si>
   <si>
-    <t xml:space="preserve">2.15592837333679</t>
+    <t xml:space="preserve">2.15592813491821</t>
   </si>
   <si>
     <t xml:space="preserve">2.29011464118958</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">2.10225391387939</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541632652283</t>
+    <t xml:space="preserve">2.07541656494141</t>
   </si>
   <si>
     <t xml:space="preserve">2.12014532089233</t>
@@ -1136,7 +1136,7 @@
     <t xml:space="preserve">2.1290910243988</t>
   </si>
   <si>
-    <t xml:space="preserve">2.05752468109131</t>
+    <t xml:space="preserve">2.05752515792847</t>
   </si>
   <si>
     <t xml:space="preserve">2.06647062301636</t>
@@ -1145,13 +1145,13 @@
     <t xml:space="preserve">2.03963327407837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02174162864685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08436226844788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11119937896729</t>
+    <t xml:space="preserve">2.02174186706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0843620300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11119961738586</t>
   </si>
   <si>
     <t xml:space="preserve">2.09330797195435</t>
@@ -1160,10 +1160,10 @@
     <t xml:space="preserve">1.99490439891815</t>
   </si>
   <si>
-    <t xml:space="preserve">1.93228447437286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.95017600059509</t>
+    <t xml:space="preserve">1.93228435516357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95017576217651</t>
   </si>
   <si>
     <t xml:space="preserve">1.87860953807831</t>
@@ -1175,7 +1175,7 @@
     <t xml:space="preserve">1.83388078212738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77126061916351</t>
+    <t xml:space="preserve">1.77126049995422</t>
   </si>
   <si>
     <t xml:space="preserve">1.74442327022552</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68180298805237</t>
+    <t xml:space="preserve">1.68180310726166</t>
   </si>
   <si>
     <t xml:space="preserve">1.7265317440033</t>
@@ -1193,16 +1193,16 @@
     <t xml:space="preserve">1.73547756671906</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76231491565704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73995041847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76678788661957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74889612197876</t>
+    <t xml:space="preserve">1.76231479644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73995053768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76678776741028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74889624118805</t>
   </si>
   <si>
     <t xml:space="preserve">1.69522166252136</t>
@@ -1211,10 +1211,10 @@
     <t xml:space="preserve">1.6460200548172</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65496587753296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66838431358337</t>
+    <t xml:space="preserve">1.65496575832367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66838419437408</t>
   </si>
   <si>
     <t xml:space="preserve">1.66391134262085</t>
@@ -1223,49 +1223,49 @@
     <t xml:space="preserve">1.6862758398056</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69969439506531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73100447654724</t>
+    <t xml:space="preserve">1.6996945142746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73100459575653</t>
   </si>
   <si>
     <t xml:space="preserve">1.70864033699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75336909294128</t>
+    <t xml:space="preserve">1.75336921215057</t>
   </si>
   <si>
     <t xml:space="preserve">1.72205889225006</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71758592128754</t>
+    <t xml:space="preserve">1.71758604049683</t>
   </si>
   <si>
     <t xml:space="preserve">1.61918258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5744537115097</t>
+    <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
     <t xml:space="preserve">1.55656218528748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59234547615051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61023688316345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70416748523712</t>
+    <t xml:space="preserve">1.59234523773193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61023676395416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.70416736602783</t>
   </si>
   <si>
     <t xml:space="preserve">1.71311318874359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78020644187927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81598937511444</t>
+    <t xml:space="preserve">1.78020632266998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81598949432373</t>
   </si>
   <si>
     <t xml:space="preserve">1.80704355239868</t>
@@ -1283,19 +1283,19 @@
     <t xml:space="preserve">1.79809784889221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755512237549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8517724275589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650118350983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92333877086639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96806740760803</t>
+    <t xml:space="preserve">1.88755536079407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85177230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650106430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92333841323853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96806716918945</t>
   </si>
   <si>
     <t xml:space="preserve">2.01279616355896</t>
@@ -1307,7 +1307,7 @@
     <t xml:space="preserve">2.04857921600342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.0306875705719</t>
+    <t xml:space="preserve">2.03068780899048</t>
   </si>
   <si>
     <t xml:space="preserve">1.9770131111145</t>
@@ -1316,13 +1316,13 @@
     <t xml:space="preserve">1.98595905303955</t>
   </si>
   <si>
-    <t xml:space="preserve">1.91439306735992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90544724464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94123017787933</t>
+    <t xml:space="preserve">1.91439294815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90544712543488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94122982025146</t>
   </si>
   <si>
     <t xml:space="preserve">1.67285716533661</t>
@@ -1331,7 +1331,7 @@
     <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66826164722443</t>
+    <t xml:space="preserve">1.66826152801514</t>
   </si>
   <si>
     <t xml:space="preserve">1.6498783826828</t>
@@ -1343,25 +1343,25 @@
     <t xml:space="preserve">1.68664455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70502769947052</t>
+    <t xml:space="preserve">1.70502758026123</t>
   </si>
   <si>
     <t xml:space="preserve">1.69583606719971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69124042987823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.70962333679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71881496906281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73719787597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7326021194458</t>
+    <t xml:space="preserve">1.69124031066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7096232175827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71881484985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73719799518585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73260223865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.68204879760742</t>
@@ -1379,7 +1379,7 @@
     <t xml:space="preserve">1.63149547576904</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6268994808197</t>
+    <t xml:space="preserve">1.62689960002899</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932506084442</t>
@@ -1388,7 +1388,7 @@
     <t xml:space="preserve">1.59013366699219</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64068698883057</t>
+    <t xml:space="preserve">1.64068686962128</t>
   </si>
   <si>
     <t xml:space="preserve">1.60851657390594</t>
@@ -1403,19 +1403,19 @@
     <t xml:space="preserve">1.61770808696747</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63609111309052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62230372428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64528274536133</t>
+    <t xml:space="preserve">1.63609099388123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62230384349823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
     <t xml:space="preserve">1.58094215393066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71421921253204</t>
+    <t xml:space="preserve">1.71421909332275</t>
   </si>
   <si>
     <t xml:space="preserve">1.61311233043671</t>
@@ -1427,10 +1427,10 @@
     <t xml:space="preserve">1.57175064086914</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5533674955368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47064387798309</t>
+    <t xml:space="preserve">1.55336761474609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
     <t xml:space="preserve">1.56255900859833</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">1.22706842422485</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30519616603851</t>
+    <t xml:space="preserve">1.3051962852478</t>
   </si>
   <si>
     <t xml:space="preserve">1.28221750259399</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655833244324</t>
+    <t xml:space="preserve">1.34655821323395</t>
   </si>
   <si>
     <t xml:space="preserve">1.34196245670319</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">1.40630304813385</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39711165428162</t>
+    <t xml:space="preserve">1.39711153507233</t>
   </si>
   <si>
     <t xml:space="preserve">1.40170729160309</t>
@@ -1490,22 +1490,22 @@
     <t xml:space="preserve">1.44766497612</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49362254142761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49821829795837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48902678489685</t>
+    <t xml:space="preserve">1.49362242221832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49821841716766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48902666568756</t>
   </si>
   <si>
     <t xml:space="preserve">1.47983527183533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46145236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5074098110199</t>
+    <t xml:space="preserve">1.46145224571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50740993022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.43387758731842</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">1.44306921958923</t>
   </si>
   <si>
-    <t xml:space="preserve">1.45685648918152</t>
+    <t xml:space="preserve">1.45685636997223</t>
   </si>
   <si>
     <t xml:space="preserve">1.4246860742569</t>
@@ -1523,19 +1523,19 @@
     <t xml:space="preserve">1.42928171157837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37872838973999</t>
+    <t xml:space="preserve">1.37872850894928</t>
   </si>
   <si>
     <t xml:space="preserve">1.39251577854156</t>
   </si>
   <si>
-    <t xml:space="preserve">1.33277082443237</t>
+    <t xml:space="preserve">1.33277094364166</t>
   </si>
   <si>
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413275241852</t>
+    <t xml:space="preserve">1.37413287162781</t>
   </si>
   <si>
     <t xml:space="preserve">1.35574972629547</t>
@@ -1559,28 +1559,28 @@
     <t xml:space="preserve">1.43847334384918</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50281393527985</t>
+    <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46604800224304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32817506790161</t>
+    <t xml:space="preserve">1.46604788303375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3281751871109</t>
   </si>
   <si>
     <t xml:space="preserve">1.30979204177856</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30060052871704</t>
+    <t xml:space="preserve">1.30060064792633</t>
   </si>
   <si>
     <t xml:space="preserve">1.28681325912476</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51200544834137</t>
+    <t xml:space="preserve">1.51200556755066</t>
   </si>
   <si>
     <t xml:space="preserve">1.48443102836609</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">1.53958010673523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54877150058746</t>
+    <t xml:space="preserve">1.54877161979675</t>
   </si>
   <si>
     <t xml:space="preserve">1.57634627819061</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">1.54417598247528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55796325206757</t>
+    <t xml:space="preserve">1.55796337127686</t>
   </si>
   <si>
     <t xml:space="preserve">1.53038859367371</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396392822266</t>
+    <t xml:space="preserve">1.77396404743195</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
@@ -1625,10 +1625,10 @@
     <t xml:space="preserve">1.93021976947784</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88426232337952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89345383644104</t>
+    <t xml:space="preserve">1.88426220417023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89345371723175</t>
   </si>
   <si>
     <t xml:space="preserve">1.8383047580719</t>
@@ -1649,7 +1649,7 @@
     <t xml:space="preserve">1.78315556049347</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80153858661652</t>
+    <t xml:space="preserve">1.80153870582581</t>
   </si>
   <si>
     <t xml:space="preserve">1.84749615192413</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">1.76936829090118</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79694271087646</t>
+    <t xml:space="preserve">1.79694283008575</t>
   </si>
   <si>
     <t xml:space="preserve">1.83370888233185</t>
@@ -1667,7 +1667,7 @@
     <t xml:space="preserve">1.86587929725647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90264534950256</t>
+    <t xml:space="preserve">1.90264523029327</t>
   </si>
   <si>
     <t xml:space="preserve">1.92102825641632</t>
@@ -1676,7 +1676,7 @@
     <t xml:space="preserve">1.85668766498566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81073021888733</t>
+    <t xml:space="preserve">1.81073009967804</t>
   </si>
   <si>
     <t xml:space="preserve">2.09566736221313</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">2.02213501930237</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98536920547485</t>
+    <t xml:space="preserve">1.98536896705627</t>
   </si>
   <si>
     <t xml:space="preserve">2.04051828384399</t>
@@ -1697,22 +1697,22 @@
     <t xml:space="preserve">2.14162468910217</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16919922828674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.11405038833618</t>
+    <t xml:space="preserve">2.16919946670532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.11405062675476</t>
   </si>
   <si>
     <t xml:space="preserve">2.12324190139771</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16000771522522</t>
+    <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
     <t xml:space="preserve">2.50928568840027</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53686022758484</t>
+    <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
     <t xml:space="preserve">2.46332836151123</t>
@@ -59418,7 +59418,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.5879513889</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>6900</v>
@@ -59439,6 +59439,32 @@
         <v>778</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6494791667</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>3058</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>2.11999988555908</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>2.08999991416931</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -50,28 +50,28 @@
     <t xml:space="preserve">1.74383676052094</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75404441356659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73533010482788</t>
+    <t xml:space="preserve">1.75404453277588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73533022403717</t>
   </si>
   <si>
     <t xml:space="preserve">1.72682368755341</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71661567687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68854439258575</t>
+    <t xml:space="preserve">1.71661579608917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68854415416718</t>
   </si>
   <si>
     <t xml:space="preserve">1.66047275066376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64175844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53117370605469</t>
+    <t xml:space="preserve">1.64175832271576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117346763611</t>
   </si>
   <si>
     <t xml:space="preserve">1.64090776443481</t>
@@ -83,10 +83,10 @@
     <t xml:space="preserve">1.63410258293152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65026497840881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63325190544128</t>
+    <t xml:space="preserve">1.65026533603668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63325178623199</t>
   </si>
   <si>
     <t xml:space="preserve">1.60773241519928</t>
@@ -95,28 +95,28 @@
     <t xml:space="preserve">1.55839443206787</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58646607398987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6128363609314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58221280574799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49714779853821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55158948898315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50565421581268</t>
+    <t xml:space="preserve">1.58646595478058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61283624172211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58221292495728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49714756011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55158925056458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50565409660339</t>
   </si>
   <si>
     <t xml:space="preserve">1.48608922958374</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56434905529022</t>
+    <t xml:space="preserve">1.56434917449951</t>
   </si>
   <si>
     <t xml:space="preserve">1.70130407810211</t>
@@ -128,106 +128,106 @@
     <t xml:space="preserve">1.70640814304352</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69279754161835</t>
+    <t xml:space="preserve">1.69279766082764</t>
   </si>
   <si>
     <t xml:space="preserve">1.68684303760529</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69194674491882</t>
+    <t xml:space="preserve">1.69194710254669</t>
   </si>
   <si>
     <t xml:space="preserve">1.6893949508667</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71831703186035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65366756916046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64686238765717</t>
+    <t xml:space="preserve">1.71831715106964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65366744995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64686250686646</t>
   </si>
   <si>
     <t xml:space="preserve">1.61623883247375</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69024550914764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68173921108246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65111577510834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62049210071564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63750505447388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63240110874176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6153883934021</t>
+    <t xml:space="preserve">1.69024562835693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68173897266388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65111553668976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62049198150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63750517368317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63240134716034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61538815498352</t>
   </si>
   <si>
     <t xml:space="preserve">1.60432982444763</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58051156997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58986854553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60177767276764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688173770905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59922587871552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59752452373505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5481870174408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53202438354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53372573852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57880997657776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53542673587799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56094646453857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53287506103516</t>
+    <t xml:space="preserve">1.5805116891861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58986866474152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60177791118622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688185691833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59922575950623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59752464294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54818677902222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53202426433563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5337256193161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57881033420563</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53542685508728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56094634532928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53287482261658</t>
   </si>
   <si>
     <t xml:space="preserve">1.52096581459045</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55329060554504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54648554325104</t>
+    <t xml:space="preserve">1.55329048633575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54648530483246</t>
   </si>
   <si>
     <t xml:space="preserve">1.53968024253845</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52862191200256</t>
+    <t xml:space="preserve">1.52862179279327</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395286083221</t>
@@ -236,13 +236,13 @@
     <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49703025817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654888153076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47626221179962</t>
+    <t xml:space="preserve">1.49703013896942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654876232147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47626197338104</t>
   </si>
   <si>
     <t xml:space="preserve">1.47885799407959</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">1.45376336574554</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48405003547668</t>
+    <t xml:space="preserve">1.48405015468597</t>
   </si>
   <si>
     <t xml:space="preserve">1.47972345352173</t>
@@ -266,25 +266,25 @@
     <t xml:space="preserve">1.48664617538452</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52299010753632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837673664093</t>
+    <t xml:space="preserve">1.49270355701447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299022674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837661743164</t>
   </si>
   <si>
     <t xml:space="preserve">1.46674335002899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4736659526825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50568354129791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44510984420776</t>
+    <t xml:space="preserve">1.47366619110107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50568342208862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44510996341705</t>
   </si>
   <si>
     <t xml:space="preserve">1.45116746425629</t>
@@ -293,7 +293,7 @@
     <t xml:space="preserve">1.42001533508301</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46760869026184</t>
+    <t xml:space="preserve">1.46760880947113</t>
   </si>
   <si>
     <t xml:space="preserve">1.45895540714264</t>
@@ -302,7 +302,7 @@
     <t xml:space="preserve">1.5143369436264</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47107017040253</t>
+    <t xml:space="preserve">1.47107028961182</t>
   </si>
   <si>
     <t xml:space="preserve">1.46501266956329</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">1.52039420604706</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49183821678162</t>
+    <t xml:space="preserve">1.49183809757233</t>
   </si>
   <si>
     <t xml:space="preserve">1.52212476730347</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">1.49616479873657</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52991282939911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827956199646</t>
+    <t xml:space="preserve">1.5299129486084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827944278717</t>
   </si>
   <si>
     <t xml:space="preserve">1.51087546348572</t>
@@ -341,22 +341,22 @@
     <t xml:space="preserve">1.53077816963196</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50308752059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50049138069153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50135672092438</t>
+    <t xml:space="preserve">1.50308728218079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50049149990082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50135684013367</t>
   </si>
   <si>
     <t xml:space="preserve">1.53337419033051</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48318469524384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51866340637207</t>
+    <t xml:space="preserve">1.48318481445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51866352558136</t>
   </si>
   <si>
     <t xml:space="preserve">1.51174080371857</t>
@@ -374,55 +374,55 @@
     <t xml:space="preserve">1.54029703140259</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53250885009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.555872797966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54462349414825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5576034784317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443423748016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010741710663</t>
+    <t xml:space="preserve">1.53250873088837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55587291717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54462337493896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55760335922241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443411827087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010729789734</t>
   </si>
   <si>
     <t xml:space="preserve">1.48231947422028</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54548871517181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52558636665344</t>
+    <t xml:space="preserve">1.54548895359039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52558612823486</t>
   </si>
   <si>
     <t xml:space="preserve">1.526451587677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55673813819885</t>
+    <t xml:space="preserve">1.55673825740814</t>
   </si>
   <si>
     <t xml:space="preserve">1.54116225242615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55327677726746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54202735424042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51693296432495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5385662317276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606738567352</t>
+    <t xml:space="preserve">1.55327689647675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.542027592659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51693284511566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53856635093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606750488281</t>
   </si>
   <si>
     <t xml:space="preserve">1.54635417461395</t>
@@ -431,64 +431,64 @@
     <t xml:space="preserve">1.57404494285583</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57837176322937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57317972183228</t>
+    <t xml:space="preserve">1.57837152481079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5731794834137</t>
   </si>
   <si>
     <t xml:space="preserve">1.56971848011017</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54981565475464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55846905708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59135162830353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59221708774567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60000503063202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56625699996948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55414211750031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64413702487946</t>
+    <t xml:space="preserve">1.54981577396393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55846881866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59135174751282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59221696853638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60000491142273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56625688076019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55414223670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64413714408875</t>
   </si>
   <si>
     <t xml:space="preserve">1.58096766471863</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60779309272766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57664096355438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57750618457794</t>
+    <t xml:space="preserve">1.60779321193695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57664108276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57750630378723</t>
   </si>
   <si>
     <t xml:space="preserve">1.59827435016632</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59913980960846</t>
+    <t xml:space="preserve">1.59913969039917</t>
   </si>
   <si>
     <t xml:space="preserve">1.60087037086487</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6346184015274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60952365398407</t>
+    <t xml:space="preserve">1.63461852073669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60952389240265</t>
   </si>
   <si>
     <t xml:space="preserve">1.61731171607971</t>
@@ -497,22 +497,22 @@
     <t xml:space="preserve">1.61817717552185</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65192520618439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59654378890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6051971912384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6190425157547</t>
+    <t xml:space="preserve">1.65192544460297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5965439081192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60519695281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61904239654541</t>
   </si>
   <si>
     <t xml:space="preserve">1.61211967468262</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65971314907074</t>
+    <t xml:space="preserve">1.65971302986145</t>
   </si>
   <si>
     <t xml:space="preserve">1.66057848930359</t>
@@ -524,22 +524,22 @@
     <t xml:space="preserve">1.67442381381989</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67009723186493</t>
+    <t xml:space="preserve">1.67009711265564</t>
   </si>
   <si>
     <t xml:space="preserve">1.66144371032715</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6415411233902</t>
+    <t xml:space="preserve">1.64154088497162</t>
   </si>
   <si>
     <t xml:space="preserve">1.63634920120239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65625178813934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68048119544983</t>
+    <t xml:space="preserve">1.65625190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68048131465912</t>
   </si>
   <si>
     <t xml:space="preserve">1.66317451000214</t>
@@ -551,64 +551,64 @@
     <t xml:space="preserve">1.82585740089417</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81893467903137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80682027339935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77739858627319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79816699028015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77393734455109</t>
+    <t xml:space="preserve">1.81893479824066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80682015419006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77739870548248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79816687107086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393758296967</t>
   </si>
   <si>
     <t xml:space="preserve">1.75836145877838</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79124402999878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75143873691559</t>
+    <t xml:space="preserve">1.79124414920807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7514386177063</t>
   </si>
   <si>
     <t xml:space="preserve">1.72980523109436</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74797737598419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74451589584351</t>
+    <t xml:space="preserve">1.74797749519348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74451613426208</t>
   </si>
   <si>
     <t xml:space="preserve">1.75663065910339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82758831977844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81201231479645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7410546541214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278521537781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7185560464859</t>
+    <t xml:space="preserve">1.82758820056915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81201243400574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74105489253998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7427853345871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71855592727661</t>
   </si>
   <si>
     <t xml:space="preserve">1.7393239736557</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7652839422226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78432130813599</t>
+    <t xml:space="preserve">1.76528406143188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78432142734528</t>
   </si>
   <si>
     <t xml:space="preserve">1.80855071544647</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">1.76874530315399</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78259074687958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79989731311798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82412695884705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720411777496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80335867404938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84316432476044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79297494888306</t>
+    <t xml:space="preserve">1.78259062767029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79989719390869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82412683963776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720399856567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80335891246796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84316444396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79297482967377</t>
   </si>
   <si>
     <t xml:space="preserve">1.81547355651855</t>
@@ -647,19 +647,19 @@
     <t xml:space="preserve">1.78605198860168</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354816913605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83451080322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87777769565582</t>
+    <t xml:space="preserve">1.85354804992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83451092243195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87777757644653</t>
   </si>
   <si>
     <t xml:space="preserve">1.92623627185822</t>
   </si>
   <si>
-    <t xml:space="preserve">1.92104458808899</t>
+    <t xml:space="preserve">1.9210444688797</t>
   </si>
   <si>
     <t xml:space="preserve">1.9037379026413</t>
@@ -668,22 +668,22 @@
     <t xml:space="preserve">1.83797228336334</t>
   </si>
   <si>
-    <t xml:space="preserve">1.962531208992</t>
+    <t xml:space="preserve">1.96253097057343</t>
   </si>
   <si>
     <t xml:space="preserve">2.04503440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41366767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42244458198547</t>
+    <t xml:space="preserve">2.41366720199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42244434356689</t>
   </si>
   <si>
     <t xml:space="preserve">2.30834412574768</t>
   </si>
   <si>
-    <t xml:space="preserve">2.24690508842468</t>
+    <t xml:space="preserve">2.2469048500061</t>
   </si>
   <si>
     <t xml:space="preserve">2.43648767471313</t>
@@ -692,13 +692,13 @@
     <t xml:space="preserve">2.39260292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4171781539917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40489077568054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31712102890015</t>
+    <t xml:space="preserve">2.41717839241028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40489029884338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31712079048157</t>
   </si>
   <si>
     <t xml:space="preserve">2.26972508430481</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">2.13280439376831</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08014225959778</t>
+    <t xml:space="preserve">2.08014249801636</t>
   </si>
   <si>
     <t xml:space="preserve">2.01870369911194</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">2.06258869171143</t>
   </si>
   <si>
-    <t xml:space="preserve">2.08540844917297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12402749061584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10647392272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.13104891777039</t>
+    <t xml:space="preserve">2.08540868759155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12402725219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10647344589233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.13104915618896</t>
   </si>
   <si>
     <t xml:space="preserve">2.11525058746338</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03625750541687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03099131584167</t>
+    <t xml:space="preserve">2.03625726699829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03099155426025</t>
   </si>
   <si>
     <t xml:space="preserve">2.0345025062561</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00992655754089</t>
+    <t xml:space="preserve">2.00992679595947</t>
   </si>
   <si>
     <t xml:space="preserve">1.99763882160187</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">1.9835958480835</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98535144329071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00114965438843</t>
+    <t xml:space="preserve">1.98535108566284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.00114989280701</t>
   </si>
   <si>
     <t xml:space="preserve">2.01694822311401</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99588370323181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710680007935</t>
+    <t xml:space="preserve">1.99588358402252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710668087006</t>
   </si>
   <si>
     <t xml:space="preserve">2.03274703025818</t>
@@ -788,46 +788,46 @@
     <t xml:space="preserve">2.06785464286804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07663178443909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04854512214661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99061739444733</t>
+    <t xml:space="preserve">2.07663154602051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04854536056519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99061751365662</t>
   </si>
   <si>
     <t xml:space="preserve">1.97481918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97130811214447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9660416841507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99237298965454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99939453601837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20301985740662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32414221763611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29078984260559</t>
+    <t xml:space="preserve">1.97130835056305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96604180335999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99237275123596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99939441680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.20302033424377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32414197921753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29078960418701</t>
   </si>
   <si>
     <t xml:space="preserve">2.43122124671936</t>
   </si>
   <si>
-    <t xml:space="preserve">2.34345149993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48914933204651</t>
+    <t xml:space="preserve">2.34345197677612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48914957046509</t>
   </si>
   <si>
     <t xml:space="preserve">2.48563861846924</t>
@@ -839,10 +839,10 @@
     <t xml:space="preserve">2.37855958938599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38207054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38558125495911</t>
+    <t xml:space="preserve">2.38207030296326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38558149337769</t>
   </si>
   <si>
     <t xml:space="preserve">2.35925030708313</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">2.48739409446716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.44175338745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.46984028816223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42946577072144</t>
+    <t xml:space="preserve">2.44175410270691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.46983981132507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42946600914001</t>
   </si>
   <si>
     <t xml:space="preserve">2.37504887580872</t>
@@ -890,55 +890,55 @@
     <t xml:space="preserve">2.41015672683716</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43824315071106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.44877529144287</t>
+    <t xml:space="preserve">2.43824291229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44877576828003</t>
   </si>
   <si>
     <t xml:space="preserve">2.45579695701599</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33994054794312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238674163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15738010406494</t>
+    <t xml:space="preserve">2.33994102478027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238698005676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15737962722778</t>
   </si>
   <si>
     <t xml:space="preserve">2.22232961654663</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16966772079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16791224479675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1924877166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222864151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37329339981079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36627173423767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35749506950378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28376817703247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30658864974976</t>
+    <t xml:space="preserve">2.1696674823761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16791248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19248747825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733649253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222887992859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37329316139221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36627221107483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35749483108521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28376841545105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30658841133118</t>
   </si>
   <si>
     <t xml:space="preserve">2.28201270103455</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">2.32589793205261</t>
   </si>
   <si>
-    <t xml:space="preserve">2.31361031532288</t>
+    <t xml:space="preserve">2.31360983848572</t>
   </si>
   <si>
     <t xml:space="preserve">2.29956674575806</t>
@@ -956,19 +956,19 @@
     <t xml:space="preserve">2.25568199157715</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33116388320923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.29254484176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30132222175598</t>
+    <t xml:space="preserve">2.33116364479065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.29254531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30132246017456</t>
   </si>
   <si>
     <t xml:space="preserve">2.29781126976013</t>
   </si>
   <si>
-    <t xml:space="preserve">2.27323603630066</t>
+    <t xml:space="preserve">2.2732355594635</t>
   </si>
   <si>
     <t xml:space="preserve">2.36100554466248</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">2.65064573287964</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62431478500366</t>
+    <t xml:space="preserve">2.62431502342224</t>
   </si>
   <si>
     <t xml:space="preserve">2.65942287445068</t>
@@ -998,40 +998,40 @@
     <t xml:space="preserve">2.54532217979431</t>
   </si>
   <si>
-    <t xml:space="preserve">2.53654479980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.45755243301392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48388314247131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.36978244781494</t>
+    <t xml:space="preserve">2.53654527664185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45755219459534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48388338088989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.36978268623352</t>
   </si>
   <si>
     <t xml:space="preserve">2.5277681350708</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6857533454895</t>
+    <t xml:space="preserve">2.68575358390808</t>
   </si>
   <si>
     <t xml:space="preserve">2.69453048706055</t>
   </si>
   <si>
-    <t xml:space="preserve">2.72963833808899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.73841571807861</t>
+    <t xml:space="preserve">2.72963857650757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.73841500282288</t>
   </si>
   <si>
     <t xml:space="preserve">2.51021409034729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.59798407554626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6155378818512</t>
+    <t xml:space="preserve">2.59798383712769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61553835868835</t>
   </si>
   <si>
     <t xml:space="preserve">2.63309192657471</t>
@@ -1040,25 +1040,25 @@
     <t xml:space="preserve">2.56287622451782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51899099349976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.33467483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179699897766</t>
+    <t xml:space="preserve">2.51899123191833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33467507362366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179723739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.26327729225159</t>
   </si>
   <si>
-    <t xml:space="preserve">2.18276572227478</t>
+    <t xml:space="preserve">2.1827654838562</t>
   </si>
   <si>
     <t xml:space="preserve">2.23644018173218</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36168050765991</t>
+    <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
     <t xml:space="preserve">2.32589769363403</t>
@@ -1067,43 +1067,43 @@
     <t xml:space="preserve">2.31695199012756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3348433971405</t>
+    <t xml:space="preserve">2.33484363555908</t>
   </si>
   <si>
     <t xml:space="preserve">2.34378910064697</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41535520553589</t>
+    <t xml:space="preserve">2.41535544395447</t>
   </si>
   <si>
     <t xml:space="preserve">2.42430114746094</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37062692642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37957239151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746403694153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3527352809906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.28116917610168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24538588523865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27222323417664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21854853630066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20065712928772</t>
+    <t xml:space="preserve">2.37062644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37957215309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746379852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35273504257202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.28116893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24538564682007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27222299575806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21854877471924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2006573677063</t>
   </si>
   <si>
     <t xml:space="preserve">2.17381978034973</t>
@@ -1130,28 +1130,28 @@
     <t xml:space="preserve">2.10225367546082</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07541632652283</t>
+    <t xml:space="preserve">2.07541608810425</t>
   </si>
   <si>
     <t xml:space="preserve">2.12014532089233</t>
   </si>
   <si>
-    <t xml:space="preserve">2.12909126281738</t>
+    <t xml:space="preserve">2.1290910243988</t>
   </si>
   <si>
     <t xml:space="preserve">2.05752491950989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06647062301636</t>
+    <t xml:space="preserve">2.06647086143494</t>
   </si>
   <si>
     <t xml:space="preserve">2.03963327407837</t>
   </si>
   <si>
-    <t xml:space="preserve">2.02174186706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0843620300293</t>
+    <t xml:space="preserve">2.02174162864685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08436226844788</t>
   </si>
   <si>
     <t xml:space="preserve">2.11119937896729</t>
@@ -1166,25 +1166,25 @@
     <t xml:space="preserve">1.93228435516357</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95017576217651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.87860953807831</t>
+    <t xml:space="preserve">1.95017600059509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87860977649689</t>
   </si>
   <si>
     <t xml:space="preserve">1.86966383457184</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83388078212738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77126061916351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74442327022552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67733013629913</t>
+    <t xml:space="preserve">1.83388090133667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77126049995422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74442338943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67733001708984</t>
   </si>
   <si>
     <t xml:space="preserve">1.68180286884308</t>
@@ -1193,34 +1193,34 @@
     <t xml:space="preserve">1.7265317440033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73547768592834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76231491565704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73995041847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76678764820099</t>
+    <t xml:space="preserve">1.73547756671906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76231479644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73995053768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76678776741028</t>
   </si>
   <si>
     <t xml:space="preserve">1.74889624118805</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69522166252136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64601993560791</t>
+    <t xml:space="preserve">1.69522154331207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6460200548172</t>
   </si>
   <si>
     <t xml:space="preserve">1.65496575832367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66838431358337</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66391146183014</t>
+    <t xml:space="preserve">1.66838419437408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66391134262085</t>
   </si>
   <si>
     <t xml:space="preserve">1.6862758398056</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">1.70864033699036</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75336909294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72205901145935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71758604049683</t>
+    <t xml:space="preserve">1.75336921215057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72205877304077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71758592128754</t>
   </si>
   <si>
     <t xml:space="preserve">1.61918258666992</t>
@@ -1253,25 +1253,25 @@
     <t xml:space="preserve">1.55656230449677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59234535694122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61023700237274</t>
+    <t xml:space="preserve">1.59234547615051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61023688316345</t>
   </si>
   <si>
     <t xml:space="preserve">1.70416736602783</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7131130695343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78020644187927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81598937511444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80704355239868</t>
+    <t xml:space="preserve">1.71311318874359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78020632266998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81598925590515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80704367160797</t>
   </si>
   <si>
     <t xml:space="preserve">1.84282672405243</t>
@@ -1286,22 +1286,22 @@
     <t xml:space="preserve">1.79809784889221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755536079407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85177230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650118350983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92333841323853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96806728839874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01279616355896</t>
+    <t xml:space="preserve">1.88755524158478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8517724275589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650106430054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92333853244781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96806740760803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01279640197754</t>
   </si>
   <si>
     <t xml:space="preserve">2.00385046005249</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">2.03068780899048</t>
   </si>
   <si>
-    <t xml:space="preserve">1.9770131111145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595893383026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.91439294815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90544712543488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94123005867004</t>
+    <t xml:space="preserve">1.97701334953308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595881462097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.91439282894135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90544700622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94122993946075</t>
   </si>
   <si>
     <t xml:space="preserve">1.67285716533661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70043182373047</t>
+    <t xml:space="preserve">1.70043170452118</t>
   </si>
   <si>
     <t xml:space="preserve">1.66826152801514</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">1.6498783826828</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65907001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68664467334747</t>
+    <t xml:space="preserve">1.65906989574432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68664455413818</t>
   </si>
   <si>
     <t xml:space="preserve">1.70502758026123</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">1.6728572845459</t>
   </si>
   <si>
-    <t xml:space="preserve">1.69583606719971</t>
+    <t xml:space="preserve">1.695836186409</t>
   </si>
   <si>
     <t xml:space="preserve">1.69124031066895</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70962333679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71881484985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.73719799518585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7326021194458</t>
+    <t xml:space="preserve">1.7096232175827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71881473064423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73719787597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.73260223865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.68204879760742</t>
@@ -1376,7 +1376,7 @@
     <t xml:space="preserve">1.65447413921356</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67745316028595</t>
+    <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
     <t xml:space="preserve">1.66366565227509</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">1.63149535655975</t>
   </si>
   <si>
-    <t xml:space="preserve">1.62689971923828</t>
+    <t xml:space="preserve">1.6268994808197</t>
   </si>
   <si>
     <t xml:space="preserve">1.59932506084442</t>
@@ -1397,16 +1397,16 @@
     <t xml:space="preserve">1.64068686962128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60851657390594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58553767204285</t>
+    <t xml:space="preserve">1.60851645469666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58553791046143</t>
   </si>
   <si>
     <t xml:space="preserve">1.60392081737518</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61770808696747</t>
+    <t xml:space="preserve">1.61770796775818</t>
   </si>
   <si>
     <t xml:space="preserve">1.63609111309052</t>
@@ -1418,7 +1418,7 @@
     <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
-    <t xml:space="preserve">1.58094203472137</t>
+    <t xml:space="preserve">1.58094215393066</t>
   </si>
   <si>
     <t xml:space="preserve">1.71421909332275</t>
@@ -1427,22 +1427,22 @@
     <t xml:space="preserve">1.61311233043671</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59472930431366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.57175052165985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55336737632751</t>
+    <t xml:space="preserve">1.59472942352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57175064086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55336761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255900859833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53498435020447</t>
+    <t xml:space="preserve">1.56255912780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53498446941376</t>
   </si>
   <si>
     <t xml:space="preserve">1.38332438468933</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">1.36494123935699</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22706842422485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30519640445709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.28221750259399</t>
+    <t xml:space="preserve">1.22706830501556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3051962852478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28221762180328</t>
   </si>
   <si>
     <t xml:space="preserve">1.33736670017242</t>
@@ -1469,19 +1469,19 @@
     <t xml:space="preserve">1.24085569381714</t>
   </si>
   <si>
-    <t xml:space="preserve">1.31438791751862</t>
+    <t xml:space="preserve">1.31438767910004</t>
   </si>
   <si>
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655809402466</t>
+    <t xml:space="preserve">1.34655821323395</t>
   </si>
   <si>
     <t xml:space="preserve">1.34196245670319</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4108989238739</t>
+    <t xml:space="preserve">1.41089880466461</t>
   </si>
   <si>
     <t xml:space="preserve">1.40630304813385</t>
@@ -1490,28 +1490,28 @@
     <t xml:space="preserve">1.39711153507233</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40170729160309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44766497612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.4936226606369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49821829795837</t>
+    <t xml:space="preserve">1.40170741081238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44766485691071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49362254142761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49821841716766</t>
   </si>
   <si>
     <t xml:space="preserve">1.48902678489685</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47983539104462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46145236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50740969181061</t>
+    <t xml:space="preserve">1.47983527183533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46145224571228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5074098110199</t>
   </si>
   <si>
     <t xml:space="preserve">1.43387758731842</t>
@@ -1526,13 +1526,13 @@
     <t xml:space="preserve">1.4246860742569</t>
   </si>
   <si>
-    <t xml:space="preserve">1.42928183078766</t>
+    <t xml:space="preserve">1.42928171157837</t>
   </si>
   <si>
     <t xml:space="preserve">1.37872850894928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39251577854156</t>
+    <t xml:space="preserve">1.39251589775085</t>
   </si>
   <si>
     <t xml:space="preserve">1.33277094364166</t>
@@ -1541,13 +1541,13 @@
     <t xml:space="preserve">1.36953699588776</t>
   </si>
   <si>
-    <t xml:space="preserve">1.37413275241852</t>
+    <t xml:space="preserve">1.37413287162781</t>
   </si>
   <si>
     <t xml:space="preserve">1.35574972629547</t>
   </si>
   <si>
-    <t xml:space="preserve">1.41549468040466</t>
+    <t xml:space="preserve">1.41549444198608</t>
   </si>
   <si>
     <t xml:space="preserve">1.35115396976471</t>
@@ -1562,25 +1562,25 @@
     <t xml:space="preserve">1.45226073265076</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43847346305847</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50281405448914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42009019851685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46604800224304</t>
+    <t xml:space="preserve">1.43847334384918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50281417369843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42009031772614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46604788303375</t>
   </si>
   <si>
     <t xml:space="preserve">1.3281751871109</t>
   </si>
   <si>
-    <t xml:space="preserve">1.30979192256927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30060052871704</t>
+    <t xml:space="preserve">1.30979216098785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30060064792633</t>
   </si>
   <si>
     <t xml:space="preserve">1.28681325912476</t>
@@ -1598,13 +1598,13 @@
     <t xml:space="preserve">1.53958010673523</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54877173900604</t>
+    <t xml:space="preserve">1.54877161979675</t>
   </si>
   <si>
     <t xml:space="preserve">1.57634627819061</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54417586326599</t>
+    <t xml:space="preserve">1.54417598247528</t>
   </si>
   <si>
     <t xml:space="preserve">1.55796325206757</t>
@@ -1613,25 +1613,25 @@
     <t xml:space="preserve">1.53038859367371</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5671546459198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77396380901337</t>
+    <t xml:space="preserve">1.56715476512909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77396404743195</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992161273956</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79234707355499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8750706911087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.93021988868713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.88426220417023</t>
+    <t xml:space="preserve">1.79234719276428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.87507081031799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.93021976947784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.88426232337952</t>
   </si>
   <si>
     <t xml:space="preserve">1.89345383644104</t>
@@ -1640,19 +1640,19 @@
     <t xml:space="preserve">1.83830463886261</t>
   </si>
   <si>
-    <t xml:space="preserve">1.8291130065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78775143623352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82451748847961</t>
+    <t xml:space="preserve">1.82911312580109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78775131702423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82451736927032</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78315556049347</t>
+    <t xml:space="preserve">1.78315567970276</t>
   </si>
   <si>
     <t xml:space="preserve">1.80153858661652</t>
@@ -1667,19 +1667,19 @@
     <t xml:space="preserve">1.79694283008575</t>
   </si>
   <si>
-    <t xml:space="preserve">1.83370900154114</t>
+    <t xml:space="preserve">1.83370888233185</t>
   </si>
   <si>
     <t xml:space="preserve">1.86587929725647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90264534950256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92102837562561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85668766498566</t>
+    <t xml:space="preserve">1.90264523029327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92102825641632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85668778419495</t>
   </si>
   <si>
     <t xml:space="preserve">1.81073009967804</t>
@@ -1694,19 +1694,19 @@
     <t xml:space="preserve">2.02213525772095</t>
   </si>
   <si>
-    <t xml:space="preserve">1.98536920547485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.04051828384399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14162468910217</t>
+    <t xml:space="preserve">1.98536896705627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.04051804542542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.14162492752075</t>
   </si>
   <si>
     <t xml:space="preserve">2.16919946670532</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11405062675476</t>
+    <t xml:space="preserve">2.11405038833618</t>
   </si>
   <si>
     <t xml:space="preserve">2.12324190139771</t>
@@ -1715,13 +1715,13 @@
     <t xml:space="preserve">2.1600079536438</t>
   </si>
   <si>
-    <t xml:space="preserve">2.50928592681885</t>
+    <t xml:space="preserve">2.50928568840027</t>
   </si>
   <si>
     <t xml:space="preserve">2.53686046600342</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46332812309265</t>
+    <t xml:space="preserve">2.46332836151123</t>
   </si>
   <si>
     <t xml:space="preserve">2.63796710968018</t>
@@ -1730,13 +1730,13 @@
     <t xml:space="preserve">2.68392491340637</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73035979270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69321203231812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.72107243537903</t>
+    <t xml:space="preserve">2.73035955429077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69321179389954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.72107267379761</t>
   </si>
   <si>
     <t xml:space="preserve">2.82322907447815</t>
@@ -1748,25 +1748,25 @@
     <t xml:space="preserve">2.81394195556641</t>
   </si>
   <si>
-    <t xml:space="preserve">2.990394115448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.19470643997192</t>
+    <t xml:space="preserve">2.99039387702942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1947066783905</t>
   </si>
   <si>
     <t xml:space="preserve">3.08326315879822</t>
   </si>
   <si>
-    <t xml:space="preserve">3.01825475692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.93467235565186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.85108971595764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.92538547515869</t>
+    <t xml:space="preserve">3.01825451850891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.93467211723328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.85108947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92538523674011</t>
   </si>
   <si>
     <t xml:space="preserve">2.96253299713135</t>
@@ -1775,7 +1775,7 @@
     <t xml:space="preserve">2.90681147575378</t>
   </si>
   <si>
-    <t xml:space="preserve">2.86037683486938</t>
+    <t xml:space="preserve">2.86037659645081</t>
   </si>
   <si>
     <t xml:space="preserve">2.80465507507324</t>
@@ -1784,13 +1784,13 @@
     <t xml:space="preserve">2.63749027252197</t>
   </si>
   <si>
-    <t xml:space="preserve">2.60962915420532</t>
+    <t xml:space="preserve">2.6096293926239</t>
   </si>
   <si>
     <t xml:space="preserve">2.66535091400146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.73964643478394</t>
+    <t xml:space="preserve">2.73964667320251</t>
   </si>
   <si>
     <t xml:space="preserve">2.75822043418884</t>
@@ -1802,22 +1802,22 @@
     <t xml:space="preserve">2.70249891281128</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65606427192688</t>
+    <t xml:space="preserve">2.6560640335083</t>
   </si>
   <si>
     <t xml:space="preserve">2.67463803291321</t>
   </si>
   <si>
-    <t xml:space="preserve">2.62820315361023</t>
+    <t xml:space="preserve">2.62820339202881</t>
   </si>
   <si>
     <t xml:space="preserve">2.59105563163757</t>
   </si>
   <si>
-    <t xml:space="preserve">2.64677691459656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.87895059585571</t>
+    <t xml:space="preserve">2.64677715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87895035743713</t>
   </si>
   <si>
     <t xml:space="preserve">2.91609835624695</t>
@@ -1829,13 +1829,13 @@
     <t xml:space="preserve">2.78608131408691</t>
   </si>
   <si>
-    <t xml:space="preserve">2.83251571655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.88823747634888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.95324635505676</t>
+    <t xml:space="preserve">2.83251595497131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8882372379303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.95324611663818</t>
   </si>
   <si>
     <t xml:space="preserve">3.09255003929138</t>
@@ -1847,16 +1847,16 @@
     <t xml:space="preserve">3.05540227890015</t>
   </si>
   <si>
-    <t xml:space="preserve">3.02754163742065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.89752435684204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.61891627311707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.55390763282776</t>
+    <t xml:space="preserve">3.02754187583923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.89752411842346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.61891651153564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.55390787124634</t>
   </si>
   <si>
     <t xml:space="preserve">2.71178579330444</t>
@@ -1874,31 +1874,31 @@
     <t xml:space="preserve">3.10183691978455</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11112380027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.07397603988647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.97182011604309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.03682851791382</t>
+    <t xml:space="preserve">3.11112403869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07397627830505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97181987762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0368287563324</t>
   </si>
   <si>
     <t xml:space="preserve">3.00896763801575</t>
   </si>
   <si>
-    <t xml:space="preserve">2.94395899772644</t>
+    <t xml:space="preserve">2.94395923614502</t>
   </si>
   <si>
     <t xml:space="preserve">2.84180283546448</t>
   </si>
   <si>
-    <t xml:space="preserve">2.76750755310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30316066741943</t>
+    <t xml:space="preserve">2.76750731468201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30316042900085</t>
   </si>
   <si>
     <t xml:space="preserve">2.25672578811646</t>
@@ -1907,16 +1907,16 @@
     <t xml:space="preserve">2.34959506988525</t>
   </si>
   <si>
-    <t xml:space="preserve">2.48889923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38674259185791</t>
+    <t xml:space="preserve">2.48889899253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38674283027649</t>
   </si>
   <si>
     <t xml:space="preserve">2.43317747116089</t>
   </si>
   <si>
-    <t xml:space="preserve">2.58176851272583</t>
+    <t xml:space="preserve">2.58176875114441</t>
   </si>
   <si>
     <t xml:space="preserve">2.5631947517395</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">2.37745594978333</t>
   </si>
   <si>
-    <t xml:space="preserve">2.39602994918823</t>
+    <t xml:space="preserve">2.39602971076965</t>
   </si>
   <si>
     <t xml:space="preserve">2.36816906929016</t>
@@ -59476,7 +59476,7 @@
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n">
-        <v>45502.6495949074</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B2183" t="n">
         <v>2103</v>
@@ -59497,6 +59497,32 @@
         <v>794</v>
       </c>
       <c r="H2183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" s="1" t="n">
+        <v>45503.6493287037</v>
+      </c>
+      <c r="B2184" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C2184" t="n">
+        <v>2.17000007629395</v>
+      </c>
+      <c r="D2184" t="n">
+        <v>2.13000011444092</v>
+      </c>
+      <c r="E2184" t="n">
+        <v>2.14000010490417</v>
+      </c>
+      <c r="F2184" t="n">
+        <v>2.10999989509583</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2184" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/IRC.MI.xlsx
+++ b/data/IRC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="797">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80338215827942</t>
+    <t xml:space="preserve">1.80338227748871</t>
   </si>
   <si>
     <t xml:space="preserve">IRC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79827857017517</t>
+    <t xml:space="preserve">1.79827845096588</t>
   </si>
   <si>
     <t xml:space="preserve">1.74383664131165</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">1.75404453277588</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73533034324646</t>
+    <t xml:space="preserve">1.73533010482788</t>
   </si>
   <si>
     <t xml:space="preserve">1.72682368755341</t>
@@ -62,34 +62,34 @@
     <t xml:space="preserve">1.71661567687988</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68854427337646</t>
+    <t xml:space="preserve">1.68854415416718</t>
   </si>
   <si>
     <t xml:space="preserve">1.66047275066376</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64175844192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5311735868454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6409078836441</t>
+    <t xml:space="preserve">1.64175832271576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53117370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64090776443481</t>
   </si>
   <si>
     <t xml:space="preserve">1.64005708694458</t>
   </si>
   <si>
-    <t xml:space="preserve">1.63410258293152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6502650976181</t>
+    <t xml:space="preserve">1.63410246372223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65026521682739</t>
   </si>
   <si>
     <t xml:space="preserve">1.63325190544128</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60773241519928</t>
+    <t xml:space="preserve">1.60773229598999</t>
   </si>
   <si>
     <t xml:space="preserve">1.55839455127716</t>
@@ -98,31 +98,31 @@
     <t xml:space="preserve">1.58646619319916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61283624172211</t>
+    <t xml:space="preserve">1.6128363609314</t>
   </si>
   <si>
     <t xml:space="preserve">1.58221280574799</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49714744091034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55158936977386</t>
+    <t xml:space="preserve">1.49714779853821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55158925056458</t>
   </si>
   <si>
     <t xml:space="preserve">1.50565409660339</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48608922958374</t>
+    <t xml:space="preserve">1.48608911037445</t>
   </si>
   <si>
     <t xml:space="preserve">1.56434905529022</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70130407810211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68429100513458</t>
+    <t xml:space="preserve">1.70130395889282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.68429124355316</t>
   </si>
   <si>
     <t xml:space="preserve">1.70640802383423</t>
@@ -131,34 +131,34 @@
     <t xml:space="preserve">1.69279766082764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68684279918671</t>
+    <t xml:space="preserve">1.68684303760529</t>
   </si>
   <si>
     <t xml:space="preserve">1.69194674491882</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6893949508667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.71831715106964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65366744995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64686238765717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61623883247375</t>
+    <t xml:space="preserve">1.68939483165741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.71831703186035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65366756916046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64686250686646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61623895168304</t>
   </si>
   <si>
     <t xml:space="preserve">1.69024550914764</t>
   </si>
   <si>
-    <t xml:space="preserve">1.68173897266388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.65111577510834</t>
+    <t xml:space="preserve">1.68173909187317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65111565589905</t>
   </si>
   <si>
     <t xml:space="preserve">1.62049210071564</t>
@@ -170,34 +170,34 @@
     <t xml:space="preserve">1.63240122795105</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6153883934021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60432982444763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58051145076752</t>
+    <t xml:space="preserve">1.61538827419281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60432970523834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58051156997681</t>
   </si>
   <si>
     <t xml:space="preserve">1.58986866474152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60177791118622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60688185691833</t>
+    <t xml:space="preserve">1.60177779197693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60688197612762</t>
   </si>
   <si>
     <t xml:space="preserve">1.59922575950623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59752452373505</t>
+    <t xml:space="preserve">1.59752476215363</t>
   </si>
   <si>
     <t xml:space="preserve">1.54818677902222</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53202438354492</t>
+    <t xml:space="preserve">1.53202426433563</t>
   </si>
   <si>
     <t xml:space="preserve">1.5337256193161</t>
@@ -206,91 +206,91 @@
     <t xml:space="preserve">1.57881021499634</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53542697429657</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56094634532928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53287518024445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52096593379974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55329036712646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54648554325104</t>
+    <t xml:space="preserve">1.53542673587799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56094670295715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53287494182587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52096569538116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55329060554504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54648542404175</t>
   </si>
   <si>
     <t xml:space="preserve">1.53968012332916</t>
   </si>
   <si>
-    <t xml:space="preserve">1.52862179279327</t>
+    <t xml:space="preserve">1.52862191200256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50395274162292</t>
   </si>
   <si>
     <t xml:space="preserve">1.50395286083221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50395274162292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49703013896942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50654900074005</t>
+    <t xml:space="preserve">1.49703025817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50654888153076</t>
   </si>
   <si>
     <t xml:space="preserve">1.47626209259033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.47885799407959</t>
+    <t xml:space="preserve">1.4788578748703</t>
   </si>
   <si>
     <t xml:space="preserve">1.47539675235748</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46933937072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45376324653625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48405027389526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47972357273102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48664629459381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49270343780518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52298998832703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48837685585022</t>
+    <t xml:space="preserve">1.46933925151825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.45376312732697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48405015468597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47972333431244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48664617538452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49270355701447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52299022674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48837661743164</t>
   </si>
   <si>
     <t xml:space="preserve">1.46674335002899</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4736659526825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5056836605072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.44511008262634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.45116746425629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42001521587372</t>
+    <t xml:space="preserve">1.47366583347321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50568354129791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.44510996341705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.451167345047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42001533508301</t>
   </si>
   <si>
     <t xml:space="preserve">1.46760880947113</t>
@@ -299,49 +299,49 @@
     <t xml:space="preserve">1.45895528793335</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51433670520782</t>
+    <t xml:space="preserve">1.5143369436264</t>
   </si>
   <si>
     <t xml:space="preserve">1.47107005119324</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46501278877258</t>
+    <t xml:space="preserve">1.46501266956329</t>
   </si>
   <si>
     <t xml:space="preserve">1.52039408683777</t>
   </si>
   <si>
-    <t xml:space="preserve">1.49183821678162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.52212476730347</t>
+    <t xml:space="preserve">1.49183797836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52212488651276</t>
   </si>
   <si>
     <t xml:space="preserve">1.47712731361389</t>
   </si>
   <si>
-    <t xml:space="preserve">1.50222218036652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49616467952728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5299129486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50827956199646</t>
+    <t xml:space="preserve">1.50222206115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49616479873657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.52991282939911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50827944278717</t>
   </si>
   <si>
     <t xml:space="preserve">1.51087558269501</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51347148418427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53077816963196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50308763980865</t>
+    <t xml:space="preserve">1.51347160339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53077828884125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50308752059937</t>
   </si>
   <si>
     <t xml:space="preserve">1.50049138069153</t>
@@ -350,10 +350,10 @@
     <t xml:space="preserve">1.50135684013367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53337419033051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.48318481445312</t>
+    <t xml:space="preserve">1.53337407112122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.48318469524384</t>
   </si>
   <si>
     <t xml:space="preserve">1.51866340637207</t>
@@ -362,34 +362,34 @@
     <t xml:space="preserve">1.51174092292786</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54375839233398</t>
+    <t xml:space="preserve">1.54375815391541</t>
   </si>
   <si>
     <t xml:space="preserve">1.55500769615173</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54895031452179</t>
+    <t xml:space="preserve">1.5489501953125</t>
   </si>
   <si>
     <t xml:space="preserve">1.5402969121933</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53250885009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55587291717529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54462349414825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5576034784317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49443411827087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49010741710663</t>
+    <t xml:space="preserve">1.53250896930695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.555872797966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54462361335754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55760371685028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49443423748016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49010729789734</t>
   </si>
   <si>
     <t xml:space="preserve">1.48231947422028</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">1.526451587677</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55673837661743</t>
+    <t xml:space="preserve">1.55673825740814</t>
   </si>
   <si>
     <t xml:space="preserve">1.54116225242615</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55327677726746</t>
+    <t xml:space="preserve">1.55327689647675</t>
   </si>
   <si>
     <t xml:space="preserve">1.54202747344971</t>
   </si>
   <si>
-    <t xml:space="preserve">1.51693284511566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53856611251831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.51606738567352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.54635405540466</t>
+    <t xml:space="preserve">1.51693272590637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5385662317276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.51606750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.54635417461395</t>
   </si>
   <si>
     <t xml:space="preserve">1.57404494285583</t>
@@ -434,40 +434,40 @@
     <t xml:space="preserve">1.57837164402008</t>
   </si>
   <si>
-    <t xml:space="preserve">1.57317972183228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56971824169159</t>
+    <t xml:space="preserve">1.57317960262299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56971836090088</t>
   </si>
   <si>
     <t xml:space="preserve">1.54981553554535</t>
   </si>
   <si>
-    <t xml:space="preserve">1.55846893787384</t>
+    <t xml:space="preserve">1.55846881866455</t>
   </si>
   <si>
     <t xml:space="preserve">1.59135162830353</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59221720695496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60000503063202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.56625688076019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55414235591888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64413702487946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.58096766471863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60779297351837</t>
+    <t xml:space="preserve">1.59221708774567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60000491142273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5662567615509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55414223670959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.64413714408875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58096754550934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60779309272766</t>
   </si>
   <si>
     <t xml:space="preserve">1.57664084434509</t>
@@ -476,40 +476,40 @@
     <t xml:space="preserve">1.57750618457794</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59827435016632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59913969039917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60087049007416</t>
+    <t xml:space="preserve">1.59827446937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59913980960846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60087037086487</t>
   </si>
   <si>
     <t xml:space="preserve">1.63461852073669</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60952365398407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61731171607971</t>
+    <t xml:space="preserve">1.60952377319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.617311835289</t>
   </si>
   <si>
     <t xml:space="preserve">1.61817705631256</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6519250869751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59654366970062</t>
+    <t xml:space="preserve">1.65192520618439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59654378890991</t>
   </si>
   <si>
     <t xml:space="preserve">1.60519707202911</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6190425157547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61211979389191</t>
+    <t xml:space="preserve">1.61904239654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61211967468262</t>
   </si>
   <si>
     <t xml:space="preserve">1.65971314907074</t>
@@ -521,28 +521,28 @@
     <t xml:space="preserve">1.65279054641724</t>
   </si>
   <si>
-    <t xml:space="preserve">1.67442381381989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67009711265564</t>
+    <t xml:space="preserve">1.6744236946106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67009699344635</t>
   </si>
   <si>
     <t xml:space="preserve">1.66144382953644</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6415411233902</t>
+    <t xml:space="preserve">1.64154100418091</t>
   </si>
   <si>
     <t xml:space="preserve">1.63634920120239</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65625178813934</t>
+    <t xml:space="preserve">1.65625190734863</t>
   </si>
   <si>
     <t xml:space="preserve">1.68048119544983</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66317451000214</t>
+    <t xml:space="preserve">1.66317462921143</t>
   </si>
   <si>
     <t xml:space="preserve">1.76701498031616</t>
@@ -554,67 +554,67 @@
     <t xml:space="preserve">1.81893479824066</t>
   </si>
   <si>
-    <t xml:space="preserve">1.80682003498077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77739882469177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79816675186157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.77393734455109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75836157798767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79124414920807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7514386177063</t>
+    <t xml:space="preserve">1.80682039260864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77739870548248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79816687107086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.77393746376038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75836145877838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79124391078949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75143873691559</t>
   </si>
   <si>
     <t xml:space="preserve">1.72980535030365</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74797737598419</t>
+    <t xml:space="preserve">1.7479772567749</t>
   </si>
   <si>
     <t xml:space="preserve">1.7445160150528</t>
   </si>
   <si>
-    <t xml:space="preserve">1.75663077831268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82758831977844</t>
+    <t xml:space="preserve">1.75663065910339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82758820056915</t>
   </si>
   <si>
     <t xml:space="preserve">1.81201231479645</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74105477333069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74278509616852</t>
+    <t xml:space="preserve">1.7410546541214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7427853345871</t>
   </si>
   <si>
     <t xml:space="preserve">1.71855592727661</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7393239736557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76528418064117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.78432142734528</t>
+    <t xml:space="preserve">1.73932385444641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76528406143188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.78432154655457</t>
   </si>
   <si>
     <t xml:space="preserve">1.80855071544647</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76182270050049</t>
+    <t xml:space="preserve">1.76182281970978</t>
   </si>
   <si>
     <t xml:space="preserve">1.76874530315399</t>
@@ -623,22 +623,22 @@
     <t xml:space="preserve">1.78259074687958</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79989731311798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82412707805634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81720411777496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80335879325867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84316444396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79297482967377</t>
+    <t xml:space="preserve">1.79989743232727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.82412683963776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81720423698425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80335891246796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.84316420555115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79297471046448</t>
   </si>
   <si>
     <t xml:space="preserve">1.81547367572784</t>
@@ -647,25 +647,25 @@
     <t xml:space="preserve">1.78605210781097</t>
   </si>
   <si>
-    <t xml:space="preserve">1.85354793071747</t>
+    <t xml:space="preserve">1.85354828834534</t>
   </si>
   <si>
     <t xml:space="preserve">1.83451068401337</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87777781486511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.92623662948608</t>
+    <t xml:space="preserve">1.87777757644653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9262363910675</t>
   </si>
   <si>
     <t xml:space="preserve">1.92104423046112</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90373766422272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83797216415405</t>
+    <t xml:space="preserve">1.90373778343201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83797228336334</t>
   </si>
   <si>
     <t xml:space="preserve">1.962531208992</t>
@@ -674,55 +674,55 @@
     <t xml:space="preserve">2.04503440856934</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41366767883301</t>
+    <t xml:space="preserve">2.41366744041443</t>
   </si>
   <si>
     <t xml:space="preserve">2.42244434356689</t>
   </si>
   <si>
-    <t xml:space="preserve">2.3083438873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24690508842468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43648791313171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39260292053223</t>
+    <t xml:space="preserve">2.30834412574768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2469048500061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43648743629456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39260315895081</t>
   </si>
   <si>
     <t xml:space="preserve">2.4171781539917</t>
   </si>
   <si>
-    <t xml:space="preserve">2.40489077568054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31712079048157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.26972508430481</t>
+    <t xml:space="preserve">2.40489053726196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31712055206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.26972532272339</t>
   </si>
   <si>
     <t xml:space="preserve">2.20653080940247</t>
   </si>
   <si>
-    <t xml:space="preserve">2.13280487060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0801420211792</t>
+    <t xml:space="preserve">2.13280439376831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.08014249801636</t>
   </si>
   <si>
     <t xml:space="preserve">2.01870369911194</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07136535644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12753820419312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.06258821487427</t>
+    <t xml:space="preserve">2.07136559486389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12753796577454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.06258869171143</t>
   </si>
   <si>
     <t xml:space="preserve">2.08540868759155</t>
@@ -731,22 +731,22 @@
     <t xml:space="preserve">2.12402749061584</t>
   </si>
   <si>
-    <t xml:space="preserve">2.10647368431091</t>
+    <t xml:space="preserve">2.10647344589233</t>
   </si>
   <si>
     <t xml:space="preserve">2.13104891777039</t>
   </si>
   <si>
-    <t xml:space="preserve">2.11525082588196</t>
+    <t xml:space="preserve">2.11525058746338</t>
   </si>
   <si>
     <t xml:space="preserve">2.10296249389648</t>
   </si>
   <si>
-    <t xml:space="preserve">2.03976798057556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.05381155014038</t>
+    <t xml:space="preserve">2.03976821899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0538113117218</t>
   </si>
   <si>
     <t xml:space="preserve">2.03625726699829</t>
@@ -758,28 +758,28 @@
     <t xml:space="preserve">2.03450226783752</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00992703437805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99763906002045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98359608650208</t>
+    <t xml:space="preserve">2.00992679595947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99763894081116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9835958480835</t>
   </si>
   <si>
     <t xml:space="preserve">1.98535120487213</t>
   </si>
   <si>
-    <t xml:space="preserve">2.00114989280701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01694869995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99588346481323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98710656166077</t>
+    <t xml:space="preserve">2.00114965438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01694846153259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99588358402252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98710668087006</t>
   </si>
   <si>
     <t xml:space="preserve">2.0327467918396</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">2.06785464286804</t>
   </si>
   <si>
-    <t xml:space="preserve">2.07663154602051</t>
+    <t xml:space="preserve">2.07663202285767</t>
   </si>
   <si>
     <t xml:space="preserve">2.04854536056519</t>
@@ -797,28 +797,28 @@
     <t xml:space="preserve">1.99061739444733</t>
   </si>
   <si>
-    <t xml:space="preserve">1.97481870651245</t>
+    <t xml:space="preserve">1.97481894493103</t>
   </si>
   <si>
     <t xml:space="preserve">1.97130811214447</t>
   </si>
   <si>
-    <t xml:space="preserve">1.96604192256927</t>
+    <t xml:space="preserve">1.9660416841507</t>
   </si>
   <si>
     <t xml:space="preserve">1.99237298965454</t>
   </si>
   <si>
-    <t xml:space="preserve">1.99939477443695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.20301985740662</t>
+    <t xml:space="preserve">1.99939429759979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2030200958252</t>
   </si>
   <si>
     <t xml:space="preserve">2.32414245605469</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29078960418701</t>
+    <t xml:space="preserve">2.29079008102417</t>
   </si>
   <si>
     <t xml:space="preserve">2.43122124671936</t>
@@ -833,64 +833,64 @@
     <t xml:space="preserve">2.48563885688782</t>
   </si>
   <si>
-    <t xml:space="preserve">2.43999862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37855958938599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38207054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38558125495911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35925030708313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.49792623519897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.48739409446716</t>
+    <t xml:space="preserve">2.43999838829041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37855982780457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38207030296326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38558101654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35925054550171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.49792647361755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.48739385604858</t>
   </si>
   <si>
     <t xml:space="preserve">2.44175362586975</t>
   </si>
   <si>
-    <t xml:space="preserve">2.46984004974365</t>
+    <t xml:space="preserve">2.46984028816223</t>
   </si>
   <si>
     <t xml:space="preserve">2.42946600914001</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37504887580872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3908474445343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39962434768677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38909196853638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41893362998962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43473196029663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41542291641235</t>
+    <t xml:space="preserve">2.37504911422729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39084720611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39962410926819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3890917301178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4189338684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43473219871521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41542315483093</t>
   </si>
   <si>
     <t xml:space="preserve">2.3961136341095</t>
   </si>
   <si>
-    <t xml:space="preserve">2.41015672683716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.43824291229248</t>
+    <t xml:space="preserve">2.41015696525574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.43824338912964</t>
   </si>
   <si>
     <t xml:space="preserve">2.44877529144287</t>
@@ -899,40 +899,40 @@
     <t xml:space="preserve">2.45579719543457</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33994102478027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32238674163818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.15737962722778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.22232937812805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16966772079468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16791200637817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.19248795509338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38733625411987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35222887992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37329363822937</t>
+    <t xml:space="preserve">2.33994054794312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32238698005676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.15737986564636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.22232961654663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16966724395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16791248321533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.19248747825623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38733649253845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.35222840309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37329339981079</t>
   </si>
   <si>
     <t xml:space="preserve">2.36627173423767</t>
   </si>
   <si>
-    <t xml:space="preserve">2.35749506950378</t>
+    <t xml:space="preserve">2.35749483108521</t>
   </si>
   <si>
     <t xml:space="preserve">2.28376817703247</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">2.30658841133118</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2820131778717</t>
+    <t xml:space="preserve">2.28201270103455</t>
   </si>
   <si>
     <t xml:space="preserve">2.32589793205261</t>
@@ -950,7 +950,7 @@
     <t xml:space="preserve">2.3136100769043</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29956650733948</t>
+    <t xml:space="preserve">2.29956674575806</t>
   </si>
   <si>
     <t xml:space="preserve">2.25568199157715</t>
@@ -971,25 +971,25 @@
     <t xml:space="preserve">2.27323603630066</t>
   </si>
   <si>
-    <t xml:space="preserve">2.36100578308105</t>
+    <t xml:space="preserve">2.36100602149963</t>
   </si>
   <si>
     <t xml:space="preserve">2.46632933616638</t>
   </si>
   <si>
-    <t xml:space="preserve">2.49266004562378</t>
+    <t xml:space="preserve">2.49266028404236</t>
   </si>
   <si>
     <t xml:space="preserve">2.60676097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">2.65064573287964</t>
+    <t xml:space="preserve">2.65064549446106</t>
   </si>
   <si>
     <t xml:space="preserve">2.62431478500366</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6594226360321</t>
+    <t xml:space="preserve">2.65942287445068</t>
   </si>
   <si>
     <t xml:space="preserve">2.58043003082275</t>
@@ -1010,10 +1010,10 @@
     <t xml:space="preserve">2.36978268623352</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52776837348938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.6857533454895</t>
+    <t xml:space="preserve">2.5277681350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.68575358390808</t>
   </si>
   <si>
     <t xml:space="preserve">2.69453048706055</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">2.73841524124146</t>
   </si>
   <si>
-    <t xml:space="preserve">2.51021409034729</t>
+    <t xml:space="preserve">2.51021385192871</t>
   </si>
   <si>
     <t xml:space="preserve">2.59798383712769</t>
   </si>
   <si>
-    <t xml:space="preserve">2.6155378818512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63309192657471</t>
+    <t xml:space="preserve">2.61553764343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63309168815613</t>
   </si>
   <si>
     <t xml:space="preserve">2.56287622451782</t>
@@ -1043,10 +1043,10 @@
     <t xml:space="preserve">2.51899099349976</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33467483520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.21179699897766</t>
+    <t xml:space="preserve">2.3346745967865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.21179723739624</t>
   </si>
   <si>
     <t xml:space="preserve">2.26327753067017</t>
@@ -1055,49 +1055,49 @@
     <t xml:space="preserve">2.18276572227478</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2364399433136</t>
+    <t xml:space="preserve">2.23644018173218</t>
   </si>
   <si>
     <t xml:space="preserve">2.36168074607849</t>
   </si>
   <si>
-    <t xml:space="preserve">2.32589745521545</t>
+    <t xml:space="preserve">2.32589769363403</t>
   </si>
   <si>
     <t xml:space="preserve">2.31695199012756</t>
   </si>
   <si>
-    <t xml:space="preserve">2.33484315872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.34378910064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41535544395447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.42430090904236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37062692642212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.37957262992859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.39746403694153</t>
+    <t xml:space="preserve">2.3348433971405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34378933906555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41535520553589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.42430114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37062644958496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.37957215309143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39746379852295</t>
   </si>
   <si>
     <t xml:space="preserve">2.3527352809906</t>
   </si>
   <si>
-    <t xml:space="preserve">2.28116917610168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.24538564682007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.27222323417664</t>
+    <t xml:space="preserve">2.28116893768311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.24538588523865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27222299575806</t>
   </si>
   <si>
     <t xml:space="preserve">2.21854853630066</t>
@@ -1106,7 +1106,7 @@
     <t xml:space="preserve">2.20065712928772</t>
   </si>
   <si>
-    <t xml:space="preserve">2.17382001876831</t>
+    <t xml:space="preserve">2.17381978034973</t>
   </si>
   <si>
     <t xml:space="preserve">2.2543318271637</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">2.15592837333679</t>
   </si>
   <si>
-    <t xml:space="preserve">2.29011487960815</t>
+    <t xml:space="preserve">2.29011464118958</t>
   </si>
   <si>
     <t xml:space="preserve">2.13803696632385</t>
@@ -1124,16 +1124,16 @@
     <t xml:space="preserve">2.14698266983032</t>
   </si>
   <si>
-    <t xml:space="preserve">2.16487407684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.10225343704224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.07541608810425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.12014508247375</t>
+    <t xml:space="preserve">2.16487431526184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10225367546082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.07541632652283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12014532089233</t>
   </si>
   <si>
     <t xml:space="preserve">2.12909126281738</t>
@@ -1142,13 +1142,13 @@
     <t xml:space="preserve">2.05752491950989</t>
   </si>
   <si>
-    <t xml:space="preserve">2.06647062301636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03963351249695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02174210548401</t>
+    <t xml:space="preserve">2.06647086143494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03963327407837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02174186706543</t>
   </si>
   <si>
     <t xml:space="preserve">2.08436226844788</t>
@@ -1157,10 +1157,10 @@
     <t xml:space="preserve">2.11119937896729</t>
   </si>
   <si>
-    <t xml:space="preserve">2.09330797195435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.99490463733673</t>
+    <t xml:space="preserve">2.09330773353577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.99490451812744</t>
   </si>
   <si>
     <t xml:space="preserve">1.93228435516357</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">1.95017600059509</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87860953807831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86966383457184</t>
+    <t xml:space="preserve">1.87860977649689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86966371536255</t>
   </si>
   <si>
     <t xml:space="preserve">1.83388090133667</t>
@@ -1181,10 +1181,10 @@
     <t xml:space="preserve">1.77126061916351</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74442327022552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67733001708984</t>
+    <t xml:space="preserve">1.74442338943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67733013629913</t>
   </si>
   <si>
     <t xml:space="preserve">1.68180298805237</t>
@@ -1193,34 +1193,34 @@
     <t xml:space="preserve">1.7265317440033</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73547756671906</t>
+    <t xml:space="preserve">1.73547768592834</t>
   </si>
   <si>
     <t xml:space="preserve">1.76231491565704</t>
   </si>
   <si>
-    <t xml:space="preserve">1.73995041847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.76678788661957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74889612197876</t>
+    <t xml:space="preserve">1.73995053768158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.76678764820099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.74889624118805</t>
   </si>
   <si>
     <t xml:space="preserve">1.69522154331207</t>
   </si>
   <si>
-    <t xml:space="preserve">1.6460200548172</t>
+    <t xml:space="preserve">1.64601993560791</t>
   </si>
   <si>
     <t xml:space="preserve">1.65496575832367</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66838443279266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66391146183014</t>
+    <t xml:space="preserve">1.66838431358337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66391134262085</t>
   </si>
   <si>
     <t xml:space="preserve">1.6862758398056</t>
@@ -1232,52 +1232,52 @@
     <t xml:space="preserve">1.73100459575653</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70864021778107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.75336909294128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72205901145935</t>
+    <t xml:space="preserve">1.70864033699036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75336921215057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72205889225006</t>
   </si>
   <si>
     <t xml:space="preserve">1.71758604049683</t>
   </si>
   <si>
-    <t xml:space="preserve">1.61918246746063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5744537115097</t>
+    <t xml:space="preserve">1.61918258666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.57445383071899</t>
   </si>
   <si>
     <t xml:space="preserve">1.55656242370605</t>
   </si>
   <si>
-    <t xml:space="preserve">1.59234547615051</t>
+    <t xml:space="preserve">1.59234523773193</t>
   </si>
   <si>
     <t xml:space="preserve">1.61023688316345</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70416736602783</t>
+    <t xml:space="preserve">1.70416724681854</t>
   </si>
   <si>
     <t xml:space="preserve">1.71311318874359</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78020644187927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.81598949432373</t>
+    <t xml:space="preserve">1.78020632266998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.81598925590515</t>
   </si>
   <si>
     <t xml:space="preserve">1.80704355239868</t>
   </si>
   <si>
-    <t xml:space="preserve">1.84282660484314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86071825027466</t>
+    <t xml:space="preserve">1.84282672405243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86071813106537</t>
   </si>
   <si>
     <t xml:space="preserve">1.8249351978302</t>
@@ -1286,58 +1286,58 @@
     <t xml:space="preserve">1.79809784889221</t>
   </si>
   <si>
-    <t xml:space="preserve">1.88755524158478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.85177230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89650106430054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.9233386516571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.96806728839874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01279592514038</t>
+    <t xml:space="preserve">1.88755512237549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.8517724275589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89650118350983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92333853244781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.96806740760803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01279616355896</t>
   </si>
   <si>
     <t xml:space="preserve">2.00385022163391</t>
   </si>
   <si>
-    <t xml:space="preserve">2.04857921600342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.03068780899048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.97701287269592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.98595869541168</t>
+    <t xml:space="preserve">2.04857897758484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0306875705719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9770131111145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.98595857620239</t>
   </si>
   <si>
     <t xml:space="preserve">1.91439294815063</t>
   </si>
   <si>
-    <t xml:space="preserve">1.90544724464417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.94123017787933</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.6728572845459</t>
+    <t xml:space="preserve">1.90544700622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.94122993946075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.67285716533661</t>
   </si>
   <si>
     <t xml:space="preserve">1.70043182373047</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66826152801514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.64987850189209</t>
+    <t xml:space="preserve">1.66826140880585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6498783826828</t>
   </si>
   <si>
     <t xml:space="preserve">1.65906989574432</t>
@@ -1346,25 +1346,25 @@
     <t xml:space="preserve">1.68664455413818</t>
   </si>
   <si>
-    <t xml:space="preserve">1.70502758026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.695836186409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69124042987823</t>
+    <t xml:space="preserve">1.70502746105194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69583606719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.69124031066895</t>
   </si>
   <si>
     <t xml:space="preserve">1.70962333679199</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71881484985352</t>
+    <t xml:space="preserve">1.71881473064423</t>
   </si>
   <si>
     <t xml:space="preserve">1.73719799518585</t>
   </si>
   <si>
-    <t xml:space="preserve">1.7326021194458</t>
+    <t xml:space="preserve">1.73260223865509</t>
   </si>
   <si>
     <t xml:space="preserve">1.68204879760742</t>
@@ -1376,19 +1376,19 @@
     <t xml:space="preserve">1.67745304107666</t>
   </si>
   <si>
-    <t xml:space="preserve">1.66366565227509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63149547576904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.62689960002899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59932518005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5901335477829</t>
+    <t xml:space="preserve">1.66366577148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63149535655975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.62689971923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59932494163513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59013366699219</t>
   </si>
   <si>
     <t xml:space="preserve">1.64068686962128</t>
@@ -1400,43 +1400,43 @@
     <t xml:space="preserve">1.58553779125214</t>
   </si>
   <si>
-    <t xml:space="preserve">1.60392093658447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61770796775818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.63609111309052</t>
+    <t xml:space="preserve">1.60392081737518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61770808696747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.63609099388123</t>
   </si>
   <si>
     <t xml:space="preserve">1.62230384349823</t>
   </si>
   <si>
-    <t xml:space="preserve">1.64528274536133</t>
+    <t xml:space="preserve">1.64528262615204</t>
   </si>
   <si>
     <t xml:space="preserve">1.58094203472137</t>
   </si>
   <si>
-    <t xml:space="preserve">1.71421921253204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.61311221122742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.59472930431366</t>
+    <t xml:space="preserve">1.71421909332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.613112449646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.59472942352295</t>
   </si>
   <si>
     <t xml:space="preserve">1.57175052165985</t>
   </si>
   <si>
-    <t xml:space="preserve">1.5533674955368</t>
+    <t xml:space="preserve">1.55336761474609</t>
   </si>
   <si>
     <t xml:space="preserve">1.4706437587738</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56255900859833</t>
+    <t xml:space="preserve">1.56255888938904</t>
   </si>
   <si>
     <t xml:space="preserve">1.53498435020447</t>
@@ -1448,13 +1448,13 @@
     <t xml:space="preserve">1.3879200220108</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36494112014771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.22706830501556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.30519640445709</t>
+    <t xml:space="preserve">1.36494123935699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22706842422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3051962852478</t>
   </si>
   <si>
     <t xml:space="preserve">1.28221750259399</t>
@@ -1463,16 +1463,16 @@
     <t xml:space="preserve">1.33736670017242</t>
   </si>
   <si>
-    <t xml:space="preserve">1.24085569381714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31438767910004</t>
+    <t xml:space="preserve">1.24085557460785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.31438779830933</t>
   </si>
   <si>
     <t xml:space="preserve">1.32357943058014</t>
   </si>
   <si>
-    <t xml:space="preserve">1.34655833244324</t>
+    <t xml:space="preserve">1.34655821323395</t>
   </si>
   <si>
     <t xml:space="preserve">1.34196245670319</t>
@@ -1481,7 +1481,7 @@
     <t xml:space="preserve">1.41089880466461</t>
   </si>
   <si>
-    <t xml:space="preserve">1.40630304813385</t>
+    <t xml:space="preserve">1.40630316734314</t>
   </si>
   <si>
     <t xml:space="preserve">1.39711153507233</t>
@@ -1490,25 +1490,25 @@
     <t xml:space="preserve">1.40170729160309</t>
   </si>
   <si>
-    <t xml:space="preserve">1.44766485691071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.49362254142761</t>
+    <t xml:space="preserve">1.44766497612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.49362242221832</t>
   </si>
   <si>
     <t xml:space="preserve">1.49821829795837</t>
   </si>
   <si>
-    <t xml:space="preserve">1.48902678489685</t>
+    <t xml:space="preserve">1.48902666568756</t>
   </si>
   <si>
     <t xml:space="preserve">1.47983527183533</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46145236492157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5074098110199</t>
+    <t xml:space="preserve">1.46145212650299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50740993022919</t>
   </si>
   <si>
     <t xml:space="preserve">1.43387758731842</t>
@@ -1520,55 +1520,55 @@
     <t xml:space="preserve">1.45685648918152</t>
   </si>
   <si>
-    <t xml:space="preserve">1.4246860742569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.42928183078766</t>
+    <t xml:space="preserve">1.42468595504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.42928171157837</t>
   </si>
   <si>
     <t xml:space="preserve">1.37872850894928</t>
   </si>
   <si>
-    <t xml:space="preserve">1.39251577854156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33277094364166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.36953699588776</t>
+    <t xml:space="preserve">1.39251565933228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33277106285095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.36953711509705</t>
   </si>
   <si>
     <t xml:space="preserve">1.37413275241852</t>
   </si>
   <si>
-    <t xml:space="preserve">1.35574972629547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.41549468040466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.351154088974</t>
+    <t xml:space="preserve">1.35574960708618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.41549456119537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35115396976471</t>
   </si>
   <si>
     <t xml:space="preserve">1.36034548282623</t>
   </si>
   <si>
-    <t xml:space="preserve">1.3189834356308</t>
+    <t xml:space="preserve">1.31898355484009</t>
   </si>
   <si>
     <t xml:space="preserve">1.45226061344147</t>
   </si>
   <si>
-    <t xml:space="preserve">1.43847358226776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.50281393527985</t>
+    <t xml:space="preserve">1.43847346305847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50281405448914</t>
   </si>
   <si>
     <t xml:space="preserve">1.42009031772614</t>
   </si>
   <si>
-    <t xml:space="preserve">1.46604812145233</t>
+    <t xml:space="preserve">1.46604788303375</t>
   </si>
   <si>
     <t xml:space="preserve">1.3281751871109</t>
@@ -1592,7 +1592,7 @@
     <t xml:space="preserve">1.52579283714294</t>
   </si>
   <si>
-    <t xml:space="preserve">1.53958010673523</t>
+    <t xml:space="preserve">1.53958022594452</t>
   </si>
   <si>
     <t xml:space="preserve">1.54877161979675</t>
@@ -1601,10 +1601,10 @@
     <t xml:space="preserve">1.5763463973999</t>
   </si>
   <si>
-    <t xml:space="preserve">1.54417586326599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55796325206757</t>
+    <t xml:space="preserve">1.54417598247528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.55796337127686</t>
   </si>
   <si>
     <t xml:space="preserve">1.53038859367371</t>
@@ -1613,7 +1613,7 @@
     <t xml:space="preserve">1.56715476512909</t>
   </si>
   <si>
-    <t xml:space="preserve">1.77396392822266</t>
+    <t xml:space="preserve">1.77396404743195</t>
   </si>
   <si>
     <t xml:space="preserve">1.81992173194885</t>
@@ -1622,7 +1622,7 @@
     <t xml:space="preserve">1.79234707355499</t>
   </si>
   <si>
-    <t xml:space="preserve">1.87507081031799</t>
+    <t xml:space="preserve">1.8750706911087</t>
   </si>
   <si>
     <t xml:space="preserve">1.93021976947784</t>
@@ -1643,34 +1643,34 @@
     <t xml:space="preserve">1.78775131702423</t>
   </si>
   <si>
-    <t xml:space="preserve">1.82451748847961</t>
+    <t xml:space="preserve">1.82451736927032</t>
   </si>
   <si>
     <t xml:space="preserve">1.77855968475342</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78315556049347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.80153846740723</t>
+    <t xml:space="preserve">1.78315567970276</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.80153870582581</t>
   </si>
   <si>
     <t xml:space="preserve">1.84749615192413</t>
   </si>
   <si>
-    <t xml:space="preserve">1.76936829090118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.79694283008575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.83370888233185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.86587929725647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90264534950256</t>
+    <t xml:space="preserve">1.76936817169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.79694294929504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.83370900154114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.86587917804718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.90264511108398</t>
   </si>
   <si>
     <t xml:space="preserve">1.92102825641632</t>
@@ -1679,22 +1679,22 @@
     <t xml:space="preserve">1.85668766498566</t>
   </si>
   <si>
-    <t xml:space="preserve">1.81073021888733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.09566760063171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.08647584915161</t>
+    <t xml:space="preserve">1.81073009967804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.09566736221313</t>
+  </si>
+  <si>